--- a/Source/datasets/dataset abstractive/data_abs_cleaned.xlsx
+++ b/Source/datasets/dataset abstractive/data_abs_cleaned.xlsx
@@ -508,12 +508,21 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Hội đua ghe ngo là lễ hội lớn, rất vui. Ghe ngo làm bằng gỗ, dài, sơn màu sặc sỡ. Mỗi ghe chở hai mươi đến bốn mươi người chèo. Các tay chèo cùng nhau đẩy ghe lướt nhanh. Tiếng trống, tiếng reo hò làm náo nhiệt cả sông.</t>
+          <t>Chào các em học sinh thân mến! Hôm nay, chúng ta cùng tìm hiểu về một lễ hội rất đặc biệt và sôi động nhé!
+Hội đua ghe ngo là lễ hội lớn, rất vui.
+Ghe ngo làm bằng gỗ, dài, sơn màu sặc sỡ.
+Mỗi ghe chở hai mươi đến bốn mươi người chèo.
+Các tay chèo cùng nhau đẩy ghe lướt nhanh.
+Tiếng trống, tiếng reo hò làm náo nhiệt cả sông.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Ghe ngo làm bằng gỗ, dài, sơn màu sặc sỡ. Mỗi ghe chở hai mươi đến bốn mươi người chèo. Các tay chèo cùng nhau đẩy ghe lướt nhanh. Tiếng trống, tiếng reo hò làm náo nhiệt cả sông.</t>
+          <t>Hội đua ghe ngo là lễ hội lớn, rất vui.
+Ghe ngo làm bằng gỗ, dài, sơn màu sặc sỡ.
+Mỗi ghe chở hai mươi đến bốn mươi người chèo.
+Các tay chèo cùng nhau đẩy ghe lướt nhanh.
+Tiếng trống, tiếng reo hò làm náo nhiệt cả sông.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -558,12 +567,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>*   Ta nhớ cảnh rừng xanh, hoa đỏ tươi, con người chăm chỉ. *   Ta nhớ người đan nón, cô gái hái măng giữa rừng. *   Khi giặc đến, rừng núi che chở bộ đội ta an toàn. *   Rừng vây quân thù, giúp ta cùng đánh giặc thắng lợi.</t>
+          <t>Chào các bạn học sinh yêu quý!
+Bài thơ này kể về những điều một người rất yêu thương và nhớ về quê hương mình đó.
+*   Ta nhớ cảnh rừng xanh, hoa đỏ tươi, con người chăm chỉ.
+*   Ta nhớ người đan nón, cô gái hái măng giữa rừng.
+*   Khi giặc đến, rừng núi che chở bộ đội ta an toàn.
+*   Rừng vây quân thù, giúp ta cùng đánh giặc thắng lợi.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>*   Khi giặc đến, rừng núi che chở bộ đội ta an toàn.
+          <t>*   Ta nhớ cảnh rừng xanh, hoa đỏ tươi, con người chăm chỉ.
+*   Ta nhớ người đan nón, cô gái hái măng giữa rừng.
+*   Khi giặc đến, rừng núi che chở bộ đội ta an toàn.
 *   Rừng vây quân thù, giúp ta cùng đánh giặc thắng lợi.</t>
         </is>
       </c>
@@ -611,7 +627,8 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Các chú bộ đội dũng cảm canh giữ biển đảo xa xôi của Tổ quốc. Dù nắng mưa bão tố, các chú vẫn hiên ngang vững vàng không ngại khó. Tàu thuyền qua lại kéo còi chào, thể hiện sự ngưỡng mộ dành cho chú. Chúng em mong lớn lên sẽ giống chú, bảo vệ biển đảo quê hương.</t>
+          <t>Chào các bạn học sinh tiểu học! Hôm nay, cô sẽ kể cho chúng mình nghe về những người lính biển đảo nhé.
+Các chú bộ đội dũng cảm canh giữ biển đảo xa xôi của Tổ quốc. Dù nắng mưa bão tố, các chú vẫn hiên ngang vững vàng không ngại khó. Tàu thuyền qua lại kéo còi chào, thể hiện sự ngưỡng mộ dành cho chú. Chúng em mong lớn lên sẽ giống chú, bảo vệ biển đảo quê hương.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -654,7 +671,8 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Phạm Ngũ Lão là một vị tướng giỏi, rất yêu nước thời nhà Trần. Một hôm, ông mải suy nghĩ việc nước, không để ý gì xung quanh. Đoàn quân đi qua đã vô tình đâm trúng đùi ông. Ông không hay biết vì mải học, khiến Hưng Đạo Vương khâm phục. Sau này, ông đã trở thành vị tướng tài ba, lập nhiều chiến công lớn.</t>
+          <t>Chào các em học sinh! Hôm nay chúng ta cùng tìm hiểu về một vị tướng rất giỏi giang của nước mình nhé!
+Phạm Ngũ Lão là một vị tướng giỏi, rất yêu nước thời nhà Trần. Một hôm, ông mải suy nghĩ việc nước, không để ý gì xung quanh. Đoàn quân đi qua đã vô tình đâm trúng đùi ông. Ông không hay biết vì mải học, khiến Hưng Đạo Vương khâm phục. Sau này, ông đã trở thành vị tướng tài ba, lập nhiều chiến công lớn.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -697,12 +715,13 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>Chào các bạn nhỏ lớp 3, lớp 4! Hôm nay chúng ta cùng tìm hiểu về Hai Bà Trưng nhé.
+Ngày xưa, nước ta bị giặc dữ đô hộ, dân lành phải chịu nhiều khổ cực. Hai Bà Trưng nuôi chí lớn, quyết tâm giành lại non sông. Chồng bà Trưng Trắc bị giết, các bà liền đứng lên khởi nghĩa. Đoàn quân mạnh mẽ đánh đuổi giặc, giành lại độc lập nước nhà. Hai Bà Trưng là nữ anh hùng đầu tiên của dân tộc ta.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Ngày xưa, nước ta bị giặc dữ đô hộ, dân lành phải chịu nhiều khổ cực. Hai Bà Trưng nuôi chí lớn, quyết tâm giành lại non sông. Chồng bà Trưng Trắc bị giết, các bà liền đứng lên khởi nghĩa. Đoàn quân mạnh mẽ đánh đuổi giặc, giành lại độc lập nước nhà. Hai Bà Trưng là nữ anh hùng đầu tiên của dân tộc ta.</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Hai Bà Trưng nuôi chí lớn, quyết tâm giành lại non sông. Chồng bà Trưng Trắc bị giết, các bà liền đứng lên khởi nghĩa. Đoàn quân mạnh mẽ đánh đuổi giặc, giành lại độc lập nước nhà. Hai Bà Trưng là nữ anh hùng đầu tiên của dân tộc ta.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -743,12 +762,21 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Họ đã dũng cảm phát hiện và tấn công máy bay địch. Lương lao xuống, bắn trúng khiến máy bay địch bốc cháy. Các phi công địch sau đó phải nhanh chóng nhảy dù. Cuộc chiến đấu kết thúc, hai anh hùng đã chiến thắng.</t>
+          <t>Chào các em, cô có một câu chuyện về hai người phi công rất dũng cảm muốn kể đây!
+Hai phi công Lương và Sáu bay trên bầu trời xanh.
+Họ đã dũng cảm phát hiện và tấn công máy bay địch.
+Lương lao xuống, bắn trúng khiến máy bay địch bốc cháy.
+Các phi công địch sau đó phải nhanh chóng nhảy dù.
+Cuộc chiến đấu kết thúc, hai anh hùng đã chiến thắng.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Họ đã dũng cảm phát hiện và tấn công máy bay địch. Lương lao xuống, bắn trúng khiến máy bay địch bốc cháy. Các phi công địch sau đó phải nhanh chóng nhảy dù. Cuộc chiến đấu kết thúc, hai anh hùng đã chiến thắng.</t>
+          <t>Hai phi công Lương và Sáu bay trên bầu trời xanh.
+Họ đã dũng cảm phát hiện và tấn công máy bay địch.
+Lương lao xuống, bắn trúng khiến máy bay địch bốc cháy.
+Các phi công địch sau đó phải nhanh chóng nhảy dù.
+Cuộc chiến đấu kết thúc, hai anh hùng đã chiến thắng.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -797,7 +825,8 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Vị chỉ huy nói với các em nhỏ về thời chiến gian khổ. Ông hỏi liệu các em có muốn về với gia đình không. Nhưng tất cả các em đều muốn ở lại, không sợ khó khăn. Tinh thần dũng cảm và tiếng hát làm chỉ huy rất xúc động. Lòng ông tràn đầy ấm áp, tự hào về đội quân nhỏ.</t>
+          <t>Chào các em nhỏ! Hôm nay chúng ta sẽ nghe một câu chuyện về lòng dũng cảm nhé.
+Vị chỉ huy nói với các em nhỏ về thời chiến gian khổ. Ông hỏi liệu các em có muốn về với gia đình không. Nhưng tất cả các em đều muốn ở lại, không sợ khó khăn. Tinh thần dũng cảm và tiếng hát làm chỉ huy rất xúc động. Lòng ông tràn đầy ấm áp, tự hào về đội quân nhỏ.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -859,7 +888,8 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Bài thơ kể về nhiều mái nhà khác nhau cho muôn loài. Chim có mái nhà là lá xanh, cá bơi lội dưới làn sóng. Dù vậy, chúng ta đều có một mái nhà chung rộng lớn. Đó chính là bầu trời xanh biếc cùng cầu vồng rực rỡ. Chúng ta hãy cùng nhau yêu thương, bảo vệ mái nhà này nhé.</t>
+          <t>Chào các em học sinh yêu quý! Hôm nay, cô sẽ tóm tắt bài thơ "Mái nhà của chim" thật dễ hiểu nhé.
+Bài thơ kể về nhiều mái nhà khác nhau cho muôn loài. Chim có mái nhà là lá xanh, cá bơi lội dưới làn sóng. Dù vậy, chúng ta đều có một mái nhà chung rộng lớn. Đó chính là bầu trời xanh biếc cùng cầu vồng rực rỡ. Chúng ta hãy cùng nhau yêu thương, bảo vệ mái nhà này nhé.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -904,12 +934,21 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Nhưng ông Biển đang yếu dần vì rác thải tràn ngập biển. Ông Biển buồn bã tìm kiếm người giúp đỡ khắp nơi. May mắn thay, các bạn nhỏ đang chăm chỉ nhặt rác trên bãi biển. Ông Biển mơ ước biển sẽ trong xanh, cá tôm vui vẻ trở lại.</t>
+          <t>Chào các em, đây là câu chuyện về Ông Biển đáng yêu nhé!
+Ông Biển rất già, luôn mang lại gió mát, hải sản tươi ngon.
+Nhưng ông Biển đang yếu dần vì rác thải tràn ngập biển.
+Ông Biển buồn bã tìm kiếm người giúp đỡ khắp nơi.
+May mắn thay, các bạn nhỏ đang chăm chỉ nhặt rác trên bãi biển.
+Ông Biển mơ ước biển sẽ trong xanh, cá tôm vui vẻ trở lại.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Nhưng ông Biển đang yếu dần vì rác thải tràn ngập biển. Ông Biển buồn bã tìm kiếm người giúp đỡ khắp nơi. May mắn thay, các bạn nhỏ đang chăm chỉ nhặt rác trên bãi biển. Ông Biển mơ ước biển sẽ trong xanh, cá tôm vui vẻ trở lại.</t>
+          <t>Ông Biển rất già, luôn mang lại gió mát, hải sản tươi ngon.
+Nhưng ông Biển đang yếu dần vì rác thải tràn ngập biển.
+Ông Biển buồn bã tìm kiếm người giúp đỡ khắp nơi.
+May mắn thay, các bạn nhỏ đang chăm chỉ nhặt rác trên bãi biển.
+Ông Biển mơ ước biển sẽ trong xanh, cá tôm vui vẻ trở lại.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -944,13 +983,13 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Chào các em học sinh lớp 3-4 thân mến! Cô có một câu chuyện thú vị muốn kể cho các em nghe đây. Hãy cùng cô khám phá nhé!
-Làng chài nhỏ gặp bão lớn, thuyền bè đều bị cuốn trôi. Ông Cố Đương muốn làm con đường đá vượt núi ngắn hơn. Ông làm việc miệt mài, nhiều người và cả vượn cùng giúp sức. Cuối cùng, con đường hoàn thành, giúp mọi người lên núi dễ dàng. Mọi người biết ơn ông, đặt tên đường là Truông Ghép.</t>
+          <t>Chào các em, cùng nghe câu chuyện về con đường Truông Ghép nhé!
+Một trận bão lớn phá nát thuyền, dân làng sống rất khó khăn. Ông Cố Đương muốn xây con đường đá giúp mọi người lên núi. Ban đầu ông làm một mình, kiên trì dù việc rất nặng nhọc. Sau đó, nhiều người cùng ông hoàn thành con đường tuyệt vời này. Nhờ con đường mới, mọi người đi lại dễ dàng và nhớ ơn ông.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Làng chài nhỏ gặp bão lớn, thuyền bè đều bị cuốn trôi. Ông Cố Đương muốn làm con đường đá vượt núi ngắn hơn. Ông làm việc miệt mài, nhiều người và cả vượn cùng giúp sức. Cuối cùng, con đường hoàn thành, giúp mọi người lên núi dễ dàng. Mọi người biết ơn ông, đặt tên đường là Truông Ghép.</t>
+          <t>Một trận bão lớn phá nát thuyền, dân làng sống rất khó khăn. Ông Cố Đương muốn xây con đường đá giúp mọi người lên núi. Ban đầu ông làm một mình, kiên trì dù việc rất nặng nhọc. Sau đó, nhiều người cùng ông hoàn thành con đường tuyệt vời này. Nhờ con đường mới, mọi người đi lại dễ dàng và nhớ ơn ông.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -993,12 +1032,13 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>Chào các con! Hôm nay, cô sẽ tóm tắt bài thơ này cho chúng ta cùng nghe nhé!
+Chú đã bay nửa vòng Trái Đất đến thăm đất nước Cu-ba. Cu-ba là hòn đảo xinh đẹp với nắng vàng, biển xanh ngọc. Ở đó có rất nhiều mía, cam, xoài thật ngon ngọt. Chú rất yêu mến nơi này nhưng vẫn nhớ quê hương Việt Nam. Chú biết mình sẽ nhớ Cu-ba nhiều khi trở về nhà.</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Chú đã bay nửa vòng Trái Đất đến thăm đất nước Cu-ba. Cu-ba là hòn đảo xinh đẹp với nắng vàng, biển xanh ngọc. Ở đó có rất nhiều mía, cam, xoài thật ngon ngọt. Chú rất yêu mến nơi này nhưng vẫn nhớ quê hương Việt Nam. Chú biết mình sẽ nhớ Cu-ba nhiều khi trở về nhà.</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Cu-ba là hòn đảo xinh đẹp với nắng vàng, biển xanh ngọc. Ở đó có rất nhiều mía, cam, xoài thật ngon ngọt. Chú rất yêu mến nơi này nhưng vẫn nhớ quê hương Việt Nam. Chú biết mình sẽ nhớ Cu-ba nhiều khi trở về nhà.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -1032,7 +1072,8 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Chúng tôi đã đến thăm một trường tiểu học ở châu Âu. Thật bất ngờ, các bạn nhỏ tự giới thiệu bằng tiếng Việt. Các bạn còn hát, trưng bày đồ vật và Quốc kì Việt Nam. Cô giáo dạy các bạn vì cô rất yêu mến đất nước chúng ta. Những học sinh này rất tò mò về thiếu nhi Việt Nam.</t>
+          <t>Chào các em học sinh yêu quý! Hôm nay chúng ta sẽ cùng tóm tắt một câu chuyện rất thú vị nhé.
+Chúng tôi đã đến thăm một trường tiểu học ở châu Âu. Thật bất ngờ, các bạn nhỏ tự giới thiệu bằng tiếng Việt. Các bạn còn hát, trưng bày đồ vật và Quốc kì Việt Nam. Cô giáo dạy các bạn vì cô rất yêu mến đất nước chúng ta. Những học sinh này rất tò mò về thiếu nhi Việt Nam.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1073,7 +1114,8 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Đó chính là Ăng-co, một quần thể đền đá cổ kính và rất đẹp. Đền Ăng-co Vát có năm tòa tháp lớn cùng nhiều điêu khắc tinh xảo. Một đền khác là Bay-on với hàng trăm tượng đá có bốn mặt. Ăng-co thật sự là niềm tự hào to lớn của đất nước Cam-pu-chia.</t>
+          <t>Chào các bạn nhỏ lớp 3, lớp 4!
+Các bạn có biết không, ở đất nước Cam-pu-chia có một khu đền đá rất nổi tiếng. Đó chính là Ăng-co, một quần thể đền đá cổ kính và rất đẹp. Đền Ăng-co Vát có năm tòa tháp lớn cùng nhiều điêu khắc tinh xảo. Một đền khác là Bay-on với hàng trăm tượng đá có bốn mặt. Ăng-co thật sự là niềm tự hào to lớn của đất nước Cam-pu-chia.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1115,12 +1157,13 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Luôn dùng tay phải khi đưa nhận đồ, tay trái thì không sạch đâu nhé. Đừng xoa đầu ai cả, vì đó là điều không lịch sự. Khi muốn chỉ, hãy dùng ngón cái thay vì ngón trỏ nhé các bạn. Chúng ta cũng chỉ ăn uống ở nơi riêng biệt, không phải ở ngoài đường phố.</t>
+          <t>Chào các em học sinh yêu quý!
+Khi đến thăm đất nước Bru-nây xinh đẹp, chúng ta cần nhớ một vài điều lịch sự. Luôn dùng tay phải khi đưa nhận đồ, tay trái thì không sạch đâu nhé. Đừng xoa đầu ai cả, vì đó là điều không lịch sự. Khi muốn chỉ, hãy dùng ngón cái thay vì ngón trỏ nhé các bạn. Chúng ta cũng chỉ ăn uống ở nơi riêng biệt, không phải ở ngoài đường phố.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Luôn dùng tay phải khi đưa nhận đồ, tay trái thì không sạch đâu nhé. Đừng xoa đầu ai cả, vì đó là điều không lịch sự. Khi muốn chỉ, hãy dùng ngón cái thay vì ngón trỏ nhé các bạn. Chúng ta cũng chỉ ăn uống ở nơi riêng biệt, không phải ở ngoài đường phố.</t>
+          <t>Khi đến thăm đất nước Bru-nây xinh đẹp, chúng ta cần nhớ một vài điều lịch sự. Luôn dùng tay phải khi đưa nhận đồ, tay trái thì không sạch đâu nhé. Đừng xoa đầu ai cả, vì đó là điều không lịch sự. Khi muốn chỉ, hãy dùng ngón cái thay vì ngón trỏ nhé các bạn. Chúng ta cũng chỉ ăn uống ở nơi riêng biệt, không phải ở ngoài đường phố.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -1160,12 +1203,21 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Bà ấy muốn biết vì sao ông sống ở nơi xa quê hương. Bác sĩ Y-éc-xanh nói ông luôn là người Pháp. Nhưng ông tin Trái Đất là ngôi nhà lớn của tất cả. Mọi người nên yêu thương và cùng nhau giúp đỡ.</t>
+          <t>Chào các em học sinh thân yêu! Hôm nay, cô sẽ tóm tắt một câu chuyện thú vị nhé:
+Một bà khách đã đến thăm bác sĩ Y-éc-xanh rất nổi tiếng.
+Bà ấy muốn biết vì sao ông sống ở nơi xa quê hương.
+Bác sĩ Y-éc-xanh nói ông luôn là người Pháp.
+Nhưng ông tin Trái Đất là ngôi nhà lớn của tất cả.
+Mọi người nên yêu thương và cùng nhau giúp đỡ.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Bà ấy muốn biết vì sao ông sống ở nơi xa quê hương. Bác sĩ Y-éc-xanh nói ông luôn là người Pháp. Nhưng ông tin Trái Đất là ngôi nhà lớn của tất cả. Mọi người nên yêu thương và cùng nhau giúp đỡ.</t>
+          <t>Một bà khách đã đến thăm bác sĩ Y-éc-xanh rất nổi tiếng.
+Bà ấy muốn biết vì sao ông sống ở nơi xa quê hương.
+Bác sĩ Y-éc-xanh nói ông luôn là người Pháp.
+Nhưng ông tin Trái Đất là ngôi nhà lớn của tất cả.
+Mọi người nên yêu thương và cùng nhau giúp đỡ.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1199,12 +1251,13 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Ông dành 17 năm phục hồi Hội An, Mỹ Sơn và Huế. Ông làm việc rất chăm chỉ, sống giản dị cùng người dân. Nhờ ông, các di tích này được thế giới công nhận. Mọi người luôn nhớ ơn người kiến trúc sư tuyệt vời này.</t>
+          <t>Chào các con, hôm nay chúng ta sẽ cùng tìm hiểu về một người rất đặc biệt nhé!
+Ông Ka-dích từ Ba Lan đã giúp sửa chữa nhiều công trình cổ. Ông dành 17 năm phục hồi Hội An, Mỹ Sơn và Huế. Ông làm việc rất chăm chỉ, sống giản dị cùng người dân. Nhờ ông, các di tích này được thế giới công nhận. Mọi người luôn nhớ ơn người kiến trúc sư tuyệt vời này.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Ông dành 17 năm phục hồi Hội An, Mỹ Sơn và Huế. Ông làm việc rất chăm chỉ, sống giản dị cùng người dân. Nhờ ông, các di tích này được thế giới công nhận. Mọi người luôn nhớ ơn người kiến trúc sư tuyệt vời này.</t>
+          <t>Ông Ka-dích từ Ba Lan đã giúp sửa chữa nhiều công trình cổ. Ông dành 17 năm phục hồi Hội An, Mỹ Sơn và Huế. Ông làm việc rất chăm chỉ, sống giản dị cùng người dân. Nhờ ông, các di tích này được thế giới công nhận. Mọi người luôn nhớ ơn người kiến trúc sư tuyệt vời này.</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -1256,12 +1309,14 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Có bạn thích làm người dẫn đầu, có bạn lại hay mơ mộng. Đôi khi chúng ta tự hỏi liệu sự khác nhau có làm mình xa cách. Nhưng hãy nghĩ đến vườn hoa, mỗi bông hoa một màu sắc thật đẹp. Cũng giống như vậy, khi kết hợp mọi điều độc đáo, chúng ta tạo nên điều tuyệt vời!</t>
+          <t>Chào các bạn nhỏ thân yêu,
+Chúng ta hãy cùng nhau tóm tắt bài thơ này nhé!
+Mỗi người chúng ta đều thật khác biệt và đáng yêu. Có bạn thích làm người dẫn đầu, có bạn lại hay mơ mộng. Đôi khi chúng ta tự hỏi liệu sự khác nhau có làm mình xa cách. Nhưng hãy nghĩ đến vườn hoa, mỗi bông hoa một màu sắc thật đẹp. Cũng giống như vậy, khi kết hợp mọi điều độc đáo, chúng ta tạo nên điều tuyệt vời!</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Nhưng hãy nghĩ đến vườn hoa, mỗi bông hoa một màu sắc thật đẹp. Cũng giống như vậy, khi kết hợp mọi điều độc đáo, chúng ta tạo nên điều tuyệt vời!</t>
+          <t>Mỗi người chúng ta đều thật khác biệt và đáng yêu. Có bạn thích làm người dẫn đầu, có bạn lại hay mơ mộng. Đôi khi chúng ta tự hỏi liệu sự khác nhau có làm mình xa cách. Nhưng hãy nghĩ đến vườn hoa, mỗi bông hoa một màu sắc thật đẹp. Cũng giống như vậy, khi kết hợp mọi điều độc đáo, chúng ta tạo nên điều tuyệt vời!</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1299,13 +1354,20 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>---
-Hôm nay các bạn học trò biểu diễn bài thi tốt nghiệp âm nhạc rất hay. Ve Sầu, Gà Trống, Dế Mèn lần lượt trình diễn những bản nhạc tuyệt vời. Mỗi bạn mang đến một phong cách độc đáo, đầy cảm xúc, sáng tạo. Thầy Vàng Anh rất xúc động và tự hào về sự thành công của cả lớp.</t>
+          <t>Chào các em học sinh yêu quý! Hôm nay chúng ta cùng nghe một câu chuyện thú vị về buổi biểu diễn đặc biệt nhé!
+---
+Hôm nay các bạn học trò biểu diễn bài thi tốt nghiệp âm nhạc rất hay.
+Ve Sầu, Gà Trống, Dế Mèn lần lượt trình diễn những bản nhạc tuyệt vời.
+Mỗi bạn mang đến một phong cách độc đáo, đầy cảm xúc, sáng tạo.
+Thầy Vàng Anh rất xúc động và tự hào về sự thành công của cả lớp.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Ve Sầu, Gà Trống, Dế Mèn lần lượt trình diễn những bản nhạc tuyệt vời. Mỗi bạn mang đến một phong cách độc đáo, đầy cảm xúc, sáng tạo. Thầy Vàng Anh rất xúc động và tự hào về sự thành công của cả lớp.</t>
+          <t>Hôm nay các bạn học trò biểu diễn bài thi tốt nghiệp âm nhạc rất hay.
+Ve Sầu, Gà Trống, Dế Mèn lần lượt trình diễn những bản nhạc tuyệt vời.
+Mỗi bạn mang đến một phong cách độc đáo, đầy cảm xúc, sáng tạo.
+Thầy Vàng Anh rất xúc động và tự hào về sự thành công của cả lớp.</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1350,12 +1412,13 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Cậu cố gắng thay đổi để trông thật khác anh mình. Trong hội thao, Long ngạc nhiên khi các bạn nhận ra rõ. Bạn bè giải thích mỗi người có tính cách rất riêng. Long vui vẻ nhận ra mỗi người đều rất đặc biệt.</t>
+          <t>Chào các em, đây là câu chuyện về hai anh em sinh đôi Long và Khánh nhé!
+Long, một cậu bé sinh đôi, từng buồn vì luôn bị nhầm. Cậu cố gắng thay đổi để trông thật khác anh mình. Trong hội thao, Long ngạc nhiên khi các bạn nhận ra rõ. Bạn bè giải thích mỗi người có tính cách rất riêng. Long vui vẻ nhận ra mỗi người đều rất đặc biệt.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Cậu cố gắng thay đổi để trông thật khác anh mình. Trong hội thao, Long ngạc nhiên khi các bạn nhận ra rõ. Bạn bè giải thích mỗi người có tính cách rất riêng. Long vui vẻ nhận ra mỗi người đều rất đặc biệt.</t>
+          <t>Long, một cậu bé sinh đôi, từng buồn vì luôn bị nhầm. Cậu cố gắng thay đổi để trông thật khác anh mình. Trong hội thao, Long ngạc nhiên khi các bạn nhận ra rõ. Bạn bè giải thích mỗi người có tính cách rất riêng. Long vui vẻ nhận ra mỗi người đều rất đặc biệt.</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1399,12 +1462,21 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Giét-xi vô cùng vui khi được chọn làm công chúa. Nhưng Giét-xi lại quên hết lời thoại lúc diễn thử. Cô giáo đổi vai người dẫn chuyện, Giét-xi đã rất buồn. Mẹ an ủi Giét-xi, nói mỗi người có vẻ đẹp riêng. Giọng con rất hợp vai dẫn chuyện, vai đó cũng quan trọng.</t>
+          <t>Chào các em học sinh lớp 3-4! Cô sẽ tóm tắt câu chuyện của Giét-xi nhé.
+Giét-xi vô cùng vui khi được chọn làm công chúa.
+Nhưng Giét-xi lại quên hết lời thoại lúc diễn thử.
+Cô giáo đổi vai người dẫn chuyện, Giét-xi đã rất buồn.
+Mẹ an ủi Giét-xi, nói mỗi người có vẻ đẹp riêng.
+Giọng con rất hợp vai dẫn chuyện, vai đó cũng quan trọng.</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Giét-xi vô cùng vui khi được chọn làm công chúa. Nhưng Giét-xi lại quên hết lời thoại lúc diễn thử. Cô giáo đổi vai người dẫn chuyện, Giét-xi đã rất buồn. Mẹ an ủi Giét-xi, nói mỗi người có vẻ đẹp riêng. Giọng con rất hợp vai dẫn chuyện, vai đó cũng quan trọng.</t>
+          <t>Giét-xi vô cùng vui khi được chọn làm công chúa.
+Nhưng Giét-xi lại quên hết lời thoại lúc diễn thử.
+Cô giáo đổi vai người dẫn chuyện, Giét-xi đã rất buồn.
+Mẹ an ủi Giét-xi, nói mỗi người có vẻ đẹp riêng.
+Giọng con rất hợp vai dẫn chuyện, vai đó cũng quan trọng.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1447,12 +1519,21 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Các bạn cùng nghe nhé! Thằn lằn xanh gặp Tắc kè, hai bạn nhanh chóng thân thiết. Họ cùng quyết định thử đổi cuộc sống của mình. Thằn lằn không bám được tường; Tắc kè sợ nắng nóng. Cả hai nhận ra cuộc sống riêng phù hợp với mình. Vậy là họ trở lại, sống vui vẻ và vẫn là bạn tốt.</t>
+          <t>Chào các bạn nhỏ lớp 3-4! Cô có một câu chuyện ngắn về hai người bạn. Các bạn cùng nghe nhé!
+Thằn lằn xanh gặp Tắc kè, hai bạn nhanh chóng thân thiết.
+Họ cùng quyết định thử đổi cuộc sống của mình.
+Thằn lằn không bám được tường; Tắc kè sợ nắng nóng.
+Cả hai nhận ra cuộc sống riêng phù hợp với mình.
+Vậy là họ trở lại, sống vui vẻ và vẫn là bạn tốt.</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Thằn lằn xanh gặp Tắc kè, hai bạn nhanh chóng thân thiết. Họ cùng quyết định thử đổi cuộc sống của mình. Thằn lằn không bám được tường; Tắc kè sợ nắng nóng. Cả hai nhận ra cuộc sống riêng phù hợp với mình. Vậy là họ trở lại, sống vui vẻ và vẫn là bạn tốt.</t>
+          <t>Thằn lằn xanh gặp Tắc kè, hai bạn nhanh chóng thân thiết.
+Họ cùng quyết định thử đổi cuộc sống của mình.
+Thằn lằn không bám được tường; Tắc kè sợ nắng nóng.
+Cả hai nhận ra cuộc sống riêng phù hợp với mình.
+Vậy là họ trở lại, sống vui vẻ và vẫn là bạn tốt.</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1493,21 +1574,13 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Chào các em học sinh thân mến! Cô có một câu chuyện về bạn Mi-lô rất hay muốn kể cho các em nghe đây.
-Mi-lô sống ở Cu-ba, cô bé mơ ước được chơi trống.
-Ở đó, người ta nghĩ chỉ con trai mới được chơi trống.
-Nhưng Mi-lô không bỏ cuộc, cô bé tập luyện rất chăm chỉ.
-Rồi Mi-lô được vào ban nhạc nữ của chị mình.
-Cuối cùng, Mi-lô đã trở thành nghệ sĩ trống nổi tiếng thế giới!</t>
+          <t>Chào các em học sinh lớp 3-4! Cô có một câu chuyện rất hay về một cô bé đặc biệt muốn chia sẻ đây.
+Mi-lô sống ở Cu-ba, cô bé rất yêu âm nhạc và trống. Mọi người nói chỉ con trai được chơi, nhưng Mi-lô không từ bỏ. Cô bé lắng nghe mọi âm thanh và chăm chỉ học chơi trống. Khi 10 tuổi, Mi-lô tham gia ban nhạc nữ của chị gái. Nhờ sự cố gắng, Mi-lô trở thành nghệ sĩ trống nổi tiếng thế giới.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Mi-lô sống ở Cu-ba, cô bé mơ ước được chơi trống.
-Ở đó, người ta nghĩ chỉ con trai mới được chơi trống.
-Nhưng Mi-lô không bỏ cuộc, cô bé tập luyện rất chăm chỉ.
-Rồi Mi-lô được vào ban nhạc nữ của chị mình.
-Cuối cùng, Mi-lô đã trở thành nghệ sĩ trống nổi tiếng thế giới!</t>
+          <t>Mi-lô sống ở Cu-ba, cô bé rất yêu âm nhạc và trống. Mọi người nói chỉ con trai được chơi, nhưng Mi-lô không từ bỏ. Cô bé lắng nghe mọi âm thanh và chăm chỉ học chơi trống. Khi 10 tuổi, Mi-lô tham gia ban nhạc nữ của chị gái. Nhờ sự cố gắng, Mi-lô trở thành nghệ sĩ trống nổi tiếng thế giới.</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1547,12 +1620,13 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Các em ơi, câu chuyện kể về Cẩu Khây, một cậu bé rất khỏe. Cậu ấy muốn diệt trừ yêu tinh độc ác, đang làm hại dân làng. Cẩu Khây tìm được ba người bạn có những tài năng phi thường. Khi yêu tinh tạo ra trận lũ lớn, các bạn đã hợp sức giúp đỡ. Nhờ sự đoàn kết, họ đã đánh bại được yêu tinh gian ác. Từ đó, dân làng lại được sống yên bình và hạnh phúc.</t>
+          <t>Chào các em học sinh! Hôm nay chúng ta sẽ cùng đọc một câu chuyện thú vị về anh hùng Cẩu Khây nhé.
+Ngày xưa, cậu bé Cẩu Khây rất khỏe, muốn diệt trừ yêu tinh độc ác. Cậu bé Cẩu Khây đã gặp ba người bạn có tài năng đặc biệt. Bốn người bạn hợp sức cùng nhau chiến đấu với yêu tinh hung dữ. Mỗi người dùng tài năng riêng giúp sức, đánh bại yêu tinh gian ác. Cuối cùng, yêu tinh đã phải chịu thua, bản làng lại vui vẻ.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Câu chuyện kể về Cẩu Khây, một cậu bé rất khỏe. Cậu ấy muốn diệt trừ yêu tinh độc ác, đang làm hại dân làng. Cẩu Khây tìm được ba người bạn có những tài năng phi thường. Khi yêu tinh tạo ra trận lũ lớn, các bạn đã hợp sức giúp đỡ. Nhờ sự đoàn kết, họ đã đánh bại được yêu tinh gian ác. Từ đó, dân làng lại được sống yên bình và hạnh phúc.</t>
+          <t>Ngày xưa, cậu bé Cẩu Khây rất khỏe, muốn diệt trừ yêu tinh độc ác. Cậu bé Cẩu Khây đã gặp ba người bạn có tài năng đặc biệt. Bốn người bạn hợp sức cùng nhau chiến đấu với yêu tinh hung dữ. Mỗi người dùng tài năng riêng giúp sức, đánh bại yêu tinh gian ác. Cuối cùng, yêu tinh đã phải chịu thua, bản làng lại vui vẻ.</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1595,7 +1669,8 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Màu Nước vẽ những bức chân dung rất đẹp và giống thật. Bạn Hoa Nhỏ muốn Màu Nước vẽ mắt to, miệng nhỏ hơn. Các bạn khác cũng thích, muốn được vẽ giống hệt cô ấy. Màu Nước nói mỗi người đều có vẻ đẹp riêng của mình. Sau đó, các bạn hiểu vẻ đẹp độc đáo là điều quý nhất.</t>
+          <t>Chào các bạn học sinh yêu quý! Hôm nay, chúng ta cùng đọc câu chuyện về vẻ đẹp nhé!
+Màu Nước vẽ những bức chân dung rất đẹp và giống thật. Bạn Hoa Nhỏ muốn Màu Nước vẽ mắt to, miệng nhỏ hơn. Các bạn khác cũng thích, muốn được vẽ giống hệt cô ấy. Màu Nước nói mỗi người đều có vẻ đẹp riêng của mình. Sau đó, các bạn hiểu vẻ đẹp độc đáo là điều quý nhất.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1643,12 +1718,13 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Nhiều bạn gái đến, ai cũng muốn mắt to, mi dài. Màu Nước khuyên mỗi bạn đẹp theo cách riêng của mình. Tuy nhiên, các bức tranh giống nhau khiến mọi người khó nhận ra. Cuối cùng, các bạn hiểu vẻ đẹp riêng biệt mới là đẹp thật.</t>
+          <t>Chào các bạn học sinh lớp 3-4 thân mến! Cùng nghe tóm tắt câu chuyện này nhé:
+Họa sĩ Màu Nước rất tài năng, cậu vẽ chân dung đẹp lắm. Nhiều bạn gái đến, ai cũng muốn mắt to, mi dài. Màu Nước khuyên mỗi bạn đẹp theo cách riêng của mình. Tuy nhiên, các bức tranh giống nhau khiến mọi người khó nhận ra. Cuối cùng, các bạn hiểu vẻ đẹp riêng biệt mới là đẹp thật.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Màu Nước khuyên mỗi bạn đẹp theo cách riêng của mình. Tuy nhiên, các bức tranh giống nhau khiến mọi người khó nhận ra. Cuối cùng, các bạn hiểu vẻ đẹp riêng biệt mới là đẹp thật.</t>
+          <t>Họa sĩ Màu Nước rất tài năng, cậu vẽ chân dung đẹp lắm. Nhiều bạn gái đến, ai cũng muốn mắt to, mi dài. Màu Nước khuyên mỗi bạn đẹp theo cách riêng của mình. Tuy nhiên, các bức tranh giống nhau khiến mọi người khó nhận ra. Cuối cùng, các bạn hiểu vẻ đẹp riêng biệt mới là đẹp thật.</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -1704,7 +1780,8 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Chú gà nhỏ sống yên trong quả trứng nâu, chưa biết thế giới. Rồi chú cố gắng đập vỡ "bầu trời nâu" ấy để ra. Bên ngoài, chú cảm nhận gió mát, nắng reo và tình mẹ. Gà con học tìm giun dế, ngắm bầu trời xanh thật đẹp.</t>
+          <t>Chào các bạn học sinh yêu quý! Hôm nay, cô sẽ kể cho chúng mình nghe câu chuyện về một chú gà con nhé!
+Chú gà nhỏ sống yên trong quả trứng nâu, chưa biết thế giới. Rồi chú cố gắng đập vỡ "bầu trời nâu" ấy để ra. Bên ngoài, chú cảm nhận gió mát, nắng reo và tình mẹ. Gà con học tìm giun dế, ngắm bầu trời xanh thật đẹp.</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1749,12 +1826,21 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Sau vài trận mưa, hoa hồng nở rộ, trắng muốt như tuyết. Cây huệ cũng đẹp rực rỡ, lộng lẫy như một nàng tiên. Hai cây thầm thì, cảm ơn bạn đã giúp mình tươi tắn.</t>
+          <t>Tóm tắt:
+Ta-nhi-a chuyển cây hoa hồng nhỏ đến chỗ cửa sổ.
+Cô bé còn trồng thêm cây huệ xinh xắn cạnh hoa hồng.
+Sau vài trận mưa, hoa hồng nở rộ, trắng muốt như tuyết.
+Cây huệ cũng đẹp rực rỡ, lộng lẫy như một nàng tiên.
+Hai cây thầm thì, cảm ơn bạn đã giúp mình tươi tắn.</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Sau vài trận mưa, hoa hồng nở rộ, trắng muốt như tuyết. Cây huệ cũng đẹp rực rỡ, lộng lẫy như một nàng tiên. Hai cây thầm thì, cảm ơn bạn đã giúp mình tươi tắn.</t>
+          <t>Ta-nhi-a chuyển cây hoa hồng nhỏ đến chỗ cửa sổ.
+Cô bé còn trồng thêm cây huệ xinh xắn cạnh hoa hồng.
+Sau vài trận mưa, hoa hồng nở rộ, trắng muốt như tuyết.
+Cây huệ cũng đẹp rực rỡ, lộng lẫy như một nàng tiên.
+Hai cây thầm thì, cảm ơn bạn đã giúp mình tươi tắn.</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -1788,12 +1874,21 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Maria là cô bé thích quan sát, tìm hiểu mọi thứ. Lúc nhỏ, cô thấy tách trà trượt rồi bỗng dừng lại. Maria liền tự mình thí nghiệm và tìm ra bí mật: nước. Cha cô rất vui mừng và tin cô sẽ giỏi giang. Lớn lên, Maria trở thành giáo sư nổi tiếng, đoạt giải Nobel.</t>
+          <t>Chào các em học sinh lớp 3-4 thân mến! Hôm nay chúng ta sẽ cùng tìm hiểu về cô bé Maria rất giỏi giang nhé!
+Maria là cô bé thích quan sát, tìm hiểu mọi thứ.
+Lúc nhỏ, cô thấy tách trà trượt rồi bỗng dừng lại.
+Maria liền tự mình thí nghiệm và tìm ra bí mật: nước.
+Cha cô rất vui mừng và tin cô sẽ giỏi giang.
+Lớn lên, Maria trở thành giáo sư nổi tiếng, đoạt giải Nobel.</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Maria là cô bé thích quan sát, tìm hiểu mọi thứ. Lúc nhỏ, cô thấy tách trà trượt rồi bỗng dừng lại. Maria liền tự mình thí nghiệm và tìm ra bí mật: nước. Cha cô rất vui mừng và tin cô sẽ giỏi giang. Lớn lên, Maria trở thành giáo sư nổi tiếng, đoạt giải Nobel.</t>
+          <t>Maria là cô bé thích quan sát, tìm hiểu mọi thứ.
+Lúc nhỏ, cô thấy tách trà trượt rồi bỗng dừng lại.
+Maria liền tự mình thí nghiệm và tìm ra bí mật: nước.
+Cha cô rất vui mừng và tin cô sẽ giỏi giang.
+Lớn lên, Maria trở thành giáo sư nổi tiếng, đoạt giải Nobel.</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -1848,13 +1943,15 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>Chào các bạn học sinh yêu quý! Hôm nay chúng ta sẽ cùng tìm hiểu về câu chuyện của bạn Tú và chú vẹt đáng yêu nhé!
+**Tóm tắt:**
+Một chú vẹt bị thương được Tú tận tình chăm sóc trong vườn nhà. Tú hay nói trống không với anh, khiến vẹt bắt chước theo lời. Khi nghe vẹt nói "Cái gì?", Tú giật mình nhận ra lỗi sai. Tú hối hận và muốn lễ phép hơn, nói "Dạ" thật to. Chú vẹt đáng yêu cũng học được cách "Dạ" rất ngoan ngoãn.</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>**Tóm tắt:**
 Một chú vẹt bị thương được Tú tận tình chăm sóc trong vườn nhà. Tú hay nói trống không với anh, khiến vẹt bắt chước theo lời. Khi nghe vẹt nói "Cái gì?", Tú giật mình nhận ra lỗi sai. Tú hối hận và muốn lễ phép hơn, nói "Dạ" thật to. Chú vẹt đáng yêu cũng học được cách "Dạ" rất ngoan ngoãn.</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Một chú vẹt bị thương được Tú tận tình chăm sóc trong vườn nhà. Tú hay nói trống không với anh, khiến vẹt bắt chước theo lời. Khi nghe vẹt nói "Cái gì?", Tú giật mình nhận ra lỗi sai. Tú hối hận và muốn lễ phép hơn, nói "Dạ" thật to. Chú vẹt đáng yêu cũng học được cách "Dạ" rất ngoan ngoãn.</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -1895,12 +1992,13 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>Chào các bạn nhỏ lớp 3, lớp 4! Hôm nay chúng ta cùng tìm hiểu câu chuyện về chú cún nhé!
+Chú cún nhỏ tên Cún rất tò mò về cuối dãy phố mình. Cún luôn bị người lớn giữ trong nhà vì đường lầy lội. Một hôm đẹp trời, Cún được ra ngoài, hăm hở chạy đi. Cún khám phá ra bến sông, làng mạc cùng nhiều điều mới lạ. Chú hiểu rằng thế giới rộng lớn, chờ mình lớn để khám phá!</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>Chú cún nhỏ tên Cún rất tò mò về cuối dãy phố mình. Cún luôn bị người lớn giữ trong nhà vì đường lầy lội. Một hôm đẹp trời, Cún được ra ngoài, hăm hở chạy đi. Cún khám phá ra bến sông, làng mạc cùng nhiều điều mới lạ. Chú hiểu rằng thế giới rộng lớn, chờ mình lớn để khám phá!</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Một hôm đẹp trời, Cún được ra ngoài, hăm hở chạy đi. Cún khám phá ra bến sông, làng mạc cùng nhiều điều mới lạ. Chú hiểu rằng thế giới rộng lớn, chờ mình lớn để khám phá!</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -1951,13 +2049,23 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Bài thơ kể về một em nhỏ rất chăm chỉ và kiên cường đấy! **Tóm tắt bài thơ:**
-Mỗi sáng sớm, em nhỏ thức dậy, vượt núi đi tìm cái chữ. Đường xa, cheo leo, em vẫn kiên trì băng rừng, qua suối. Em biết tri thức giúp mùa màng tươi tốt, chim ca hót vui. Dù mệt mỏi, chân vững vàng, em quyết tâm học thật giỏi. Đôi mắt em sáng ngời, gặt hái nhiều kiến thức quý giá.</t>
+          <t>Chào các em học sinh yêu quý! Hôm nay chúng ta cùng nhau khám phá một bài thơ rất hay nhé. Bài thơ kể về một em nhỏ rất chăm chỉ và kiên cường đấy!
+**Tóm tắt bài thơ:**
+Mỗi sáng sớm, em nhỏ thức dậy, vượt núi đi tìm cái chữ.
+Đường xa, cheo leo, em vẫn kiên trì băng rừng, qua suối.
+Em biết tri thức giúp mùa màng tươi tốt, chim ca hót vui.
+Dù mệt mỏi, chân vững vàng, em quyết tâm học thật giỏi.
+Đôi mắt em sáng ngời, gặt hái nhiều kiến thức quý giá.</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Mỗi sáng sớm, em nhỏ thức dậy, vượt núi đi tìm cái chữ. Đường xa, cheo leo, em vẫn kiên trì băng rừng, qua suối. Em biết tri thức giúp mùa màng tươi tốt, chim ca hót vui. Dù mệt mỏi, chân vững vàng, em quyết tâm học thật giỏi. Đôi mắt em sáng ngời, gặt hái nhiều kiến thức quý giá.</t>
+          <t>**Tóm tắt bài thơ:**
+Mỗi sáng sớm, em nhỏ thức dậy, vượt núi đi tìm cái chữ.
+Đường xa, cheo leo, em vẫn kiên trì băng rừng, qua suối.
+Em biết tri thức giúp mùa màng tươi tốt, chim ca hót vui.
+Dù mệt mỏi, chân vững vàng, em quyết tâm học thật giỏi.
+Đôi mắt em sáng ngời, gặt hái nhiều kiến thức quý giá.</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -1992,12 +2100,13 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>Chào các em học sinh thân mến! Hôm nay, cô sẽ kể cho các em nghe về một câu chuyện nhỏ nhé.
+Bố bảo em lên thành phố học, em không muốn chút nào. Em rất buồn vì phải xa bạn bè và làng quê yêu dấu. Chiều chia tay, thầy giáo cùng các bạn đến thăm em. Thầy an ủi rằng hè về, em sẽ lại được về quê. Dù vậy, em vẫn nức nở vì sắp rời xa nơi này.</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>Bố bảo em lên thành phố học, em không muốn chút nào. Em rất buồn vì phải xa bạn bè và làng quê yêu dấu. Chiều chia tay, thầy giáo cùng các bạn đến thăm em. Thầy an ủi rằng hè về, em sẽ lại được về quê. Dù vậy, em vẫn nức nở vì sắp rời xa nơi này.</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Chiều chia tay, thầy giáo cùng các bạn đến thăm em. Thầy an ủi rằng hè về, em sẽ lại được về quê. Dù vậy, em vẫn nức nở vì sắp rời xa nơi này.</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -2048,12 +2157,21 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Thế giới chúng ta tràn ngập những sắc màu tươi đẹp muôn nơi. Màu đỏ của hoa hồng, màu xanh lá cây mát lành. Nắng vàng ban mai, biển biếc chiều tà thật xinh. Đêm tối có sao, tóc mẹ trắng như sương mai. Mỗi màu sắc đều mang vẻ đẹp riêng, ý nghĩa khác.</t>
+          <t>Chào các em học sinh thân yêu! Hôm nay, cô sẽ tóm tắt bài thơ xinh đẹp về thế giới màu sắc nhé.
+Thế giới chúng ta tràn ngập những sắc màu tươi đẹp muôn nơi.
+Màu đỏ của hoa hồng, màu xanh lá cây mát lành.
+Nắng vàng ban mai, biển biếc chiều tà thật xinh.
+Đêm tối có sao, tóc mẹ trắng như sương mai.
+Mỗi màu sắc đều mang vẻ đẹp riêng, ý nghĩa khác.</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Màu đỏ của hoa hồng, màu xanh lá cây mát lành. Nắng vàng ban mai, biển biếc chiều tà thật xinh. Đêm tối có sao, tóc mẹ trắng như sương mai. Mỗi màu sắc đều mang vẻ đẹp riêng, ý nghĩa khác.</t>
+          <t>Thế giới chúng ta tràn ngập những sắc màu tươi đẹp muôn nơi.
+Màu đỏ của hoa hồng, màu xanh lá cây mát lành.
+Nắng vàng ban mai, biển biếc chiều tà thật xinh.
+Đêm tối có sao, tóc mẹ trắng như sương mai.
+Mỗi màu sắc đều mang vẻ đẹp riêng, ý nghĩa khác.</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -2091,7 +2209,8 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Bống là một cô bé nhỏ rất tài năng, yêu thích vẽ tranh. Cô bé vẽ mọi thứ rất giống thật, từ con mèo đến bố mẹ. Bác Lan nhận ra tài năng đặc biệt này của Bống ngay lập tức. Một họa sĩ nổi tiếng đã rất bất ngờ với các bức tranh. Ông khen Bống có trí tưởng tượng thật phong phú.</t>
+          <t>Chào các em học sinh thân mến! Hôm nay, cô sẽ kể cho các em nghe về bạn Bống nhé.
+Bống là một cô bé nhỏ rất tài năng, yêu thích vẽ tranh. Cô bé vẽ mọi thứ rất giống thật, từ con mèo đến bố mẹ. Bác Lan nhận ra tài năng đặc biệt này của Bống ngay lập tức. Một họa sĩ nổi tiếng đã rất bất ngờ với các bức tranh. Ông khen Bống có trí tưởng tượng thật phong phú.</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2132,7 +2251,9 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Cây khèn Mông có âm thanh tuyệt vời, làm say đắm lòng người. Khèn làm bằng gỗ và sáu ống trúc, tượng trưng tình anh em. Người Mông thường thổi khèn khi lên nương, vui đón xuân sang. Tiếng khèn vang vọng trên núi cao, biểu tượng sức sống Mông. Đây là báu vật văn hóa được gìn giữ, truyền lại muôn đời.</t>
+          <t>Chào các em học sinh lớp 3, lớp 4!
+Hôm nay, chúng ta cùng tìm hiểu về cây khèn của người Mông nhé.
+Cây khèn Mông có âm thanh tuyệt vời, làm say đắm lòng người. Khèn làm bằng gỗ và sáu ống trúc, tượng trưng tình anh em. Người Mông thường thổi khèn khi lên nương, vui đón xuân sang. Tiếng khèn vang vọng trên núi cao, biểu tượng sức sống Mông. Đây là báu vật văn hóa được gìn giữ, truyền lại muôn đời.</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2186,12 +2307,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Các bạn đã miêu tả bầu trời với nhiều từ ngữ riêng mình. Bạn Va-li-a cảm nhận bầu trời rất dịu dàng và đáng yêu. Qua đó, các bạn thể hiện sự sáng tạo cùng trí tưởng tượng phong phú.</t>
+          <t>Các bạn nhỏ cùng thầy giáo đi ra cánh đồng vào sáng mùa thu mát mẻ. Thầy yêu cầu các bạn mô tả bầu trời mùa thu thật độc đáo. Các bạn đã miêu tả bầu trời với nhiều từ ngữ riêng mình. Bạn Va-li-a cảm nhận bầu trời rất dịu dàng và đáng yêu. Qua đó, các bạn thể hiện sự sáng tạo cùng trí tưởng tượng phong phú.</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Bạn Va-li-a cảm nhận bầu trời rất dịu dàng và đáng yêu. Qua đó, các bạn thể hiện sự sáng tạo cùng trí tưởng tượng phong phú.</t>
+          <t>Thầy yêu cầu các bạn mô tả bầu trời mùa thu thật độc đáo. Các bạn đã miêu tả bầu trời với nhiều từ ngữ riêng mình. Bạn Va-li-a cảm nhận bầu trời rất dịu dàng và đáng yêu. Qua đó, các bạn thể hiện sự sáng tạo cùng trí tưởng tượng phong phú.</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -2243,12 +2364,13 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Cậu bé cố nhìn bức tường, tìm ý tưởng như bố nhà văn. Bố khuyên Quy hãy nhớ lại những trận mưa mình từng gặp. Quy nhớ mưa ướt áo, thuyền giấy trôi và xe chạy. Cuối cùng, Quy hào hứng viết bài văn của mình rất hay.</t>
+          <t>Chào các em! Cô sẽ tóm tắt câu chuyện này thật dễ hiểu nhé:
+Quy gặp khó khăn khi viết bài văn tả một trận mưa rào. Cậu bé cố nhìn bức tường, tìm ý tưởng như bố nhà văn. Bố khuyên Quy hãy nhớ lại những trận mưa mình từng gặp. Quy nhớ mưa ướt áo, thuyền giấy trôi và xe chạy. Cuối cùng, Quy hào hứng viết bài văn của mình rất hay.</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Cậu bé cố nhìn bức tường, tìm ý tưởng như bố nhà văn. Bố khuyên Quy hãy nhớ lại những trận mưa mình từng gặp. Quy nhớ mưa ướt áo, thuyền giấy trôi và xe chạy. Cuối cùng, Quy hào hứng viết bài văn của mình rất hay.</t>
+          <t>Quy gặp khó khăn khi viết bài văn tả một trận mưa rào. Cậu bé cố nhìn bức tường, tìm ý tưởng như bố nhà văn. Bố khuyên Quy hãy nhớ lại những trận mưa mình từng gặp. Quy nhớ mưa ướt áo, thuyền giấy trôi và xe chạy. Cuối cùng, Quy hào hứng viết bài văn của mình rất hay.</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -2283,7 +2405,8 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Bét-tô-ven là nhạc sĩ vĩ đại, nổi tiếng khắp thế giới. Một đêm, ông gặp cô gái mù mơ ước ngắm ánh trăng. Thương cảm, ông đã ngồi xuống và chơi đàn tuyệt vời. Âm nhạc giúp cô gái tưởng tượng trăng sáng trên sông. Vậy là, bản nhạc "Ánh trăng" ra đời từ tình yêu thương.</t>
+          <t>Chào các em học sinh! Hôm nay chúng ta cùng tìm hiểu về một câu chuyện cảm động của chú Bét-tô-ven nhé!
+Bét-tô-ven là nhạc sĩ vĩ đại, nổi tiếng khắp thế giới. Một đêm, ông gặp cô gái mù mơ ước ngắm ánh trăng. Thương cảm, ông đã ngồi xuống và chơi đàn tuyệt vời. Âm nhạc giúp cô gái tưởng tượng trăng sáng trên sông. Vậy là, bản nhạc "Ánh trăng" ra đời từ tình yêu thương.</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2328,12 +2451,21 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Từ bé, Xi-ôn-cốp-xki đã rất muốn bay lên trời cao. Sau lần ngã, ông bắt đầu tìm hiểu bí mật bay lượn. Ông chăm chỉ đọc sách, thực hiện nhiều thí nghiệm khoa học. Xi-ôn-cốp-xki tiết kiệm, ăn bánh mì để mua dụng cụ học tập. Cuối cùng, ông chế tạo ra tên lửa đưa người tới vì sao.</t>
+          <t>Chào các em học sinh! Hôm nay chúng ta cùng tìm hiểu về một nhà khoa học tài ba nhé!
+Từ bé, Xi-ôn-cốp-xki đã rất muốn bay lên trời cao.
+Sau lần ngã, ông bắt đầu tìm hiểu bí mật bay lượn.
+Ông chăm chỉ đọc sách, thực hiện nhiều thí nghiệm khoa học.
+Xi-ôn-cốp-xki tiết kiệm, ăn bánh mì để mua dụng cụ học tập.
+Cuối cùng, ông chế tạo ra tên lửa đưa người tới vì sao.</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Từ bé, Xi-ôn-cốp-xki đã rất muốn bay lên trời cao. Sau lần ngã, ông bắt đầu tìm hiểu bí mật bay lượn. Ông chăm chỉ đọc sách, thực hiện nhiều thí nghiệm khoa học. Xi-ôn-cốp-xki tiết kiệm, ăn bánh mì để mua dụng cụ học tập. Cuối cùng, ông chế tạo ra tên lửa đưa người tới vì sao.</t>
+          <t>Từ bé, Xi-ôn-cốp-xki đã rất muốn bay lên trời cao.
+Sau lần ngã, ông bắt đầu tìm hiểu bí mật bay lượn.
+Ông chăm chỉ đọc sách, thực hiện nhiều thí nghiệm khoa học.
+Xi-ôn-cốp-xki tiết kiệm, ăn bánh mì để mua dụng cụ học tập.
+Cuối cùng, ông chế tạo ra tên lửa đưa người tới vì sao.</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -2377,12 +2509,22 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Sau đó, chúng bạn cùng nhau chia sẻ những ước mơ thú vị của mình. Ước mơ của mỗi bạn thật đặc biệt, rồi lại thay đổi liên tục. Từ cô giáo đến họa sĩ, bộ đội lại muốn làm phi công thật ngầu. Đêm đó, bạn nhỏ mơ thấy ước mơ thành những quả bóng bay đầy màu sắc.</t>
+          <t>Chào các em học sinh thân mến,
+Câu chuyện kể về một buổi chiều thật đẹp của các bạn nhỏ đấy.
+Các bạn nhỏ nằm nghỉ trên đồi, ngắm nhìn cảnh vật làng quê.
+Sau đó, chúng bạn cùng nhau chia sẻ những ước mơ thú vị của mình.
+Ước mơ của mỗi bạn thật đặc biệt, rồi lại thay đổi liên tục.
+Từ cô giáo đến họa sĩ, bộ đội lại muốn làm phi công thật ngầu.
+Đêm đó, bạn nhỏ mơ thấy ước mơ thành những quả bóng bay đầy màu sắc.</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Sau đó, chúng bạn cùng nhau chia sẻ những ước mơ thú vị của mình. Ước mơ của mỗi bạn thật đặc biệt, rồi lại thay đổi liên tục. Từ cô giáo đến họa sĩ, bộ đội lại muốn làm phi công thật ngầu. Đêm đó, bạn nhỏ mơ thấy ước mơ thành những quả bóng bay đầy màu sắc.</t>
+          <t>Các bạn nhỏ nằm nghỉ trên đồi, ngắm nhìn cảnh vật làng quê.
+Sau đó, chúng bạn cùng nhau chia sẻ những ước mơ thú vị của mình.
+Ước mơ của mỗi bạn thật đặc biệt, rồi lại thay đổi liên tục.
+Từ cô giáo đến họa sĩ, bộ đội lại muốn làm phi công thật ngầu.
+Đêm đó, bạn nhỏ mơ thấy ước mơ thành những quả bóng bay đầy màu sắc.</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -2425,12 +2567,13 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Dù cha muốn con làm vườn, cậu vẫn giữ mãi tình yêu với biển cả. Lớn lên, cậu lên tàu, trở thành thủy thủ dũng cảm. Một lần, cậu bé đã cứu con tàu khỏi bão lớn và hải tặc. Nhờ kiên trì, cậu đã trở thành một thuyền trưởng giỏi. Cuối cùng, cha rất tự hào về ước mơ tuyệt vời của con trai mình.</t>
+          <t>Chào các bạn nhỏ lớp 3, lớp 4!
+Có một cậu bé rất yêu biển và luôn ước mơ làm thuyền trưởng. Dù cha muốn con làm vườn, cậu vẫn giữ mãi tình yêu với biển cả. Lớn lên, cậu lên tàu, trở thành thủy thủ dũng cảm. Một lần, cậu bé đã cứu con tàu khỏi bão lớn và hải tặc. Nhờ kiên trì, cậu đã trở thành một thuyền trưởng giỏi. Cuối cùng, cha rất tự hào về ước mơ tuyệt vời của con trai mình.</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Dù cha muốn con làm vườn, cậu vẫn giữ mãi tình yêu với biển cả. Lớn lên, cậu lên tàu, trở thành thủy thủ dũng cảm. Một lần, cậu bé đã cứu con tàu khỏi bão lớn và hải tặc. Nhờ kiên trì, cậu đã trở thành một thuyền trưởng giỏi. Cuối cùng, cha rất tự hào về ước mơ tuyệt vời của con trai mình.</t>
+          <t>Có một cậu bé rất yêu biển và luôn ước mơ làm thuyền trưởng. Dù cha muốn con làm vườn, cậu vẫn giữ mãi tình yêu với biển cả. Lớn lên, cậu lên tàu, trở thành thủy thủ dũng cảm. Một lần, cậu bé đã cứu con tàu khỏi bão lớn và hải tặc. Nhờ kiên trì, cậu đã trở thành một thuyền trưởng giỏi. Cuối cùng, cha rất tự hào về ước mơ tuyệt vời của con trai mình.</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -2468,12 +2611,21 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Bạn nhỏ mơ ước có một khu vườn rộng lớn ở vùng quê. Bạn ấy muốn trồng mít, me để chơi và làm những món ngon. Những hàng anh đào khoe sắc, cùng đủ loại hoa thơm ngát. Khu vườn ấy sẽ thu hút bướm và chim bay về ríu rít. Hiện tại, bạn nhỏ chỉ trồng cây trong chậu, nhưng luôn mơ ước.</t>
+          <t>Chào các em học sinh yêu quý! Hôm nay, cô sẽ kể cho các em nghe về ước mơ của một bạn nhỏ nhé.
+Bạn nhỏ mơ ước có một khu vườn rộng lớn ở vùng quê.
+Bạn ấy muốn trồng mít, me để chơi và làm những món ngon.
+Những hàng anh đào khoe sắc, cùng đủ loại hoa thơm ngát.
+Khu vườn ấy sẽ thu hút bướm và chim bay về ríu rít.
+Hiện tại, bạn nhỏ chỉ trồng cây trong chậu, nhưng luôn mơ ước.</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Bạn nhỏ mơ ước có một khu vườn rộng lớn ở vùng quê. Bạn ấy muốn trồng mít, me để chơi và làm những món ngon. Những hàng anh đào khoe sắc, cùng đủ loại hoa thơm ngát. Khu vườn ấy sẽ thu hút bướm và chim bay về ríu rít. Hiện tại, bạn nhỏ chỉ trồng cây trong chậu, nhưng luôn mơ ước.</t>
+          <t>Bạn nhỏ mơ ước có một khu vườn rộng lớn ở vùng quê.
+Bạn ấy muốn trồng mít, me để chơi và làm những món ngon.
+Những hàng anh đào khoe sắc, cùng đủ loại hoa thơm ngát.
+Khu vườn ấy sẽ thu hút bướm và chim bay về ríu rít.
+Hiện tại, bạn nhỏ chỉ trồng cây trong chậu, nhưng luôn mơ ước.</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -2524,12 +2676,13 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Bạn còn mơ làm gió, đem mưa mát xua nắng hè. Bạn ước hóa thành vầng trăng sáng, lung linh giữa trời thu. Bạn mơ hóa ngọn lửa, sưởi ấm ngôi nhà trong đông lạnh. Yêu đất nước mình, bạn có thật nhiều ước mơ đẹp.</t>
+          <t>Chào các em, chúng ta cùng đọc và tìm hiểu về những ước mơ thật đẹp nhé!
+Bạn nhỏ mơ thành chim én, mang nắng ấm xuân về. Bạn còn mơ làm gió, đem mưa mát xua nắng hè. Bạn ước hóa thành vầng trăng sáng, lung linh giữa trời thu. Bạn mơ hóa ngọn lửa, sưởi ấm ngôi nhà trong đông lạnh. Yêu đất nước mình, bạn có thật nhiều ước mơ đẹp.</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Bạn còn mơ làm gió, đem mưa mát xua nắng hè. Bạn ước hóa thành vầng trăng sáng, lung linh giữa trời thu. Bạn mơ hóa ngọn lửa, sưởi ấm ngôi nhà trong đông lạnh. Yêu đất nước mình, bạn có thật nhiều ước mơ đẹp.</t>
+          <t>Bạn nhỏ mơ thành chim én, mang nắng ấm xuân về. Bạn còn mơ làm gió, đem mưa mát xua nắng hè. Bạn ước hóa thành vầng trăng sáng, lung linh giữa trời thu. Bạn mơ hóa ngọn lửa, sưởi ấm ngôi nhà trong đông lạnh. Yêu đất nước mình, bạn có thật nhiều ước mơ đẹp.</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -2581,12 +2734,13 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Đây là Vương quốc Tương Lai, nơi có nhiều em bé. Những bạn nhỏ đó đang sáng tạo ra nhiều điều hay. Có bạn muốn chế tạo vật giúp mọi người hạnh phúc. Các bạn khác còn làm máy bay, thuốc quý, ánh sáng lạ.</t>
+          <t>Chào các em, cô có một câu chuyện thú vị muốn kể cho các em nghe đây!
+Tin-tin và Mi-tin đã đến thăm một nơi rất đặc biệt. Đây là Vương quốc Tương Lai, nơi có nhiều em bé. Những bạn nhỏ đó đang sáng tạo ra nhiều điều hay. Có bạn muốn chế tạo vật giúp mọi người hạnh phúc. Các bạn khác còn làm máy bay, thuốc quý, ánh sáng lạ.</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Những bạn nhỏ đó đang sáng tạo ra nhiều điều hay. Có bạn muốn chế tạo vật giúp mọi người hạnh phúc. Các bạn khác còn làm máy bay, thuốc quý, ánh sáng lạ.</t>
+          <t>Tin-tin và Mi-tin đã đến thăm một nơi rất đặc biệt. Đây là Vương quốc Tương Lai, nơi có nhiều em bé. Những bạn nhỏ đó đang sáng tạo ra nhiều điều hay. Có bạn muốn chế tạo vật giúp mọi người hạnh phúc. Các bạn khác còn làm máy bay, thuốc quý, ánh sáng lạ.</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -2627,12 +2781,13 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Bạn ấy gặp một bạn khác không đi, chạy được. Bạn mơ ước bay muốn chia sẻ niềm vui với bạn. Thế là, cậu cõng bạn và chạy thật nhanh như gió. Bạn được cõng cảm thấy mình đang bay thật hạnh phúc.</t>
+          <t>Chào các em học sinh thân mến! Đây là câu chuyện tuyệt đẹp về tình bạn:
+Một bạn nhỏ rất thích bay lượn trên bầu trời. Bạn ấy gặp một bạn khác không đi, chạy được. Bạn mơ ước bay muốn chia sẻ niềm vui với bạn. Thế là, cậu cõng bạn và chạy thật nhanh như gió. Bạn được cõng cảm thấy mình đang bay thật hạnh phúc.</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Bạn ấy gặp một bạn khác không đi, chạy được. Bạn mơ ước bay muốn chia sẻ niềm vui với bạn. Thế là, cậu cõng bạn và chạy thật nhanh như gió. Bạn được cõng cảm thấy mình đang bay thật hạnh phúc.</t>
+          <t>Một bạn nhỏ rất thích bay lượn trên bầu trời. Bạn ấy gặp một bạn khác không đi, chạy được. Bạn mơ ước bay muốn chia sẻ niềm vui với bạn. Thế là, cậu cõng bạn và chạy thật nhanh như gió. Bạn được cõng cảm thấy mình đang bay thật hạnh phúc.</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -2686,7 +2841,8 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Ngựa Trắng thơ ngây mơ ước có đôi cánh bay lượn trên trời. Chú theo Đại Bàng Núi đi tìm, rồi gặp Sói Xám hung dữ. Đại Bàng dũng cảm đã lao tới, đánh đuổi Sói gian ác. Ngựa Trắng nhận ra bốn chân mình chính là đôi cánh nhanh nhẹn. Chú phi nhanh như gió, vui vẻ trở về bên mẹ.</t>
+          <t>Chào các em học sinh thân yêu! Hôm nay, chúng ta cùng nhau tóm tắt câu chuyện về một bạn ngựa rất đáng yêu nhé.
+Ngựa Trắng thơ ngây mơ ước có đôi cánh bay lượn trên trời. Chú theo Đại Bàng Núi đi tìm, rồi gặp Sói Xám hung dữ. Đại Bàng dũng cảm đã lao tới, đánh đuổi Sói gian ác. Ngựa Trắng nhận ra bốn chân mình chính là đôi cánh nhanh nhẹn. Chú phi nhanh như gió, vui vẻ trở về bên mẹ.</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2740,7 +2896,8 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Nếu có phép màu, hạt giống sẽ nảy mầm thành cây trái. Chúng ta lớn thật nhanh, được lặn biển sâu hay lái máy bay. Ước gì tạo mặt trời mới, để không còn mùa đông giá rét. Chúng ta sẽ biến bom thành kẹo, mang hạnh phúc đến khắp nơi. Thật là những điều ước diệu kỳ phải không nào!</t>
+          <t>Chào các con! Bài thơ này thật hay, nói về những điều ước tuyệt vời đó.
+Nếu có phép màu, hạt giống sẽ nảy mầm thành cây trái. Chúng ta lớn thật nhanh, được lặn biển sâu hay lái máy bay. Ước gì tạo mặt trời mới, để không còn mùa đông giá rét. Chúng ta sẽ biến bom thành kẹo, mang hạnh phúc đến khắp nơi. Thật là những điều ước diệu kỳ phải không nào!</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2791,12 +2948,13 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
+          <t>Chào các em học sinh! Hôm nay chúng ta sẽ cùng tóm tắt một câu chuyện rất hay về Bác Hồ nhé.
+Ngày xưa, Anh Ba muốn đi nước ngoài tìm hiểu điều hay. Anh muốn học cách giúp đỡ đất nước chúng ta mau tiến bộ. Anh Ba mời bạn cùng đi, nhưng bạn thấy khó khăn quá. Anh Ba quyết tâm sẽ làm việc, dùng đôi tay kiếm tiền. Người thanh niên yêu nước đó chính là Bác Hồ kính yêu.</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
           <t>Ngày xưa, Anh Ba muốn đi nước ngoài tìm hiểu điều hay. Anh muốn học cách giúp đỡ đất nước chúng ta mau tiến bộ. Anh Ba mời bạn cùng đi, nhưng bạn thấy khó khăn quá. Anh Ba quyết tâm sẽ làm việc, dùng đôi tay kiếm tiền. Người thanh niên yêu nước đó chính là Bác Hồ kính yêu.</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Anh Ba muốn đi nước ngoài tìm hiểu điều hay. Anh muốn học cách giúp đỡ đất nước chúng ta mau tiến bộ. Anh Ba mời bạn cùng đi, nhưng bạn thấy khó khăn quá. Anh Ba quyết tâm sẽ làm việc, dùng đôi tay kiếm tiền. Người thanh niên yêu nước đó chính là Bác Hồ kính yêu.</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -2832,12 +2990,19 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Ông đã tự học cách chữa bệnh để giúp đỡ mọi người. Ông không ngại khó khăn, luôn chữa bệnh miễn phí cho người nghèo. Ông còn viết rất nhiều sách thuốc quý giá cho đời.</t>
+          <t>Chào các con, hôm nay chúng ta cùng tìm hiểu về một ông bụt ngoài đời thật nhé!
+Hải Thượng Lãn Ông là một danh y rất nổi tiếng ở nước ta.
+Ông đã tự học cách chữa bệnh để giúp đỡ mọi người.
+Ông không ngại khó khăn, luôn chữa bệnh miễn phí cho người nghèo.
+Ông còn viết rất nhiều sách thuốc quý giá cho đời.</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Ông đã tự học cách chữa bệnh để giúp đỡ mọi người. Ông không ngại khó khăn, luôn chữa bệnh miễn phí cho người nghèo. Ông còn viết rất nhiều sách thuốc quý giá cho đời.</t>
+          <t>Hải Thượng Lãn Ông là một danh y rất nổi tiếng ở nước ta.
+Ông đã tự học cách chữa bệnh để giúp đỡ mọi người.
+Ông không ngại khó khăn, luôn chữa bệnh miễn phí cho người nghèo.
+Ông còn viết rất nhiều sách thuốc quý giá cho đời.</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -2878,12 +3043,21 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Thi Ca hay vô tình đụng tay, khiến Minh khó chịu. Minh đã kẻ vạch chia đôi bàn, làm Thi Ca thoáng buồn. Sau đó Minh biết Thi Ca bị thương ở tay phải. Minh rất ân hận, xóa vạch kẻ, mong Thi Ca mau về.</t>
+          <t>Chào các em học sinh! Câu chuyện này kể về bạn Minh và bạn mới Thi Ca:
+Minh gặp Thi Ca, một bạn mới viết tay trái ở lớp.
+Thi Ca hay vô tình đụng tay, khiến Minh khó chịu.
+Minh đã kẻ vạch chia đôi bàn, làm Thi Ca thoáng buồn.
+Sau đó Minh biết Thi Ca bị thương ở tay phải.
+Minh rất ân hận, xóa vạch kẻ, mong Thi Ca mau về.</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Thi Ca hay vô tình đụng tay, khiến Minh khó chịu. Minh đã kẻ vạch chia đôi bàn, làm Thi Ca thoáng buồn. Sau đó Minh biết Thi Ca bị thương ở tay phải. Minh rất ân hận, xóa vạch kẻ, mong Thi Ca mau về.</t>
+          <t>Minh gặp Thi Ca, một bạn mới viết tay trái ở lớp.
+Thi Ca hay vô tình đụng tay, khiến Minh khó chịu.
+Minh đã kẻ vạch chia đôi bàn, làm Thi Ca thoáng buồn.
+Sau đó Minh biết Thi Ca bị thương ở tay phải.
+Minh rất ân hận, xóa vạch kẻ, mong Thi Ca mau về.</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -2924,12 +3098,13 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Một buổi sáng, Mai vô tình làm gãy cành hoa lan đang nở. Cô bé rất buồn, lo lắng mẹ và ông chủ nhà giận. Mai ước phép màu, nhưng ông nhạc sĩ đã âm thầm giúp đỡ. Ông thay chậu lan mới, làm Mai bất ngờ và rất vui.</t>
+          <t>Chào các con, hôm nay cô sẽ kể cho các con nghe câu chuyện về bạn Mai và chậu hoa lan nhé!
+Mai rất thích những chậu hoa lan đẹp nhà ông nhạc sĩ. Một buổi sáng, Mai vô tình làm gãy cành hoa lan đang nở. Cô bé rất buồn, lo lắng mẹ và ông chủ nhà giận. Mai ước phép màu, nhưng ông nhạc sĩ đã âm thầm giúp đỡ. Ông thay chậu lan mới, làm Mai bất ngờ và rất vui.</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Một buổi sáng, Mai vô tình làm gãy cành hoa lan đang nở. Cô bé rất buồn, lo lắng mẹ và ông chủ nhà giận. Mai ước phép màu, nhưng ông nhạc sĩ đã âm thầm giúp đỡ. Ông thay chậu lan mới, làm Mai bất ngờ và rất vui.</t>
+          <t>Mai rất thích những chậu hoa lan đẹp nhà ông nhạc sĩ. Một buổi sáng, Mai vô tình làm gãy cành hoa lan đang nở. Cô bé rất buồn, lo lắng mẹ và ông chủ nhà giận. Mai ước phép màu, nhưng ông nhạc sĩ đã âm thầm giúp đỡ. Ông thay chậu lan mới, làm Mai bất ngờ và rất vui.</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -2978,12 +3153,13 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
+          <t>Chào các con! Bài thơ này nói về gia đình mình đấy.
+Gia đình là nơi yêu thương, chúng ta được trời ban. Mọi người luôn sống hòa thuận, giữ gìn hạnh phúc mãi. Hạnh phúc sẽ đong đầy nếu ta biết sẻ chia. Gia đình đoàn kết, sẽ vượt qua hết mọi gian nan. Bình an và niềm vui sẽ luôn tràn ngập ngôi nhà.</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
           <t>Gia đình là nơi yêu thương, chúng ta được trời ban. Mọi người luôn sống hòa thuận, giữ gìn hạnh phúc mãi. Hạnh phúc sẽ đong đầy nếu ta biết sẻ chia. Gia đình đoàn kết, sẽ vượt qua hết mọi gian nan. Bình an và niềm vui sẽ luôn tràn ngập ngôi nhà.</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Mọi người luôn sống hòa thuận, giữ gìn hạnh phúc mãi. Hạnh phúc sẽ đong đầy nếu ta biết sẻ chia. Gia đình đoàn kết, sẽ vượt qua hết mọi gian nan. Bình an và niềm vui sẽ luôn tràn ngập ngôi nhà.</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -3024,12 +3200,13 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Bạn ấy dũng cảm chạy nhanh đến đồn biên phòng để báo tin. Trời đã tối, đường khó đi nhưng bạn vẫn quyết tâm cao độ. Chú bộ đội đã khen bạn nhỏ rất tốt bụng và nhanh trí. Nhờ hành động kịp thời, người bị nạn đã được cứu giúp.</t>
+          <t>Chào các em học sinh thân yêu! Hôm nay cô sẽ kể cho các em nghe một câu chuyện về lòng dũng cảm nhé:
+Trên đường đi, bạn nhỏ thấy một người bị tai nạn bên gốc cây. Bạn ấy dũng cảm chạy nhanh đến đồn biên phòng để báo tin. Trời đã tối, đường khó đi nhưng bạn vẫn quyết tâm cao độ. Chú bộ đội đã khen bạn nhỏ rất tốt bụng và nhanh trí. Nhờ hành động kịp thời, người bị nạn đã được cứu giúp.</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Bạn ấy dũng cảm chạy nhanh đến đồn biên phòng để báo tin. Trời đã tối, đường khó đi nhưng bạn vẫn quyết tâm cao độ. Chú bộ đội đã khen bạn nhỏ rất tốt bụng và nhanh trí. Nhờ hành động kịp thời, người bị nạn đã được cứu giúp.</t>
+          <t>Trên đường đi, bạn nhỏ thấy một người bị tai nạn bên gốc cây. Bạn ấy dũng cảm chạy nhanh đến đồn biên phòng để báo tin. Trời đã tối, đường khó đi nhưng bạn vẫn quyết tâm cao độ. Chú bộ đội đã khen bạn nhỏ rất tốt bụng và nhanh trí. Nhờ hành động kịp thời, người bị nạn đã được cứu giúp.</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -3077,12 +3254,22 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1. Các con ơi, chúng ta cần yêu thương, giúp đỡ mọi người xung quanh. 2. Giống như chim cần trời, cá cần nước để sống khỏe mạnh mỗi ngày. 3. Một người khó làm được việc lớn, hãy đoàn kết cùng nhau con nhé! 4. Nhờ sự yêu thương, chăm sóc, chúng ta sẽ trưởng thành hơn rất nhiều. 5. Khi lớn, chúng ta sẽ cùng nhau xây dựng một thế giới thật tươi đẹp.</t>
+          <t>Chào các con học sinh yêu quý!
+Bài thơ này dạy chúng ta về tình yêu thương và sự giúp đỡ lẫn nhau đó.
+1.  Các con ơi, chúng ta cần yêu thương, giúp đỡ mọi người xung quanh.
+2.  Giống như chim cần trời, cá cần nước để sống khỏe mạnh mỗi ngày.
+3.  Một người khó làm được việc lớn, hãy đoàn kết cùng nhau con nhé!
+4.  Nhờ sự yêu thương, chăm sóc, chúng ta sẽ trưởng thành hơn rất nhiều.
+5.  Khi lớn, chúng ta sẽ cùng nhau xây dựng một thế giới thật tươi đẹp.</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Một người khó làm được việc lớn, hãy đoàn kết cùng nhau con nhé! Nhờ sự yêu thương, chăm sóc, chúng ta sẽ trưởng thành hơn rất nhiều. Khi lớn, chúng ta sẽ cùng nhau xây dựng một thế giới thật tươi đẹp.</t>
+          <t>1.  Các con ơi, chúng ta cần yêu thương, giúp đỡ mọi người xung quanh.
+2.  Giống như chim cần trời, cá cần nước để sống khỏe mạnh mỗi ngày.
+3.  Một người khó làm được việc lớn, hãy đoàn kết cùng nhau con nhé!
+4.  Nhờ sự yêu thương, chăm sóc, chúng ta sẽ trưởng thành hơn rất nhiều.
+5.  Khi lớn, chúng ta sẽ cùng nhau xây dựng một thế giới thật tươi đẹp.</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -3121,12 +3308,13 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Chú Chích nhặt được vài hạt còn sót lại dưới gốc cây. Chích vui vẻ mang kê đến chia sẻ với người bạn thân thiết. Chích đã dạy Sẻ bài học quý giá về tình bạn. Sẻ hiểu rằng bạn bè tốt luôn cần phải sẻ chia cùng nhau.</t>
+          <t>Chào các em, đây là câu chuyện về hai bạn Sẻ và Chích nhé!
+Chú Sẻ ích kỉ đã ăn hết hộp hạt kê thơm ngon một mình. Chú Chích nhặt được vài hạt còn sót lại dưới gốc cây. Chích vui vẻ mang kê đến chia sẻ với người bạn thân thiết. Chích đã dạy Sẻ bài học quý giá về tình bạn. Sẻ hiểu rằng bạn bè tốt luôn cần phải sẻ chia cùng nhau.</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Chú Chích nhặt được vài hạt còn sót lại dưới gốc cây. Chích vui vẻ mang kê đến chia sẻ với người bạn thân thiết. Chích đã dạy Sẻ bài học quý giá về tình bạn. Sẻ hiểu rằng bạn bè tốt luôn cần phải sẻ chia cùng nhau.</t>
+          <t>Chú Sẻ ích kỉ đã ăn hết hộp hạt kê thơm ngon một mình. Chú Chích nhặt được vài hạt còn sót lại dưới gốc cây. Chích vui vẻ mang kê đến chia sẻ với người bạn thân thiết. Chích đã dạy Sẻ bài học quý giá về tình bạn. Sẻ hiểu rằng bạn bè tốt luôn cần phải sẻ chia cùng nhau.</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -3164,7 +3352,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Hãy cùng nghe tóm tắt nhé:
+          <t>Chào các em học sinh lớp 3-4 thân mến! Cô có một câu chuyện về một bạn nhỏ tên Bum và cây ổi đặc biệt của cậu ấy. Hãy cùng nghe tóm tắt nhé:
 Bum rất yêu cây ổi lớn ở sân nhà cũ. Cậu và bạn bè thường cùng nhau thưởng thức ổi chín. Ông nội vui vẻ ngắm nhìn các cháu chơi đùa. Bum rất nhớ cây ổi khi cậu phải chuyển đi. Ba mẹ đã trồng một cây ổi mới để Bum vui.</t>
         </is>
       </c>
@@ -3206,7 +3394,8 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Một đôi cò xây tổ ấm trên khóm tre đầu ngõ nhà Bua Kham. Bua Kham rất thích ngắm nhìn cò con kêu đói trong tổ. Nhưng một trận bão lớn đã hất cò con rơi xuống đất. Bua Kham và ông đã cẩn thận giúp chúng về tổ cũ. Nhờ thế, gia đình cò đoàn tụ và năm sau đông đúc hơn.</t>
+          <t>Chào các em học sinh thân yêu! Hôm nay, cô sẽ kể cho các em nghe một câu chuyện về tình yêu thương nhé.
+Một đôi cò xây tổ ấm trên khóm tre đầu ngõ nhà Bua Kham. Bua Kham rất thích ngắm nhìn cò con kêu đói trong tổ. Nhưng một trận bão lớn đã hất cò con rơi xuống đất. Bua Kham và ông đã cẩn thận giúp chúng về tổ cũ. Nhờ thế, gia đình cò đoàn tụ và năm sau đông đúc hơn.</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3258,12 +3447,19 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Mẹ rất thương con, mẹ lo con buồn khi không có cha. Vì thế, mẹ chấp nhận cô đơn để con luôn vui vẻ. Mẹ ôm con thật chặt, mong con được yêu thương và ấm áp. Dù gặp nhiều khó khăn, mẹ vẫn nguyện hy sinh vì con.</t>
+          <t>Chào các con! Bài thơ này kể về tình yêu thương bao la của một người mẹ dành cho con mình đấy.
+Mẹ rất thương con, mẹ lo con buồn khi không có cha.
+Vì thế, mẹ chấp nhận cô đơn để con luôn vui vẻ.
+Mẹ ôm con thật chặt, mong con được yêu thương và ấm áp.
+Dù gặp nhiều khó khăn, mẹ vẫn nguyện hy sinh vì con.</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Mẹ rất thương con, mẹ lo con buồn khi không có cha. Vì thế, mẹ chấp nhận cô đơn để con luôn vui vẻ. Mẹ ôm con thật chặt, mong con được yêu thương và ấm áp. Dù gặp nhiều khó khăn, mẹ vẫn nguyện hy sinh vì con.</t>
+          <t>Mẹ rất thương con, mẹ lo con buồn khi không có cha.
+Vì thế, mẹ chấp nhận cô đơn để con luôn vui vẻ.
+Mẹ ôm con thật chặt, mong con được yêu thương và ấm áp.
+Dù gặp nhiều khó khăn, mẹ vẫn nguyện hy sinh vì con.</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -3300,12 +3496,13 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Sau đó, cha mẹ chia con, mỗi người dẫn năm mươi để xây dựng. Người con trưởng làm vua Hùng, lập nước Văn Lang trù phú. Vì thế, chúng ta tự hào là con Rồng cháu Tiên đấy!</t>
+          <t>Các em học sinh thân mến,
+Ngày xưa, Lạc Long Quân mình rồng kết duyên với nàng Âu Cơ tiên nữ. Họ sinh ra một bọc trứng nở thành trăm người con khỏe mạnh. Sau đó, cha mẹ chia con, mỗi người dẫn năm mươi để xây dựng. Người con trưởng làm vua Hùng, lập nước Văn Lang trù phú. Vì thế, chúng ta tự hào là con Rồng cháu Tiên đấy!</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Sau đó, cha mẹ chia con, mỗi người dẫn năm mươi để xây dựng. Người con trưởng làm vua Hùng, lập nước Văn Lang trù phú. Vì thế, chúng ta tự hào là con Rồng cháu Tiên đấy!</t>
+          <t>Ngày xưa, Lạc Long Quân mình rồng kết duyên với nàng Âu Cơ tiên nữ. Họ sinh ra một bọc trứng nở thành trăm người con khỏe mạnh. Sau đó, cha mẹ chia con, mỗi người dẫn năm mươi để xây dựng. Người con trưởng làm vua Hùng, lập nước Văn Lang trù phú. Vì thế, chúng ta tự hào là con Rồng cháu Tiên đấy!</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -3360,7 +3557,8 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Trường Sa là những hòn đảo rất xa ngoài biển lớn. Đảo có nhiều hoa đẹp, như hoa bàng vuông, san hô. Cuộc sống nơi đảo xa dù khó khăn, chú lính vẫn vui. Mỗi hòn đảo nhỏ là một phần máu thịt Tổ quốc mình.</t>
+          <t>Chào các em học sinh yêu quý! Hôm nay, cô sẽ tóm tắt một bài thơ nói về Trường Sa nhé.
+Trường Sa là những hòn đảo rất xa ngoài biển lớn. Đảo có nhiều hoa đẹp, như hoa bàng vuông, san hô. Cuộc sống nơi đảo xa dù khó khăn, chú lính vẫn vui. Mỗi hòn đảo nhỏ là một phần máu thịt Tổ quốc mình.</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3410,12 +3608,13 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
+          <t>Chào các em học sinh thân yêu! Hôm nay, cô sẽ kể cho các em nghe một câu chuyện nhỏ về tình cảm của mọi người dành cho Bác Hồ nhé.
+Một bạn nhỏ vui vẻ lên Việt Bắc thăm Bác Hồ. Bác Hồ bận rộn làm việc trong nhà sàn đơn sơ. Dù thương chim, Bác vẫn ưu tiên công việc quan trọng. Bạn nhỏ cảm nhận tình yêu thương bao la từ Bác. Bác Hồ như người cha lớn của đất nước mình.</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
           <t>Một bạn nhỏ vui vẻ lên Việt Bắc thăm Bác Hồ. Bác Hồ bận rộn làm việc trong nhà sàn đơn sơ. Dù thương chim, Bác vẫn ưu tiên công việc quan trọng. Bạn nhỏ cảm nhận tình yêu thương bao la từ Bác. Bác Hồ như người cha lớn của đất nước mình.</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Bác Hồ bận rộn làm việc trong nhà sàn đơn sơ. Dù thương chim, Bác vẫn ưu tiên công việc quan trọng. Bạn nhỏ cảm nhận tình yêu thương bao la từ Bác. Bác Hồ như người cha lớn của đất nước mình.</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -3453,12 +3652,21 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Phạm Ngũ Lão là danh tướng rất thông minh thời nhà Trần. Ông mải nghĩ binh thư, bị đâm mà không biết đau. Trần Hưng Đạo thấy tài, mời ông về giúp nước chống giặc. Phạm Ngũ Lão đã chỉ huy đánh tan giặc Nguyên hai lần. Ông trở thành "hổ tướng bách chiến bách thắng" lẫy lừng.</t>
+          <t>Chào các con học sinh yêu quý! Hôm nay, cô sẽ kể cho các con nghe về một vị anh hùng nước Việt nhé.
+Phạm Ngũ Lão là danh tướng rất thông minh thời nhà Trần.
+Ông mải nghĩ binh thư, bị đâm mà không biết đau.
+Trần Hưng Đạo thấy tài, mời ông về giúp nước chống giặc.
+Phạm Ngũ Lão đã chỉ huy đánh tan giặc Nguyên hai lần.
+Ông trở thành "hổ tướng bách chiến bách thắng" lẫy lừng.</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Phạm Ngũ Lão là danh tướng rất thông minh thời nhà Trần. Ông mải nghĩ binh thư, bị đâm mà không biết đau. Trần Hưng Đạo thấy tài, mời ông về giúp nước chống giặc. Phạm Ngũ Lão đã chỉ huy đánh tan giặc Nguyên hai lần. Ông trở thành "hổ tướng bách chiến bách thắng" lẫy lừng.</t>
+          <t>Phạm Ngũ Lão là danh tướng rất thông minh thời nhà Trần.
+Ông mải nghĩ binh thư, bị đâm mà không biết đau.
+Trần Hưng Đạo thấy tài, mời ông về giúp nước chống giặc.
+Phạm Ngũ Lão đã chỉ huy đánh tan giặc Nguyên hai lần.
+Ông trở thành "hổ tướng bách chiến bách thắng" lẫy lừng.</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -3500,7 +3708,8 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Bạn nhỏ về quê thăm bà nội, khám phá khu vườn. Bà kể ông nội đã trồng đủ loại cây trái trong vườn. Vườn có mít, nhãn, sung, cam, bưởi và nhiều loại hoa. Mỗi cây đều chứa đựng những câu chuyện đẹp về ông. Khu vườn giúp mọi người luôn nhớ về ông nội yêu quý.</t>
+          <t>Chào các em học sinh thân mến! Hôm nay, cô sẽ kể cho các em nghe về một khu vườn thật đặc biệt nhé.
+Bạn nhỏ về quê thăm bà nội, khám phá khu vườn. Bà kể ông nội đã trồng đủ loại cây trái trong vườn. Vườn có mít, nhãn, sung, cam, bưởi và nhiều loại hoa. Mỗi cây đều chứa đựng những câu chuyện đẹp về ông. Khu vườn giúp mọi người luôn nhớ về ông nội yêu quý.</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3552,7 +3761,8 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Lời ru ngọt ngào của mẹ kể chuyện cổ tích cho tuổi thơ. Chúng con thấy cánh cò trắng, đồng xanh trong lời mẹ hát. Mẹ hi sinh mái tóc bạc, lưng còng giúp con khôn lớn. Lời mẹ dạy, lời mẹ hát đã chắp cho con đôi cánh. Để chúng con lớn khôn, bay xa khám phá thế giới rộng lớn.</t>
+          <t>Chào các con học sinh yêu quý! Hôm nay, cô sẽ tóm tắt bài thơ rất hay về mẹ cho các con nghe nhé.
+Lời ru ngọt ngào của mẹ kể chuyện cổ tích cho tuổi thơ. Chúng con thấy cánh cò trắng, đồng xanh trong lời mẹ hát. Mẹ hi sinh mái tóc bạc, lưng còng giúp con khôn lớn. Lời mẹ dạy, lời mẹ hát đã chắp cho con đôi cánh. Để chúng con lớn khôn, bay xa khám phá thế giới rộng lớn.</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3596,12 +3806,13 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
+          <t>Chào các bạn học sinh yêu quý của cô! Hôm nay cô sẽ kể cho các con nghe về một chuyến đi thật đặc biệt nhé.
+Trường đã thưởng chúng em chuyến đi thăm Lăng Bác Hồ. Nơi đây thật rộng lớn, trang nghiêm với những chú bộ đội canh gác. Chúng em xúc động khi thấy Bác Hồ nằm ngủ thật bình yên. Sau đó, chúng em khám phá nhà sàn, ao cá và đồ dùng của Bác. Chuyến đi tuyệt vời giúp em tự hào về đất nước mình.</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
           <t>Trường đã thưởng chúng em chuyến đi thăm Lăng Bác Hồ. Nơi đây thật rộng lớn, trang nghiêm với những chú bộ đội canh gác. Chúng em xúc động khi thấy Bác Hồ nằm ngủ thật bình yên. Sau đó, chúng em khám phá nhà sàn, ao cá và đồ dùng của Bác. Chuyến đi tuyệt vời giúp em tự hào về đất nước mình.</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Nơi đây thật rộng lớn, trang nghiêm với những chú bộ đội canh gác. Chúng em xúc động khi thấy Bác Hồ nằm ngủ thật bình yên. Sau đó, chúng em khám phá nhà sàn, ao cá và đồ dùng của Bác. Chuyến đi tuyệt vời giúp em tự hào về đất nước mình.</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -3649,7 +3860,8 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Hôm qua, bố dẫn con đi thăm thầy giáo cũ đã lớn tuổi. Thầy Cơ-rô-xét-ti lúc đầu chưa nhận ra bố đâu. Nhưng rồi thầy nhớ tên và bao kỷ niệm thời đi học. Thầy còn giữ một bài chính tả cũ của bố trên giá sách. Bố xúc động cảm ơn, ôm lấy người thầy kính yêu.</t>
+          <t>Chào các em học sinh! Hôm nay, cô sẽ kể cho các em nghe một câu chuyện cảm động nhé.
+Hôm qua, bố dẫn con đi thăm thầy giáo cũ đã lớn tuổi. Thầy Cơ-rô-xét-ti lúc đầu chưa nhận ra bố đâu. Nhưng rồi thầy nhớ tên và bao kỷ niệm thời đi học. Thầy còn giữ một bài chính tả cũ của bố trên giá sách. Bố xúc động cảm ơn, ôm lấy người thầy kính yêu.</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3705,12 +3917,21 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Chú bộ đội biên phòng cưỡi ngựa dũng cảm bảo vệ biên giới. Ngựa phi rất nhanh như bay, không ngại đường xa hiểm trở. Vó ngựa khỏe mạnh luôn hăng hái đuổi theo những kẻ xấu. Hoàn thành nhiệm vụ, chú bộ đội ân cần vỗ về chú ngựa. Các bạn nhỏ chuẩn bị cỏ thơm tặng ngựa biên phòng yêu quý.</t>
+          <t>Chào các em học sinh thân mến! Hôm nay, chúng ta cùng tìm hiểu về những người bạn dũng cảm ở biên giới nhé!
+Chú bộ đội biên phòng cưỡi ngựa dũng cảm bảo vệ biên giới.
+Ngựa phi rất nhanh như bay, không ngại đường xa hiểm trở.
+Vó ngựa khỏe mạnh luôn hăng hái đuổi theo những kẻ xấu.
+Hoàn thành nhiệm vụ, chú bộ đội ân cần vỗ về chú ngựa.
+Các bạn nhỏ chuẩn bị cỏ thơm tặng ngựa biên phòng yêu quý.</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Chú bộ đội biên phòng cưỡi ngựa dũng cảm bảo vệ biên giới. Ngựa phi rất nhanh như bay, không ngại đường xa hiểm trở. Vó ngựa khỏe mạnh luôn hăng hái đuổi theo những kẻ xấu. Hoàn thành nhiệm vụ, chú bộ đội ân cần vỗ về chú ngựa. Các bạn nhỏ chuẩn bị cỏ thơm tặng ngựa biên phòng yêu quý.</t>
+          <t>Chú bộ đội biên phòng cưỡi ngựa dũng cảm bảo vệ biên giới.
+Ngựa phi rất nhanh như bay, không ngại đường xa hiểm trở.
+Vó ngựa khỏe mạnh luôn hăng hái đuổi theo những kẻ xấu.
+Hoàn thành nhiệm vụ, chú bộ đội ân cần vỗ về chú ngựa.
+Các bạn nhỏ chuẩn bị cỏ thơm tặng ngựa biên phòng yêu quý.</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -3744,7 +3965,8 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Cây đa già ở làng thật to lớn và đặc biệt. Thân cây khổng lồ, nhiều bạn nhỏ ôm không xuể. Rễ cây nổi lên mặt đất trông thật kì lạ. Chiều chiều, chúng em thường ra ngồi hóng mát. Cảnh làng quê dưới gốc đa thật bình yên.</t>
+          <t>Chào các em học sinh thân yêu! Hôm nay, cô sẽ kể cho các em nghe về một cây đa thật đặc biệt nhé!
+Cây đa già ở làng thật to lớn và đặc biệt. Thân cây khổng lồ, nhiều bạn nhỏ ôm không xuể. Rễ cây nổi lên mặt đất trông thật kì lạ. Chiều chiều, chúng em thường ra ngồi hóng mát. Cảnh làng quê dưới gốc đa thật bình yên.</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3804,13 +4026,21 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Cô sẽ tóm tắt lại cho các con nghe nhé:
-Mưa xuân nhẹ nhàng làm mềm ngọn lúa xanh non mướt. Hoa xoan tím rụng khắp đường trông thật đẹp mắt. Nắng vàng ấm áp cùng gió thơm gọi mầm cây vươn. Chim hót líu lo vui vẻ, như trẻ con đang reo cười. Mùa xuân tươi đẹp đang đến khắp mọi chốn đó con!</t>
+          <t>Chào các con! Đây là đoạn văn kể về một mùa rất đẹp. Cô sẽ tóm tắt lại cho các con nghe nhé:
+Mưa xuân nhẹ nhàng làm mềm ngọn lúa xanh non mướt.
+Hoa xoan tím rụng khắp đường trông thật đẹp mắt.
+Nắng vàng ấm áp cùng gió thơm gọi mầm cây vươn.
+Chim hót líu lo vui vẻ, như trẻ con đang reo cười.
+Mùa xuân tươi đẹp đang đến khắp mọi chốn đó con!</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Mưa xuân nhẹ nhàng làm mềm ngọn lúa xanh non mướt. Hoa xoan tím rụng khắp đường trông thật đẹp mắt. Nắng vàng ấm áp cùng gió thơm gọi mầm cây vươn. Chim hót líu lo vui vẻ, như trẻ con đang reo cười. Mùa xuân tươi đẹp đang đến khắp mọi chốn đó con!</t>
+          <t>Mưa xuân nhẹ nhàng làm mềm ngọn lúa xanh non mướt.
+Hoa xoan tím rụng khắp đường trông thật đẹp mắt.
+Nắng vàng ấm áp cùng gió thơm gọi mầm cây vươn.
+Chim hót líu lo vui vẻ, như trẻ con đang reo cười.
+Mùa xuân tươi đẹp đang đến khắp mọi chốn đó con!</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -3865,12 +4095,13 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Hoa mơ nở trắng xóa núi rừng, khung cảnh thật thơ mộng. Nơi đây cảnh đẹp như tranh, khiến lòng người say mê. Mọi người đi Chùa Hương để ngắm cảnh và yêu thêm đất nước.</t>
+          <t>Chào các con! Cô sẽ tóm tắt bài thơ này thật dễ hiểu nhé:
+Vào mùa xuân, rất nhiều người đi trẩy hội Chùa Hương. Hoa mơ nở trắng xóa núi rừng, khung cảnh thật thơ mộng. Nơi đây cảnh đẹp như tranh, khiến lòng người say mê. Mọi người đi Chùa Hương để ngắm cảnh và yêu thêm đất nước.</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Hoa mơ nở trắng xóa núi rừng, khung cảnh thật thơ mộng. Nơi đây cảnh đẹp như tranh, khiến lòng người say mê. Mọi người đi Chùa Hương để ngắm cảnh và yêu thêm đất nước.</t>
+          <t>Vào mùa xuân, rất nhiều người đi trẩy hội Chùa Hương. Hoa mơ nở trắng xóa núi rừng, khung cảnh thật thơ mộng. Nơi đây cảnh đẹp như tranh, khiến lòng người say mê. Mọi người đi Chùa Hương để ngắm cảnh và yêu thêm đất nước.</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -3904,12 +4135,21 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Điều thú vị nhất là được thả nhiều cánh diều đủ màu sắc. Những cánh diều mang theo ước mơ bé nhỏ bay vút tận mây. Khung cảnh bình yên khiến lòng các bạn nhỏ cảm thấy thật vui.</t>
+          <t>Chào các em,
+Buổi chiều hè ở ngoại ô thường rất êm đềm và mát mẻ.
+Các bạn nhỏ cùng nhau dạo chơi bên bờ kênh, ngắm cảnh quê.
+Điều thú vị nhất là được thả nhiều cánh diều đủ màu sắc.
+Những cánh diều mang theo ước mơ bé nhỏ bay vút tận mây.
+Khung cảnh bình yên khiến lòng các bạn nhỏ cảm thấy thật vui.</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Điều thú vị nhất là được thả nhiều cánh diều đủ màu sắc. Những cánh diều mang theo ước mơ bé nhỏ bay vút tận mây. Khung cảnh bình yên khiến lòng các bạn nhỏ cảm thấy thật vui.</t>
+          <t>Buổi chiều hè ở ngoại ô thường rất êm đềm và mát mẻ.
+Các bạn nhỏ cùng nhau dạo chơi bên bờ kênh, ngắm cảnh quê.
+Điều thú vị nhất là được thả nhiều cánh diều đủ màu sắc.
+Những cánh diều mang theo ước mơ bé nhỏ bay vút tận mây.
+Khung cảnh bình yên khiến lòng các bạn nhỏ cảm thấy thật vui.</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -3945,7 +4185,8 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Sông lớn sau làng tôi có những cánh buồm rất nên thơ. Chúng có nhiều màu sắc, như áo những người thân yêu. Những cánh buồm cần cù nhẫn nại, đẩy thuyền vượt sóng nước. Khi có gió, buồm căng tròn giúp thuyền đi khắp nơi. Chúng vẫn chung thủy, sống mãi trong lòng người dân làng.</t>
+          <t>Chào các em học sinh yêu quý! Hôm nay, cô sẽ kể cho các em nghe về những cánh buồm trên một con sông nhé!
+Sông lớn sau làng tôi có những cánh buồm rất nên thơ. Chúng có nhiều màu sắc, như áo những người thân yêu. Những cánh buồm cần cù nhẫn nại, đẩy thuyền vượt sóng nước. Khi có gió, buồm căng tròn giúp thuyền đi khắp nơi. Chúng vẫn chung thủy, sống mãi trong lòng người dân làng.</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3997,12 +4238,13 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Bạn nhỏ rất thích thú khi xem ảnh chiếc cầu của cha. Cầu giúp mọi người, xe cộ đi lại dễ dàng hơn. Dù là cầu nhỏ hay lớn, chúng đều rất cần thiết. Nhưng cầu của cha là niềm tự hào lớn nhất của bạn.</t>
+          <t>Các bạn ơi, hãy cùng tóm tắt câu chuyện về những chiếc cầu nhé!
+Cha bạn nhỏ xây một cây cầu mới bắc qua sông sâu. Bạn nhỏ rất thích thú khi xem ảnh chiếc cầu của cha. Cầu giúp mọi người, xe cộ đi lại dễ dàng hơn. Dù là cầu nhỏ hay lớn, chúng đều rất cần thiết. Nhưng cầu của cha là niềm tự hào lớn nhất của bạn.</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Bạn nhỏ rất thích thú khi xem ảnh chiếc cầu của cha. Cầu giúp mọi người, xe cộ đi lại dễ dàng hơn. Dù là cầu nhỏ hay lớn, chúng đều rất cần thiết. Nhưng cầu của cha là niềm tự hào lớn nhất của bạn.</t>
+          <t>Cha bạn nhỏ xây một cây cầu mới bắc qua sông sâu. Bạn nhỏ rất thích thú khi xem ảnh chiếc cầu của cha. Cầu giúp mọi người, xe cộ đi lại dễ dàng hơn. Dù là cầu nhỏ hay lớn, chúng đều rất cần thiết. Nhưng cầu của cha là niềm tự hào lớn nhất của bạn.</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -4037,12 +4279,21 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Chúng tôi có một chuyến đi rất vui đến miền núi cao. Trên đường, chúng tôi nhìn thấy thác nước, rừng cây và ngựa. Chiều đến, thị trấn nhỏ có các bạn nhỏ dân tộc chơi. Sa Pa thật diệu kì, phong cảnh thay đổi liên tục. Nơi đây chính là món quà quý giá từ thiên nhiên.</t>
+          <t>Chào các em học sinh yêu quý! Hôm nay, cô sẽ kể cho các em nghe về một chuyến đi rất thú vị nhé!
+Chúng tôi có một chuyến đi rất vui đến miền núi cao.
+Trên đường, chúng tôi nhìn thấy thác nước, rừng cây và ngựa.
+Chiều đến, thị trấn nhỏ có các bạn nhỏ dân tộc chơi.
+Sa Pa thật diệu kì, phong cảnh thay đổi liên tục.
+Nơi đây chính là món quà quý giá từ thiên nhiên.</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Trên đường, chúng tôi nhìn thấy thác nước, rừng cây và ngựa. Chiều đến, thị trấn nhỏ có các bạn nhỏ dân tộc chơi. Sa Pa thật diệu kì, phong cảnh thay đổi liên tục. Nơi đây chính là món quà quý giá từ thiên nhiên.</t>
+          <t>Chúng tôi có một chuyến đi rất vui đến miền núi cao.
+Trên đường, chúng tôi nhìn thấy thác nước, rừng cây và ngựa.
+Chiều đến, thị trấn nhỏ có các bạn nhỏ dân tộc chơi.
+Sa Pa thật diệu kì, phong cảnh thay đổi liên tục.
+Nơi đây chính là món quà quý giá từ thiên nhiên.</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -4078,7 +4329,8 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Ki-a đã có chuyến thăm quê ngoại tuyệt đẹp tại Việt Nam. Ngôi làng có đồng lúa rộng lớn, sen nở, người dân hiền hòa. Em cảm thấy mình thật giàu có khi có thêm quê hương. Ki-a thường mơ về quê ngoại, mong muốn được quay lại.</t>
+          <t>Chào các em nhỏ! Hôm nay, cô sẽ tóm tắt câu chuyện về Ki-a nhé.
+Ki-a đã có chuyến thăm quê ngoại tuyệt đẹp tại Việt Nam. Ngôi làng có đồng lúa rộng lớn, sen nở, người dân hiền hòa. Em cảm thấy mình thật giàu có khi có thêm quê hương. Ki-a thường mơ về quê ngoại, mong muốn được quay lại.</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4119,7 +4371,8 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Ngô-rông-gô-rô là một khu bảo tồn động vật hoang dã lớn ở Châu Phi. Nơi này được gọi là "Quà tặng cuộc sống" và là Di sản thế giới. Hàng ngàn loài vật như sư tử, voi sống rất tự do nơi đây. Chúng không sợ người, thậm chí dửng dưng đi qua xe du khách. Hồng hạc bay lên tạo thành đám mây hồng khổng lồ thật đẹp.</t>
+          <t>Chào các em học sinh yêu quý! Hôm nay, chúng ta cùng khám phá một nơi thật đặc biệt nhé!
+Ngô-rông-gô-rô là một khu bảo tồn động vật hoang dã lớn ở Châu Phi. Nơi này được gọi là "Quà tặng cuộc sống" và là Di sản thế giới. Hàng ngàn loài vật như sư tử, voi sống rất tự do nơi đây. Chúng không sợ người, thậm chí dửng dưng đi qua xe du khách. Hồng hạc bay lên tạo thành đám mây hồng khổng lồ thật đẹp.</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4163,7 +4416,8 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Cô sẽ tóm tắt lại cho các em dễ hiểu nhé:
+          <t>Chào các em học sinh thân mến!
+Bạn Bình đã chia sẻ một câu chuyện rất đáng suy nghĩ. Cô sẽ tóm tắt lại cho các em dễ hiểu nhé:
 Bình rất buồn khi biết nhiều bạn nhỏ không có nhà ở. Cậu bé thấy chiến tranh đã phá hủy bao nhiêu ngôi nhà đẹp. Bình ước mơ vứt bỏ hết bom đạn, xây những căn nhà to lớn. Bạn ấy muốn mọi người cùng chung sống trong hòa bình, hạnh phúc. Bình cũng mong chim thú được tự do, sống gần gũi bên ta.</t>
         </is>
       </c>
@@ -4205,7 +4459,8 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Trái Đất ấm hơn làm băng ở Bắc Cực, Nam Cực tan nhanh. Nhiều loài vật, như gấu Bắc Cực, đang mất đi mái nhà. Băng tan khiến nước biển dâng cao, nhấn chìm nhiều vùng đất. Con người có thể mất nhà, mất đất và nguồn nước ngọt. Vì vậy, chúng ta hãy cùng bảo vệ Trái Đất tươi đẹp này.</t>
+          <t>Chào các em học sinh thân mến! Hôm nay, cô sẽ tóm tắt cho các em hiểu về việc Trái Đất của chúng ta đang thay đổi nhé.
+Trái Đất ấm hơn làm băng ở Bắc Cực, Nam Cực tan nhanh. Nhiều loài vật, như gấu Bắc Cực, đang mất đi mái nhà. Băng tan khiến nước biển dâng cao, nhấn chìm nhiều vùng đất. Con người có thể mất nhà, mất đất và nguồn nước ngọt. Vì vậy, chúng ta hãy cùng bảo vệ Trái Đất tươi đẹp này.</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4250,13 +4505,23 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Các em lắng nghe thật kỹ nha! **Tóm tắt:**
-Dương và ba mẹ đã có chuyến đi hè đến thành phố Pa-ri. Bà Mi-su đã cùng Dương khám phá nhiều danh lam thắng cảnh. Tháp Ép-phen lộng lẫy khiến Dương vô cùng kinh ngạc. Đêm về, ngọn tháp rực sáng biến Pa-ri thành kinh đô ánh sáng. Dương rất yêu Pa-ri và hứa sẽ sớm quay trở lại.</t>
+          <t>Chào các em học sinh yêu quý! Hôm nay chúng ta sẽ cùng tóm tắt câu chuyện về bạn Dương đi du lịch Pa-ri nhé. Các em lắng nghe thật kỹ nha!
+**Tóm tắt:**
+Dương và ba mẹ đã có chuyến đi hè đến thành phố Pa-ri.
+Bà Mi-su đã cùng Dương khám phá nhiều danh lam thắng cảnh.
+Tháp Ép-phen lộng lẫy khiến Dương vô cùng kinh ngạc.
+Đêm về, ngọn tháp rực sáng biến Pa-ri thành kinh đô ánh sáng.
+Dương rất yêu Pa-ri và hứa sẽ sớm quay trở lại.</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Dương và ba mẹ đã có chuyến đi hè đến thành phố Pa-ri. Bà Mi-su đã cùng Dương khám phá nhiều danh lam thắng cảnh. Tháp Ép-phen lộng lẫy khiến Dương vô cùng kinh ngạc. Đêm về, ngọn tháp rực sáng biến Pa-ri thành kinh đô ánh sáng. Dương rất yêu Pa-ri và hứa sẽ sớm quay trở lại.</t>
+          <t>**Tóm tắt:**
+Dương và ba mẹ đã có chuyến đi hè đến thành phố Pa-ri.
+Bà Mi-su đã cùng Dương khám phá nhiều danh lam thắng cảnh.
+Tháp Ép-phen lộng lẫy khiến Dương vô cùng kinh ngạc.
+Đêm về, ngọn tháp rực sáng biến Pa-ri thành kinh đô ánh sáng.
+Dương rất yêu Pa-ri và hứa sẽ sớm quay trở lại.</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
@@ -4290,7 +4555,8 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Lễ hội Hoa anh đào rất lớn, mọi người cùng ngắm hoa đẹp. Họ vui vẻ ăn uống, ca hát dưới những tán cây hoa. Các bé gái được trưng bày búp bê xinh đẹp để cầu may mắn. Tết Thiếu nhi dành cho bé trai, treo cờ cá chép mạnh mẽ.</t>
+          <t>Chào các em học sinh thân mến! Hôm nay, cô sẽ kể cho các em nghe về những lễ hội rất đặc biệt ở Nhật Bản nhé!
+Lễ hội Hoa anh đào rất lớn, mọi người cùng ngắm hoa đẹp. Họ vui vẻ ăn uống, ca hát dưới những tán cây hoa. Các bé gái được trưng bày búp bê xinh đẹp để cầu may mắn. Tết Thiếu nhi dành cho bé trai, treo cờ cá chép mạnh mẽ.</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4346,12 +4612,13 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
+          <t>Chào các em học sinh yêu quý! Đoạn thơ này kể về một trại hè rất đặc biệt đó.
+Các bạn nhỏ từ khắp nơi trên thế giới đã cùng nhau tụ họp tại trại hè này. Họ đến từ nhiều quốc gia khác nhau, có cả bạn đến từ Việt Nam chúng mình. Mọi người cùng nhau thả những chú bồ câu trắng lên bầu trời trong xanh. Dù ngôn ngữ khác biệt, nhưng họ đều có chung một ước mơ về hòa bình, hữu nghị. Bầu trời tràn ngập chim trắng tượng trưng cho hy vọng và niềm vui.</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
           <t>Các bạn nhỏ từ khắp nơi trên thế giới đã cùng nhau tụ họp tại trại hè này. Họ đến từ nhiều quốc gia khác nhau, có cả bạn đến từ Việt Nam chúng mình. Mọi người cùng nhau thả những chú bồ câu trắng lên bầu trời trong xanh. Dù ngôn ngữ khác biệt, nhưng họ đều có chung một ước mơ về hòa bình, hữu nghị. Bầu trời tràn ngập chim trắng tượng trưng cho hy vọng và niềm vui.</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Mọi người cùng nhau thả những chú bồ câu trắng lên bầu trời trong xanh. Dù ngôn ngữ khác biệt, nhưng họ đều có chung một ước mơ về hòa bình, hữu nghị. Bầu trời tràn ngập chim trắng tượng trưng cho hy vọng và niềm vui.</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
@@ -4389,7 +4656,8 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>---
+          <t>Chào các em học sinh yêu quý! Hôm nay chúng ta sẽ cùng tóm tắt một câu chuyện thật hay nhé.
+---
 Kì nghỉ hè đã hết, bạn nhỏ tạm biệt làng quê. Ông bà dặn dò, cô Lâm mời đám cưới cuối năm. Các bạn tặng nhiều món quà đặc biệt đầy tình cảm. Bạn còn hứa gửi sách xây tủ sách ở đình làng. Ngồi trên xe, bạn mong đợi một mùa hè tới nữa.</t>
         </is>
       </c>
@@ -4430,12 +4698,19 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Những câu chuyện hay sẽ được in thành sách song ngữ Việt-Nhật. Tiền bán sách sẽ giúp đỡ các quỹ khuyến học cho bạn nhỏ. Bạn nào giỏi nhất còn được đến Nhật Bản nhận giải thưởng lớn!</t>
+          <t>Các bạn ơi, có một cuộc thi viết truyện tên là “Đóa hoa đồng thoại” đó!
+Đây là cơ hội tuyệt vời để các em thể hiện tài năng sáng tạo.
+Những câu chuyện hay sẽ được in thành sách song ngữ Việt-Nhật.
+Tiền bán sách sẽ giúp đỡ các quỹ khuyến học cho bạn nhỏ.
+Bạn nào giỏi nhất còn được đến Nhật Bản nhận giải thưởng lớn!</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Những câu chuyện hay sẽ được in thành sách song ngữ Việt-Nhật. Tiền bán sách sẽ giúp đỡ các quỹ khuyến học cho bạn nhỏ. Bạn nào giỏi nhất còn được đến Nhật Bản nhận giải thưởng lớn!</t>
+          <t>Đây là cơ hội tuyệt vời để các em thể hiện tài năng sáng tạo.
+Những câu chuyện hay sẽ được in thành sách song ngữ Việt-Nhật.
+Tiền bán sách sẽ giúp đỡ các quỹ khuyến học cho bạn nhỏ.
+Bạn nào giỏi nhất còn được đến Nhật Bản nhận giải thưởng lớn!</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
@@ -4487,12 +4762,20 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Cha mẹ vất vả gieo hạt, cô giáo cần mẫn gieo những ước mơ xanh. Bà dệt nắng ấm, thiên nhiên mang mưa nắng cho cuộc sống tươi đẹp. Tất cả yêu thương đó làm cuộc đời bé thêm phần ý nghĩa, hạnh phúc. Em bé biết ơn, hứa sẽ gieo ngày mới giòn tan bằng tiếng cười vui!</t>
+          <t>Chào các em học sinh yêu quý!
+Bài thơ này kể về tình yêu thương ấm áp từ mọi người xung quanh chúng ta.
+Cha mẹ vất vả gieo hạt, cô giáo cần mẫn gieo những ước mơ xanh.
+Bà dệt nắng ấm, thiên nhiên mang mưa nắng cho cuộc sống tươi đẹp.
+Tất cả yêu thương đó làm cuộc đời bé thêm phần ý nghĩa, hạnh phúc.
+Em bé biết ơn, hứa sẽ gieo ngày mới giòn tan bằng tiếng cười vui!</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Cha mẹ vất vả gieo hạt, cô giáo cần mẫn gieo những ước mơ xanh. Bà dệt nắng ấm, thiên nhiên mang mưa nắng cho cuộc sống tươi đẹp. Tất cả yêu thương đó làm cuộc đời bé thêm phần ý nghĩa, hạnh phúc. Em bé biết ơn, hứa sẽ gieo ngày mới giòn tan bằng tiếng cười vui!</t>
+          <t>Cha mẹ vất vả gieo hạt, cô giáo cần mẫn gieo những ước mơ xanh.
+Bà dệt nắng ấm, thiên nhiên mang mưa nắng cho cuộc sống tươi đẹp.
+Tất cả yêu thương đó làm cuộc đời bé thêm phần ý nghĩa, hạnh phúc.
+Em bé biết ơn, hứa sẽ gieo ngày mới giòn tan bằng tiếng cười vui!</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -4526,12 +4809,13 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Liêm lên nương để chặt cỏ voi cho hai con bò. Bố mẹ vắng nhà, chị Dua đang ôn bài chuẩn bị thi. Liêm đã hứa với bố sẽ tự tay chăm sóc bò. Cậu bé vui vẻ làm việc, giúp đỡ gia đình mình thật giỏi.</t>
+          <t>Chào các em! Cô sẽ tóm tắt câu chuyện về bạn Liêm nhé:
+Gió mát thổi qua nương, Liêm ngửi thấy mùi ngô thơm. Liêm lên nương để chặt cỏ voi cho hai con bò. Bố mẹ vắng nhà, chị Dua đang ôn bài chuẩn bị thi. Liêm đã hứa với bố sẽ tự tay chăm sóc bò. Cậu bé vui vẻ làm việc, giúp đỡ gia đình mình thật giỏi.</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Liêm lên nương để chặt cỏ voi cho hai con bò. Bố mẹ vắng nhà, chị Dua đang ôn bài chuẩn bị thi. Liêm đã hứa với bố sẽ tự tay chăm sóc bò. Cậu bé vui vẻ làm việc, giúp đỡ gia đình mình thật giỏi.</t>
+          <t>Gió mát thổi qua nương, Liêm ngửi thấy mùi ngô thơm. Liêm lên nương để chặt cỏ voi cho hai con bò. Bố mẹ vắng nhà, chị Dua đang ôn bài chuẩn bị thi. Liêm đã hứa với bố sẽ tự tay chăm sóc bò. Cậu bé vui vẻ làm việc, giúp đỡ gia đình mình thật giỏi.</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
@@ -4577,7 +4861,8 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Phương và các bạn nhỏ rất háo hức chờ cây sấu lớn. Mọi người tranh nhau xem ai sẽ được ăn sấu nhiều nhất. Hai năm sau, cây sấu đã cao lớn, sai trĩu quả. Phương vui vẻ mời tất cả bạn bè đến cùng hái sấu. Cả nhóm thưởng thức quả sấu chín ngon lành và vui vẻ.</t>
+          <t>Chào các bạn nhỏ lớp 3-4! Cô có một câu chuyện về cây sấu và tình bạn rất đáng yêu đây.
+Phương và các bạn nhỏ rất háo hức chờ cây sấu lớn. Mọi người tranh nhau xem ai sẽ được ăn sấu nhiều nhất. Hai năm sau, cây sấu đã cao lớn, sai trĩu quả. Phương vui vẻ mời tất cả bạn bè đến cùng hái sấu. Cả nhóm thưởng thức quả sấu chín ngon lành và vui vẻ.</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4617,7 +4902,8 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Vào năm 1965, máy bay giặc ồ ạt ném bom xuống làng. Ngọc thấy các bạn nhỏ gặp nguy hiểm, cậu bé rất lo lắng. Không ngại bom đạn, cậu cứu ba em nhỏ vào hầm an toàn. Tiếc thay, Ngọc bị thương nặng và đã hi sinh anh dũng. Ngọc khi ấy mới mười bốn tuổi, mãi là một người hùng.</t>
+          <t>Chào các em học sinh yêu quý! Hôm nay, cô sẽ kể cho các em nghe về một câu chuyện rất xúc động nhé.
+Vào năm 1965, máy bay giặc ồ ạt ném bom xuống làng. Ngọc thấy các bạn nhỏ gặp nguy hiểm, cậu bé rất lo lắng. Không ngại bom đạn, cậu cứu ba em nhỏ vào hầm an toàn. Tiếc thay, Ngọc bị thương nặng và đã hi sinh anh dũng. Ngọc khi ấy mới mười bốn tuổi, mãi là một người hùng.</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4673,7 +4959,8 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Hoa hồng đỏ thắm, lá xanh tươi làm đẹp cho thiên nhiên. Nắng vàng ban mai chiếu rọi làm bừng sáng cả ngày. Hoàng hôn tím biếc, biển xanh trong vắt vẽ tranh tuyệt đẹp. Đêm đen giúp thắp muôn sao lấp lánh trên bầu trời. Thế giới quanh em rực rỡ biết bao sắc màu diệu kỳ!</t>
+          <t>Chào các em học sinh yêu quý! Hôm nay, cô sẽ kể cho các em nghe về thế giới đầy màu sắc nhé!
+Hoa hồng đỏ thắm, lá xanh tươi làm đẹp cho thiên nhiên. Nắng vàng ban mai chiếu rọi làm bừng sáng cả ngày. Hoàng hôn tím biếc, biển xanh trong vắt vẽ tranh tuyệt đẹp. Đêm đen giúp thắp muôn sao lấp lánh trên bầu trời. Thế giới quanh em rực rỡ biết bao sắc màu diệu kỳ!</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4714,13 +5001,19 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Cô có một đoạn văn rất hay về mùa thu và bây giờ, cô sẽ tóm tắt lại cho các em nhé:
-Mùa thu về, lá vàng rực rỡ, bưởi chín ngọt chờ phá cỗ. Trăng tròn vành vạnh, đêm thu trong lành, sao lấp lánh trên cao. Sớm mai dịu mát, chim non hót vang, hoa cúc dại khoe sắc. Nắng sớm đậu trang vở mới, thắp sáng lung linh những ước mơ.</t>
+          <t>Chào các em học sinh yêu quý! Mùa thu thật đẹp phải không nào? Cô có một đoạn văn rất hay về mùa thu và bây giờ, cô sẽ tóm tắt lại cho các em nhé:
+Mùa thu về, lá vàng rực rỡ, bưởi chín ngọt chờ phá cỗ.
+Trăng tròn vành vạnh, đêm thu trong lành, sao lấp lánh trên cao.
+Sớm mai dịu mát, chim non hót vang, hoa cúc dại khoe sắc.
+Nắng sớm đậu trang vở mới, thắp sáng lung linh những ước mơ.</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Mùa thu về, lá vàng rực rỡ, bưởi chín ngọt chờ phá cỗ. Trăng tròn vành vạnh, đêm thu trong lành, sao lấp lánh trên cao. Sớm mai dịu mát, chim non hót vang, hoa cúc dại khoe sắc. Nắng sớm đậu trang vở mới, thắp sáng lung linh những ước mơ.</t>
+          <t>Mùa thu về, lá vàng rực rỡ, bưởi chín ngọt chờ phá cỗ.
+Trăng tròn vành vạnh, đêm thu trong lành, sao lấp lánh trên cao.
+Sớm mai dịu mát, chim non hót vang, hoa cúc dại khoe sắc.
+Nắng sớm đậu trang vở mới, thắp sáng lung linh những ước mơ.</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
@@ -4765,7 +5058,8 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Thanh về thăm nhà bà, cảm thấy mát mẻ và yên tĩnh. Vườn cây xanh mát, không gian thật bình yên lạ thường. Bà tóc bạc phơ bước ra, nhìn Thanh với ánh mắt hiền từ. Thanh mừng rỡ, cảm nhận tình yêu thương bà dành cho. Nơi bà ở luôn là chốn bình yên, chan chứa yêu thương.</t>
+          <t>Chào các em! Cô sẽ tóm tắt câu chuyện này thật ngắn gọn nhé.
+Thanh về thăm nhà bà, cảm thấy mát mẻ và yên tĩnh. Vườn cây xanh mát, không gian thật bình yên lạ thường. Bà tóc bạc phơ bước ra, nhìn Thanh với ánh mắt hiền từ. Thanh mừng rỡ, cảm nhận tình yêu thương bà dành cho. Nơi bà ở luôn là chốn bình yên, chan chứa yêu thương.</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4815,12 +5109,20 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Cha mẹ vất vả nuôi dưỡng, giúp chúng ta lớn khôn nên người. Thầy cô dạy dỗ kiến thức, anh chị em hãy luôn yêu thương. Dù khác biệt, chúng ta vẫn cần giúp đỡ và thương yêu nhau. Hãy luôn nhớ về cội nguồn, gia đình và tổ tiên của mình nhé.</t>
+          <t>Chào các con học sinh yêu quý!
+Bài ca dao này dạy chúng ta nhiều điều rất hay về tình cảm gia đình và cách sống đẹp đó.
+Cha mẹ vất vả nuôi dưỡng, giúp chúng ta lớn khôn nên người.
+Thầy cô dạy dỗ kiến thức, anh chị em hãy luôn yêu thương.
+Dù khác biệt, chúng ta vẫn cần giúp đỡ và thương yêu nhau.
+Hãy luôn nhớ về cội nguồn, gia đình và tổ tiên của mình nhé.</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Cha mẹ vất vả nuôi dưỡng, giúp chúng ta lớn khôn nên người. Thầy cô dạy dỗ kiến thức, anh chị em hãy luôn yêu thương. Dù khác biệt, chúng ta vẫn cần giúp đỡ và thương yêu nhau. Hãy luôn nhớ về cội nguồn, gia đình và tổ tiên của mình nhé.</t>
+          <t>Cha mẹ vất vả nuôi dưỡng, giúp chúng ta lớn khôn nên người.
+Thầy cô dạy dỗ kiến thức, anh chị em hãy luôn yêu thương.
+Dù khác biệt, chúng ta vẫn cần giúp đỡ và thương yêu nhau.
+Hãy luôn nhớ về cội nguồn, gia đình và tổ tiên của mình nhé.</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
@@ -4866,13 +5168,22 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Bài thơ kể về tình yêu thương của bà đấy! Đây là phần tóm tắt cho các con dễ hiểu này:
-Bà để dành những chùm cam chín vàng trên cây. Bà mong chờ con cháu về để cùng thưởng thức. Bà cẩn thận chăm sóc, bảo vệ quả khỏi sương gió. Tình yêu thương của bà thật ngọt ngào, ấm áp. Bà có tấm lòng vàng luôn yêu thương chúng ta.</t>
+          <t>Chào các con! Hôm nay chúng ta cùng đọc một bài thơ thật hay về bà nhé. Bài thơ kể về tình yêu thương của bà đấy!
+Đây là phần tóm tắt cho các con dễ hiểu này:
+Bà để dành những chùm cam chín vàng trên cây.
+Bà mong chờ con cháu về để cùng thưởng thức.
+Bà cẩn thận chăm sóc, bảo vệ quả khỏi sương gió.
+Tình yêu thương của bà thật ngọt ngào, ấm áp.
+Bà có tấm lòng vàng luôn yêu thương chúng ta.</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Bà để dành những chùm cam chín vàng trên cây. Bà mong chờ con cháu về để cùng thưởng thức. Bà cẩn thận chăm sóc, bảo vệ quả khỏi sương gió. Tình yêu thương của bà thật ngọt ngào, ấm áp. Bà có tấm lòng vàng luôn yêu thương chúng ta.</t>
+          <t>Bà để dành những chùm cam chín vàng trên cây.
+Bà mong chờ con cháu về để cùng thưởng thức.
+Bà cẩn thận chăm sóc, bảo vệ quả khỏi sương gió.
+Tình yêu thương của bà thật ngọt ngào, ấm áp.
+Bà có tấm lòng vàng luôn yêu thương chúng ta.</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -4905,12 +5216,21 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Phiên chợ Vàm Cái Đôi họp thật sớm ngay góc bến tàu. Mọi người mang rau cá, củ quả tươi từ vườn nhà mình. Người dân thân thiện, thường gọi rau ruộng, cá ruộng yêu thương. Đây là nơi bình yên, ai đi xa cũng đều nhớ về. Họ nhớ gió, sông xanh và tiếng còi tàu sớm mai.</t>
+          <t>Chào các em học sinh yêu quý! Hôm nay, cô sẽ kể cho các em nghe về một khu chợ rất đặc biệt nhé!
+Phiên chợ Vàm Cái Đôi họp thật sớm ngay góc bến tàu.
+Mọi người mang rau cá, củ quả tươi từ vườn nhà mình.
+Người dân thân thiện, thường gọi rau ruộng, cá ruộng yêu thương.
+Đây là nơi bình yên, ai đi xa cũng đều nhớ về.
+Họ nhớ gió, sông xanh và tiếng còi tàu sớm mai.</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Phiên chợ Vàm Cái Đôi họp thật sớm ngay góc bến tàu. Mọi người mang rau cá, củ quả tươi từ vườn nhà mình. Người dân thân thiện, thường gọi rau ruộng, cá ruộng yêu thương. Đây là nơi bình yên, ai đi xa cũng đều nhớ về. Họ nhớ gió, sông xanh và tiếng còi tàu sớm mai.</t>
+          <t>Phiên chợ Vàm Cái Đôi họp thật sớm ngay góc bến tàu.
+Mọi người mang rau cá, củ quả tươi từ vườn nhà mình.
+Người dân thân thiện, thường gọi rau ruộng, cá ruộng yêu thương.
+Đây là nơi bình yên, ai đi xa cũng đều nhớ về.
+Họ nhớ gió, sông xanh và tiếng còi tàu sớm mai.</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -4955,12 +5275,21 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Cô bé nói mẹ dạy làm điều tốt không nhận tiền. Nhiều năm sau, cô gái bệnh nặng, bác sĩ Ke-ly khám. Anh ấy nhận ra cô gái tốt bụng đã giúp mình ngày xưa. Ke-ly viết trên hóa đơn: "Đã trả đủ bằng ly sữa."</t>
+          <t>Chào các em, cô có một câu chuyện rất hay muốn kể lại cho các em nghe nhé!
+Một lần, cậu bé Ke-ly đói bụng, được cô gái cho sữa.
+Cô bé nói mẹ dạy làm điều tốt không nhận tiền.
+Nhiều năm sau, cô gái bệnh nặng, bác sĩ Ke-ly khám.
+Anh ấy nhận ra cô gái tốt bụng đã giúp mình ngày xưa.
+Ke-ly viết trên hóa đơn: "Đã trả đủ bằng ly sữa."</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Cô bé nói mẹ dạy làm điều tốt không nhận tiền. Nhiều năm sau, cô gái bệnh nặng, bác sĩ Ke-ly khám. Anh ấy nhận ra cô gái tốt bụng đã giúp mình ngày xưa. Ke-ly viết trên hóa đơn: "Đã trả đủ bằng ly sữa."</t>
+          <t>Một lần, cậu bé Ke-ly đói bụng, được cô gái cho sữa.
+Cô bé nói mẹ dạy làm điều tốt không nhận tiền.
+Nhiều năm sau, cô gái bệnh nặng, bác sĩ Ke-ly khám.
+Anh ấy nhận ra cô gái tốt bụng đã giúp mình ngày xưa.
+Ke-ly viết trên hóa đơn: "Đã trả đủ bằng ly sữa."</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -4994,12 +5323,13 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Họ làm nhiều việc tốt giúp chú bộ đội và ngư dân trên biển. Câu lạc bộ đã tặng nhiều học bổng, xây nhà đồng đội. Họ còn gửi hàng ngàn phần quà đến các bạn nhỏ. Mọi người luôn yêu quý, ủng hộ biển đảo của Tổ quốc mình.</t>
+          <t>Chào các bạn nhỏ lớp 3, lớp 4!
+Có một Câu lạc bộ tên Hoàng Sa – Trường Sa được thành lập năm 2014. Họ làm nhiều việc tốt giúp chú bộ đội và ngư dân trên biển. Câu lạc bộ đã tặng nhiều học bổng, xây nhà đồng đội. Họ còn gửi hàng ngàn phần quà đến các bạn nhỏ. Mọi người luôn yêu quý, ủng hộ biển đảo của Tổ quốc mình.</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Họ làm nhiều việc tốt giúp chú bộ đội và ngư dân trên biển. Câu lạc bộ đã tặng nhiều học bổng, xây nhà đồng đội. Họ còn gửi hàng ngàn phần quà đến các bạn nhỏ. Mọi người luôn yêu quý, ủng hộ biển đảo của Tổ quốc mình.</t>
+          <t>Có một Câu lạc bộ tên Hoàng Sa – Trường Sa được thành lập năm 2014. Họ làm nhiều việc tốt giúp chú bộ đội và ngư dân trên biển. Câu lạc bộ đã tặng nhiều học bổng, xây nhà đồng đội. Họ còn gửi hàng ngàn phần quà đến các bạn nhỏ. Mọi người luôn yêu quý, ủng hộ biển đảo của Tổ quốc mình.</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
@@ -5046,12 +5376,13 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
+          <t>Chào các em học sinh yêu quý! Hôm nay, cô sẽ tóm tắt bài thơ về bạn Gió chăm chỉ nhé.
+Gió trong vườn rất chăm chỉ, giúp đỡ mọi người rất nhiều. Gió nhẹ nhàng mở cửa sổ, mang hương thơm hoa đến khắp nơi. Gió còn thổi khói bếp bay, mang mưa tươi mát cho cây vườn. Gió yêu buổi bình minh đẹp, tiếng chim hót vang, nắng ấm. Gió vườn thật tốt bụng, làm nhiều việc ý nghĩa mỗi ngày.</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
           <t>Gió trong vườn rất chăm chỉ, giúp đỡ mọi người rất nhiều. Gió nhẹ nhàng mở cửa sổ, mang hương thơm hoa đến khắp nơi. Gió còn thổi khói bếp bay, mang mưa tươi mát cho cây vườn. Gió yêu buổi bình minh đẹp, tiếng chim hót vang, nắng ấm. Gió vườn thật tốt bụng, làm nhiều việc ý nghĩa mỗi ngày.</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Gió nhẹ nhàng mở cửa sổ, mang hương thơm hoa đến khắp nơi. Gió còn thổi khói bếp bay, mang mưa tươi mát cho cây vườn. Gió yêu buổi bình minh đẹp, tiếng chim hót vang, nắng ấm. Gió vườn thật tốt bụng, làm nhiều việc ý nghĩa mỗi ngày.</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -5086,12 +5417,13 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
+          <t>Chào các em học sinh yêu quý! Hôm nay chúng ta sẽ cùng nhau tìm hiểu về khu vườn đặc biệt của Bác Hồ nhé.
+Vườn Bác Hồ là một nơi tuyệt diệu, tràn ngập niềm vui. Nơi đây có rất nhiều trái cây ngọt thơm từ khắp cả nước. Những quả hồng chín đỏ treo lủng lẳng như những chiếc đèn lồng. Vườn luôn xanh tươi, khoe sắc bốn mùa nhờ bàn tay Bác. Đây chính là cội nguồn của mọi điều đẹp đẽ, ngọt ngào.</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
           <t>Vườn Bác Hồ là một nơi tuyệt diệu, tràn ngập niềm vui. Nơi đây có rất nhiều trái cây ngọt thơm từ khắp cả nước. Những quả hồng chín đỏ treo lủng lẳng như những chiếc đèn lồng. Vườn luôn xanh tươi, khoe sắc bốn mùa nhờ bàn tay Bác. Đây chính là cội nguồn của mọi điều đẹp đẽ, ngọt ngào.</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>Nơi đây có rất nhiều trái cây ngọt thơm từ khắp cả nước. Những quả hồng chín đỏ treo lủng lẳng như những chiếc đèn lồng. Vườn luôn xanh tươi, khoe sắc bốn mùa nhờ bàn tay Bác. Đây chính là cội nguồn của mọi điều đẹp đẽ, ngọt ngào.</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -5177,12 +5509,21 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Chàng xin vua một dùi sắt, lặn xuống đục thuyền giặc. Yết Kiêu có tài lặn rất giỏi, nhờ cha và ông dạy. Bị giặc bắt, chàng dũng cảm đối đáp, sau đó trốn thoát. Ông là tấm gương sáng về lòng yêu nước, thông minh.</t>
+          <t>Chào các em học sinh lớp 3-4! Cô/thầy sẽ tóm tắt câu chuyện về người anh hùng Yết Kiêu thật dễ hiểu nhé:
+Giặc Nguyên xâm lược, Yết Kiêu xin cha đi đánh giặc.
+Chàng xin vua một dùi sắt, lặn xuống đục thuyền giặc.
+Yết Kiêu có tài lặn rất giỏi, nhờ cha và ông dạy.
+Bị giặc bắt, chàng dũng cảm đối đáp, sau đó trốn thoát.
+Ông là tấm gương sáng về lòng yêu nước, thông minh.</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Chàng xin vua một dùi sắt, lặn xuống đục thuyền giặc. Yết Kiêu có tài lặn rất giỏi, nhờ cha và ông dạy. Bị giặc bắt, chàng dũng cảm đối đáp, sau đó trốn thoát. Ông là tấm gương sáng về lòng yêu nước, thông minh.</t>
+          <t>Giặc Nguyên xâm lược, Yết Kiêu xin cha đi đánh giặc.
+Chàng xin vua một dùi sắt, lặn xuống đục thuyền giặc.
+Yết Kiêu có tài lặn rất giỏi, nhờ cha và ông dạy.
+Bị giặc bắt, chàng dũng cảm đối đáp, sau đó trốn thoát.
+Ông là tấm gương sáng về lòng yêu nước, thông minh.</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
@@ -5218,12 +5559,21 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Mạc Đĩnh Chi là một cậu bé tài giỏi, luôn chăm chỉ học hành. Khi đi thi, cậu đỗ đầu nhưng nhà vua muốn thử tài thêm. Ông đã viết bài phú "Bông sen trong giếng ngọc" rất đẹp. Nhà vua rất nể phục, quyết định chọn ông làm Trạng Nguyên. Sau này, ông đã làm được nhiều việc lớn giúp đất nước.</t>
+          <t>Chào các em học sinh! Hôm nay, cô sẽ kể cho các em nghe về một người rất giỏi giang tên là Mạc Đĩnh Chi nhé.
+Mạc Đĩnh Chi là một cậu bé tài giỏi, luôn chăm chỉ học hành.
+Khi đi thi, cậu đỗ đầu nhưng nhà vua muốn thử tài thêm.
+Ông đã viết bài phú "Bông sen trong giếng ngọc" rất đẹp.
+Nhà vua rất nể phục, quyết định chọn ông làm Trạng Nguyên.
+Sau này, ông đã làm được nhiều việc lớn giúp đất nước.</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Khi đi thi, cậu đỗ đầu nhưng nhà vua muốn thử tài thêm. Ông đã viết bài phú "Bông sen trong giếng ngọc" rất đẹp. Nhà vua rất nể phục, quyết định chọn ông làm Trạng Nguyên. Sau này, ông đã làm được nhiều việc lớn giúp đất nước.</t>
+          <t>Mạc Đĩnh Chi là một cậu bé tài giỏi, luôn chăm chỉ học hành.
+Khi đi thi, cậu đỗ đầu nhưng nhà vua muốn thử tài thêm.
+Ông đã viết bài phú "Bông sen trong giếng ngọc" rất đẹp.
+Nhà vua rất nể phục, quyết định chọn ông làm Trạng Nguyên.
+Sau này, ông đã làm được nhiều việc lớn giúp đất nước.</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
@@ -5268,12 +5618,21 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Một sáng tháng Năm, bạn nhỏ vui vẻ đến thăm Bác Hồ. Bác đang ngồi viết trong căn nhà sàn nhỏ bé, đơn sơ. Bác ân cần gọi bạn lại gần, bàn tay Bác ấm áp vô cùng. Bác Hồ bận rộn nhưng luôn giản dị, yêu thương mọi người. Bạn nhỏ thấy Bác thật vĩ đại, gần gũi như người cha thân yêu.</t>
+          <t>Chào các em học sinh thân mến! Cô có một đoạn thơ rất hay về Bác Hồ, mình cùng tóm tắt nhé!
+Một sáng tháng Năm, bạn nhỏ vui vẻ đến thăm Bác Hồ.
+Bác đang ngồi viết trong căn nhà sàn nhỏ bé, đơn sơ.
+Bác ân cần gọi bạn lại gần, bàn tay Bác ấm áp vô cùng.
+Bác Hồ bận rộn nhưng luôn giản dị, yêu thương mọi người.
+Bạn nhỏ thấy Bác thật vĩ đại, gần gũi như người cha thân yêu.</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Bác đang ngồi viết trong căn nhà sàn nhỏ bé, đơn sơ. Bác ân cần gọi bạn lại gần, bàn tay Bác ấm áp vô cùng. Bác Hồ bận rộn nhưng luôn giản dị, yêu thương mọi người. Bạn nhỏ thấy Bác thật vĩ đại, gần gũi như người cha thân yêu.</t>
+          <t>Một sáng tháng Năm, bạn nhỏ vui vẻ đến thăm Bác Hồ.
+Bác đang ngồi viết trong căn nhà sàn nhỏ bé, đơn sơ.
+Bác ân cần gọi bạn lại gần, bàn tay Bác ấm áp vô cùng.
+Bác Hồ bận rộn nhưng luôn giản dị, yêu thương mọi người.
+Bạn nhỏ thấy Bác thật vĩ đại, gần gũi như người cha thân yêu.</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -5307,12 +5666,13 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
+          <t>Chào các bạn học sinh yêu quý! Hôm nay chúng ta cùng khám phá một điều rất thú vị của nước mình nhé!
+Việt Nam rất tự hào về bộ sưu tập trống đồng Đông Sơn. Mặt trống có hình ngôi sao, cùng nhiều hoa văn độc đáo. Những hình này kể về người xưa lao động, đánh cá, vui chơi. Chim Lạc, cá bơi lội cũng góp mặt, biểu trưng cuộc sống. Trống đồng chính là kho tàng quý giá của văn hóa Việt Nam.</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
           <t>Việt Nam rất tự hào về bộ sưu tập trống đồng Đông Sơn. Mặt trống có hình ngôi sao, cùng nhiều hoa văn độc đáo. Những hình này kể về người xưa lao động, đánh cá, vui chơi. Chim Lạc, cá bơi lội cũng góp mặt, biểu trưng cuộc sống. Trống đồng chính là kho tàng quý giá của văn hóa Việt Nam.</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>Mặt trống có hình ngôi sao, cùng nhiều hoa văn độc đáo. Những hình này kể về người xưa lao động, đánh cá, vui chơi. Chim Lạc, cá bơi lội cũng góp mặt, biểu trưng cuộc sống. Trống đồng chính là kho tàng quý giá của văn hóa Việt Nam.</t>
         </is>
       </c>
       <c r="F102" t="inlineStr"/>
@@ -5359,12 +5719,21 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>1. Chú gà ngạc nhiên thấy băng thật tài giỏi khi đi trên nó. 2. Nhưng băng, mưa, đất, cây, lửa đều khiêm tốn khen những vật khác. 3. Gió và cỏ cũng chỉ ra những điều tuyệt vời của cừu. 4. Cuối cùng, cừu khẳng định con người là tài giỏi nhất thế giới. 5. Vì họ biết tạo ra nhiều thứ và điều khiển thế giới xung quanh.</t>
+          <t>Chào các em! Cô có một câu chuyện nhỏ rất hay, nói về việc ai là người tài giỏi nhất.
+1.  Chú gà ngạc nhiên thấy băng thật tài giỏi khi đi trên nó.
+2.  Nhưng băng, mưa, đất, cây, lửa đều khiêm tốn khen những vật khác.
+3.  Gió và cỏ cũng chỉ ra những điều tuyệt vời của cừu.
+4.  Cuối cùng, cừu khẳng định con người là tài giỏi nhất thế giới.
+5.  Vì họ biết tạo ra nhiều thứ và điều khiển thế giới xung quanh.</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Gió và cỏ cũng chỉ ra những điều tuyệt vời của cừu. Cuối cùng, cừu khẳng định con người là tài giỏi nhất thế giới. Vì họ biết tạo ra nhiều thứ và điều khiển thế giới xung quanh.</t>
+          <t>1. Chú gà ngạc nhiên thấy băng thật tài giỏi khi đi trên nó.
+2. Nhưng băng, mưa, đất, cây, lửa đều khiêm tốn khen những vật khác.
+3. Gió và cỏ cũng chỉ ra những điều tuyệt vời của cừu.
+4. Cuối cùng, cừu khẳng định con người là tài giỏi nhất thế giới.
+5. Vì họ biết tạo ra nhiều thứ và điều khiển thế giới xung quanh.</t>
         </is>
       </c>
       <c r="F103" t="inlineStr"/>
@@ -5397,13 +5766,22 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Tóm tắt:
-Hà Lan có những con đê biển rất lớn, ngăn nước biển tràn vào. Đất nước này thấp, nên nước biển thường xuyên dâng cao gây lũ lụt. Những con đê giúp Hà Lan có thêm đất và bảo vệ làng mạc. Người Hà Lan đã xây hàng chục đê khổng lồ trong nhiều năm. Đây được coi là một công trình vĩ đại nhất của thế giới.</t>
+          <t>Chào các bạn học sinh yêu quý! Hôm nay chúng ta sẽ cùng tìm hiểu về những con đê biển thật đặc biệt ở đất nước Hà Lan nhé!
+Tóm tắt:
+Hà Lan có những con đê biển rất lớn, ngăn nước biển tràn vào.
+Đất nước này thấp, nên nước biển thường xuyên dâng cao gây lũ lụt.
+Những con đê giúp Hà Lan có thêm đất và bảo vệ làng mạc.
+Người Hà Lan đã xây hàng chục đê khổng lồ trong nhiều năm.
+Đây được coi là một công trình vĩ đại nhất của thế giới.</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Hà Lan có những con đê biển rất lớn, ngăn nước biển tràn vào. Đất nước này thấp, nên nước biển thường xuyên dâng cao gây lũ lụt. Những con đê giúp Hà Lan có thêm đất và bảo vệ làng mạc. Người Hà Lan đã xây hàng chục đê khổng lồ trong nhiều năm. Đây được coi là một công trình vĩ đại nhất của thế giới.</t>
+          <t>Hà Lan có những con đê biển rất lớn, ngăn nước biển tràn vào.
+Đất nước này thấp, nên nước biển thường xuyên dâng cao gây lũ lụt.
+Những con đê giúp Hà Lan có thêm đất và bảo vệ làng mạc.
+Người Hà Lan đã xây hàng chục đê khổng lồ trong nhiều năm.
+Đây được coi là một công trình vĩ đại nhất của thế giới.</t>
         </is>
       </c>
       <c r="F104" t="inlineStr"/>
@@ -5462,12 +5840,21 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Trái Đất ban đầu thật trống trải, chỉ có những bạn nhỏ. 2. Mặt trời to lớn xuất hiện, soi sáng cho mọi vật. 3. Mẹ sinh ra để ấp ủ, chăm sóc chúng mình yêu thương. 4. Bố dạy dỗ ân cần, giúp các em thêm hiểu biết. 5. Thầy cô, trường lớp giúp học sinh khám phá thế giới.</t>
+          <t>Chào các em học sinh thân mến! Cô sẽ kể tóm tắt câu chuyện này thật đơn giản nhé:
+1.  Trái Đất ban đầu thật trống trải, chỉ có những bạn nhỏ.
+2.  Mặt trời to lớn xuất hiện, soi sáng cho mọi vật.
+3.  Mẹ sinh ra để ấp ủ, chăm sóc chúng mình yêu thương.
+4.  Bố dạy dỗ ân cần, giúp các em thêm hiểu biết.
+5.  Thầy cô, trường lớp giúp học sinh khám phá thế giới.</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Trái Đất ban đầu thật trống trải, chỉ có những bạn nhỏ. 2. Mặt trời to lớn xuất hiện, soi sáng cho mọi vật. 3. Mẹ sinh ra để ấp ủ, chăm sóc chúng mình yêu thương. 4. Bố dạy dỗ ân cần, giúp các em thêm hiểu biết. 5. Thầy cô, trường lớp giúp học sinh khám phá thế giới.</t>
+          <t>1.  Trái Đất ban đầu thật trống trải, chỉ có những bạn nhỏ.
+2.  Mặt trời to lớn xuất hiện, soi sáng cho mọi vật.
+3.  Mẹ sinh ra để ấp ủ, chăm sóc chúng mình yêu thương.
+4.  Bố dạy dỗ ân cần, giúp các em thêm hiểu biết.
+5.  Thầy cô, trường lớp giúp học sinh khám phá thế giới.</t>
         </is>
       </c>
       <c r="F105" t="inlineStr"/>
@@ -5501,12 +5888,22 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Cùng cô tìm hiểu nhé! Mùa hè, mưa xuống, cao nguyên xanh tươi, ngô trổ bông. Mùa thu, hoa tam giác mạch tuyệt đẹp nở hồng rực rỡ. Nhiều loài hoa khác cũng nở, dù thời tiết rất khắc nghiệt. Người dân nơi đây kiên cường, như hoa làm ấm cao nguyên. Họ giống như hoa, tô điểm cho vùng đất thêm tươi đẹp.</t>
+          <t>Chào các em học sinh lớp 3-4!
+Cao nguyên đá thật tuyệt vời, đúng không nào? Cùng cô tìm hiểu nhé!
+Mùa hè, mưa xuống, cao nguyên xanh tươi, ngô trổ bông.
+Mùa thu, hoa tam giác mạch tuyệt đẹp nở hồng rực rỡ.
+Nhiều loài hoa khác cũng nở, dù thời tiết rất khắc nghiệt.
+Người dân nơi đây kiên cường, như hoa làm ấm cao nguyên.
+Họ giống như hoa, tô điểm cho vùng đất thêm tươi đẹp.</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Mùa hè, mưa xuống, cao nguyên xanh tươi, ngô trổ bông. Mùa thu, hoa tam giác mạch tuyệt đẹp nở hồng rực rỡ. Nhiều loài hoa khác cũng nở, dù thời tiết rất khắc nghiệt. Người dân nơi đây kiên cường, như hoa làm ấm cao nguyên. Họ giống như hoa, tô điểm cho vùng đất thêm tươi đẹp.</t>
+          <t>Mùa hè, mưa xuống, cao nguyên xanh tươi, ngô trổ bông.
+Mùa thu, hoa tam giác mạch tuyệt đẹp nở hồng rực rỡ.
+Nhiều loài hoa khác cũng nở, dù thời tiết rất khắc nghiệt.
+Người dân nơi đây kiên cường, như hoa làm ấm cao nguyên.
+Họ giống như hoa, tô điểm cho vùng đất thêm tươi đẹp.</t>
         </is>
       </c>
       <c r="F106" t="inlineStr"/>
@@ -5554,12 +5951,21 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Ở đó, họ gặp các em bé sắp chào đời, ai cũng rất tài giỏi. Các em đang sáng chế nhiều thứ hay ho để mang xuống Trái Đất. Chúng tạo ra thuốc quý, ánh sáng lạ, máy bay, cùng hạnh phúc. Mỗi em bé đều muốn làm điều tốt đẹp cho thế giới mình.</t>
+          <t>Chào các em! Cô giáo tóm tắt câu chuyện cho các em đây:
+Tin-tin và Mi-tin đã đến Vương quốc Tương Lai để tìm Chim Xanh.
+Ở đó, họ gặp các em bé sắp chào đời, ai cũng rất tài giỏi.
+Các em đang sáng chế nhiều thứ hay ho để mang xuống Trái Đất.
+Chúng tạo ra thuốc quý, ánh sáng lạ, máy bay, cùng hạnh phúc.
+Mỗi em bé đều muốn làm điều tốt đẹp cho thế giới mình.</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Ở đó, họ gặp các em bé sắp chào đời, ai cũng rất tài giỏi. Các em đang sáng chế nhiều thứ hay ho để mang xuống Trái Đất. Chúng tạo ra thuốc quý, ánh sáng lạ, máy bay, cùng hạnh phúc. Mỗi em bé đều muốn làm điều tốt đẹp cho thế giới mình.</t>
+          <t>Tin-tin và Mi-tin đã đến Vương quốc Tương Lai để tìm Chim Xanh.
+Ở đó, họ gặp các em bé sắp chào đời, ai cũng rất tài giỏi.
+Các em đang sáng chế nhiều thứ hay ho để mang xuống Trái Đất.
+Chúng tạo ra thuốc quý, ánh sáng lạ, máy bay, cùng hạnh phúc.
+Mỗi em bé đều muốn làm điều tốt đẹp cho thế giới mình.</t>
         </is>
       </c>
       <c r="F107" t="inlineStr"/>
@@ -5593,12 +5999,13 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
+          <t>Chào các con! Hôm nay chúng ta sẽ cùng tìm hiểu về một nhà khoa học tài ba nhé!
+Xti-vơn Hoóc-king là một nhà khoa học rất nổi tiếng. Từ nhỏ, cậu đã thích ngắm sao và bầu trời đêm. Cậu luôn băn khoăn về cách các vì sao hình thành. Hoóc-king đã đọc nhiều sách và tự tìm tòi khám phá. Lớn lên, ông giải thích được bí mật ra đời của các vì sao.</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
           <t>Xti-vơn Hoóc-king là một nhà khoa học rất nổi tiếng. Từ nhỏ, cậu đã thích ngắm sao và bầu trời đêm. Cậu luôn băn khoăn về cách các vì sao hình thành. Hoóc-king đã đọc nhiều sách và tự tìm tòi khám phá. Lớn lên, ông giải thích được bí mật ra đời của các vì sao.</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>Từ nhỏ, cậu đã thích ngắm sao và bầu trời đêm. Cậu luôn băn khoăn về cách các vì sao hình thành. Hoóc-king đã đọc nhiều sách và tự tìm tòi khám phá. Lớn lên, ông giải thích được bí mật ra đời của các vì sao.</t>
         </is>
       </c>
       <c r="F108" t="inlineStr"/>
@@ -5636,12 +6043,21 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Một cô bé gieo hạt táo nhỏ, mơ ước về cây táo. Em bé kiên trì tưới nước mỗi ngày với niềm tin. Tuy nhiên, chậu đất vẫn im lìm sau một tháng dài. Cô bé vẫn không bỏ cuộc, luôn thì thầm động viên. Cuối cùng, mầm cây xanh bé nhỏ đã vui vẻ nảy mầm.</t>
+          <t>Chào các em học sinh thân yêu! Hôm nay, cô sẽ kể cho các em nghe câu chuyện về một cô bé có ước mơ thật đẹp nhé.
+Một cô bé gieo hạt táo nhỏ, mơ ước về cây táo.
+Em bé kiên trì tưới nước mỗi ngày với niềm tin.
+Tuy nhiên, chậu đất vẫn im lìm sau một tháng dài.
+Cô bé vẫn không bỏ cuộc, luôn thì thầm động viên.
+Cuối cùng, mầm cây xanh bé nhỏ đã vui vẻ nảy mầm.</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Một cô bé gieo hạt táo nhỏ, mơ ước về cây táo. Em bé kiên trì tưới nước mỗi ngày với niềm tin. Tuy nhiên, chậu đất vẫn im lìm sau một tháng dài. Cô bé vẫn không bỏ cuộc, luôn thì thầm động viên. Cuối cùng, mầm cây xanh bé nhỏ đã vui vẻ nảy mầm.</t>
+          <t>Một cô bé gieo hạt táo nhỏ, mơ ước về cây táo.
+Em bé kiên trì tưới nước mỗi ngày với niềm tin.
+Tuy nhiên, chậu đất vẫn im lìm sau một tháng dài.
+Cô bé vẫn không bỏ cuộc, luôn thì thầm động viên.
+Cuối cùng, mầm cây xanh bé nhỏ đã vui vẻ nảy mầm.</t>
         </is>
       </c>
       <c r="F109" t="inlineStr"/>
@@ -5677,7 +6093,8 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Xíu vô cùng háo hức chờ đợi đêm Trung thu đặc biệt này. Hai chị em Xíu và Dìu cùng nhau xuống núi xem hội. Họ xem múa lân, ngắm đèn lồng và các loại bánh xinh. Xíu cùng bạn bè hát múa, cảm thấy đêm thật diệu kỳ. Vầng trăng đêm ấy mang theo ước mơ đẹp cho Xíu và em.</t>
+          <t>Chào các em học sinh yêu quý! Hôm nay chúng ta sẽ cùng khám phá câu chuyện về một đêm Trung thu thật đặc biệt của bạn Xíu nhé.
+Xíu vô cùng háo hức chờ đợi đêm Trung thu đặc biệt này. Hai chị em Xíu và Dìu cùng nhau xuống núi xem hội. Họ xem múa lân, ngắm đèn lồng và các loại bánh xinh. Xíu cùng bạn bè hát múa, cảm thấy đêm thật diệu kỳ. Vầng trăng đêm ấy mang theo ước mơ đẹp cho Xíu và em.</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -5731,12 +6148,13 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Bạn muốn lớn ngay để làm những việc thật tuyệt vời. Phép lạ giúp hái sao, tạo mặt trời, không còn mùa đông. Bạn còn muốn biến trái bom thành kẹo thơm ngon. Thật tuyệt vời khi được ước những điều kì diệu này!</t>
+          <t>Các bạn nhỏ ơi, bài thơ này kể về những điều ước thật tuyệt vời đó!
+Bạn nhỏ ước có phép lạ để hạt mầm lớn nhanh. Bạn muốn lớn ngay để làm những việc thật tuyệt vời. Phép lạ giúp hái sao, tạo mặt trời, không còn mùa đông. Bạn còn muốn biến trái bom thành kẹo thơm ngon. Thật tuyệt vời khi được ước những điều kì diệu này!</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Bạn muốn lớn ngay để làm những việc thật tuyệt vời. Phép lạ giúp hái sao, tạo mặt trời, không còn mùa đông. Bạn còn muốn biến trái bom thành kẹo thơm ngon. Thật tuyệt vời khi được ước những điều kì diệu này!</t>
+          <t>Bạn nhỏ ước có phép lạ để hạt mầm lớn nhanh. Bạn muốn lớn ngay để làm những việc thật tuyệt vời. Phép lạ giúp hái sao, tạo mặt trời, không còn mùa đông. Bạn còn muốn biến trái bom thành kẹo thơm ngon. Thật tuyệt vời khi được ước những điều kì diệu này!</t>
         </is>
       </c>
       <c r="F111" t="inlineStr"/>
@@ -5771,7 +6189,8 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Lúc bảy tuổi, bố đã tặng bạn nhỏ chuông gió xinh. Tiếng chuông ngân vang trong trẻo, vui tai rất nhiều. Từ đó, bạn bắt đầu say mê sưu tập chuông gió. Bạn có bộ sưu tập lớn, nhiều chuông từ mọi người. Bạn luôn mong chuông sẽ ngân nga những ước mơ đẹp.</t>
+          <t>Chào các em học sinh thân mến! Cô có một câu chuyện dễ thương muốn kể cho các em nghe nhé.
+Lúc bảy tuổi, bố đã tặng bạn nhỏ chuông gió xinh. Tiếng chuông ngân vang trong trẻo, vui tai rất nhiều. Từ đó, bạn bắt đầu say mê sưu tập chuông gió. Bạn có bộ sưu tập lớn, nhiều chuông từ mọi người. Bạn luôn mong chuông sẽ ngân nga những ước mơ đẹp.</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5813,7 +6232,8 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Gió mạnh thổi những cánh hoa bồ công anh nhỏ bay đi xa. Một cánh hoa út bé xíu thích thú bay lượn ngắm cảnh đẹp. Nó tìm thấy một cánh đồng mới thật xinh đẹp và thơm ngát. Đất ấm áp đón chào, sương đêm trong mát giúp nó lớn lên. Cuối cùng, một mầm xanh non nhú lên, bắt đầu cuộc sống mới.</t>
+          <t>Chào các em học sinh yêu quý! Hôm nay, cô sẽ kể cho các em nghe câu chuyện về một chuyến phiêu lưu thật thú vị nhé!
+Gió mạnh thổi những cánh hoa bồ công anh nhỏ bay đi xa. Một cánh hoa út bé xíu thích thú bay lượn ngắm cảnh đẹp. Nó tìm thấy một cánh đồng mới thật xinh đẹp và thơm ngát. Đất ấm áp đón chào, sương đêm trong mát giúp nó lớn lên. Cuối cùng, một mầm xanh non nhú lên, bắt đầu cuộc sống mới.</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5853,7 +6273,8 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Bác sĩ Phạm Ngọc Thạch là một người thầy thuốc rất tài giỏi. Ông tìm cách chữa bệnh lao phổi và luôn tận tình cứu người. Thậm chí, bác sĩ Thạch đã hiến máu để cứu sống bệnh nhân. Mọi người kính trọng gọi ông là "Bác sĩ của nhân dân."</t>
+          <t>Chào các con! Hôm nay, cô sẽ kể cho các con nghe về một bác sĩ rất đặc biệt nhé!
+Bác sĩ Phạm Ngọc Thạch là một người thầy thuốc rất tài giỏi. Ông tìm cách chữa bệnh lao phổi và luôn tận tình cứu người. Thậm chí, bác sĩ Thạch đã hiến máu để cứu sống bệnh nhân. Mọi người kính trọng gọi ông là "Bác sĩ của nhân dân."</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5905,7 +6326,8 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Đây là bản tóm tắt dành cho các em nhé:
+          <t>Chào các em học sinh yêu quý! Bài thơ này vẽ nên một bức tranh mùa hè thật đẹp và sống động đấy.
+Đây là bản tóm tắt dành cho các em nhé:
 Mùa hè mang đến những múi mít vàng thơm ngon ngọt lịm. Nắng hè làm chín đỏ những quả dưa hấu mọng nước bên sông. Hoa phượng đỏ rực như thắp đèn lồng sáng rực cả bầu trời. Tiếng ve kêu và lũ chim hót vang báo hiệu mùa hè đã về. Các bạn nhỏ thích chơi diều và tận hưởng mùa hè thật vui vẻ.</t>
         </is>
       </c>
@@ -5945,12 +6367,21 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Buổi sáng đến, mặt trời lên cao, nắng vàng rực rỡ. Muôn loài thức dậy, chuẩn bị một ngày mới thật năng động. Đàn voi khổng lồ tiến đến bến nước để uống và tắm mát. Các loài vật khác nhường chỗ, chờ đợi đến lượt mình. Sau đó, mọi vật trở lại nơi ở quen thuộc của mình.</t>
+          <t>Chào các em học sinh yêu quý! Hôm nay chúng ta cùng nhau khám phá một buổi sáng thật đẹp trong tự nhiên nhé.
+Buổi sáng đến, mặt trời lên cao, nắng vàng rực rỡ.
+Muôn loài thức dậy, chuẩn bị một ngày mới thật năng động.
+Đàn voi khổng lồ tiến đến bến nước để uống và tắm mát.
+Các loài vật khác nhường chỗ, chờ đợi đến lượt mình.
+Sau đó, mọi vật trở lại nơi ở quen thuộc của mình.</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Đàn voi khổng lồ tiến đến bến nước để uống và tắm mát. Các loài vật khác nhường chỗ, chờ đợi đến lượt mình. Sau đó, mọi vật trở lại nơi ở quen thuộc của mình.</t>
+          <t>Buổi sáng đến, mặt trời lên cao, nắng vàng rực rỡ.
+Muôn loài thức dậy, chuẩn bị một ngày mới thật năng động.
+Đàn voi khổng lồ tiến đến bến nước để uống và tắm mát.
+Các loài vật khác nhường chỗ, chờ đợi đến lượt mình.
+Sau đó, mọi vật trở lại nơi ở quen thuộc của mình.</t>
         </is>
       </c>
       <c r="F116" t="inlineStr"/>
@@ -5990,7 +6421,8 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Ngày xưa, vua Mi-đát ước mọi thứ chạm vào thành vàng lấp lánh. Ông thử bẻ cành cây, ngắt quả táo, chúng liền hóa vàng. Nhưng khi ăn, thức uống cũng biến thành vàng cứng đơ. Nhà vua đói bụng, nhận ra điều ước thật đáng sợ. Mi-đát hiểu ra, hạnh phúc không do lòng tham mang lại.</t>
+          <t>Chào các em học sinh thân mến! Hôm nay chúng ta cùng tìm hiểu câu chuyện về một vị vua đặc biệt nhé.
+Ngày xưa, vua Mi-đát ước mọi thứ chạm vào thành vàng lấp lánh. Ông thử bẻ cành cây, ngắt quả táo, chúng liền hóa vàng. Nhưng khi ăn, thức uống cũng biến thành vàng cứng đơ. Nhà vua đói bụng, nhận ra điều ước thật đáng sợ. Mi-đát hiểu ra, hạnh phúc không do lòng tham mang lại.</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6030,7 +6462,8 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Người dân Hội An rất yêu hoa, họ trồng đủ loại hoa tươi đẹp. Những giỏ hoa, giàn hoa làm phố cổ thêm rực rỡ sắc màu. Bạn sẽ thấy hoa giấy, phượng vàng khoe sắc thắm khắp nơi. Hương hoa dịu dàng hòa cùng nắng ấm tạo nét duyên riêng. Ai đến Hội An cũng yêu mến và muốn quay lại thăm.</t>
+          <t>Chào các bạn học sinh yêu quý! Hôm nay, cô sẽ kể cho các bạn nghe về một thành phố rất xinh đẹp ở Việt Nam, đó là Hội An nhé!
+Người dân Hội An rất yêu hoa, họ trồng đủ loại hoa tươi đẹp. Những giỏ hoa, giàn hoa làm phố cổ thêm rực rỡ sắc màu. Bạn sẽ thấy hoa giấy, phượng vàng khoe sắc thắm khắp nơi. Hương hoa dịu dàng hòa cùng nắng ấm tạo nét duyên riêng. Ai đến Hội An cũng yêu mến và muốn quay lại thăm.</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -6075,7 +6508,8 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Vua Hùng muốn tìm người nối ngôi thật tài giỏi. Lang Liêu được thần mách làm bánh từ gạo nếp ngon lành. Bánh chưng, bánh giầy tượng trưng trời đất, cha mẹ quý giá. Vua rất vui, truyền ngôi cho Lang Liêu thông minh. Đến Tết, mọi người làm bánh này để nhớ công ơn.</t>
+          <t>Chào các con! Các con có muốn biết câu chuyện về bánh chưng, bánh giầy không?
+Vua Hùng muốn tìm người nối ngôi thật tài giỏi. Lang Liêu được thần mách làm bánh từ gạo nếp ngon lành. Bánh chưng, bánh giầy tượng trưng trời đất, cha mẹ quý giá. Vua rất vui, truyền ngôi cho Lang Liêu thông minh. Đến Tết, mọi người làm bánh này để nhớ công ơn.</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -6126,12 +6560,19 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Ban ngày, sông mặc áo lụa đào, rồi áo xanh tươi. Chiều tối, sông khoác áo vàng, đêm về đính sao trăng. Sáng ra, sông bất ngờ mặc chiếc áo hoa bưởi trắng ngần.</t>
+          <t>Chào các bạn học sinh đáng yêu!
+Dòng sông thật điệu đà, mặc những chiếc áo đủ màu.
+Ban ngày, sông mặc áo lụa đào, rồi áo xanh tươi.
+Chiều tối, sông khoác áo vàng, đêm về đính sao trăng.
+Sáng ra, sông bất ngờ mặc chiếc áo hoa bưởi trắng ngần.</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Ban ngày, sông mặc áo lụa đào, rồi áo xanh tươi. Chiều tối, sông khoác áo vàng, đêm về đính sao trăng. Sáng ra, sông bất ngờ mặc chiếc áo hoa bưởi trắng ngần.</t>
+          <t>Dòng sông thật điệu đà, mặc những chiếc áo đủ màu.
+Ban ngày, sông mặc áo lụa đào, rồi áo xanh tươi.
+Chiều tối, sông khoác áo vàng, đêm về đính sao trăng.
+Sáng ra, sông bất ngờ mặc chiếc áo hoa bưởi trắng ngần.</t>
         </is>
       </c>
       <c r="F120" t="inlineStr"/>
@@ -6165,12 +6606,13 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
+          <t>Chào các em học sinh yêu quý! Hôm nay, cô sẽ kể cho các em nghe về một buổi sáng rất đặc biệt ở Hòn Gai nhé.
+Buổi sáng ở Hòn Gai bắt đầu thật tấp nập, nhộn nhịp. Mọi người hối hả đi làm, các em nhỏ vui vẻ đến trường. Những đoàn thuyền đánh cá lớn cập bến, đầy ắp hải sản. Chợ Hòn Gai rực rỡ sắc màu, bán rất nhiều tôm cá tươi. Đó là một buổi sáng thật năng động và vui tươi!</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
           <t>Buổi sáng ở Hòn Gai bắt đầu thật tấp nập, nhộn nhịp. Mọi người hối hả đi làm, các em nhỏ vui vẻ đến trường. Những đoàn thuyền đánh cá lớn cập bến, đầy ắp hải sản. Chợ Hòn Gai rực rỡ sắc màu, bán rất nhiều tôm cá tươi. Đó là một buổi sáng thật năng động và vui tươi!</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>Mọi người hối hả đi làm, các em nhỏ vui vẻ đến trường. Những đoàn thuyền đánh cá lớn cập bến, đầy ắp hải sản. Chợ Hòn Gai rực rỡ sắc màu, bán rất nhiều tôm cá tươi. Đó là một buổi sáng thật năng động và vui tươi!</t>
         </is>
       </c>
       <c r="F121" t="inlineStr"/>
@@ -6224,12 +6666,13 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
+          <t>Chào các em học sinh lớp 3, lớp 4! Hôm nay chúng ta cùng đọc và tóm tắt một câu chuyện thật hay nhé!
+Xóm Bờ Giậu yên tĩnh bỗng đón một vị khách mới. Cô cúc áo ban đầu bé xíu, như lẫn vào đám cỏ dại. Một sáng đẹp trời, cô nở hoa vàng rực, rất thơm. Cả xóm ngạc nhiên, ai cũng muốn ngắm vẻ đẹp ấy. Anh dế còm đã làm thơ ca ngợi bông hoa vàng.</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
           <t>Xóm Bờ Giậu yên tĩnh bỗng đón một vị khách mới. Cô cúc áo ban đầu bé xíu, như lẫn vào đám cỏ dại. Một sáng đẹp trời, cô nở hoa vàng rực, rất thơm. Cả xóm ngạc nhiên, ai cũng muốn ngắm vẻ đẹp ấy. Anh dế còm đã làm thơ ca ngợi bông hoa vàng.</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>Một sáng đẹp trời, cô nở hoa vàng rực, rất thơm. Cả xóm ngạc nhiên, ai cũng muốn ngắm vẻ đẹp ấy. Anh dế còm đã làm thơ ca ngợi bông hoa vàng.</t>
         </is>
       </c>
       <c r="F122" t="inlineStr"/>
@@ -6264,12 +6707,13 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Bên trong hang có rừng cây xanh, sông ngầm và nhũ đá khổng lồ. Ánh sáng từ "giếng trời" tạo nên khu vườn cổ tích tuyệt đẹp. Đây là báu vật của Việt Nam, được UNESCO bảo vệ. Rất nhiều người khắp thế giới mong muốn được khám phá.</t>
+          <t>Chào các em, hôm nay chúng ta cùng khám phá một nơi thật đặc biệt nhé!
+Hang Sơn Đoòng ở Việt Nam là hang động tự nhiên lớn nhất thế giới. Bên trong hang có rừng cây xanh, sông ngầm và nhũ đá khổng lồ. Ánh sáng từ "giếng trời" tạo nên khu vườn cổ tích tuyệt đẹp. Đây là báu vật của Việt Nam, được UNESCO bảo vệ. Rất nhiều người khắp thế giới mong muốn được khám phá.</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Bên trong hang có rừng cây xanh, sông ngầm và nhũ đá khổng lồ. Ánh sáng từ "giếng trời" tạo nên khu vườn cổ tích tuyệt đẹp. Đây là báu vật của Việt Nam, được UNESCO bảo vệ. Rất nhiều người khắp thế giới mong muốn được khám phá.</t>
+          <t>Hang Sơn Đoòng ở Việt Nam là hang động tự nhiên lớn nhất thế giới. Bên trong hang có rừng cây xanh, sông ngầm và nhũ đá khổng lồ. Ánh sáng từ "giếng trời" tạo nên khu vườn cổ tích tuyệt đẹp. Đây là báu vật của Việt Nam, được UNESCO bảo vệ. Rất nhiều người khắp thế giới mong muốn được khám phá.</t>
         </is>
       </c>
       <c r="F123" t="inlineStr"/>
@@ -6316,12 +6760,21 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Bình minh lên, khắp nơi tràn ngập sắc màu tươi tắn. Ai cũng háo hức mang hàng hóa ra chợ Tết. Trẻ em nô đùa, người lớn gánh hàng, cảnh chợ thật vui. Núi đồi xanh tươi, nắng vàng làm rạng rỡ khung cảnh. Chợ Tết đông đúc, mọi người mua bán rất nhộn nhịp.</t>
+          <t>Chào các con! Hôm nay, cô sẽ kể cho các con nghe về một buổi sáng đi chợ Tết thật đẹp nhé.
+Bình minh lên, khắp nơi tràn ngập sắc màu tươi tắn.
+Ai cũng háo hức mang hàng hóa ra chợ Tết.
+Trẻ em nô đùa, người lớn gánh hàng, cảnh chợ thật vui.
+Núi đồi xanh tươi, nắng vàng làm rạng rỡ khung cảnh.
+Chợ Tết đông đúc, mọi người mua bán rất nhộn nhịp.</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Trẻ em nô đùa, người lớn gánh hàng, cảnh chợ thật vui. Núi đồi xanh tươi, nắng vàng làm rạng rỡ khung cảnh. Chợ Tết đông đúc, mọi người mua bán rất nhộn nhịp.</t>
+          <t>Bình minh lên, khắp nơi tràn ngập sắc màu tươi tắn.
+Ai cũng háo hức mang hàng hóa ra chợ Tết.
+Trẻ em nô đùa, người lớn gánh hàng, cảnh chợ thật vui.
+Núi đồi xanh tươi, nắng vàng làm rạng rỡ khung cảnh.
+Chợ Tết đông đúc, mọi người mua bán rất nhộn nhịp.</t>
         </is>
       </c>
       <c r="F124" t="inlineStr"/>
@@ -6356,7 +6809,8 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Biển Gò Công xanh bao la, gió mát thổi qua những hàng cây. Rừng đước mọc rất vững chắc, rễ cắm sâu giữ đất thật chặt. Rừng bao quanh làng, giúp che chở dân làng khỏi sóng biển lớn. Những cây đước mọc nối tiếp, tạo thành một bức tường xanh khổng lồ. Thiên nhiên hùng vĩ nuôi dưỡng những con người thật mạnh mẽ và kiên cường.</t>
+          <t>Chào các em học sinh thân mến! Hôm nay, cô sẽ kể cho các em nghe về một vùng đất rất đẹp nhé!
+Biển Gò Công xanh bao la, gió mát thổi qua những hàng cây. Rừng đước mọc rất vững chắc, rễ cắm sâu giữ đất thật chặt. Rừng bao quanh làng, giúp che chở dân làng khỏi sóng biển lớn. Những cây đước mọc nối tiếp, tạo thành một bức tường xanh khổng lồ. Thiên nhiên hùng vĩ nuôi dưỡng những con người thật mạnh mẽ và kiên cường.</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -6399,7 +6853,8 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>William sống ở làng nghèo, không có điện dùng. Cậu mơ ước tạo cối xay gió để giúp mọi người. Dù khó khăn, William kiên trì học, tự làm điện. Chiếc cối xay gió mang nước, điện đến ngôi làng cậu. Giờ cậu truyền cảm hứng khắp nơi với câu chuyện này.</t>
+          <t>Chào các em học sinh yêu quý! Hôm nay, cô sẽ kể cho các em nghe câu chuyện về bạn William Cam-goam-ba nhé.
+William sống ở làng nghèo, không có điện dùng. Cậu mơ ước tạo cối xay gió để giúp mọi người. Dù khó khăn, William kiên trì học, tự làm điện. Chiếc cối xay gió mang nước, điện đến ngôi làng cậu. Giờ cậu truyền cảm hứng khắp nơi với câu chuyện này.</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -6452,7 +6907,8 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Một người bạn đã bay rất xa đến đất nước Cu-ba xinh đẹp. Cu-ba có nắng vàng, biển xanh biếc và rất nhiều trái cây ngọt. Mọi người ở đây rất vui vẻ, họ thường cùng nhau nhảy múa. Người bạn ấy yêu lắm cảnh sắc và con người Cu-ba. Tuy vậy, trong lòng bạn vẫn luôn nhớ về quê hương mình.</t>
+          <t>Chào các em học sinh yêu quý! Hôm nay chúng ta sẽ cùng khám phá một chuyến đi thật thú vị nhé.
+Một người bạn đã bay rất xa đến đất nước Cu-ba xinh đẹp. Cu-ba có nắng vàng, biển xanh biếc và rất nhiều trái cây ngọt. Mọi người ở đây rất vui vẻ, họ thường cùng nhau nhảy múa. Người bạn ấy yêu lắm cảnh sắc và con người Cu-ba. Tuy vậy, trong lòng bạn vẫn luôn nhớ về quê hương mình.</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -6492,13 +6948,21 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Bây giờ, cô sẽ tóm tắt lại cho các con dễ hiểu nhé:
-Mùa xuân về trên thảo nguyên rộng lớn, cạnh hồ I-xức-kun. Máy kéo làm việc, người chăn dắt đàn vật ra đồng cỏ. Bỗng nhiên, tôi thấy đàn thiên nga trắng muốt bay lượn trên hồ. Thiên nga bay lượn, đôi cánh chao nghiêng trên mặt hồ xanh biếc. Hoàng hôn nhuộm hồng mặt hồ, cảnh tượng thật đẹp và yên bình.</t>
+          <t>Chào các bạn học sinh lớp 3-4! Cô có một đoạn văn rất hay về cảnh đẹp thiên nhiên. Bây giờ, cô sẽ tóm tắt lại cho các con dễ hiểu nhé:
+Mùa xuân về trên thảo nguyên rộng lớn, cạnh hồ I-xức-kun.
+Máy kéo làm việc, người chăn dắt đàn vật ra đồng cỏ.
+Bỗng nhiên, tôi thấy đàn thiên nga trắng muốt bay lượn trên hồ.
+Thiên nga bay lượn, đôi cánh chao nghiêng trên mặt hồ xanh biếc.
+Hoàng hôn nhuộm hồng mặt hồ, cảnh tượng thật đẹp và yên bình.</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Mùa xuân về trên thảo nguyên rộng lớn, cạnh hồ I-xức-kun. Máy kéo làm việc, người chăn dắt đàn vật ra đồng cỏ. Bỗng nhiên, tôi thấy đàn thiên nga trắng muốt bay lượn trên hồ. Thiên nga bay lượn, đôi cánh chao nghiêng trên mặt hồ xanh biếc. Hoàng hôn nhuộm hồng mặt hồ, cảnh tượng thật đẹp và yên bình.</t>
+          <t>Mùa xuân về trên thảo nguyên rộng lớn, cạnh hồ I-xức-kun.
+Máy kéo làm việc, người chăn dắt đàn vật ra đồng cỏ.
+Bỗng nhiên, tôi thấy đàn thiên nga trắng muốt bay lượn trên hồ.
+Thiên nga bay lượn, đôi cánh chao nghiêng trên mặt hồ xanh biếc.
+Hoàng hôn nhuộm hồng mặt hồ, cảnh tượng thật đẹp và yên bình.</t>
         </is>
       </c>
       <c r="F128" t="inlineStr"/>
@@ -6540,7 +7004,8 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>**Tóm tắt câu chuyện:**
+          <t>Chào các em học sinh yêu quý! Hôm nay chúng ta cùng khám phá một cuộc phiêu lưu thật thú vị nhé!
+**Tóm tắt câu chuyện:**
 Chú Brốc cùng bạn đã đi thật sâu xuống lòng đất. (10 từ)
 Rồi họ ngạc nhiên thấy một biển lớn dưới lòng đất. (10 từ)
 Ánh sáng điện đặc biệt chiếu sáng rõ cả không gian đó. (11 từ)
@@ -6550,7 +7015,8 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Chú Brốc cùng bạn đã đi thật sâu xuống lòng đất. (10 từ)
+          <t>**Tóm tắt câu chuyện:**
+Chú Brốc cùng bạn đã đi thật sâu xuống lòng đất. (10 từ)
 Rồi họ ngạc nhiên thấy một biển lớn dưới lòng đất. (10 từ)
 Ánh sáng điện đặc biệt chiếu sáng rõ cả không gian đó. (11 từ)
 Đi tiếp, họ gặp khu rừng nấm cổ đại trông thật lạ. (11 từ)
@@ -6607,14 +7073,15 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Chúng mình cùng tóm tắt nhé! ---
+          <t>Chào các bạn học sinh đáng yêu! Cô có một đoạn thơ rất hay về một nơi đẹp tuyệt vời. Chúng mình cùng tóm tắt nhé!
+---
 **Tóm tắt bài thơ:**
 Mùa hoa mơ nở, núi Hương Sơn đẹp rực rỡ. Những bông hoa trắng muốt khiến núi trông trẻ trung. Sau mùa hoa, quả mơ vàng chi chít hiện ra như sao. Mọi người đến trẩy hội, vui vẻ thưởng thức vị mơ chua. Một người bạn xa nhà cũng gửi mơ về quê hương.</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>**Tóm tắt bài thơ:**
+          <t>Tóm tắt bài thơ:
 Mùa hoa mơ nở, núi Hương Sơn đẹp rực rỡ. Những bông hoa trắng muốt khiến núi trông trẻ trung. Sau mùa hoa, quả mơ vàng chi chít hiện ra như sao. Mọi người đến trẩy hội, vui vẻ thưởng thức vị mơ chua. Một người bạn xa nhà cũng gửi mơ về quê hương.</t>
         </is>
       </c>
@@ -6648,7 +7115,8 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Một đêm trăng, tàu Phương Đông neo đậu tại Trường Sa. Các chú bộ đội vui vẻ ca hát, thổi sáo trên boong tàu. Bỗng nhiên, có tiếng động mạnh dưới biển làm mọi người ngạc nhiên. Thì ra đó là đàn cá heo đến cùng chia sẻ niềm vui. Chúng bơi lượn quanh tàu, như muốn cùng các chú vui chơi.</t>
+          <t>Chào các em học sinh thân mến! Hôm nay chúng ta sẽ cùng tóm tắt một câu chuyện nhỏ nhé.
+Một đêm trăng, tàu Phương Đông neo đậu tại Trường Sa. Các chú bộ đội vui vẻ ca hát, thổi sáo trên boong tàu. Bỗng nhiên, có tiếng động mạnh dưới biển làm mọi người ngạc nhiên. Thì ra đó là đàn cá heo đến cùng chia sẻ niềm vui. Chúng bơi lượn quanh tàu, như muốn cùng các chú vui chơi.</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -6708,12 +7176,19 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Tò mò, bà lão rình và thấy cô tiên bước ra từ vỏ ốc. Bà liền đập vỏ ốc, hai mẹ con từ đó sống yêu thương.</t>
+          <t>Các em thân mến, câu chuyện này kể về:
+Ngày xưa, bà lão nghèo bắt được chú ốc đẹp, bà đem nuôi.
+Mỗi ngày về, bà thấy nhà cửa sạch tinh tươm, cơm nước sẵn sàng.
+Tò mò, bà lão rình và thấy cô tiên bước ra từ vỏ ốc.
+Bà liền đập vỏ ốc, hai mẹ con từ đó sống yêu thương.</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Tò mò, bà lão rình và thấy cô tiên bước ra từ vỏ ốc. Bà liền đập vỏ ốc, hai mẹ con từ đó sống yêu thương.</t>
+          <t>Ngày xưa, bà lão nghèo bắt được chú ốc đẹp, bà đem nuôi.
+Mỗi ngày về, bà thấy nhà cửa sạch tinh tươm, cơm nước sẵn sàng.
+Tò mò, bà lão rình và thấy cô tiên bước ra từ vỏ ốc.
+Bà liền đập vỏ ốc, hai mẹ con từ đó sống yêu thương.</t>
         </is>
       </c>
       <c r="F132" t="inlineStr"/>
@@ -6748,7 +7223,8 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Một bạn nhỏ đã tìm thấy chú chim non bị thương dưới bụi cỏ. Bạn mang chim về nhà chăm sóc, hứa sẽ chữa lành cánh cho nó. Sau mười ngày, chim khỏe mạnh, bạn quyết định thả nó về rừng. Chú chim vui vẻ bay lượn, dẫn bạn vào tận sâu trong rừng. Trong rừng, bạn nghe tiếng chim hót rất hay, có cả tiếng chim non của mình nữa!</t>
+          <t>Chào các em học sinh yêu quý! Hôm nay, cô sẽ kể cho các em nghe một câu chuyện về tình bạn nhé.
+Một bạn nhỏ đã tìm thấy chú chim non bị thương dưới bụi cỏ. Bạn mang chim về nhà chăm sóc, hứa sẽ chữa lành cánh cho nó. Sau mười ngày, chim khỏe mạnh, bạn quyết định thả nó về rừng. Chú chim vui vẻ bay lượn, dẫn bạn vào tận sâu trong rừng. Trong rừng, bạn nghe tiếng chim hót rất hay, có cả tiếng chim non của mình nữa!</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -6788,12 +7264,13 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
+          <t>Chào các bạn học sinh đáng yêu! Cùng cô khám phá thành phố I-xtan-bun nhé!
+I-xtan-bun là một thành phố rất đặc biệt của đất nước Thổ Nhĩ Kỳ. Thành phố này nằm ở cả châu Á và châu Âu, thật thú vị phải không? Ở đây, cái cũ và cái mới hòa quyện lại với nhau rất đẹp. Chúng ta sẽ thấy cung điện cổ kính, thánh đường và những tòa nhà chọc trời. I-xtan-bun là nơi tuyệt vời với nhiều điều thú vị để khám phá đó!</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
           <t>I-xtan-bun là một thành phố rất đặc biệt của đất nước Thổ Nhĩ Kỳ. Thành phố này nằm ở cả châu Á và châu Âu, thật thú vị phải không? Ở đây, cái cũ và cái mới hòa quyện lại với nhau rất đẹp. Chúng ta sẽ thấy cung điện cổ kính, thánh đường và những tòa nhà chọc trời. I-xtan-bun là nơi tuyệt vời với nhiều điều thú vị để khám phá đó!</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>Ở đây, cái cũ và cái mới hòa quyện lại với nhau rất đẹp. Chúng ta sẽ thấy cung điện cổ kính, thánh đường và những tòa nhà chọc trời. I-xtan-bun là nơi tuyệt vời với nhiều điều thú vị để khám phá đó!</t>
         </is>
       </c>
       <c r="F134" t="inlineStr"/>
@@ -6839,12 +7316,21 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Hãy cùng xem điều gì đã xảy ra nhé! Có một cậu bé từng buồn vì chiếc răng khểnh của mình. Bố bảo nụ cười làm khuôn mặt con tươi tắn và rạng rỡ. Bố cũng nói răng khểnh khiến nụ cười con thêm phần độc đáo. Cô giáo dạy cậu bé nên tự tin với nét riêng của mình. Bây giờ, cậu bé luôn vui vẻ, tự tin khoe nụ cười đặc biệt.</t>
+          <t>Chào các em học sinh yêu quý! Câu chuyện này kể về một bạn nhỏ rất đáng yêu, nhưng lại có một điều khiến bạn ấy hơi buồn. Hãy cùng xem điều gì đã xảy ra nhé!
+Có một cậu bé từng buồn vì chiếc răng khểnh của mình.
+Bố bảo nụ cười làm khuôn mặt con tươi tắn và rạng rỡ.
+Bố cũng nói răng khểnh khiến nụ cười con thêm phần độc đáo.
+Cô giáo dạy cậu bé nên tự tin với nét riêng của mình.
+Bây giờ, cậu bé luôn vui vẻ, tự tin khoe nụ cười đặc biệt.</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Có một cậu bé từng buồn vì chiếc răng khểnh của mình. Bố bảo nụ cười làm khuôn mặt con tươi tắn và rạng rỡ. Bố cũng nói răng khểnh khiến nụ cười con thêm phần độc đáo. Cô giáo dạy cậu bé nên tự tin với nét riêng của mình. Bây giờ, cậu bé luôn vui vẻ, tự tin khoe nụ cười đặc biệt.</t>
+          <t>Có một cậu bé từng buồn vì chiếc răng khểnh của mình.
+Bố bảo nụ cười làm khuôn mặt con tươi tắn và rạng rỡ.
+Bố cũng nói răng khểnh khiến nụ cười con thêm phần độc đáo.
+Cô giáo dạy cậu bé nên tự tin với nét riêng của mình.
+Bây giờ, cậu bé luôn vui vẻ, tự tin khoe nụ cười đặc biệt.</t>
         </is>
       </c>
       <c r="F135" t="inlineStr"/>
@@ -6885,12 +7371,22 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Thi Ca thường đụng Minh khi viết bài bằng tay trái. Minh khó chịu, liền kẻ một đường phấn chia đôi bàn. Khi Thi Ca vắng, Minh biết bạn bị bệnh ở tay phải. Minh ân hận, xóa đi đường phấn, mong bạn mau về.</t>
+          <t>Các bạn nhỏ thân mến,
+Câu chuyện kể về bạn Minh và bạn mới tên Thi Ca.
+Lớp Minh đón bạn mới Thi Ca, ngồi cạnh Minh.
+Thi Ca thường đụng Minh khi viết bài bằng tay trái.
+Minh khó chịu, liền kẻ một đường phấn chia đôi bàn.
+Khi Thi Ca vắng, Minh biết bạn bị bệnh ở tay phải.
+Minh ân hận, xóa đi đường phấn, mong bạn mau về.</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Thi Ca thường đụng Minh khi viết bài bằng tay trái. Minh khó chịu, liền kẻ một đường phấn chia đôi bàn. Khi Thi Ca vắng, Minh biết bạn bị bệnh ở tay phải. Minh ân hận, xóa đi đường phấn, mong bạn mau về.</t>
+          <t>Lớp Minh đón bạn mới Thi Ca, ngồi cạnh Minh.
+Thi Ca thường đụng Minh khi viết bài bằng tay trái.
+Minh khó chịu, liền kẻ một đường phấn chia đôi bàn.
+Khi Thi Ca vắng, Minh biết bạn bị bệnh ở tay phải.
+Minh ân hận, xóa đi đường phấn, mong bạn mau về.</t>
         </is>
       </c>
       <c r="F136" t="inlineStr"/>
@@ -6929,12 +7425,22 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Một cậu bé hay cáu kỉnh, cha cho cậu chiếc đinh. 2. Mỗi khi giận dữ, cậu đóng đinh lên hàng rào gỗ. 3. Cậu học cách kiềm chế giận, rồi nhổ hết đinh. 4. Cha chỉ cho cậu những vết sẹo đinh còn lại. 5. Lời nói lúc giận sẽ làm người khác tổn thương mãi.</t>
+          <t>Chào các con,
+Câu chuyện này dạy chúng ta một bài học rất hay về sự tức giận đó!
+1.  Một cậu bé hay cáu kỉnh, cha cho cậu chiếc đinh.
+2.  Mỗi khi giận dữ, cậu đóng đinh lên hàng rào gỗ.
+3.  Cậu học cách kiềm chế giận, rồi nhổ hết đinh.
+4.  Cha chỉ cho cậu những vết sẹo đinh còn lại.
+5.  Lời nói lúc giận sẽ làm người khác tổn thương mãi.</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Một cậu bé hay cáu kỉnh, cha cho cậu chiếc đinh. 2. Mỗi khi giận dữ, cậu đóng đinh lên hàng rào gỗ. 3. Cậu học cách kiềm chế giận, rồi nhổ hết đinh. 4. Cha chỉ cho cậu những vết sẹo đinh còn lại. 5. Lời nói lúc giận sẽ làm người khác tổn thương mãi.</t>
+          <t>1.  Một cậu bé hay cáu kỉnh, cha cho cậu chiếc đinh.
+2.  Mỗi khi giận dữ, cậu đóng đinh lên hàng rào gỗ.
+3.  Cậu học cách kiềm chế giận, rồi nhổ hết đinh.
+4.  Cha chỉ cho cậu những vết sẹo đinh còn lại.
+5.  Lời nói lúc giận sẽ làm người khác tổn thương mãi.</t>
         </is>
       </c>
       <c r="F137" t="inlineStr"/>
@@ -6974,12 +7480,13 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Một lần, chữ xấu làm quan không đọc đơn giúp bà cụ. Ân hận, ông quyết tâm luyện chữ đẹp bằng nhiều cách. Ông chăm chỉ vạch cột nhà, viết mười trang mỗi đêm. Cuối cùng, ông nổi tiếng "văn hay chữ tốt" khắp mọi nơi.</t>
+          <t>Chào các em, cô có một câu chuyện về một người rất giỏi tên là Cao Bá Quát nhé!
+Ngày xưa, Cao Bá Quát viết chữ rất xấu, dù văn ông thật hay. Một lần, chữ xấu làm quan không đọc đơn giúp bà cụ. Ân hận, ông quyết tâm luyện chữ đẹp bằng nhiều cách. Ông chăm chỉ vạch cột nhà, viết mười trang mỗi đêm. Cuối cùng, ông nổi tiếng "văn hay chữ tốt" khắp mọi nơi.</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Một lần, chữ xấu làm quan không đọc đơn giúp bà cụ. Ân hận, ông quyết tâm luyện chữ đẹp bằng nhiều cách. Ông chăm chỉ vạch cột nhà, viết mười trang mỗi đêm. Cuối cùng, ông nổi tiếng "văn hay chữ tốt" khắp mọi nơi.</t>
+          <t>Ngày xưa, Cao Bá Quát viết chữ rất xấu, dù văn ông thật hay. Một lần, chữ xấu làm quan không đọc đơn giúp bà cụ. Ân hận, ông quyết tâm luyện chữ đẹp bằng nhiều cách. Ông chăm chỉ vạch cột nhà, viết mười trang mỗi đêm. Cuối cùng, ông nổi tiếng "văn hay chữ tốt" khắp mọi nơi.</t>
         </is>
       </c>
       <c r="F138" t="inlineStr"/>
@@ -7018,7 +7525,8 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Giên liên tục quên mang trả cuốn truyện tranh đã mượn. Cô giáo đến thăm nhà, phát hiện Giên đang bí mật dạy học. Em dùng chính cuốn sách đó để dạy cả nhà cùng học. Bà và mẹ Giên đều chưa biết chữ, nhưng đang cố gắng. Cô giáo rất cảm động và xin lỗi Giên vì đã hiểu lầm.</t>
+          <t>Chào các bạn học sinh lớp 3-4! Cô có một câu chuyện thú vị muốn kể cho các con nghe đây.
+Giên liên tục quên mang trả cuốn truyện tranh đã mượn. Cô giáo đến thăm nhà, phát hiện Giên đang bí mật dạy học. Em dùng chính cuốn sách đó để dạy cả nhà cùng học. Bà và mẹ Giên đều chưa biết chữ, nhưng đang cố gắng. Cô giáo rất cảm động và xin lỗi Giên vì đã hiểu lầm.</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -7074,7 +7582,8 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Cây cau rất cao, thân mảnh khảnh nhưng đứng rất thẳng. Nó vững vàng trước mưa nắng, giúp bà có trầu thơm nhai. Các bạn nhỏ còn thích chơi cưỡi ngựa tàu cau thật vui. Chim chóc cũng về làm tổ, hót líu lo chào đón hoa cau nở.</t>
+          <t>Chào các em học sinh yêu quý! Hôm nay chúng ta cùng khám phá một loại cây thật đặc biệt nhé!
+Cây cau rất cao, thân mảnh khảnh nhưng đứng rất thẳng. Nó vững vàng trước mưa nắng, giúp bà có trầu thơm nhai. Các bạn nhỏ còn thích chơi cưỡi ngựa tàu cau thật vui. Chim chóc cũng về làm tổ, hót líu lo chào đón hoa cau nở.</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -7140,7 +7649,8 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Mi-sa và Xa-sa rất thích kể những câu chuyện phóng đại. I-go không tin, nên các bạn đã tranh cãi nhỏ với nhau. Sau đó, hai bạn mua kem và gặp I-ra đang khóc buồn. I-ra buồn vì anh I-go đã nói dối mẹ mình. Cuối cùng, ba người bạn vui vẻ chia kem và cùng nhau ăn.</t>
+          <t>Chào các em, cô có một câu chuyện ngắn rất hay về ba bạn nhỏ. Hãy cùng nghe cô tóm tắt nhé!
+Mi-sa và Xa-sa rất thích kể những câu chuyện phóng đại. I-go không tin, nên các bạn đã tranh cãi nhỏ với nhau. Sau đó, hai bạn mua kem và gặp I-ra đang khóc buồn. I-ra buồn vì anh I-go đã nói dối mẹ mình. Cuối cùng, ba người bạn vui vẻ chia kem và cùng nhau ăn.</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -7186,13 +7696,22 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>***
-Ngày xưa, một vị vua già muốn tìm người kế vị trung thực. Vua giao thóc luộc cho dân, ai trồng nhiều được ngôi. Chú bé Chôm thành thật báo thóc của mình không mọc. Những người khác mang thóc riêng đến nộp cho vua. Vua khen Chôm dũng cảm, trao ngôi cho cậu bé.</t>
+          <t>Chào các con học sinh yêu quý! Hôm nay, cô sẽ tóm tắt một câu chuyện rất hay về sự trung thực nhé.
+***
+Ngày xưa, một vị vua già muốn tìm người kế vị trung thực.
+Vua giao thóc luộc cho dân, ai trồng nhiều được ngôi.
+Chú bé Chôm thành thật báo thóc của mình không mọc.
+Những người khác mang thóc riêng đến nộp cho vua.
+Vua khen Chôm dũng cảm, trao ngôi cho cậu bé.</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Ngày xưa, một vị vua già muốn tìm người kế vị trung thực. Vua giao thóc luộc cho dân, ai trồng nhiều được ngôi. Chú bé Chôm thành thật báo thóc của mình không mọc. Những người khác mang thóc riêng đến nộp cho vua. Vua khen Chôm dũng cảm, trao ngôi cho cậu bé.</t>
+          <t>Ngày xưa, một vị vua già muốn tìm người kế vị trung thực.
+Vua giao thóc luộc cho dân, ai trồng nhiều được ngôi.
+Chú bé Chôm thành thật báo thóc của mình không mọc.
+Những người khác mang thóc riêng đến nộp cho vua.
+Vua khen Chôm dũng cảm, trao ngôi cho cậu bé.</t>
         </is>
       </c>
       <c r="F142" t="inlineStr"/>
@@ -7229,12 +7748,13 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
+          <t>Chào các em học sinh yêu quý! Hôm nay, cô sẽ kể cho các em nghe về những thư viện tuyệt vời nhé.
+Thư viện đã xuất hiện từ hàng ngàn năm trước để lưu giữ tài liệu. Thư viện Quốc hội Mỹ là nơi lớn nhất với hàng triệu cuốn sách. Nơi đây lưu giữ sách, bản đồ, nhạc, phim và nhiều điều thú vị. Ở Việt Nam cũng có thư viện dành riêng cho các bạn nhỏ. Các em có thể đọc sách, xem phim, học tập tại những thư viện này.</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
           <t>Thư viện đã xuất hiện từ hàng ngàn năm trước để lưu giữ tài liệu. Thư viện Quốc hội Mỹ là nơi lớn nhất với hàng triệu cuốn sách. Nơi đây lưu giữ sách, bản đồ, nhạc, phim và nhiều điều thú vị. Ở Việt Nam cũng có thư viện dành riêng cho các bạn nhỏ. Các em có thể đọc sách, xem phim, học tập tại những thư viện này.</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>Thư viện Quốc hội Mỹ là nơi lớn nhất với hàng triệu cuốn sách. Nơi đây lưu giữ sách, bản đồ, nhạc, phim và nhiều điều thú vị. Ở Việt Nam cũng có thư viện dành riêng cho các bạn nhỏ. Các em có thể đọc sách, xem phim, học tập tại những thư viện này.</t>
         </is>
       </c>
       <c r="F143" t="inlineStr"/>
@@ -7269,15 +7789,21 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Bạn nhỏ khao khát đọc sách để tự mình khám phá thế giới. Rồi bạn ấy say mê đọc rất nhiều cuốn sách hay, bổ ích. Sách giúp bạn ấy hiểu tình cảm, phân biệt điều thiện ác. Đặc biệt, sách còn bồi đắp tâm hồn, mở rộng trí tưởng tượng.</t>
+          <t>Chào các em học sinh thân mến, cô sẽ tóm tắt câu chuyện này thật ngắn gọn nhé!
+Bà và chú đã kể những câu chuyện cổ tích tuyệt vời.
+Bạn nhỏ khao khát đọc sách để tự mình khám phá thế giới.
+Rồi bạn ấy say mê đọc rất nhiều cuốn sách hay, bổ ích.
+Sách giúp bạn ấy hiểu tình cảm, phân biệt điều thiện ác.
+Đặc biệt, sách còn bồi đắp tâm hồn, mở rộng trí tưởng tượng.</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Văn bản gốc:
-Bạn nhỏ khao khát đọc sách để tự mình khám phá thế giới. Rồi bạn ấy say mê đọc rất nhiều cuốn sách hay, bổ ích. Sách giúp bạn ấy hiểu tình cảm, phân biệt điều thiện ác. Đặc biệt, sách còn bồi đắp tâm hồn, mở rộng trí tưởng tượng.
-Kết quả:
-Bạn nhỏ khao khát đọc sách để tự mình khám phá thế giới. Rồi bạn ấy say mê đọc rất nhiều cuốn sách hay, bổ ích. Sách giúp bạn ấy hiểu tình cảm, phân biệt điều thiện ác. Đặc biệt, sách còn bồi đắp tâm hồn, mở rộng trí tưởng tượng.</t>
+          <t>Bà và chú đã kể những câu chuyện cổ tích tuyệt vời.
+Bạn nhỏ khao khát đọc sách để tự mình khám phá thế giới.
+Rồi bạn ấy say mê đọc rất nhiều cuốn sách hay, bổ ích.
+Sách giúp bạn ấy hiểu tình cảm, phân biệt điều thiện ác.
+Đặc biệt, sách còn bồi đắp tâm hồn, mở rộng trí tưởng tượng.</t>
         </is>
       </c>
       <c r="F144" t="inlineStr"/>
@@ -7312,7 +7838,8 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Uy-li-am sống trong ngôi làng nghèo ở Châu Phi xa xôi. Cậu bé nghỉ học sớm vì gia đình gặp rất nhiều khó khăn. Sau đó, hạn hán kéo dài khiến dân làng đói kém nghiêm trọng. Uy-li-am tự tìm hiểu sách và chế tạo máy điện gió. Chiếc máy thô sơ giúp cả làng có điện, nước tưới tiêu. Uy-li-am đã trở thành người hùng truyền cảm hứng cho mọi người.</t>
+          <t>Chào các em học sinh lớp 3-4! Cô có một câu chuyện rất hay về một cậu bé tài giỏi đây.
+Uy-li-am sống trong ngôi làng nghèo ở Châu Phi xa xôi. Cậu bé nghỉ học sớm vì gia đình gặp rất nhiều khó khăn. Sau đó, hạn hán kéo dài khiến dân làng đói kém nghiêm trọng. Uy-li-am tự tìm hiểu sách và chế tạo máy điện gió. Chiếc máy thô sơ giúp cả làng có điện, nước tưới tiêu. Uy-li-am đã trở thành người hùng truyền cảm hứng cho mọi người.</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -7364,12 +7891,21 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>1. Sách giáo khoa ghi nhớ bao kỷ niệm về ngày đi học. 2. Chúng dạy bao kiến thức quý giá, giúp chúng ta lớn khôn. 3. Sách khơi dậy ước mơ, định hướng tương lai tươi sáng cho mình. 4. Mọi người thành công đều bắt đầu từ những bài học trong sách. 5. Hãy luôn trân trọng sách để đạt được nhiều điều tốt đẹp.</t>
+          <t>Chào các con học sinh yêu quý! Hôm nay, cô sẽ tóm tắt một bài thơ rất hay về những cuốn sách nhé.
+1.  Sách giáo khoa ghi nhớ bao kỷ niệm về ngày đi học.
+2.  Chúng dạy bao kiến thức quý giá, giúp chúng ta lớn khôn.
+3.  Sách khơi dậy ước mơ, định hướng tương lai tươi sáng cho mình.
+4.  Mọi người thành công đều bắt đầu từ những bài học trong sách.
+5.  Hãy luôn trân trọng sách để đạt được nhiều điều tốt đẹp.</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Sách khơi dậy ước mơ, định hướng tương lai tươi sáng cho mình. Mọi người thành công đều bắt đầu từ những bài học trong sách. Hãy luôn trân trọng sách để đạt được nhiều điều tốt đẹp.</t>
+          <t>1.  Sách giáo khoa ghi nhớ bao kỷ niệm về ngày đi học.
+2.  Chúng dạy bao kiến thức quý giá, giúp chúng ta lớn khôn.
+3.  Sách khơi dậy ước mơ, định hướng tương lai tươi sáng cho mình.
+4.  Mọi người thành công đều bắt đầu từ những bài học trong sách.
+5.  Hãy luôn trân trọng sách để đạt được nhiều điều tốt đẹp.</t>
         </is>
       </c>
       <c r="F146" t="inlineStr"/>
@@ -7420,7 +7956,8 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Tin-tin và Mi-tin ghé thăm Vương quốc Tương lai đầy những điều kì diệu. Hai bạn nhỏ gặp những em bé sắp sinh đang chuẩn bị cho Trái Đất. Mỗi em bé đều bận rộn sáng tạo những điều thật đặc biệt. Chúng đang chế tạo vật hạnh phúc, ánh sáng lạ và máy bay kì diệu. Tất cả đều háo hức mang những phát minh tuyệt vời xuống Trái Đất.</t>
+          <t>Chào các em học sinh yêu quý! Hôm nay, cô sẽ kể cho các em nghe về chuyến phiêu lưu kì thú của Tin-tin và Mi-tin nhé!
+Tin-tin và Mi-tin ghé thăm Vương quốc Tương lai đầy những điều kì diệu. Hai bạn nhỏ gặp những em bé sắp sinh đang chuẩn bị cho Trái Đất. Mỗi em bé đều bận rộn sáng tạo những điều thật đặc biệt. Chúng đang chế tạo vật hạnh phúc, ánh sáng lạ và máy bay kì diệu. Tất cả đều háo hức mang những phát minh tuyệt vời xuống Trái Đất.</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -7474,7 +8011,8 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Các bạn muốn phép lạ giúp hạt nảy mầm nhanh, cây ra nhiều quả. Ước được lớn ngay để lặn biển hay lái máy bay. Còn muốn hóa trái bom nguy hiểm thành kẹo ngọt. Phép lạ giúp thế giới trở nên an toàn và vui tươi.</t>
+          <t>Chào các em học sinh yêu quý!
+Bài thơ này nói về những mong ước diệu kỳ của các bạn nhỏ. Các bạn muốn phép lạ giúp hạt nảy mầm nhanh, cây ra nhiều quả. Ước được lớn ngay để lặn biển hay lái máy bay. Còn muốn hóa trái bom nguy hiểm thành kẹo ngọt. Phép lạ giúp thế giới trở nên an toàn và vui tươi.</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -7513,7 +8051,8 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Bé Hương luôn nhớ cô Thu, một y tá giỏi ở Hà Nội. Hương đã âm thầm viết nhiều lá thư, giấu trong ngăn kéo của mình. Một ngày, mẹ Hương gửi những bức thư đó cho cô Thu. Cô Thu đọc thư rất vui, và cảm động biết bao. Cô hứa sẽ vào thăm Hương và gửi tặng một tấm ảnh đẹp.</t>
+          <t>Chào các em học sinh yêu quý! Hôm nay, cô sẽ kể cho các em nghe câu chuyện về bé Hương nhé.
+Bé Hương luôn nhớ cô Thu, một y tá giỏi ở Hà Nội. Hương đã âm thầm viết nhiều lá thư, giấu trong ngăn kéo của mình. Một ngày, mẹ Hương gửi những bức thư đó cho cô Thu. Cô Thu đọc thư rất vui, và cảm động biết bao. Cô hứa sẽ vào thăm Hương và gửi tặng một tấm ảnh đẹp.</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -7555,7 +8094,8 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Thuận thấy sân chung lộn xộn, liền tự mình quét dọn sạch. Sáng hôm sau, Liên bất ngờ đã quét dọn sân trước Thuận. Hai bạn thi đua nhau dậy thật sớm để quét sân. Cuối cùng, họ quyết định thay phiên nhau cùng dọn dẹp. Nhờ thế, sân luôn sạch đẹp và hai bạn rất vui.</t>
+          <t>Chào các bạn học sinh lớp 3 và 4! Cô có một câu chuyện nhỏ rất hay về việc chia sẻ sân chung.
+Thuận thấy sân chung lộn xộn, liền tự mình quét dọn sạch. Sáng hôm sau, Liên bất ngờ đã quét dọn sân trước Thuận. Hai bạn thi đua nhau dậy thật sớm để quét sân. Cuối cùng, họ quyết định thay phiên nhau cùng dọn dẹp. Nhờ thế, sân luôn sạch đẹp và hai bạn rất vui.</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -7615,12 +8155,21 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Bây giờ cô sẽ tóm tắt lại cho các em dễ hiểu nhé! Khi Mặt Trời lặn, bạn Đóm chăm chỉ bắt đầu làm việc. Đóm dùng đèn nhỏ sáng lấp lánh đi canh gác suốt đêm. Anh Đóm thầm lặng lo lắng cho giấc ngủ ngon của mọi người. Khi gà gáy vang, Đóm tắt đèn lồng và trở về nhà nghỉ. Bạn Đóm thật tuyệt vời, làm việc rất có trách nhiệm đấy!</t>
+          <t>Chào các em học sinh yêu quý! Chúng ta vừa đọc một bài thơ rất hay về một bạn nhỏ chăm chỉ. Bây giờ cô sẽ tóm tắt lại cho các em dễ hiểu nhé!
+Khi Mặt Trời lặn, bạn Đóm chăm chỉ bắt đầu làm việc.
+Đóm dùng đèn nhỏ sáng lấp lánh đi canh gác suốt đêm.
+Anh Đóm thầm lặng lo lắng cho giấc ngủ ngon của mọi người.
+Khi gà gáy vang, Đóm tắt đèn lồng và trở về nhà nghỉ.
+Bạn Đóm thật tuyệt vời, làm việc rất có trách nhiệm đấy!</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Khi Mặt Trời lặn, bạn Đóm chăm chỉ bắt đầu làm việc. Đóm dùng đèn nhỏ sáng lấp lánh đi canh gác suốt đêm. Anh Đóm thầm lặng lo lắng cho giấc ngủ ngon của mọi người. Khi gà gáy vang, Đóm tắt đèn lồng và trở về nhà nghỉ. Bạn Đóm thật tuyệt vời, làm việc rất có trách nhiệm đấy!</t>
+          <t>Khi Mặt Trời lặn, bạn Đóm chăm chỉ bắt đầu làm việc.
+Đóm dùng đèn nhỏ sáng lấp lánh đi canh gác suốt đêm.
+Anh Đóm thầm lặng lo lắng cho giấc ngủ ngon của mọi người.
+Khi gà gáy vang, Đóm tắt đèn lồng và trở về nhà nghỉ.
+Bạn Đóm thật tuyệt vời, làm việc rất có trách nhiệm đấy!</t>
         </is>
       </c>
       <c r="F151" t="inlineStr"/>
@@ -7663,7 +8212,8 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Yết Kiêu có tài lặn phi thường, sống dưới nước nhiều ngày. Giặc Nguyên hung hãn kéo tàu lớn đến xâm chiếm đất nước. Ông dũng cảm một mình đục thủng tàu địch bằng dùi sắt. Giặc bắt được, nhưng ông đã mưu trí trốn thoát khỏi vòng vây. Quân địch kinh hoàng, cuối cùng phải bỏ chạy về nước.</t>
+          <t>Chào các bạn học sinh lớp 3-4 thân mến! Hôm nay, cô sẽ kể cho các bạn nghe về một người hùng rất giỏi bơi lặn nhé!
+Yết Kiêu có tài lặn phi thường, sống dưới nước nhiều ngày. Giặc Nguyên hung hãn kéo tàu lớn đến xâm chiếm đất nước. Ông dũng cảm một mình đục thủng tàu địch bằng dùi sắt. Giặc bắt được, nhưng ông đã mưu trí trốn thoát khỏi vòng vây. Quân địch kinh hoàng, cuối cùng phải bỏ chạy về nước.</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -7711,12 +8261,13 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
+          <t>Chào các em học sinh thân yêu! Hôm nay, cô sẽ kể cho các em nghe câu chuyện về một anh hùng bơi lội rất tài giỏi nhé!
+Yết Kiêu là anh hùng bơi lội siêu giỏi của nước ta. Giặc Nguyên mang một trăm tàu lớn đến cướp phá nước ta. Một mình ông dũng cảm lặn xuống biển, đục thủng tàu giặc. Ông bị giặc bắt, nhưng đã thông minh trốn thoát thành công. Giặc sợ hãi, phải bỏ chạy, không dám quấy nhiễu nữa.</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
           <t>Yết Kiêu là anh hùng bơi lội siêu giỏi của nước ta. Giặc Nguyên mang một trăm tàu lớn đến cướp phá nước ta. Một mình ông dũng cảm lặn xuống biển, đục thủng tàu giặc. Ông bị giặc bắt, nhưng đã thông minh trốn thoát thành công. Giặc sợ hãi, phải bỏ chạy, không dám quấy nhiễu nữa.</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>Một mình ông dũng cảm lặn xuống biển, đục thủng tàu giặc. Ông bị giặc bắt, nhưng đã thông minh trốn thoát thành công. Giặc sợ hãi, phải bỏ chạy, không dám quấy nhiễu nữa.</t>
         </is>
       </c>
       <c r="F153" t="inlineStr"/>
@@ -7754,7 +8305,8 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Ba nàng công chúa xinh đẹp giúp vua cha chống giặc ngoại xâm. Công chúa cả hát mê hoặc, công chúa út kể chuyện cảm động. Lính giặc xúc động bỏ vũ khí, mong muốn trở về quê hương. Khi vua thiếu đồ, công chúa hai vẽ ngựa xe chở lương thực. Đất nước bình yên nhờ tài năng kỳ diệu của ba chị em.</t>
+          <t>Chào các con! Cô sẽ kể cho các con nghe câu chuyện về ba nàng công chúa tài giỏi nhé.
+Ba nàng công chúa xinh đẹp giúp vua cha chống giặc ngoại xâm. Công chúa cả hát mê hoặc, công chúa út kể chuyện cảm động. Lính giặc xúc động bỏ vũ khí, mong muốn trở về quê hương. Khi vua thiếu đồ, công chúa hai vẽ ngựa xe chở lương thực. Đất nước bình yên nhờ tài năng kỳ diệu của ba chị em.</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -7794,7 +8346,8 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Giải thưởng Cô-va-lép-xcai-a tôn vinh các nhà khoa học nữ tài năng. Năm 2021, hai cô giáo đã nhận giải vì những nghiên cứu quý giá. Có cả ông Phạm Văn Hát, người chế tạo nhiều máy nông nghiệp thông minh. Rô bốt gieo hạt của ông đã được bán cho nhiều quốc gia. Ông còn được trao tặng Huân chương Lao động hạng Ba cao quý.</t>
+          <t>Chào các bạn học sinh tiểu học thân mến! Hôm nay, chúng ta sẽ cùng khám phá về những người Việt Nam tài giỏi nhé!
+Giải thưởng Cô-va-lép-xcai-a tôn vinh các nhà khoa học nữ tài năng. Năm 2021, hai cô giáo đã nhận giải vì những nghiên cứu quý giá. Có cả ông Phạm Văn Hát, người chế tạo nhiều máy nông nghiệp thông minh. Rô bốt gieo hạt của ông đã được bán cho nhiều quốc gia. Ông còn được trao tặng Huân chương Lao động hạng Ba cao quý.</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -7841,7 +8394,8 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Ngày xưa, một phú ông xây ngôi nhà không có cửa sổ. Nhà tối om, cả nhà phú ông thường xuyên bị bệnh. Một cậu bé thông minh mách rằng nhà cần làm nhiều cửa sổ. Phú ông làm theo, mọi người khỏe lại nhờ ánh nắng. Ánh nắng mặt trời thật quý giá giúp chúng ta khỏe mạnh!</t>
+          <t>Chào các bạn học sinh đáng yêu của cô! Hôm nay chúng ta cùng nghe câu chuyện về một ngôi nhà đặc biệt nhé.
+Ngày xưa, một phú ông xây ngôi nhà không có cửa sổ. Nhà tối om, cả nhà phú ông thường xuyên bị bệnh. Một cậu bé thông minh mách rằng nhà cần làm nhiều cửa sổ. Phú ông làm theo, mọi người khỏe lại nhờ ánh nắng. Ánh nắng mặt trời thật quý giá giúp chúng ta khỏe mạnh!</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -7879,12 +8433,15 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Một lần, ông dũng cảm chọn cứu người bệnh nặng trước nhà vua. Vua Trần Anh ban đầu giận, nhưng sau hiểu lòng tốt của ông. Vua khen ông là lương y tuyệt vời, luôn nghĩ cho người khác.</t>
+          <t>Các em học sinh thân mến,
+Phạm Bân là một bác sĩ giỏi, luôn yêu thương giúp đỡ người nghèo. Ông thường dùng tiền mua thuốc tốt, chữa bệnh miễn phí cho mọi người.
+Một lần, ông dũng cảm chọn cứu người bệnh nặng trước nhà vua. Vua Trần Anh ban đầu giận, nhưng sau hiểu lòng tốt của ông. Vua khen ông là lương y tuyệt vời, luôn nghĩ cho người khác.</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Một lần, ông dũng cảm chọn cứu người bệnh nặng trước nhà vua. Vua Trần Anh ban đầu giận, nhưng sau hiểu lòng tốt của ông. Vua khen ông là lương y tuyệt vời, luôn nghĩ cho người khác.</t>
+          <t>Phạm Bân là một bác sĩ giỏi, luôn yêu thương giúp đỡ người nghèo. Ông thường dùng tiền mua thuốc tốt, chữa bệnh miễn phí cho mọi người.
+Một lần, ông dũng cảm chọn cứu người bệnh nặng trước nhà vua. Vua Trần Anh ban đầu giận, nhưng sau hiểu lòng tốt của ông. Vua khen ông là lương y tuyệt vời, luôn nghĩ cho người khác.</t>
         </is>
       </c>
       <c r="F157" t="inlineStr"/>
@@ -7923,7 +8480,8 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Nguyễn Bá Tĩnh mồ côi cha mẹ từ khi còn nhỏ. Cậu được nuôi dạy trong ngôi chùa. Cậu học hành rất chăm chỉ để mong thi đậu làm quan. Khi dịch bệnh bùng phát, Bá Tĩnh quyết tâm cứu giúp mọi người. Ông thi đỗ trạng nguyên nhưng chọn chữa bệnh cho dân nghèo. Bá Tĩnh sau này trở thành ông tổ của ngành thuốc Nam.</t>
+          <t>Chào các em học sinh lớp 3-4! Cô có một câu chuyện về một người rất giỏi và có tấm lòng nhân ái muốn kể cho các em nghe đây.
+Nguyễn Bá Tĩnh mồ côi cha mẹ từ khi còn nhỏ. Cậu được nuôi dạy trong ngôi chùa. Cậu học hành rất chăm chỉ để mong thi đậu làm quan. Khi dịch bệnh bùng phát, Bá Tĩnh quyết tâm cứu giúp mọi người. Ông thi đỗ trạng nguyên nhưng chọn chữa bệnh cho dân nghèo. Bá Tĩnh sau này trở thành ông tổ của ngành thuốc Nam.</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -7981,12 +8539,14 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Bạn thấy mình xinh xắn, đáng yêu nên càng tự tin hơn nhiều. Trên đường đến trường, bạn vui vẻ sải bước theo lối quen thuộc. Tới cổng trường, bạn cùng các bạn hát vang trong buổi chào cờ. Bạn luôn hăng hái giơ tay khi cô giáo đặt câu hỏi.</t>
+          <t>Chào các em học sinh thân mến!
+Bài thơ này kể về một buổi sáng thật vui vẻ của bạn nhỏ đấy:
+Mỗi sáng, bạn nhỏ đánh răng thật sạch rồi chải tóc gọn gàng. Bạn thấy mình xinh xắn, đáng yêu nên càng tự tin hơn nhiều. Trên đường đến trường, bạn vui vẻ sải bước theo lối quen thuộc. Tới cổng trường, bạn cùng các bạn hát vang trong buổi chào cờ. Bạn luôn hăng hái giơ tay khi cô giáo đặt câu hỏi.</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Tới cổng trường, bạn cùng các bạn hát vang trong buổi chào cờ. Bạn luôn hăng hái giơ tay khi cô giáo đặt câu hỏi.</t>
+          <t>Mỗi sáng, bạn nhỏ đánh răng thật sạch rồi chải tóc gọn gàng. Bạn thấy mình xinh xắn, đáng yêu nên càng tự tin hơn nhiều. Trên đường đến trường, bạn vui vẻ sải bước theo lối quen thuộc. Tới cổng trường, bạn cùng các bạn hát vang trong buổi chào cờ. Bạn luôn hăng hái giơ tay khi cô giáo đặt câu hỏi.</t>
         </is>
       </c>
       <c r="F159" t="inlineStr"/>
@@ -8022,12 +8582,21 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Chi rất muốn mua quyển từ điển tặng sinh nhật bạn Vy. Em đã tiết kiệm tiền và được má cho vay thêm. Bỗng nhiên, bạn Thư bị bệnh nặng, cần tiền mổ gấp. Chi không chút đắn đo, đem tiền tiết kiệm giúp bạn. Vậy là Chi làm móc khóa xinh xắn tặng sinh nhật Vy.</t>
+          <t>Chào các bạn học sinh yêu quý! Hôm nay chúng ta cùng nhau khám phá câu chuyện thú vị của bạn Chi nhé.
+Chi rất muốn mua quyển từ điển tặng sinh nhật bạn Vy.
+Em đã tiết kiệm tiền và được má cho vay thêm.
+Bỗng nhiên, bạn Thư bị bệnh nặng, cần tiền mổ gấp.
+Chi không chút đắn đo, đem tiền tiết kiệm giúp bạn.
+Vậy là Chi làm móc khóa xinh xắn tặng sinh nhật Vy.</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Chi rất muốn mua quyển từ điển tặng sinh nhật bạn Vy. Em đã tiết kiệm tiền và được má cho vay thêm. Bỗng nhiên, bạn Thư bị bệnh nặng, cần tiền mổ gấp. Chi không chút đắn đo, đem tiền tiết kiệm giúp bạn. Vậy là Chi làm móc khóa xinh xắn tặng sinh nhật Vy.</t>
+          <t>Chi rất muốn mua quyển từ điển tặng sinh nhật bạn Vy.
+Em đã tiết kiệm tiền và được má cho vay thêm.
+Bỗng nhiên, bạn Thư bị bệnh nặng, cần tiền mổ gấp.
+Chi không chút đắn đo, đem tiền tiết kiệm giúp bạn.
+Vậy là Chi làm móc khóa xinh xắn tặng sinh nhật Vy.</t>
         </is>
       </c>
       <c r="F160" t="inlineStr"/>
@@ -8070,7 +8639,8 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Buổi học hôm nay là buổi cuối cùng của cô giáo. Tự nhiên cả lớp em trở nên thật trang nghiêm lạ. Chúng em chợt nhận ra mái tóc bạc, tay cô dính phấn. Cả lớp buồn vì đã từng nghịch ngợm làm cô giáo buồn. Chúng em ước có thể ngoan hơn để cô vui vẻ mãi.</t>
+          <t>Chào các em học sinh yêu quý! Hôm nay chúng ta cùng nhau tìm hiểu về một buổi học đặc biệt nhé.
+Buổi học hôm nay là buổi cuối cùng của cô giáo. Tự nhiên cả lớp em trở nên thật trang nghiêm lạ. Chúng em chợt nhận ra mái tóc bạc, tay cô dính phấn. Cả lớp buồn vì đã từng nghịch ngợm làm cô giáo buồn. Chúng em ước có thể ngoan hơn để cô vui vẻ mãi.</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -8109,12 +8679,13 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Người dân bị Pôn-Pốt làm hại, rất đói và sợ hãi. Thấy dân khổ, bộ đội liền chia gạo, nấu cơm thật no. Mọi người rất cảm động, ngôi làng bỗng hóa ngày hội. Các chú bộ đội đã mang tình yêu thương đến đó.</t>
+          <t>Chào các con, hôm nay chúng ta sẽ cùng đọc câu chuyện về các chú bộ đội Việt Nam nhé!
+Các chú bộ đội Việt Nam đến Cam-pu-chia giúp dân bạn. Người dân bị Pôn-Pốt làm hại, rất đói và sợ hãi. Thấy dân khổ, bộ đội liền chia gạo, nấu cơm thật no. Mọi người rất cảm động, ngôi làng bỗng hóa ngày hội. Các chú bộ đội đã mang tình yêu thương đến đó.</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Người dân bị Pôn-Pốt làm hại, rất đói và sợ hãi. Thấy dân khổ, bộ đội liền chia gạo, nấu cơm thật no. Mọi người rất cảm động, ngôi làng bỗng hóa ngày hội. Các chú bộ đội đã mang tình yêu thương đến đó.</t>
+          <t>Các chú bộ đội Việt Nam đến Cam-pu-chia giúp dân bạn. Người dân bị Pôn-Pốt làm hại, rất đói và sợ hãi. Thấy dân khổ, bộ đội liền chia gạo, nấu cơm thật no. Mọi người rất cảm động, ngôi làng bỗng hóa ngày hội. Các chú bộ đội đã mang tình yêu thương đến đó.</t>
         </is>
       </c>
       <c r="F162" t="inlineStr"/>
@@ -8166,7 +8737,8 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Sáng sớm, một cô bé nhìn thấy đàn vịt trời bơi trên hồ. Cô bé gọi anh trai nhưng anh mang súng cao su ra. Anh định dụ vịt, song cô bé không muốn làm hại. Cô bé đã kêu gọi vịt, rồi cười giòn tan. Tiếng cười vui làm vịt tiếp tục bơi nhởn nhơ.</t>
+          <t>Chào các em học sinh! Hôm nay chúng ta cùng tóm tắt câu chuyện về hai anh em nhé.
+Sáng sớm, một cô bé nhìn thấy đàn vịt trời bơi trên hồ. Cô bé gọi anh trai nhưng anh mang súng cao su ra. Anh định dụ vịt, song cô bé không muốn làm hại. Cô bé đã kêu gọi vịt, rồi cười giòn tan. Tiếng cười vui làm vịt tiếp tục bơi nhởn nhơ.</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -8218,12 +8790,13 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Bom đạn đã làm vỡ kính, khiến gió bụi, mưa ướt áo họ. Nhưng các chú vẫn ung dung, vững vàng lái xe đi tiếp. Họ chẳng hề ngại khó khăn, mệt mỏi trên đường. Các chú lính luôn giúp đỡ, động viên nhau vượt mọi chặng đường.</t>
+          <t>Chào các con yêu, hôm nay chúng ta cùng khám phá câu chuyện về những chú bộ đội lái xe thật dũng cảm nhé!
+Những người lính lái xe vượt đường mà không có kính chắn gió. Bom đạn đã làm vỡ kính, khiến gió bụi, mưa ướt áo họ. Nhưng các chú vẫn ung dung, vững vàng lái xe đi tiếp. Họ chẳng hề ngại khó khăn, mệt mỏi trên đường. Các chú lính luôn giúp đỡ, động viên nhau vượt mọi chặng đường.</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Bom đạn đã làm vỡ kính, khiến gió bụi, mưa ướt áo họ. Nhưng các chú vẫn ung dung, vững vàng lái xe đi tiếp. Họ chẳng hề ngại khó khăn, mệt mỏi trên đường. Các chú lính luôn giúp đỡ, động viên nhau vượt mọi chặng đường.</t>
+          <t>Những người lính lái xe vượt đường mà không có kính chắn gió. Bom đạn đã làm vỡ kính, khiến gió bụi, mưa ướt áo họ. Nhưng các chú vẫn ung dung, vững vàng lái xe đi tiếp. Họ chẳng hề ngại khó khăn, mệt mỏi trên đường. Các chú lính luôn giúp đỡ, động viên nhau vượt mọi chặng đường.</t>
         </is>
       </c>
       <c r="F164" t="inlineStr"/>
@@ -8258,7 +8831,8 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Ông Trương Xuân Thức lái tàu, gặp xe tải băng qua đường ray. Ông liền kéo phanh khẩn cấp để cứu rất nhiều người. Đoàn tàu va mạnh, đầu tàu hư hại nhưng hành khách đều an toàn. Ông Thức bị thương, nhưng đã cứu sống hơn ba trăm người. Nhờ lòng dũng cảm, ông được tặng Huân chương cao quý.</t>
+          <t>Chào các bạn học sinh! Hôm nay, chúng ta cùng nghe câu chuyện về một người lái tàu rất dũng cảm nhé.
+Ông Trương Xuân Thức lái tàu, gặp xe tải băng qua đường ray. Ông liền kéo phanh khẩn cấp để cứu rất nhiều người. Đoàn tàu va mạnh, đầu tàu hư hại nhưng hành khách đều an toàn. Ông Thức bị thương, nhưng đã cứu sống hơn ba trăm người. Nhờ lòng dũng cảm, ông được tặng Huân chương cao quý.</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -8300,7 +8874,8 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Ga-li-lê đã nghi ngờ một ý tưởng và làm thí nghiệm ở tháp Pi-sa. Ông khám phá ra rằng không khí làm chậm tốc độ rơi của vật. Ga-li-lê còn chế tạo kính thiên văn, nhận ra Trái Đất không đứng yên. Dù bị phạt nặng, ông vẫn kiên quyết bảo vệ chân lí khoa học. Cuối cùng, những phát hiện của Ga-li-lê đã trở thành sự thật.</t>
+          <t>Chào các bạn học sinh yêu quý! Hôm nay chúng ta sẽ cùng khám phá câu chuyện về nhà khoa học Ga-li-lê nhé.
+Ga-li-lê đã nghi ngờ một ý tưởng và làm thí nghiệm ở tháp Pi-sa. Ông khám phá ra rằng không khí làm chậm tốc độ rơi của vật. Ga-li-lê còn chế tạo kính thiên văn, nhận ra Trái Đất không đứng yên. Dù bị phạt nặng, ông vẫn kiên quyết bảo vệ chân lí khoa học. Cuối cùng, những phát hiện của Ga-li-lê đã trở thành sự thật.</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -8355,12 +8930,22 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Họ phải vượt hàng rào tre cao, chú tướng ra lệnh leo. Cậu lính bé chui qua lỗ, vô tình làm đổ hàng rào. Thầy giáo buồn vì hoa dập, mong ai đó nhận lỗi. Chú lính nhỏ dũng cảm sửa, cả đội cùng làm theo.</t>
+          <t>Chào các em học sinh thân mến,
+Cô sẽ tóm tắt câu chuyện thú vị này cho các em nhé!
+Một nhóm bạn nhỏ chơi trò lính, muốn bắt chuồn chuồn.
+Họ phải vượt hàng rào tre cao, chú tướng ra lệnh leo.
+Cậu lính bé chui qua lỗ, vô tình làm đổ hàng rào.
+Thầy giáo buồn vì hoa dập, mong ai đó nhận lỗi.
+Chú lính nhỏ dũng cảm sửa, cả đội cùng làm theo.</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Họ phải vượt hàng rào tre cao, chú tướng ra lệnh leo. Cậu lính bé chui qua lỗ, vô tình làm đổ hàng rào. Thầy giáo buồn vì hoa dập, mong ai đó nhận lỗi. Chú lính nhỏ dũng cảm sửa, cả đội cùng làm theo.</t>
+          <t>Một nhóm bạn nhỏ chơi trò lính, muốn bắt chuồn chuồn.
+Họ phải vượt hàng rào tre cao, chú tướng ra lệnh leo.
+Cậu lính bé chui qua lỗ, vô tình làm đổ hàng rào.
+Thầy giáo buồn vì hoa dập, mong ai đó nhận lỗi.
+Chú lính nhỏ dũng cảm sửa, cả đội cùng làm theo.</t>
         </is>
       </c>
       <c r="F167" t="inlineStr"/>
@@ -8399,12 +8984,13 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Anh Nhẫn dẫn đàn bò ra, chúng reo mừng sung sướng. Cả đàn hăng hái gặm cỏ non ngọt lành khắp đồi. Anh Nhẫn ngắm nhìn, lòng tràn đầy niềm vui và hi vọng. Anh mong ước đàn bò sẽ lớn nhanh, sinh sôi nhiều hơn.</t>
+          <t>Chào các con, cô sẽ kể tóm tắt câu chuyện này thật dễ hiểu nhé!
+Sau nhiều đêm mưa, các ngọn đồi trở nên xanh tươi mơn mởn. Anh Nhẫn dẫn đàn bò ra, chúng reo mừng sung sướng. Cả đàn hăng hái gặm cỏ non ngọt lành khắp đồi. Anh Nhẫn ngắm nhìn, lòng tràn đầy niềm vui và hi vọng. Anh mong ước đàn bò sẽ lớn nhanh, sinh sôi nhiều hơn.</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Anh Nhẫn dẫn đàn bò ra, chúng reo mừng sung sướng. Cả đàn hăng hái gặm cỏ non ngọt lành khắp đồi. Anh Nhẫn ngắm nhìn, lòng tràn đầy niềm vui và hi vọng. Anh mong ước đàn bò sẽ lớn nhanh, sinh sôi nhiều hơn.</t>
+          <t>Sau nhiều đêm mưa, các ngọn đồi trở nên xanh tươi mơn mởn. Anh Nhẫn dẫn đàn bò ra, chúng reo mừng sung sướng. Cả đàn hăng hái gặm cỏ non ngọt lành khắp đồi. Anh Nhẫn ngắm nhìn, lòng tràn đầy niềm vui và hi vọng. Anh mong ước đàn bò sẽ lớn nhanh, sinh sôi nhiều hơn.</t>
         </is>
       </c>
       <c r="F168" t="inlineStr"/>
@@ -8447,7 +9033,8 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Các chú công nhân làm việc chăm chỉ trên giàn khoan giữa biển khơi. Dù bão tố và sóng lớn, các chú vẫn kiên cường làm việc. Họ luôn bận rộn, nhưng ánh mắt ngời lên nụ cười đoàn kết. Trong tim các chú là lòng dũng cảm, tự hào giống cha ông. Lòng yêu nước giúp các chú vượt qua mọi khó khăn hiểm nguy.</t>
+          <t>Chào các con! Hôm nay chúng ta cùng tìm hiểu về những người chú làm việc thật đặc biệt nhé!
+Các chú công nhân làm việc chăm chỉ trên giàn khoan giữa biển khơi. Dù bão tố và sóng lớn, các chú vẫn kiên cường làm việc. Họ luôn bận rộn, nhưng ánh mắt ngời lên nụ cười đoàn kết. Trong tim các chú là lòng dũng cảm, tự hào giống cha ông. Lòng yêu nước giúp các chú vượt qua mọi khó khăn hiểm nguy.</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -8503,12 +9090,19 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Mặt Trời lặn xuống, đoàn thuyền đánh cá hăng hái ra khơi. Họ hát vang, mong biển mẹ ban tặng nhiều cá tươi. Suốt đêm, những ngư dân chăm chỉ kéo lưới đầy ắp cá. Bình minh lên, thuyền về bến với niềm vui chiến thắng.</t>
+          <t>Chào các bạn học sinh yêu quý! Hôm nay, chúng ta cùng tìm hiểu về một chuyến đi biển đầy thú vị nhé!
+Mặt Trời lặn xuống, đoàn thuyền đánh cá hăng hái ra khơi.
+Họ hát vang, mong biển mẹ ban tặng nhiều cá tươi.
+Suốt đêm, những ngư dân chăm chỉ kéo lưới đầy ắp cá.
+Bình minh lên, thuyền về bến với niềm vui chiến thắng.</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Mặt Trời lặn xuống, đoàn thuyền đánh cá hăng hái ra khơi. Họ hát vang, mong biển mẹ ban tặng nhiều cá tươi. Suốt đêm, những ngư dân chăm chỉ kéo lưới đầy ắp cá. Bình minh lên, thuyền về bến với niềm vui chiến thắng.</t>
+          <t>Mặt Trời lặn xuống, đoàn thuyền đánh cá hăng hái ra khơi.
+Họ hát vang, mong biển mẹ ban tặng nhiều cá tươi.
+Suốt đêm, những ngư dân chăm chỉ kéo lưới đầy ắp cá.
+Bình minh lên, thuyền về bến với niềm vui chiến thắng.</t>
         </is>
       </c>
       <c r="F170" t="inlineStr"/>
@@ -8544,12 +9138,21 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Những cây cầu hiện đại cho thấy đất nước ta đang phát triển. Cầu Cần Thơ rất dài, giúp nhiều tỉnh miền Tây phát triển. Cầu Rồng Đà Nẵng phun lửa, phun nước vô cùng đẹp mắt. Cầu Vĩnh Tuy ở Hà Nội do chính người Việt mình xây dựng. Những cây cầu này làm đất nước Việt Nam thêm đẹp giàu.</t>
+          <t>Chào các em học sinh yêu quý! Hôm nay, cô sẽ kể cho các em nghe về những cây cầu tuyệt vời của đất nước mình nhé!
+Những cây cầu hiện đại cho thấy đất nước ta đang phát triển.
+Cầu Cần Thơ rất dài, giúp nhiều tỉnh miền Tây phát triển.
+Cầu Rồng Đà Nẵng phun lửa, phun nước vô cùng đẹp mắt.
+Cầu Vĩnh Tuy ở Hà Nội do chính người Việt mình xây dựng.
+Những cây cầu này làm đất nước Việt Nam thêm đẹp giàu.</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Cầu Cần Thơ rất dài, giúp nhiều tỉnh miền Tây phát triển. Cầu Rồng Đà Nẵng phun lửa, phun nước vô cùng đẹp mắt. Cầu Vĩnh Tuy ở Hà Nội do chính người Việt mình xây dựng. Những cây cầu này làm đất nước Việt Nam thêm đẹp giàu.</t>
+          <t>Những cây cầu hiện đại cho thấy đất nước ta đang phát triển.
+Cầu Cần Thơ rất dài, giúp nhiều tỉnh miền Tây phát triển.
+Cầu Rồng Đà Nẵng phun lửa, phun nước vô cùng đẹp mắt.
+Cầu Vĩnh Tuy ở Hà Nội do chính người Việt mình xây dựng.
+Những cây cầu này làm đất nước Việt Nam thêm đẹp giàu.</t>
         </is>
       </c>
       <c r="F171" t="inlineStr"/>
@@ -8586,12 +9189,21 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Ngô Quyền là một vị tướng tài ba, đã đứng lên bảo vệ đất nước. Giặc Nam Hán liền cử Hoằng Tháo đem rất nhiều thuyền chiến sang. Ngô Quyền lập mưu đóng cọc gỗ nhọn dưới dòng sông Bạch Đằng. Giặc mắc bẫy, thuyền vỡ tan tành, tướng Hoằng Tháo bị giết. Chiến thắng vẻ vang này giúp dân tộc ta giành độc lập lâu dài.</t>
+          <t>Chào các em học sinh yêu quý! Hôm nay, chúng ta sẽ cùng tìm hiểu về một chiến công rất oai hùng của ông cha ta nhé!
+Ngô Quyền là một vị tướng tài ba, đã đứng lên bảo vệ đất nước.
+Giặc Nam Hán liền cử Hoằng Tháo đem rất nhiều thuyền chiến sang.
+Ngô Quyền lập mưu đóng cọc gỗ nhọn dưới dòng sông Bạch Đằng.
+Giặc mắc bẫy, thuyền vỡ tan tành, tướng Hoằng Tháo bị giết.
+Chiến thắng vẻ vang này giúp dân tộc ta giành độc lập lâu dài.</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Giặc Nam Hán liền cử Hoằng Tháo đem rất nhiều thuyền chiến sang. Ngô Quyền lập mưu đóng cọc gỗ nhọn dưới dòng sông Bạch Đằng. Giặc mắc bẫy, thuyền vỡ tan tành, tướng Hoằng Tháo bị giết. Chiến thắng vẻ vang này giúp dân tộc ta giành độc lập lâu dài.</t>
+          <t>Ngô Quyền là một vị tướng tài ba, đã đứng lên bảo vệ đất nước.
+Giặc Nam Hán liền cử Hoằng Tháo đem rất nhiều thuyền chiến sang.
+Ngô Quyền lập mưu đóng cọc gỗ nhọn dưới dòng sông Bạch Đằng.
+Giặc mắc bẫy, thuyền vỡ tan tành, tướng Hoằng Tháo bị giết.
+Chiến thắng vẻ vang này giúp dân tộc ta giành độc lập lâu dài.</t>
         </is>
       </c>
       <c r="F172" t="inlineStr"/>
@@ -8633,7 +9245,8 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Mọi người nhìn thấy cờ đỏ sao vàng tung bay khắp nơi. Lá cờ báo hiệu Cách mạng tháng Tám đã thắng lợi rồi. Dân làng vui mừng kéo nhau ra chợ để mít tinh. Mọi người cùng hô vang khẩu hiệu Độc Lập, Tự Do, Hạnh Phúc. Họ hát một bài hát không lời thật hùng tráng, đầy phấn khởi.</t>
+          <t>Chào các em học sinh yêu quý! Hôm nay chúng ta cùng nhau tóm tắt câu chuyện về một ngày rất đặc biệt nhé.
+Mọi người nhìn thấy cờ đỏ sao vàng tung bay khắp nơi. Lá cờ báo hiệu Cách mạng tháng Tám đã thắng lợi rồi. Dân làng vui mừng kéo nhau ra chợ để mít tinh. Mọi người cùng hô vang khẩu hiệu Độc Lập, Tự Do, Hạnh Phúc. Họ hát một bài hát không lời thật hùng tráng, đầy phấn khởi.</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -8672,12 +9285,21 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Năm 1979, bộ đội ta đã cứu một người mẹ bị thương và bé gái. Một cô bộ đội trẻ ân cần chăm sóc, dỗ dành cháu bé. Một bức ảnh ghi lại khoảnh khắc đẹp này đã gây xúc động. Sau hơn 40 năm, hai người phụ nữ ấy đã gặp lại. Họ ôm nhau khóc nức nở, gọi nhau "Mẹ ơi" đầy tình cảm.</t>
+          <t>Chào các em học sinh thân yêu! Hôm nay, cô sẽ kể cho các em nghe một câu chuyện rất xúc động nhé.
+Năm 1979, bộ đội ta đã cứu một người mẹ bị thương và bé gái.
+Một cô bộ đội trẻ ân cần chăm sóc, dỗ dành cháu bé.
+Một bức ảnh ghi lại khoảnh khắc đẹp này đã gây xúc động.
+Sau hơn 40 năm, hai người phụ nữ ấy đã gặp lại.
+Họ ôm nhau khóc nức nở, gọi nhau "Mẹ ơi" đầy tình cảm.</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Năm 1979, bộ đội ta đã cứu một người mẹ bị thương và bé gái. Một cô bộ đội trẻ ân cần chăm sóc, dỗ dành cháu bé. Một bức ảnh ghi lại khoảnh khắc đẹp này đã gây xúc động. Sau hơn 40 năm, hai người phụ nữ ấy đã gặp lại. Họ ôm nhau khóc nức nở, gọi nhau "Mẹ ơi" đầy tình cảm.</t>
+          <t>Năm 1979, bộ đội ta đã cứu một người mẹ bị thương và bé gái.
+Một cô bộ đội trẻ ân cần chăm sóc, dỗ dành cháu bé.
+Một bức ảnh ghi lại khoảnh khắc đẹp này đã gây xúc động.
+Sau hơn 40 năm, hai người phụ nữ ấy đã gặp lại.
+Họ ôm nhau khóc nức nở, gọi nhau "Mẹ ơi" đầy tình cảm.</t>
         </is>
       </c>
       <c r="F174" t="inlineStr"/>
@@ -8722,12 +9344,14 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Nơi ấy gắn với lịch sử cha ông và là quê hương yêu dấu. Mọi người sống đoàn kết, sẻ chia niềm vui, nỗi buồn cùng nhau. Dù thời tiết khắc nghiệt, họ vẫn kiên cường bảo vệ biển đảo. Họ giữ gìn Trường Sa luôn bình yên bằng tình yêu Tổ quốc.</t>
+          <t>Các em học sinh thân mến,
+Bài thơ đã kể cho chúng ta nghe về đảo Trường Sa – một phần rất thiêng liêng của đất nước Việt Nam mình đấy!
+Trường Sa là vùng biển đảo thiêng liêng của Việt Nam ta. Nơi ấy gắn với lịch sử cha ông và là quê hương yêu dấu. Mọi người sống đoàn kết, sẻ chia niềm vui, nỗi buồn cùng nhau. Dù thời tiết khắc nghiệt, họ vẫn kiên cường bảo vệ biển đảo. Họ giữ gìn Trường Sa luôn bình yên bằng tình yêu Tổ quốc.</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Nơi ấy gắn với lịch sử cha ông và là quê hương yêu dấu. Mọi người sống đoàn kết, sẻ chia niềm vui, nỗi buồn cùng nhau. Dù thời tiết khắc nghiệt, họ vẫn kiên cường bảo vệ biển đảo. Họ giữ gìn Trường Sa luôn bình yên bằng tình yêu Tổ quốc.</t>
+          <t>Trường Sa là vùng biển đảo thiêng liêng của Việt Nam ta. Nơi ấy gắn với lịch sử cha ông và là quê hương yêu dấu. Mọi người sống đoàn kết, sẻ chia niềm vui, nỗi buồn cùng nhau. Dù thời tiết khắc nghiệt, họ vẫn kiên cường bảo vệ biển đảo. Họ giữ gìn Trường Sa luôn bình yên bằng tình yêu Tổ quốc.</t>
         </is>
       </c>
       <c r="F175" t="inlineStr"/>
@@ -8782,7 +9406,8 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Một cô bé đã giúp các chú bộ đội chiến đấu dũng cảm. Em mang đạn qua trận địa bom nổ, không hề sợ hãi. Nhờ em, chú dân quân đã bắn rơi máy bay của kẻ địch. Em reo vui mừng, như đóa hoa nhỏ giữa chiến hào. Bé tên Bảo Ninh, là hình ảnh kiên cường của làng ta.</t>
+          <t>Chào các con! Hôm nay chúng ta sẽ cùng đọc một câu chuyện về một cô bé rất dũng cảm nhé!
+Một cô bé đã giúp các chú bộ đội chiến đấu dũng cảm. Em mang đạn qua trận địa bom nổ, không hề sợ hãi. Nhờ em, chú dân quân đã bắn rơi máy bay của kẻ địch. Em reo vui mừng, như đóa hoa nhỏ giữa chiến hào. Bé tên Bảo Ninh, là hình ảnh kiên cường của làng ta.</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -8834,7 +9459,8 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>"Kế hoạch nhỏ" là phong trào ý nghĩa khởi xướng từ năm 1958. Các bạn học sinh cùng nuôi heo đất, thu gom giấy vụn, phế liệu. Tiền thu được giúp xây công trình măng non và khen thưởng học sinh giỏi. Nó còn giúp đỡ các bạn có hoàn cảnh khó khăn hoặc vùng thiên tai. Nhờ đó, nhiều công trình như Nhà máy nhựa Tiền Phong đã ra đời.</t>
+          <t>Chào các em học sinh thân yêu! Hôm nay cô sẽ kể cho các em nghe về một phong trào rất ý nghĩa nhé.
+"Kế hoạch nhỏ" là phong trào ý nghĩa khởi xướng từ năm 1958. Các bạn học sinh cùng nuôi heo đất, thu gom giấy vụn, phế liệu. Tiền thu được giúp xây công trình măng non và khen thưởng học sinh giỏi. Nó còn giúp đỡ các bạn có hoàn cảnh khó khăn hoặc vùng thiên tai. Nhờ đó, nhiều công trình như Nhà máy nhựa Tiền Phong đã ra đời.</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -8886,7 +9512,8 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Mùa xuân, các bạn nhỏ chăm chỉ trồng nhiều cây xanh. Đồi núi hoang tàn sẽ biến thành rừng thông xanh mướt. Ai cũng vui vẻ vun gốc, nâng niu những cành non tơ. Bàn tay nhỏ bé giúp quê hương mình thêm tươi đẹp. Nhờ đó, chúng ta xây dựng tương lai xanh ngát khắp nơi.</t>
+          <t>Chào các bạn học sinh yêu quý! Hôm nay chúng ta cùng tìm hiểu về một bài thơ rất hay về việc trồng cây nhé!
+Mùa xuân, các bạn nhỏ chăm chỉ trồng nhiều cây xanh. Đồi núi hoang tàn sẽ biến thành rừng thông xanh mướt. Ai cũng vui vẻ vun gốc, nâng niu những cành non tơ. Bàn tay nhỏ bé giúp quê hương mình thêm tươi đẹp. Nhờ đó, chúng ta xây dựng tương lai xanh ngát khắp nơi.</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -8954,12 +9581,13 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
+          <t>Chào các em học sinh yêu quý! Hôm nay chúng ta cùng tìm hiểu một bài thơ rất vui và thú vị nhé.
+Bài thơ kể về nhiều điều thú vị của thế giới quanh ta. Đồ vật thường mang tên gọi giống các bộ phận cơ thể. Ví dụ: chiếc chai có cổ, cái ấm có tai, chân bàn tủ. Nhưng chúng lại không làm được việc như con người. Thật là những sự thật lạ lùng mà ta ít để ý!</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
           <t>Bài thơ kể về nhiều điều thú vị của thế giới quanh ta. Đồ vật thường mang tên gọi giống các bộ phận cơ thể. Ví dụ: chiếc chai có cổ, cái ấm có tai, chân bàn tủ. Nhưng chúng lại không làm được việc như con người. Thật là những sự thật lạ lùng mà ta ít để ý!</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>Đồ vật thường mang tên gọi giống các bộ phận cơ thể. Ví dụ: chiếc chai có cổ, cái ấm có tai, chân bàn tủ. Nhưng chúng lại không làm được việc như con người. Thật là những sự thật lạ lùng mà ta ít để ý!</t>
         </is>
       </c>
       <c r="F179" t="inlineStr"/>
@@ -8994,12 +9622,13 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
+          <t>Chào các bạn học sinh đáng yêu! Cùng cô khám phá một chuyến đi thật thú vị nhé!
+Xe chúng ta leo lên dốc núi cao, ngắm nhìn cảnh đẹp dọc đường. Mây trắng sà xuống, thác nước trắng xóa, rừng cây xanh tươi. Buổi chiều, chúng tôi dừng tại thị trấn náo nhiệt, gặp các em bé H'Mông. Sa Pa thật đẹp, phong cảnh thay đổi nhanh chóng như phép màu. Nơi đây quả là món quà thiên nhiên tuyệt vời dành cho chúng ta.</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
           <t>Xe chúng ta leo lên dốc núi cao, ngắm nhìn cảnh đẹp dọc đường. Mây trắng sà xuống, thác nước trắng xóa, rừng cây xanh tươi. Buổi chiều, chúng tôi dừng tại thị trấn náo nhiệt, gặp các em bé H'Mông. Sa Pa thật đẹp, phong cảnh thay đổi nhanh chóng như phép màu. Nơi đây quả là món quà thiên nhiên tuyệt vời dành cho chúng ta.</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>Mây trắng sà xuống, thác nước trắng xóa, rừng cây xanh tươi. Buổi chiều, chúng tôi dừng tại thị trấn náo nhiệt, gặp các em bé H'Mông. Sa Pa thật đẹp, phong cảnh thay đổi nhanh chóng như phép màu. Nơi đây quả là món quà thiên nhiên tuyệt vời dành cho chúng ta.</t>
         </is>
       </c>
       <c r="F180" t="inlineStr"/>
@@ -9036,7 +9665,8 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Ngày xưa, thế giới bên ngoài đã có nhiều thay đổi lớn. Nhưng đất nước ta lại đóng cửa, bị tụt lại phía sau. Nguyễn Trường Tộ thấy rõ điều này, rất muốn cải tiến đất nước. Ông khuyên vua nên học hỏi, mở rộng quan hệ với nước ngoài. Dù vua không nghe, những suy nghĩ của ông vẫn rất giá trị.</t>
+          <t>Chào các em học sinh thân mến! Hôm nay, chúng ta cùng tìm hiểu về một người rất thông minh, yêu nước tên là Nguyễn Trường Tộ nhé!
+Ngày xưa, thế giới bên ngoài đã có nhiều thay đổi lớn. Nhưng đất nước ta lại đóng cửa, bị tụt lại phía sau. Nguyễn Trường Tộ thấy rõ điều này, rất muốn cải tiến đất nước. Ông khuyên vua nên học hỏi, mở rộng quan hệ với nước ngoài. Dù vua không nghe, những suy nghĩ của ông vẫn rất giá trị.</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -9087,7 +9717,8 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Một ngày, chú tìm thấy mảnh da cũ có mật mã rất bí ẩn. Cháu vô tình giải mã, biết đó là đường vào Trái Đất. Mật thư hướng dẫn họ xuống miệng núi lửa Xníp-phin. Chú quyết định bắt đầu chuyến thám hiểm đầy nguy hiểm.</t>
+          <t>Chào các em học sinh yêu quý! Hôm nay chúng ta cùng nghe câu chuyện về một cuộc phiêu lưu thật thú vị nhé!
+Một ngày, chú tìm thấy mảnh da cũ có mật mã rất bí ẩn. Cháu vô tình giải mã, biết đó là đường vào Trái Đất. Mật thư hướng dẫn họ xuống miệng núi lửa Xníp-phin. Chú quyết định bắt đầu chuyến thám hiểm đầy nguy hiểm.</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -9151,12 +9782,21 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Ngày xưa, Trái Đất ban đầu chỉ có trẻ con mà thôi. Mặt Trời ló rạng, cho các bé nhìn rõ mọi thứ. Mẹ cha sau đó sinh ra, dạy dỗ, yêu thương chúng ta. Trường học, thầy cô xuất hiện, dạy chữ và điều hay. Thầy giáo viết "Chuyện loài người" đầu tiên trên bảng đen.</t>
+          <t>Chào các bạn nhỏ lớp 3, lớp 4! Hôm nay chúng ta cùng tóm tắt bài thơ này nhé.
+Ngày xưa, Trái Đất ban đầu chỉ có trẻ con mà thôi.
+Mặt Trời ló rạng, cho các bé nhìn rõ mọi thứ.
+Mẹ cha sau đó sinh ra, dạy dỗ, yêu thương chúng ta.
+Trường học, thầy cô xuất hiện, dạy chữ và điều hay.
+Thầy giáo viết "Chuyện loài người" đầu tiên trên bảng đen.</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Ngày xưa, Trái Đất ban đầu chỉ có trẻ con mà thôi. Mặt Trời ló rạng, cho các bé nhìn rõ mọi thứ. Mẹ cha sau đó sinh ra, dạy dỗ, yêu thương chúng ta. Trường học, thầy cô xuất hiện, dạy chữ và điều hay. Thầy giáo viết "Chuyện loài người" đầu tiên trên bảng đen.</t>
+          <t>Ngày xưa, Trái Đất ban đầu chỉ có trẻ con mà thôi.
+Mặt Trời ló rạng, cho các bé nhìn rõ mọi thứ.
+Mẹ cha sau đó sinh ra, dạy dỗ, yêu thương chúng ta.
+Trường học, thầy cô xuất hiện, dạy chữ và điều hay.
+Thầy giáo viết "Chuyện loài người" đầu tiên trên bảng đen.</t>
         </is>
       </c>
       <c r="F183" t="inlineStr"/>
@@ -9190,12 +9830,19 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Những tiện nghi tuyệt vời chúng ta có nhờ nhiều sáng chế. Chúng ra đời từ rất lâu, như chữ viết, đến nay. Từ những nhà khoa học tài ba đến người dân bình thường. Mỗi sáng chế đều góp phần xây dựng nền văn minh nhân loại.</t>
+          <t>Chào các em học sinh! Hôm nay chúng ta cùng tìm hiểu về những điều tuyệt vời xung quanh mình nhé.
+Những tiện nghi tuyệt vời chúng ta có nhờ nhiều sáng chế.
+Chúng ra đời từ rất lâu, như chữ viết, đến nay.
+Từ những nhà khoa học tài ba đến người dân bình thường.
+Mỗi sáng chế đều góp phần xây dựng nền văn minh nhân loại.</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Những tiện nghi tuyệt vời chúng ta có nhờ nhiều sáng chế. Chúng ra đời từ rất lâu, như chữ viết, đến nay. Từ những nhà khoa học tài ba đến người dân bình thường. Mỗi sáng chế đều góp phần xây dựng nền văn minh nhân loại.</t>
+          <t>Những tiện nghi tuyệt vời chúng ta có nhờ nhiều sáng chế.
+Chúng ra đời từ rất lâu, như chữ viết, đến nay.
+Từ những nhà khoa học tài ba đến người dân bình thường.
+Mỗi sáng chế đều góp phần xây dựng nền văn minh nhân loại.</t>
         </is>
       </c>
       <c r="F184" t="inlineStr"/>
@@ -9230,12 +9877,13 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Cậu bé nhận ra bóng nắng thay đổi do Mặt Trời. Một quả táo rơi đã giúp ông tìm ra định luật nổi tiếng. Ông rất say mê nghiên cứu, thường quên cả ăn uống. Nhờ vậy, Niu-tơn đã cống hiến rất nhiều cho nhân loại.</t>
+          <t>Chào các em, chúng ta hãy cùng nhau tìm hiểu về một nhà khoa học rất tài giỏi nhé!
+Niu-tơn từ bé đã rất giỏi quan sát mọi thứ xung quanh. Cậu bé nhận ra bóng nắng thay đổi do Mặt Trời. Một quả táo rơi đã giúp ông tìm ra định luật nổi tiếng. Ông rất say mê nghiên cứu, thường quên cả ăn uống. Nhờ vậy, Niu-tơn đã cống hiến rất nhiều cho nhân loại.</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Ông rất say mê nghiên cứu, thường quên cả ăn uống. Nhờ vậy, Niu-tơn đã cống hiến rất nhiều cho nhân loại.</t>
+          <t>Niu-tơn từ bé đã rất giỏi quan sát mọi thứ xung quanh. Cậu bé nhận ra bóng nắng thay đổi do Mặt Trời. Một quả táo rơi đã giúp ông tìm ra định luật nổi tiếng. Ông rất say mê nghiên cứu, thường quên cả ăn uống. Nhờ vậy, Niu-tơn đã cống hiến rất nhiều cho nhân loại.</t>
         </is>
       </c>
       <c r="F185" t="inlineStr"/>
@@ -9272,7 +9920,8 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Năm 1519, Ma-gien-lăng bắt đầu chuyến đi vòng quanh thế giới. Ông vượt biển lớn, tìm ra Thái Bình Dương rộng lớn. Đoàn thuyền gặp nhiều khó khăn, Ma-gien-lăng đã hy sinh. Sau ba năm, chỉ một thuyền quay về Tây Ban Nha. Chuyến đi chứng tỏ Trái Đất hình tròn, khám phá nhiều vùng đất.</t>
+          <t>Chào các em học sinh lớp 3-4! Cô có một câu chuyện thú vị về một chuyến đi biển rất xa xôi.
+Năm 1519, Ma-gien-lăng bắt đầu chuyến đi vòng quanh thế giới. Ông vượt biển lớn, tìm ra Thái Bình Dương rộng lớn. Đoàn thuyền gặp nhiều khó khăn, Ma-gien-lăng đã hy sinh. Sau ba năm, chỉ một thuyền quay về Tây Ban Nha. Chuyến đi chứng tỏ Trái Đất hình tròn, khám phá nhiều vùng đất.</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -9314,7 +9963,8 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Yuri Gagarin là người đầu tiên bay vào không gian rộng lớn. Năm 1961, ông đã thực hiện chuyến bay lịch sử ấy. Cả thế giới rất vui mừng và ngưỡng mộ Ga-ga-rin. Ông có nụ cười ấm áp, chinh phục mọi người ngay lập tức. Ga-ga-rin từ một cậu bé nông thôn đã thành anh hùng.</t>
+          <t>Chào các em học sinh yêu quý! Hôm nay chúng ta sẽ cùng tìm hiểu về một câu chuyện có thật rất thú vị nhé.
+Yuri Gagarin là người đầu tiên bay vào không gian rộng lớn. Năm 1961, ông đã thực hiện chuyến bay lịch sử ấy. Cả thế giới rất vui mừng và ngưỡng mộ Ga-ga-rin. Ông có nụ cười ấm áp, chinh phục mọi người ngay lập tức. Ga-ga-rin từ một cậu bé nông thôn đã thành anh hùng.</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -9366,12 +10016,12 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Thành nói đó là tiếng lòng, mỗi đứa nghe thấy điều riêng mình. Các bạn mê mải trò chơi cho đến khi trời tối mà không biết. Văn nói “đói”, khiến cả nhóm giật mình lùa trâu về nhà. Bố mẹ rất thích thú khi nghe các con kể về trò chơi ấy.</t>
+          <t>Các bạn nhỏ đi chăn trâu, chơi bên dòng suối trong mát mỗi ngày. Một buổi chiều, Bống chỉ cho mọi người trò bịt tai nghe tiếng gió. Thành nói đó là tiếng lòng, mỗi đứa nghe thấy điều riêng mình. Các bạn mê mải trò chơi cho đến khi trời tối mà không biết. Văn nói “đói”, khiến cả nhóm giật mình lùa trâu về nhà. Bố mẹ rất thích thú khi nghe các con kể về trò chơi ấy.</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Thành nói đó là tiếng lòng, mỗi đứa nghe thấy điều riêng mình. Các bạn mê mải trò chơi cho đến khi trời tối mà không biết. Văn nói “đói”, khiến cả nhóm giật mình lùa trâu về nhà. Bố mẹ rất thích thú khi nghe các con kể về trò chơi ấy.</t>
+          <t>Các bạn nhỏ đi chăn trâu, chơi bên dòng suối trong mát mỗi ngày. Một buổi chiều, Bống chỉ cho mọi người trò bịt tai nghe tiếng gió. Thành nói đó là tiếng lòng, mỗi đứa nghe thấy điều riêng mình. Các bạn mê mải trò chơi cho đến khi trời tối mà không biết. Văn nói “đói”, khiến cả nhóm giật mình lùa trâu về nhà. Bố mẹ rất thích thú khi nghe các con kể về trò chơi ấy.</t>
         </is>
       </c>
       <c r="F188" t="inlineStr"/>
@@ -9431,12 +10081,12 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Mư Hoa chợt nghĩ ra ý tưởng biến bãi rác thành một cánh đồng hoa xinh đẹp. Các bạn cùng dân làng hăng hái dọn dẹp, gieo trồng và chăm sóc cây hoa. Chỉ ba tháng, đồng cỏ đã nở rộ thành vườn hoa ngát hương, rực rỡ sắc màu. Làng trở nên nổi tiếng, mọi người vui tươi hát ca giữa những cánh hoa.</t>
+          <t>Các bạn nhỏ thường vui đùa thỏa thích trên đồng cỏ rộng ở đầu làng. Tiếc thay, một bãi rác xuất hiện, khiến nơi vui chơi yêu thích biến mất. Mư Hoa chợt nghĩ ra ý tưởng biến bãi rác thành một cánh đồng hoa xinh đẹp. Các bạn cùng dân làng hăng hái dọn dẹp, gieo trồng và chăm sóc cây hoa. Chỉ ba tháng, đồng cỏ đã nở rộ thành vườn hoa ngát hương, rực rỡ sắc màu. Làng trở nên nổi tiếng, mọi người vui tươi hát ca giữa những cánh hoa.</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Mư Hoa chợt nghĩ ra ý tưởng biến bãi rác thành một cánh đồng hoa xinh đẹp. Các bạn cùng dân làng hăng hái dọn dẹp, gieo trồng và chăm sóc cây hoa. Chỉ ba tháng, đồng cỏ đã nở rộ thành vườn hoa ngát hương, rực rỡ sắc màu. Làng trở nên nổi tiếng, mọi người vui tươi hát ca giữa những cánh hoa.</t>
+          <t>Các bạn nhỏ thường vui đùa thỏa thích trên đồng cỏ rộng ở đầu làng. Tiếc thay, một bãi rác xuất hiện, khiến nơi vui chơi yêu thích biến mất. Mư Hoa chợt nghĩ ra ý tưởng biến bãi rác thành một cánh đồng hoa xinh đẹp. Các bạn cùng dân làng hăng hái dọn dẹp, gieo trồng và chăm sóc cây hoa. Chỉ ba tháng, đồng cỏ đã nở rộ thành vườn hoa ngát hương, rực rỡ sắc màu. Làng trở nên nổi tiếng, mọi người vui tươi hát ca giữa những cánh hoa.</t>
         </is>
       </c>
       <c r="F189" t="inlineStr"/>
@@ -9493,12 +10143,13 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
+          <t>Chào các em học sinh lớp 5 thân mến! Cô sẽ giúp các em tóm tắt bài thơ này nhé.
+Bài thơ kể về một bạn nhỏ mang trong mình tinh thần "Ngựa" phiêu lưu. Bạn ấy rất khao khát được khám phá thế giới rộng lớn, ghé thăm nhiều miền đất. Con mơ ước mang về cho mẹ những câu chuyện thú vị cùng vẻ đẹp khắp nơi. Những cánh đồng hoa rực rỡ với hương thơm ngọt ngào đang chờ đón bạn. Dù đi thật xa, bạn nhỏ vẫn hứa sẽ luôn nhớ mẹ và quay về gia đình.</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
           <t>Bài thơ kể về một bạn nhỏ mang trong mình tinh thần "Ngựa" phiêu lưu. Bạn ấy rất khao khát được khám phá thế giới rộng lớn, ghé thăm nhiều miền đất. Con mơ ước mang về cho mẹ những câu chuyện thú vị cùng vẻ đẹp khắp nơi. Những cánh đồng hoa rực rỡ với hương thơm ngọt ngào đang chờ đón bạn. Dù đi thật xa, bạn nhỏ vẫn hứa sẽ luôn nhớ mẹ và quay về gia đình.</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>Bạn ấy rất khao khát được khám phá thế giới rộng lớn, ghé thăm nhiều miền đất. Con mơ ước mang về cho mẹ những câu chuyện thú vị cùng vẻ đẹp khắp nơi. Những cánh đồng hoa rực rỡ với hương thơm ngọt ngào đang chờ đón bạn. Dù đi thật xa, bạn nhỏ vẫn hứa sẽ luôn nhớ mẹ và quay về gia đình.</t>
         </is>
       </c>
       <c r="F190" t="inlineStr"/>
@@ -9535,7 +10186,8 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Trước nhà bạn nhỏ có một dòng sông êm đềm cùng hàng bần xanh mát. Bọn trẻ thường tụ tập chơi đùa và hái trái bần chua để ăn. Hoa bần tím nở đẹp, trái chín rơi tỏm xuống sông rất quen thuộc. Trái bần đặc biệt nấu canh chua cá bống sao thì ngon tuyệt vời. Dù đi đâu xa, bạn nhỏ luôn nhớ về dòng sông và cây bần quê hương. Những cây bần xanh tươi giữ mãi vẻ đẹp của cù lao yêu dấu.</t>
+          <t>Chào các em học sinh lớp 5! Đây là câu chuyện về một bạn nhỏ sống cạnh dòng sông và những kỷ niệm đáng yêu của bạn ấy.
+Trước nhà bạn nhỏ có một dòng sông êm đềm cùng hàng bần xanh mát. Bọn trẻ thường tụ tập chơi đùa và hái trái bần chua để ăn. Hoa bần tím nở đẹp, trái chín rơi tỏm xuống sông rất quen thuộc. Trái bần đặc biệt nấu canh chua cá bống sao thì ngon tuyệt vời. Dù đi đâu xa, bạn nhỏ luôn nhớ về dòng sông và cây bần quê hương. Những cây bần xanh tươi giữ mãi vẻ đẹp của cù lao yêu dấu.</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -9595,12 +10247,24 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Qua lời cô, cả thế giới mở ra với bao điều kì diệu, quen thuộc. Cô giáo dốc hết tâm sức, tận tình giúp các em hiểu bài thật sâu sắc. Nhờ đó, mỗi âm thanh cô dạy đều trở thành những kiến thức hay ho. Các em học sinh hiểu bài, cảm nhận được niềm vui, sự kì diệu từ tri thức. Lớp học tràn ngập niềm vui, tiếng cười hồn nhiên, chứa đựng bao điều mới mẻ.</t>
+          <t>Các em thân mến,
+Bài thơ này kể về một lớp học đầy ắp tiếng giảng bài và sự tập trung của các bạn nhỏ.
+Trong lớp học, các bạn nhỏ chăm chú lắng nghe cô giáo giảng bài mỗi ngày.
+Qua lời cô, cả thế giới mở ra với bao điều kì diệu, quen thuộc.
+Cô giáo dốc hết tâm sức, tận tình giúp các em hiểu bài thật sâu sắc.
+Nhờ đó, mỗi âm thanh cô dạy đều trở thành những kiến thức hay ho.
+Các em học sinh hiểu bài, cảm nhận được niềm vui, sự kì diệu từ tri thức.
+Lớp học tràn ngập niềm vui, tiếng cười hồn nhiên, chứa đựng bao điều mới mẻ.</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Qua lời cô, cả thế giới mở ra với bao điều kì diệu, quen thuộc. Cô giáo dốc hết tâm sức, tận tình giúp các em hiểu bài thật sâu sắc. Nhờ đó, mỗi âm thanh cô dạy đều trở thành những kiến thức hay ho. Các em học sinh hiểu bài, cảm nhận được niềm vui, sự kì diệu từ tri thức. Lớp học tràn ngập niềm vui, tiếng cười hồn nhiên, chứa đựng bao điều mới mẻ.</t>
+          <t>Trong lớp học, các bạn nhỏ chăm chú lắng nghe cô giáo giảng bài mỗi ngày.
+Qua lời cô, cả thế giới mở ra với bao điều kì diệu, quen thuộc.
+Cô giáo dốc hết tâm sức, tận tình giúp các em hiểu bài thật sâu sắc.
+Nhờ đó, mỗi âm thanh cô dạy đều trở thành những kiến thức hay ho.
+Các em học sinh hiểu bài, cảm nhận được niềm vui, sự kì diệu từ tri thức.
+Lớp học tràn ngập niềm vui, tiếng cười hồn nhiên, chứa đựng bao điều mới mẻ.</t>
         </is>
       </c>
       <c r="F192" t="inlineStr"/>
@@ -9644,12 +10308,23 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Cậu bé Việt tự tin đá bóng, nhưng luôn ích kỷ giữ bóng một mình. Vì thế, đội bạn dễ dàng cướp bóng và ghi liên tiếp hai bàn thắng. Các bạn trong đội không hài lòng, góp ý làm Việt giận dỗi không đá nữa. Ngồi ngoài sân, Việt thấy đồng đội phối hợp ăn ý để ghi một bàn đẹp. Lúc đó, Việt chợt hiểu rằng tinh thần đồng đội mới là điều quan trọng nhất. Việt vui vẻ quay lại sân, sẵn sàng cùng các bạn chiến đấu đến cùng.</t>
+          <t>Chào các em học sinh lớp 5 thân mến! Hôm nay chúng ta cùng tóm tắt câu chuyện thú vị về bóng đá này nhé!
+Cậu bé Việt tự tin đá bóng, nhưng luôn ích kỷ giữ bóng một mình.
+Vì thế, đội bạn dễ dàng cướp bóng và ghi liên tiếp hai bàn thắng.
+Các bạn trong đội không hài lòng, góp ý làm Việt giận dỗi không đá nữa.
+Ngồi ngoài sân, Việt thấy đồng đội phối hợp ăn ý để ghi một bàn đẹp.
+Lúc đó, Việt chợt hiểu rằng tinh thần đồng đội mới là điều quan trọng nhất.
+Việt vui vẻ quay lại sân, sẵn sàng cùng các bạn chiến đấu đến cùng.</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Cậu bé Việt tự tin đá bóng, nhưng luôn ích kỷ giữ bóng một mình. Vì thế, đội bạn dễ dàng cướp bóng và ghi liên tiếp hai bàn thắng. Các bạn trong đội không hài lòng, góp ý làm Việt giận dỗi không đá nữa. Ngồi ngoài sân, Việt thấy đồng đội phối hợp ăn ý để ghi một bàn đẹp. Lúc đó, Việt chợt hiểu rằng tinh thần đồng đội mới là điều quan trọng nhất. Việt vui vẻ quay lại sân, sẵn sàng cùng các bạn chiến đấu đến cùng.</t>
+          <t>Cậu bé Việt tự tin đá bóng, nhưng luôn ích kỷ giữ bóng một mình.
+Vì thế, đội bạn dễ dàng cướp bóng và ghi liên tiếp hai bàn thắng.
+Các bạn trong đội không hài lòng, góp ý làm Việt giận dỗi không đá nữa.
+Ngồi ngoài sân, Việt thấy đồng đội phối hợp ăn ý để ghi một bàn đẹp.
+Lúc đó, Việt chợt hiểu rằng tinh thần đồng đội mới là điều quan trọng nhất.
+Việt vui vẻ quay lại sân, sẵn sàng cùng các bạn chiến đấu đến cùng.</t>
         </is>
       </c>
       <c r="F193" t="inlineStr"/>
@@ -9695,7 +10370,8 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Thầy Dương gợi ý cả lớp sưu tầm đồ vật cho triển lãm Tết. Trong khi các bạn háo hức, Loan băn khoăn tìm ý tưởng độc đáo. Rồi Loan nảy ra ý tưởng: sưu tầm giọng nói bạn bè thật đặc biệt. Loan đã tỉ mỉ thu âm lời chúc chân thành từ mỗi người bạn. Ngày triển lãm, những giọng nói thân thương vang lên khắp lớp học. Cả lớp xúc động lắng nghe, bất ngờ và đầy ắp tiếng cười. Thầy Dương ngợi khen ý tưởng của Loan thật độc đáo và ý nghĩa.</t>
+          <t>Chào các em học sinh lớp 5! Các em hãy đọc câu chuyện này và suy nghĩ về bài học ý nghĩa nhé!
+Thầy Dương gợi ý cả lớp sưu tầm đồ vật cho triển lãm Tết. Trong khi các bạn háo hức, Loan băn khoăn tìm ý tưởng độc đáo. Rồi Loan nảy ra ý tưởng: sưu tầm giọng nói bạn bè thật đặc biệt. Loan đã tỉ mỉ thu âm lời chúc chân thành từ mỗi người bạn. Ngày triển lãm, những giọng nói thân thương vang lên khắp lớp học. Cả lớp xúc động lắng nghe, bất ngờ và đầy ắp tiếng cười. Thầy Dương ngợi khen ý tưởng của Loan thật độc đáo và ý nghĩa.</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -9740,12 +10416,13 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Những cư dân hành tinh đó có làn da nhiều màu, hóa ra là những người máy. Mọi công việc đều do máy móc làm, thậm chí có cả ô tô biết bay nữa. Tuy nhiên, nhiệt độ ở đó rất nóng bức và cây cối hóa ra chỉ là máy móc giả. Tôi bỗng nhớ Trái Đất với những bóng cây mát rượi, tiếng chim hót thân thuộc biết bao.</t>
+          <t>Chào các em học sinh lớp 5, đây là bản tóm tắt câu chuyện thú vị về một chuyến phiêu lưu đặc biệt nhé!
+Tàu thám hiểm gặp sự cố, buộc phải hạ cánh khẩn cấp trên hành tinh lạ. Những cư dân hành tinh đó có làn da nhiều màu, hóa ra là những người máy. Mọi công việc đều do máy móc làm, thậm chí có cả ô tô biết bay nữa. Tuy nhiên, nhiệt độ ở đó rất nóng bức và cây cối hóa ra chỉ là máy móc giả. Tôi bỗng nhớ Trái Đất với những bóng cây mát rượi, tiếng chim hót thân thuộc biết bao.</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Những cư dân hành tinh đó có làn da nhiều màu, hóa ra là những người máy. Mọi công việc đều do máy móc làm, thậm chí có cả ô tô biết bay nữa. Tuy nhiên, nhiệt độ ở đó rất nóng bức và cây cối hóa ra chỉ là máy móc giả. Tôi bỗng nhớ Trái Đất với những bóng cây mát rượi, tiếng chim hót thân thuộc biết bao.</t>
+          <t>Tàu thám hiểm gặp sự cố, buộc phải hạ cánh khẩn cấp trên hành tinh lạ. Những cư dân hành tinh đó có làn da nhiều màu, hóa ra là những người máy. Mọi công việc đều do máy móc làm, thậm chí có cả ô tô biết bay nữa. Tuy nhiên, nhiệt độ ở đó rất nóng bức và cây cối hóa ra chỉ là máy móc giả. Tôi bỗng nhớ Trái Đất với những bóng cây mát rượi, tiếng chim hót thân thuộc biết bao.</t>
         </is>
       </c>
       <c r="F195" t="inlineStr"/>
@@ -9800,7 +10477,8 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Nơi đó có hoa cỏ rực rỡ, thác nước ngân nga và rừng cây trái sum suê xanh tốt. Những thửa ruộng bậc thang vàng óng ả lúa chín trĩu nặng cả lòng thung lũng. Người dân Tày, Giáy, Dao chăm chỉ thu hoạch lúa, trồng rau và tìm măng nấm quý. Cuộc sống nơi đây thật bình yên, ấm áp giữa thiên nhiên núi rừng bao la, tươi đẹp.</t>
+          <t>Chào các em học sinh lớp 5 đáng yêu!
+Bài thơ này dẫn chúng ta đến một vùng núi non hùng vĩ, đẹp như một "cổng trời" trên mặt đất. Nơi đó có hoa cỏ rực rỡ, thác nước ngân nga và rừng cây trái sum suê xanh tốt. Những thửa ruộng bậc thang vàng óng ả lúa chín trĩu nặng cả lòng thung lũng. Người dân Tày, Giáy, Dao chăm chỉ thu hoạch lúa, trồng rau và tìm măng nấm quý. Cuộc sống nơi đây thật bình yên, ấm áp giữa thiên nhiên núi rừng bao la, tươi đẹp.</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -9840,7 +10518,8 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Trong chuyến đi, chúng ta tìm thấy một "thành phố" nấm khổng lồ thật bất ngờ. Những cây nấm sặc sỡ giống lâu đài tí hon, đẹp tựa cổ tích. Rừng sâu mát lạnh, chúng ta còn thấy vượn, chồn chạy qua rất nhanh. Tiếp theo, một khu rừng khộp lá vàng óng ánh hiện ra trước mắt. Những chú mang vàng hòa mình vào sắc lá, như bức tranh sống động. Cả chuyến đi tựa như lạc vào một thế giới thần tiên đầy bí ẩn.</t>
+          <t>Chào các em học sinh lớp 5 đáng yêu! Hôm nay, cô sẽ kể cho các em nghe về một chuyến đi rừng thật thú vị nhé.
+Trong chuyến đi, chúng ta tìm thấy một "thành phố" nấm khổng lồ thật bất ngờ. Những cây nấm sặc sỡ giống lâu đài tí hon, đẹp tựa cổ tích. Rừng sâu mát lạnh, chúng ta còn thấy vượn, chồn chạy qua rất nhanh. Tiếp theo, một khu rừng khộp lá vàng óng ánh hiện ra trước mắt. Những chú mang vàng hòa mình vào sắc lá, như bức tranh sống động. Cả chuyến đi tựa như lạc vào một thế giới thần tiên đầy bí ẩn.</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -9884,7 +10563,8 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Hang Sơn Đoòng ở Quảng Bình là hang động tự nhiên lớn nhất thế giới. Hang được tạo ra hàng triệu năm bởi nước sông bào mòn đá từ từ. Sơn Đoòng rất rộng lớn, có thể chứa cả khu phố hoặc máy bay to. Bên trong còn có rừng cây xanh tươi, cùng nhiều loài vật độc đáo. Nhiều điều kì diệu về hang động này vẫn đang chờ chúng ta khám phá.</t>
+          <t>Chào các em học sinh lớp 5 đáng yêu! Hôm nay, chúng ta cùng tìm hiểu về một nơi rất đặc biệt nhé.
+Hang Sơn Đoòng ở Quảng Bình là hang động tự nhiên lớn nhất thế giới. Hang được tạo ra hàng triệu năm bởi nước sông bào mòn đá từ từ. Sơn Đoòng rất rộng lớn, có thể chứa cả khu phố hoặc máy bay to. Bên trong còn có rừng cây xanh tươi, cùng nhiều loài vật độc đáo. Nhiều điều kì diệu về hang động này vẫn đang chờ chúng ta khám phá.</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -9924,12 +10604,13 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
+          <t>Chào các bạn học sinh lớp 5! Hôm nay, cô sẽ tóm tắt về Vịnh Hạ Long, một nơi rất đặc biệt của đất nước mình nhé.
+Vịnh Hạ Long là một thắng cảnh tuyệt đẹp, độc đáo không nơi nào có được. Nơi đây có hàng nghìn đảo đá lớn nhỏ, nhấp nhô với nhiều hình thù. Các đảo khi thì xếp thành bức tường, lúc lại thưa thớt như quân cờ. Mỗi hòn đảo mang một hình ảnh sống động, gợi sự liên tưởng thú vị. Chúng ta có thể thấy hòn Gà Chọi hay hòn Con Cóc rất quen thuộc. Đến Hạ Long, ta như lạc vào một thế giới đá đã tồn tại hàng triệu năm.</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
           <t>Vịnh Hạ Long là một thắng cảnh tuyệt đẹp, độc đáo không nơi nào có được. Nơi đây có hàng nghìn đảo đá lớn nhỏ, nhấp nhô với nhiều hình thù. Các đảo khi thì xếp thành bức tường, lúc lại thưa thớt như quân cờ. Mỗi hòn đảo mang một hình ảnh sống động, gợi sự liên tưởng thú vị. Chúng ta có thể thấy hòn Gà Chọi hay hòn Con Cóc rất quen thuộc. Đến Hạ Long, ta như lạc vào một thế giới đá đã tồn tại hàng triệu năm.</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>Nơi đây có hàng nghìn đảo đá lớn nhỏ, nhấp nhô với nhiều hình thù. Các đảo khi thì xếp thành bức tường, lúc lại thưa thớt như quân cờ. Mỗi hòn đảo mang một hình ảnh sống động, gợi sự liên tưởng thú vị. Chúng ta có thể thấy hòn Gà Chọi hay hòn Con Cóc rất quen thuộc. Đến Hạ Long, ta như lạc vào một thế giới đá đã tồn tại hàng triệu năm.</t>
         </is>
       </c>
       <c r="F199" t="inlineStr"/>
@@ -9982,12 +10663,21 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Nó khẽ nhìn qua kẽ lá, thấy trời đang mưa phùn lạnh giá bao trùm. Lá vàng rụng đầy mặt đất, mọi vật đều chìm trong vẻ tĩnh mịch. Bỗng một tiếng chim nhỏ hót vang lên, báo hiệu mùa xuân đang về. Lập tức, suối reo róc rách, muôn loài chim cùng nhau cất tiếng ca vui.</t>
+          <t>Chào các em học sinh lớp 5! Các em hãy cùng lắng nghe câu chuyện về sự chuyển mình của thiên nhiên nhé:
+Một mầm non nhỏ ngủ yên trên cành cây vắng lặng, chờ đợi thời điểm.
+Nó khẽ nhìn qua kẽ lá, thấy trời đang mưa phùn lạnh giá bao trùm.
+Lá vàng rụng đầy mặt đất, mọi vật đều chìm trong vẻ tĩnh mịch.
+Bỗng một tiếng chim nhỏ hót vang lên, báo hiệu mùa xuân đang về.
+Lập tức, suối reo róc rách, muôn loài chim cùng nhau cất tiếng ca vui.</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Nó khẽ nhìn qua kẽ lá, thấy trời đang mưa phùn lạnh giá bao trùm. Lá vàng rụng đầy mặt đất, mọi vật đều chìm trong vẻ tĩnh mịch. Bỗng một tiếng chim nhỏ hót vang lên, báo hiệu mùa xuân đang về. Lập tức, suối reo róc rách, muôn loài chim cùng nhau cất tiếng ca vui.</t>
+          <t>Một mầm non nhỏ ngủ yên trên cành cây vắng lặng, chờ đợi thời điểm.
+Nó khẽ nhìn qua kẽ lá, thấy trời đang mưa phùn lạnh giá bao trùm.
+Lá vàng rụng đầy mặt đất, mọi vật đều chìm trong vẻ tĩnh mịch.
+Bỗng một tiếng chim nhỏ hót vang lên, báo hiệu mùa xuân đang về.
+Lập tức, suối reo róc rách, muôn loài chim cùng nhau cất tiếng ca vui.</t>
         </is>
       </c>
       <c r="F200" t="inlineStr"/>
@@ -10022,13 +10712,13 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
+          <t>Chào các em học sinh lớp 5! Hôm nay, chúng ta cùng tìm hiểu về núi lửa nhé.
+Núi lửa rất đa dạng, không phải lúc nào cũng phun lửa mạnh mẽ. Chúng có thể hình tròn, phun khói, hoặc hoạt động ngầm dưới biển. Trái Đất của chúng ta có nhiều lớp, giống như một củ hành to. Dưới lớp vỏ cứng, đá nóng chảy tạo thành chất lỏng đặc, gọi là mác-ma. Mác-ma sôi sùng sục này trồi lên qua khe nứt, phun trào tạo thành núi lửa.</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
           <t>Núi lửa rất đa dạng, không phải lúc nào cũng phun lửa mạnh mẽ. Chúng có thể hình tròn, phun khói, hoặc hoạt động ngầm dưới biển. Trái Đất của chúng ta có nhiều lớp, giống như một củ hành to. Dưới lớp vỏ cứng, đá nóng chảy tạo thành chất lỏng đặc, gọi là mác-ma. Mác-ma sôi sùng sục này trồi lên qua khe nứt, phun trào tạo thành núi lửa.</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>Văn bản gốc không chứa bất kỳ câu chào hỏi hay dẫn nhập nào. Tất cả các câu đều là một phần của nội dung chính mô tả về núi lửa và quá trình hình thành của chúng. Do đó, toàn bộ văn bản được giữ lại.
-Núi lửa rất đa dạng, không phải lúc nào cũng phun lửa mạnh mẽ. Chúng có thể hình tròn, phun khói, hoặc hoạt động ngầm dưới biển. Trái Đất của chúng ta có nhiều lớp, giống như một củ hành to. Dưới lớp vỏ cứng, đá nóng chảy tạo thành chất lỏng đặc, gọi là mác-ma. Mác-ma sôi sùng sục này trồi lên qua khe nứt, phun trào tạo thành núi lửa.</t>
         </is>
       </c>
       <c r="F201" t="inlineStr"/>
@@ -10070,14 +10760,17 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
+          <t>Chào các em học sinh lớp 5! Hôm nay, chúng ta cùng đọc một câu chuyện buổi sáng thật đẹp nhé.
+---
+**Tóm tắt câu chuyện:**
+Sáng sớm, bạn nhỏ thức dậy khi sương mù còn bao phủ khắp vườn cây. Tiếng chim sẻ hót rộn ràng, báo hiệu một điều gì đó đặc biệt sắp tới. Từ phía đông, mặt trời từ từ nhô lên, giống chiếc mũ đỏ tươi. Mặt trời tròn như mâm đồng, từ từ chiếu sáng, chim hót rộn rã hơn. Lòng bạn nhỏ cũng vui sướng, ngân nga bài ca về vầng mặt trời rực rỡ.</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
           <t>---
 **Tóm tắt câu chuyện:**
 Sáng sớm, bạn nhỏ thức dậy khi sương mù còn bao phủ khắp vườn cây. Tiếng chim sẻ hót rộn ràng, báo hiệu một điều gì đó đặc biệt sắp tới. Từ phía đông, mặt trời từ từ nhô lên, giống chiếc mũ đỏ tươi. Mặt trời tròn như mâm đồng, từ từ chiếu sáng, chim hót rộn rã hơn. Lòng bạn nhỏ cũng vui sướng, ngân nga bài ca về vầng mặt trời rực rỡ.</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>Sáng sớm, bạn nhỏ thức dậy khi sương mù còn bao phủ khắp vườn cây. Tiếng chim sẻ hót rộn ràng, báo hiệu một điều gì đó đặc biệt sắp tới. Từ phía đông, mặt trời từ từ nhô lên, giống chiếc mũ đỏ tươi. Mặt trời tròn như mâm đồng, từ từ chiếu sáng, chim hót rộn rã hơn. Lòng bạn nhỏ cũng vui sướng, ngân nga bài ca về vầng mặt trời rực rỡ.</t>
         </is>
       </c>
       <c r="F202" t="inlineStr"/>
@@ -10114,7 +10807,8 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Đoàn xe khởi hành đến phía nam dãy Át-lát, cảnh vật giống như sao Hỏa. Chúng tôi tới Sa-ha-ra, sa mạc lớn nhất, cát ở đây mịn như bột. Mọi người phấn khích cưỡi lạc đà cao lớn, băng qua những cồn cát vàng. Đêm sa mạc rất lạnh, chúng tôi nằm trên cát ngắm sao lấp lánh. Bình minh vàng rực rỡ, ai cũng thấy mình thật nhỏ bé giữa sa mạc.</t>
+          <t>Chào các em học sinh lớp 5! Hôm nay, cô sẽ kể cho các em nghe về một chuyến đi đến nơi cực kì đặc biệt nhé!
+Đoàn xe khởi hành đến phía nam dãy Át-lát, cảnh vật giống như sao Hỏa. Chúng tôi tới Sa-ha-ra, sa mạc lớn nhất, cát ở đây mịn như bột. Mọi người phấn khích cưỡi lạc đà cao lớn, băng qua những cồn cát vàng. Đêm sa mạc rất lạnh, chúng tôi nằm trên cát ngắm sao lấp lánh. Bình minh vàng rực rỡ, ai cũng thấy mình thật nhỏ bé giữa sa mạc.</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -10155,12 +10849,13 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Đặc biệt, các em bắt đầu nhận nền giáo dục hoàn toàn của Việt Nam. May mắn này có được nhờ sự hy sinh to lớn của bao nhiêu đồng bào. Vì vậy, các em hãy cố gắng học tập thật chăm chỉ, ngoan ngoãn. Sự học của các em sẽ giúp xây dựng non sông Việt Nam tươi đẹp.</t>
+          <t>Chào các em học sinh thân mến,
+Hôm nay là ngày khai giảng đầu tiên của nước Việt Nam độc lập. Các em rất vui được gặp lại bạn bè, thầy cô sau kỳ nghỉ. Đặc biệt, các em bắt đầu nhận nền giáo dục hoàn toàn của Việt Nam. May mắn này có được nhờ sự hy sinh to lớn của bao nhiêu đồng bào. Vì vậy, các em hãy cố gắng học tập thật chăm chỉ, ngoan ngoãn. Sự học của các em sẽ giúp xây dựng non sông Việt Nam tươi đẹp.</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Đặc biệt, các em bắt đầu nhận nền giáo dục hoàn toàn của Việt Nam. May mắn này có được nhờ sự hy sinh to lớn của bao nhiêu đồng bào. Vì vậy, các em hãy cố gắng học tập thật chăm chỉ, ngoan ngoãn. Sự học của các em sẽ giúp xây dựng non sông Việt Nam tươi đẹp.</t>
+          <t>Hôm nay là ngày khai giảng đầu tiên của nước Việt Nam độc lập. Các em rất vui được gặp lại bạn bè, thầy cô sau kỳ nghỉ. Đặc biệt, các em bắt đầu nhận nền giáo dục hoàn toàn của Việt Nam. May mắn này có được nhờ sự hy sinh to lớn của bao nhiêu đồng bào. Vì vậy, các em hãy cố gắng học tập thật chăm chỉ, ngoan ngoãn. Sự học của các em sẽ giúp xây dựng non sông Việt Nam tươi đẹp.</t>
         </is>
       </c>
       <c r="F204" t="inlineStr"/>
@@ -10196,7 +10891,8 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Thầy Tạ Quang Bửu là một nhà khoa học và nhà giáo dục rất tài giỏi. Ông luôn tự học hỏi, say mê đọc sách khắp mọi lúc mọi nơi. Thầy giỏi nhiều môn như toán, lí và đặc biệt là các thứ tiếng nước ngoài. Ông nói tiếng Anh rất hoàn hảo, từng giúp Bác Hồ tiếp các vị khách. Tên thầy được đặt cho nhiều con phố và cả giải thưởng khoa học lớn.</t>
+          <t>Chào các em học sinh lớp 5! Hôm nay, cô sẽ kể cho các em nghe về một người rất tài giỏi nhé!
+Thầy Tạ Quang Bửu là một nhà khoa học và nhà giáo dục rất tài giỏi. Ông luôn tự học hỏi, say mê đọc sách khắp mọi lúc mọi nơi. Thầy giỏi nhiều môn như toán, lí và đặc biệt là các thứ tiếng nước ngoài. Ông nói tiếng Anh rất hoàn hảo, từng giúp Bác Hồ tiếp các vị khách. Tên thầy được đặt cho nhiều con phố và cả giải thưởng khoa học lớn.</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -10237,7 +10933,8 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>An-đéc-xen lớn lên bên câu chuyện kể, cùng cha yêu thiên nhiên. Cha làm rối gỗ, cậu bé tạo nên những vở kịch nhỏ xinh. Quốc vương Đan Mạch thích sách ông, cho tiền đi du lịch đó đây. Đi khắp nơi, ông cảm thông với người nghèo, trân trọng tâm hồn đẹp. Trái tim nhân hậu và trải nghiệm đã giúp ông viết truyện hay. Những câu chuyện ấy làm xúc động hàng triệu trẻ em trên khắp thế giới.</t>
+          <t>Chào các em học sinh lớp 5! Hôm nay, chúng ta cùng tóm tắt về cuộc đời nhà văn An-đéc-xen nhé.
+An-đéc-xen lớn lên bên câu chuyện kể, cùng cha yêu thiên nhiên. Cha làm rối gỗ, cậu bé tạo nên những vở kịch nhỏ xinh. Quốc vương Đan Mạch thích sách ông, cho tiền đi du lịch đó đây. Đi khắp nơi, ông cảm thông với người nghèo, trân trọng tâm hồn đẹp. Trái tim nhân hậu và trải nghiệm đã giúp ông viết truyện hay. Những câu chuyện ấy làm xúc động hàng triệu trẻ em trên khắp thế giới.</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -10279,7 +10976,8 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Lê-ô-nác-đô đa Vin-xi có niềm đam mê hội họa từ khi còn nhỏ. Năm 14 tuổi, cậu bắt đầu học vẽ từ danh họa Vê-rô-ki-ô. Thầy giáo giao cậu vẽ một quả trứng gà, lặp đi lặp lại mỗi ngày. Lúc đầu, cậu thấy chán, không hiểu ý nghĩa bài học này. Thầy giải thích tầm quan trọng của sự quan sát tỉ mỉ từng chi tiết. Leonardo hiểu ra, kiên trì luyện tập, trở thành họa sĩ vĩ đại thế giới.</t>
+          <t>Chào các em học sinh lớp 5! Hôm nay, cô sẽ kể cho các em nghe câu chuyện về danh họa Lê-ô-nác-đô đa Vin-xi nhé.
+Lê-ô-nác-đô đa Vin-xi có niềm đam mê hội họa từ khi còn nhỏ. Năm 14 tuổi, cậu bắt đầu học vẽ từ danh họa Vê-rô-ki-ô. Thầy giáo giao cậu vẽ một quả trứng gà, lặp đi lặp lại mỗi ngày. Lúc đầu, cậu thấy chán, không hiểu ý nghĩa bài học này. Thầy giải thích tầm quan trọng của sự quan sát tỉ mỉ từng chi tiết. Leonardo hiểu ra, kiên trì luyện tập, trở thành họa sĩ vĩ đại thế giới.</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -10331,7 +11029,8 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Chúng đưa chúng mình đến những thế giới tuyệt diệu, đầy sắc màu. Sách còn giúp giải đáp bao nhiêu thắc mắc, bí ẩn về vũ trụ và cuộc sống quanh ta. Chúng ta sẽ được khơi gợi những ước mơ lớn lao, chinh phục con đường dài phía trước. Đặc biệt, những trang sách dạy ta bài học về tình yêu thương, nhân nghĩa quý giá. Vậy nên, hãy cùng nhau khám phá kho tri thức rộng lớn, mở ra tương lai tươi sáng nhé!</t>
+          <t>Chào các em học sinh lớp 5 đáng yêu!
+Những trang sách thật kì diệu, phải không nào? Chúng đưa chúng mình đến những thế giới tuyệt diệu, đầy sắc màu. Sách còn giúp giải đáp bao nhiêu thắc mắc, bí ẩn về vũ trụ và cuộc sống quanh ta. Chúng ta sẽ được khơi gợi những ước mơ lớn lao, chinh phục con đường dài phía trước. Đặc biệt, những trang sách dạy ta bài học về tình yêu thương, nhân nghĩa quý giá. Vậy nên, hãy cùng nhau khám phá kho tri thức rộng lớn, mở ra tương lai tươi sáng nhé!</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -10373,12 +11072,13 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
+          <t>Chào các bạn học sinh lớp 5 đáng yêu! Hôm nay chúng ta sẽ cùng khám phá câu chuyện về hành trình đọc sách thú vị nhé!
+Ngày bé, bạn nhỏ rất thích nghe bà và chú kể nhiều câu chuyện hay. Để tìm thêm, bạn đã cố gắng học chữ và tự đọc sách. Từ bảy tuổi, bạn mê mẩn đọc rất nhiều cuốn sách hấp dẫn. Sách giúp bạn trải qua nhiều cảm xúc, làm giàu trí tưởng tượng. Giờ đây, bạn vui vẻ kể lại những câu chuyện cho các em. Nhờ vậy, đọc sách đã trở thành niềm khát khao lớn trong bạn.</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
           <t>Ngày bé, bạn nhỏ rất thích nghe bà và chú kể nhiều câu chuyện hay. Để tìm thêm, bạn đã cố gắng học chữ và tự đọc sách. Từ bảy tuổi, bạn mê mẩn đọc rất nhiều cuốn sách hấp dẫn. Sách giúp bạn trải qua nhiều cảm xúc, làm giàu trí tưởng tượng. Giờ đây, bạn vui vẻ kể lại những câu chuyện cho các em. Nhờ vậy, đọc sách đã trở thành niềm khát khao lớn trong bạn.</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>Để tìm thêm, bạn đã cố gắng học chữ và tự đọc sách. Từ bảy tuổi, bạn mê mẩn đọc rất nhiều cuốn sách hấp dẫn. Sách giúp bạn trải qua nhiều cảm xúc, làm giàu trí tưởng tượng. Giờ đây, bạn vui vẻ kể lại những câu chuyện cho các em. Nhờ vậy, đọc sách đã trở thành niềm khát khao lớn trong bạn.</t>
         </is>
       </c>
       <c r="F209" t="inlineStr"/>
@@ -10419,12 +11119,13 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Cha cậu luôn khuyến khích cả gia đình cùng học những điều mới mỗi ngày. Sau bữa tối, họ thường chia sẻ kiến thức đã học cùng nhau. Một lần, họ đã cùng nhau tìm Nê-pan trên bản đồ thế giới. Nhờ phương pháp đặc biệt này, Phi-lít đã thành công lớn khi cậu vào đại học. Điều đó cho thấy việc học hỏi mỗi ngày giúp chúng ta giỏi giang hơn rất nhiều.</t>
+          <t>Chào các em học sinh lớp 5 đáng yêu!
+Câu chuyện kể về Phi-lít, một cậu bé rất ham học hỏi từ khi còn nhỏ. Cha cậu luôn khuyến khích cả gia đình cùng học những điều mới mỗi ngày. Sau bữa tối, họ thường chia sẻ kiến thức đã học cùng nhau. Một lần, họ đã cùng nhau tìm Nê-pan trên bản đồ thế giới. Nhờ phương pháp đặc biệt này, Phi-lít đã thành công lớn khi cậu vào đại học. Điều đó cho thấy việc học hỏi mỗi ngày giúp chúng ta giỏi giang hơn rất nhiều.</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Cha cậu luôn khuyến khích cả gia đình cùng học những điều mới mỗi ngày. Sau bữa tối, họ thường chia sẻ kiến thức đã học cùng nhau. Một lần, họ đã cùng nhau tìm Nê-pan trên bản đồ thế giới. Nhờ phương pháp đặc biệt này, Phi-lít đã thành công lớn khi cậu vào đại học. Điều đó cho thấy việc học hỏi mỗi ngày giúp chúng ta giỏi giang hơn rất nhiều.</t>
+          <t>Câu chuyện kể về Phi-lít, một cậu bé rất ham học hỏi từ khi còn nhỏ. Cha cậu luôn khuyến khích cả gia đình cùng học những điều mới mỗi ngày. Sau bữa tối, họ thường chia sẻ kiến thức đã học cùng nhau. Một lần, họ đã cùng nhau tìm Nê-pan trên bản đồ thế giới. Nhờ phương pháp đặc biệt này, Phi-lít đã thành công lớn khi cậu vào đại học. Điều đó cho thấy việc học hỏi mỗi ngày giúp chúng ta giỏi giang hơn rất nhiều.</t>
         </is>
       </c>
       <c r="F210" t="inlineStr"/>
@@ -10480,7 +11181,8 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Tiếng đàn ba-la-lai-ca rất êm dịu, giống như làn gió nhẹ thổi qua rừng. Một cô gái Nga đã chơi đàn bên bờ sông Đà vào đêm trăng sáng lung linh. Lúc đó, mọi người và máy móc công trường đều say ngủ, chỉ tiếng đàn ngân nga khắp nơi. Tiếng đàn như sóng biển vỗ về, khiến tâm hồn chúng ta thấy thật náo nức. Công trình lớn này sẽ đem ánh sáng điện đến khắp mọi nơi trong tương lai.</t>
+          <t>Chào các em học sinh lớp 5!
+Đoạn văn này kể về một buổi tối thật đặc biệt trên sông Đà. Tiếng đàn ba-la-lai-ca rất êm dịu, giống như làn gió nhẹ thổi qua rừng. Một cô gái Nga đã chơi đàn bên bờ sông Đà vào đêm trăng sáng lung linh. Lúc đó, mọi người và máy móc công trường đều say ngủ, chỉ tiếng đàn ngân nga khắp nơi. Tiếng đàn như sóng biển vỗ về, khiến tâm hồn chúng ta thấy thật náo nức. Công trình lớn này sẽ đem ánh sáng điện đến khắp mọi nơi trong tương lai.</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -10519,7 +11221,8 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Giô-an Rô-linh từ bé đã có trí tưởng tượng rất phong phú và thích kể chuyện. Cô bé đã viết câu chuyện "Chú thỏ con" và nuôi dưỡng ước mơ làm nhà văn. Trên một chuyến tàu, cô chợt nghĩ ra cậu bé Ha-ri Pót-tơ tài ba. Cô say mê viết về thế giới phép thuật, dù gặp nhiều khó khăn ban đầu. Cuốn truyện "Ha-ri Pót-tơ" sau đó đã nổi tiếng khắp toàn cầu. Giô-an đã trở thành nhà văn lừng danh vì luôn say mê sáng tạo.</t>
+          <t>Chào các em học sinh lớp 5! Hôm nay, cô sẽ kể cho các em nghe về nhà văn Giô-an Rô-linh và câu chuyện về ước mơ của cô ấy nhé!
+Giô-an Rô-linh từ bé đã có trí tưởng tượng rất phong phú và thích kể chuyện. Cô bé đã viết câu chuyện "Chú thỏ con" và nuôi dưỡng ước mơ làm nhà văn. Trên một chuyến tàu, cô chợt nghĩ ra cậu bé Ha-ri Pót-tơ tài ba. Cô say mê viết về thế giới phép thuật, dù gặp nhiều khó khăn ban đầu. Cuốn truyện "Ha-ri Pót-tơ" sau đó đã nổi tiếng khắp toàn cầu. Giô-an đã trở thành nhà văn lừng danh vì luôn say mê sáng tạo.</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -10559,12 +11262,13 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
+          <t>Chào các em học sinh lớp 5! Hôm nay cô sẽ kể cho các em nghe về những bức tranh Làng Hồ rất đặc biệt nhé.
+Tôi rất yêu thích tranh làng Hồ với hình ảnh con vật, cây cối thân quen. Những bức tranh mộc mạc ấy mang đến vẻ đẹp giản dị, vui tươi cho cuộc sống. Các nghệ sĩ dân gian yêu mến đồng quê đã tạo ra nhiều tranh lợn, gà sống động. Họ dùng than rơm bếp, than lá tre làm màu đen rất đặc trưng của Việt Nam. Màu trắng điệp độc đáo từ vỏ sò giúp tranh lấp lánh, thêm phần sinh động. Tranh làng Hồ là kho báu nghệ thuật quý giá của dân tộc ta.</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
           <t>Tôi rất yêu thích tranh làng Hồ với hình ảnh con vật, cây cối thân quen. Những bức tranh mộc mạc ấy mang đến vẻ đẹp giản dị, vui tươi cho cuộc sống. Các nghệ sĩ dân gian yêu mến đồng quê đã tạo ra nhiều tranh lợn, gà sống động. Họ dùng than rơm bếp, than lá tre làm màu đen rất đặc trưng của Việt Nam. Màu trắng điệp độc đáo từ vỏ sò giúp tranh lấp lánh, thêm phần sinh động. Tranh làng Hồ là kho báu nghệ thuật quý giá của dân tộc ta.</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>Các nghệ sĩ dân gian yêu mến đồng quê đã tạo ra nhiều tranh lợn, gà sống động. Họ dùng than rơm bếp, than lá tre làm màu đen rất đặc trưng của Việt Nam. Màu trắng điệp độc đáo từ vỏ sò giúp tranh lấp lánh, thêm phần sinh động. Tranh làng Hồ là kho báu nghệ thuật quý giá của dân tộc ta.</t>
         </is>
       </c>
       <c r="F213" t="inlineStr"/>
@@ -10600,14 +11304,22 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Ngôi nhà có vườn táo cổ thụ, hồ sen đẹp và rất nhiều hoa. Ở đó, các chị gái trẻ tập hát Quan họ dưới sự hướng dẫn của bà Trưởng. Mùa xuân, các chị học điệu "Ngỏ lời" e ấp, dịu dàng. Đến mùa hè, họ lại tập điệu "Thương nhau" nồng nàn, thiết tha. Bài hát cuối cùng là "Giã bạn" thật buồn, nói lời chia tay lưu luyến. Bạn nhỏ đã rất yêu Quan họ và ước mơ một ngày được tự mình cất tiếng hát. ---
+          <t>Các bạn nhỏ thân mến,
+Chúng ta cùng đến thăm nhà bà Trưởng, một người hướng dẫn hát Quan họ rất giỏi nhé!
+Bạn nhỏ trong câu chuyện thường đến nhà bà Trưởng, một trưởng nhóm Quan họ nổi tiếng. Ngôi nhà có vườn táo cổ thụ, hồ sen đẹp và rất nhiều hoa. Ở đó, các chị gái trẻ tập hát Quan họ dưới sự hướng dẫn của bà Trưởng. Mùa xuân, các chị học điệu "Ngỏ lời" e ấp, dịu dàng. Đến mùa hè, họ lại tập điệu "Thương nhau" nồng nàn, thiết tha. Bài hát cuối cùng là "Giã bạn" thật buồn, nói lời chia tay lưu luyến. Bạn nhỏ đã rất yêu Quan họ và ước mơ một ngày được tự mình cất tiếng hát.
+---
 **Bản tóm tắt cho lớp 5:**
-Bạn nhỏ thường đến thăm nhà bà Trưởng, một người hướng dẫn Quan họ nổi tiếng. Ngôi nhà bà có vườn táo cổ thụ, hồ sen rộng và khung cảnh rất đẹp. Tại đây, các chị gái trẻ say mê tập luyện nhiều điệu hát Quan họ. Bà Trưởng dạy họ điệu "Ngỏ lời" e ấp, rồi đến "Thương nhau" thiết tha. Cuối cùng, điệu "Giã bạn" vang lên thật buồn, như lời chia tay lưu luyến. Bạn nhỏ rất yêu Quan họ và mong ước tự mình được hát một ngày nào đó.</t>
+Bạn nhỏ thường đến thăm nhà bà Trưởng, một người hướng dẫn Quan họ nổi tiếng.
+Ngôi nhà bà có vườn táo cổ thụ, hồ sen rộng và khung cảnh rất đẹp.
+Tại đây, các chị gái trẻ say mê tập luyện nhiều điệu hát Quan họ.
+Bà Trưởng dạy họ điệu "Ngỏ lời" e ấp, rồi đến "Thương nhau" thiết tha.
+Cuối cùng, điệu "Giã bạn" vang lên thật buồn, như lời chia tay lưu luyến.
+Bạn nhỏ rất yêu Quan họ và mong ước tự mình được hát một ngày nào đó.</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Ngôi nhà bà có vườn táo cổ thụ, hồ sen rộng và khung cảnh rất đẹp. Tại đây, các chị gái trẻ say mê tập luyện nhiều điệu hát Quan họ. Bà Trưởng dạy họ điệu "Ngỏ lời" e ấp, rồi đến "Thương nhau" thiết tha. Cuối cùng, điệu "Giã bạn" vang lên thật buồn, như lời chia tay lưu luyến. Bạn nhỏ rất yêu Quan họ và mong ước tự mình được hát một ngày nào đó.</t>
+          <t>Bạn nhỏ trong câu chuyện thường đến nhà bà Trưởng, một trưởng nhóm Quan họ nổi tiếng. Ngôi nhà có vườn táo cổ thụ, hồ sen đẹp và rất nhiều hoa. Ở đó, các chị gái trẻ tập hát Quan họ dưới sự hướng dẫn của bà Trưởng. Mùa xuân, các chị học điệu "Ngỏ lời" e ấp, dịu dàng. Đến mùa hè, họ lại tập điệu "Thương nhau" nồng nàn, thiết tha. Bài hát cuối cùng là "Giã bạn" thật buồn, nói lời chia tay lưu luyến. Bạn nhỏ đã rất yêu Quan họ và ước mơ một ngày được tự mình cất tiếng hát.</t>
         </is>
       </c>
       <c r="F214" t="inlineStr"/>
@@ -10642,7 +11354,9 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Đây là một điệu nhảy tuyệt đẹp đấy! Ba lê là một môn nghệ thuật múa đẹp từ châu Âu xa xôi. Nó kết hợp khéo léo kịch, âm nhạc và những điệu nhảy uyển chuyển. Những vở kịch nổi tiếng thường kể chuyện về tình yêu, điều tốt lành. Các diễn viên thể hiện câu chuyện bằng chính động tác múa điêu luyện. Họ phải trải qua quá trình khổ luyện rất gian nan để múa đẹp. Ngày nay, ba lê được hàng triệu người trên thế giới say mê học tập.</t>
+          <t>Chào các em học sinh lớp 5 đáng yêu!
+Hôm nay chúng ta sẽ cùng tìm hiểu về môn nghệ thuật múa ba lê nhé. Đây là một điệu nhảy tuyệt đẹp đấy!
+Ba lê là một môn nghệ thuật múa đẹp từ châu Âu xa xôi. Nó kết hợp khéo léo kịch, âm nhạc và những điệu nhảy uyển chuyển. Những vở kịch nổi tiếng thường kể chuyện về tình yêu, điều tốt lành. Các diễn viên thể hiện câu chuyện bằng chính động tác múa điêu luyện. Họ phải trải qua quá trình khổ luyện rất gian nan để múa đẹp. Ngày nay, ba lê được hàng triệu người trên thế giới say mê học tập.</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -10683,7 +11397,8 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Chùa Một Cột ở Hà Nội được xây dựng từ năm 1049 rất lâu rồi. Chùa nổi tiếng vì chỉ đứng trên một cột đá duy nhất. Nhìn xa, chùa giống một đóa sen đang nở giữa hồ nước. Vì thế, chùa còn có tên gọi ban đầu là Liên Hoa Đài. Chùa Một Cột là biểu tượng văn hóa nổi tiếng của Thủ đô Hà Nội. Chùa được công nhận kiến trúc độc đáo nhất châu Á vào năm 2012.</t>
+          <t>Chào các em học sinh thân mến! Hôm nay chúng ta cùng tìm hiểu về một ngôi chùa rất đặc biệt nhé.
+Chùa Một Cột ở Hà Nội được xây dựng từ năm 1049 rất lâu rồi. Chùa nổi tiếng vì chỉ đứng trên một cột đá duy nhất. Nhìn xa, chùa giống một đóa sen đang nở giữa hồ nước. Vì thế, chùa còn có tên gọi ban đầu là Liên Hoa Đài. Chùa Một Cột là biểu tượng văn hóa nổi tiếng của Thủ đô Hà Nội. Chùa được công nhận kiến trúc độc đáo nhất châu Á vào năm 2012.</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -10738,12 +11453,13 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Vì thế, anh muốn học nghề rối nước, diễn sau bức màn che kín. Ông quản phường vui vẻ nhận Tễu, dạy anh cách gieo niềm vui cho mọi người. Ba năm sau, Tễu lại mơ về những vở diễn hay, quân rối đẹp hơn. Ông quản hiểu lòng, khuyến khích Tễu dũng cảm theo đuổi những khát vọng mới. Một quân rối mang tên Chú Tễu sẽ thay anh mang tiếng cười tiếp tục.</t>
+          <t>Chào các em học sinh lớp 5! Hãy cùng tìm hiểu câu chuyện thú vị này nhé:
+Anh Tễu say mê ca hát, song lại ngại ngùng dáng vẻ của mình. Vì thế, anh muốn học nghề rối nước, diễn sau bức màn che kín. Ông quản phường vui vẻ nhận Tễu, dạy anh cách gieo niềm vui cho mọi người. Ba năm sau, Tễu lại mơ về những vở diễn hay, quân rối đẹp hơn. Ông quản hiểu lòng, khuyến khích Tễu dũng cảm theo đuổi những khát vọng mới. Một quân rối mang tên Chú Tễu sẽ thay anh mang tiếng cười tiếp tục.</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Vì thế, anh muốn học nghề rối nước, diễn sau bức màn che kín. Ông quản phường vui vẻ nhận Tễu, dạy anh cách gieo niềm vui cho mọi người. Ba năm sau, Tễu lại mơ về những vở diễn hay, quân rối đẹp hơn. Ông quản hiểu lòng, khuyến khích Tễu dũng cảm theo đuổi những khát vọng mới. Một quân rối mang tên Chú Tễu sẽ thay anh mang tiếng cười tiếp tục.</t>
+          <t>Anh Tễu say mê ca hát, song lại ngại ngùng dáng vẻ của mình. Vì thế, anh muốn học nghề rối nước, diễn sau bức màn che kín. Ông quản phường vui vẻ nhận Tễu, dạy anh cách gieo niềm vui cho mọi người. Ba năm sau, Tễu lại mơ về những vở diễn hay, quân rối đẹp hơn. Ông quản hiểu lòng, khuyến khích Tễu dũng cảm theo đuổi những khát vọng mới. Một quân rối mang tên Chú Tễu sẽ thay anh mang tiếng cười tiếp tục.</t>
         </is>
       </c>
       <c r="F217" t="inlineStr"/>
@@ -10779,7 +11495,8 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Trên núi cao, có một mỏm đá hình em bé, sau này hóa thành cô bé Nai Ngọc xinh đẹp. Cô bé hát giúp muông thú quên phá hoại, cùng dân làng vui vẻ nhảy múa. Một hôm, giặc kéo đến đông đảo, muốn cướp phá làng bản. Nai Ngọc hát khuyên giặc hãy trở về quê hương, sống cuộc đời bình yên. Sau đó, Nai Ngọc hóa đá trở lại, dân làng luôn mong em quay về.</t>
+          <t>Chào các em học sinh lớp 5 thân mến! Hôm nay, chúng ta cùng nhau tìm hiểu về câu chuyện của cô bé Nai Ngọc nhé.
+Trên núi cao, có một mỏm đá hình em bé, sau này hóa thành cô bé Nai Ngọc xinh đẹp. Cô bé hát giúp muông thú quên phá hoại, cùng dân làng vui vẻ nhảy múa. Một hôm, giặc kéo đến đông đảo, muốn cướp phá làng bản. Nai Ngọc hát khuyên giặc hãy trở về quê hương, sống cuộc đời bình yên. Sau đó, Nai Ngọc hóa đá trở lại, dân làng luôn mong em quay về.</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -10834,7 +11551,9 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Người mẹ ân cần cõng bé Tai nhỏ bé trên lưng trong khi làm việc vất vả. Mẹ giã gạo nuôi bộ đội và tỉa bắp trên sườn núi cao. Bé Tai say ngủ yên bình dù lưng mẹ gầy nhấp nhô như chiếc gối. Tấm lưng mẹ trở thành chiếc nôi êm ái, tim mẹ hát lời ru ngọt ngào. Mẹ mong con lớn khôn thật khỏe mạnh, trở thành người có ích sau này. Em bé chính là mặt trời bé nhỏ, là niềm hạnh phúc lớn lao của mẹ.</t>
+          <t>Chào các em học sinh lớp 5 thân mến!
+Bài thơ này kể về tình yêu thương bao la của người mẹ dành cho con và đất nước.
+Người mẹ ân cần cõng bé Tai nhỏ bé trên lưng trong khi làm việc vất vả. Mẹ giã gạo nuôi bộ đội và tỉa bắp trên sườn núi cao. Bé Tai say ngủ yên bình dù lưng mẹ gầy nhấp nhô như chiếc gối. Tấm lưng mẹ trở thành chiếc nôi êm ái, tim mẹ hát lời ru ngọt ngào. Mẹ mong con lớn khôn thật khỏe mạnh, trở thành người có ích sau này. Em bé chính là mặt trời bé nhỏ, là niềm hạnh phúc lớn lao của mẹ.</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -10908,12 +11627,21 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>1. Hạt gạo làng ta mang hương vị phù sa, sen thơm và lời ru ngọt ngào của mẹ. 2. Gạo là thành quả quý giá từ những giọt mồ hôi mẹ đổ dưới nắng hè gay gắt. 3. Nó đã cùng người dân kiên cường vượt qua bao năm tháng bom đạn chiến tranh. 4. Hạt gạo còn chứa đựng công sức các bạn nhỏ chống hạn, chăm sóc lúa mỗi ngày. 5. Vì thế, hạt gạo thực sự là "hạt vàng", niềm tự hào lớn lao của quê hương mình.</t>
+          <t>Chào các em học sinh lớp 5 đáng yêu! Hôm nay, cô trò mình cùng tóm tắt bài thơ "Hạt gạo làng ta" thật dễ hiểu nhé.
+1.  Hạt gạo làng ta mang hương vị phù sa, sen thơm và lời ru ngọt ngào của mẹ.
+2.  Gạo là thành quả quý giá từ những giọt mồ hôi mẹ đổ dưới nắng hè gay gắt.
+3.  Nó đã cùng người dân kiên cường vượt qua bao năm tháng bom đạn chiến tranh.
+4.  Hạt gạo còn chứa đựng công sức các bạn nhỏ chống hạn, chăm sóc lúa mỗi ngày.
+5.  Vì thế, hạt gạo thực sự là "hạt vàng", niềm tự hào lớn lao của quê hương mình.</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Gạo là thành quả quý giá từ những giọt mồ hôi mẹ đổ dưới nắng hè gay gắt. Nó đã cùng người dân kiên cường vượt qua bao năm tháng bom đạn chiến tranh. Hạt gạo còn chứa đựng công sức các bạn nhỏ chống hạn, chăm sóc lúa mỗi ngày. Vì thế, hạt gạo thực sự là "hạt vàng", niềm tự hào lớn lao của quê hương mình.</t>
+          <t>1. Hạt gạo làng ta mang hương vị phù sa, sen thơm và lời ru ngọt ngào của mẹ.
+2. Gạo là thành quả quý giá từ những giọt mồ hôi mẹ đổ dưới nắng hè gay gắt.
+3. Nó đã cùng người dân kiên cường vượt qua bao năm tháng bom đạn chiến tranh.
+4. Hạt gạo còn chứa đựng công sức các bạn nhỏ chống hạn, chăm sóc lúa mỗi ngày.
+5. Vì thế, hạt gạo thực sự là "hạt vàng", niềm tự hào lớn lao của quê hương mình.</t>
         </is>
       </c>
       <c r="F220" t="inlineStr"/>
@@ -10962,12 +11690,13 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Tân viết thư kể về những cố gắng và tiến bộ của mình sau đó. Sáng hôm sau, các lá thư được Huệ tập hợp vào hộp quà. Cô giáo hạnh phúc nhận hộp quà bí mật đầy tình cảm học trò. Chỉ có cô mới biết được điều bí mật trong từng lá thư.</t>
+          <t>Chào các em học sinh lớp 5 đáng yêu,
+Các bạn học sinh chuẩn bị viết những lá thư đặc biệt tặng cô chủ nhiệm cuối năm. Tân nhớ cô đã ân cần chỉ bảo khi cậu đi học muộn một lần. Tân viết thư kể về những cố gắng và tiến bộ của mình sau đó. Sáng hôm sau, các lá thư được Huệ tập hợp vào hộp quà. Cô giáo hạnh phúc nhận hộp quà bí mật đầy tình cảm học trò. Chỉ có cô mới biết được điều bí mật trong từng lá thư.</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Tân viết thư kể về những cố gắng và tiến bộ của mình sau đó. Sáng hôm sau, các lá thư được Huệ tập hợp vào hộp quà. Cô giáo hạnh phúc nhận hộp quà bí mật đầy tình cảm học trò. Chỉ có cô mới biết được điều bí mật trong từng lá thư.</t>
+          <t>Các bạn học sinh chuẩn bị viết những lá thư đặc biệt tặng cô chủ nhiệm cuối năm. Tân nhớ cô đã ân cần chỉ bảo khi cậu đi học muộn một lần. Tân viết thư kể về những cố gắng và tiến bộ của mình sau đó. Sáng hôm sau, các lá thư được Huệ tập hợp vào hộp quà. Cô giáo hạnh phúc nhận hộp quà bí mật đầy tình cảm học trò. Chỉ có cô mới biết được điều bí mật trong từng lá thư.</t>
         </is>
       </c>
       <c r="F221" t="inlineStr"/>
@@ -11003,12 +11732,13 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
+          <t>Chào các em học sinh lớp 5 thân mến! Cô có một câu chuyện thật hay về tình bạn để tóm tắt cho các em đây.
+Vào Lễ Mừng xuân, bạn nhỏ thường tặng hoa giấu mặt rồi chạy trốn. Năm lớp Năm, tôi giận Pam, bạn thân của mình, vì bạn có bạn mới. Mẹ tôi an ủi, giải thích rằng chúng ta sẽ có nhiều bạn mới. Tôi đã quyết định gửi Pam giỏ hoa màu vàng bạn ấy yêu thích. Pam đã cảm ơn tôi, mong tôi không còn giận bạn ấy nữa. Tôi đã học được rằng tình bạn thật sự không cần bạn luôn ở cạnh.</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
           <t>Vào Lễ Mừng xuân, bạn nhỏ thường tặng hoa giấu mặt rồi chạy trốn. Năm lớp Năm, tôi giận Pam, bạn thân của mình, vì bạn có bạn mới. Mẹ tôi an ủi, giải thích rằng chúng ta sẽ có nhiều bạn mới. Tôi đã quyết định gửi Pam giỏ hoa màu vàng bạn ấy yêu thích. Pam đã cảm ơn tôi, mong tôi không còn giận bạn ấy nữa. Tôi đã học được rằng tình bạn thật sự không cần bạn luôn ở cạnh.</t>
-        </is>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>Năm lớp Năm, tôi giận Pam, bạn thân của mình, vì bạn có bạn mới. Mẹ tôi an ủi, giải thích rằng chúng ta sẽ có nhiều bạn mới. Tôi đã quyết định gửi Pam giỏ hoa màu vàng bạn ấy yêu thích. Pam đã cảm ơn tôi, mong tôi không còn giận bạn ấy nữa. Tôi đã học được rằng tình bạn thật sự không cần bạn luôn ở cạnh.</t>
         </is>
       </c>
       <c r="F222" t="inlineStr"/>
@@ -11055,12 +11785,23 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Một bạn nhỏ lớn lên, thường xuyên vắng bóng bố ở trong nhà. Bố là người lính biển, phải làm nhiệm vụ ở nơi xa. Những lá thư của bố luôn tràn ngập tình yêu thương dịu dàng. Bố không kể về bão tố, hiểm nguy luôn rình rập trên biển. Dù vậy, bạn nhỏ vẫn hiểu sự vất vả, dũng cảm của bố. Bố luôn sẵn sàng bảo vệ biển đảo của quê hương mình.</t>
+          <t>Chào các em học sinh lớp 5! Hôm nay, cô sẽ tóm tắt bài thơ này cho chúng ta cùng hiểu nhé.
+Một bạn nhỏ lớn lên, thường xuyên vắng bóng bố ở trong nhà.
+Bố là người lính biển, phải làm nhiệm vụ ở nơi xa.
+Những lá thư của bố luôn tràn ngập tình yêu thương dịu dàng.
+Bố không kể về bão tố, hiểm nguy luôn rình rập trên biển.
+Dù vậy, bạn nhỏ vẫn hiểu sự vất vả, dũng cảm của bố.
+Bố luôn sẵn sàng bảo vệ biển đảo của quê hương mình.</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Một bạn nhỏ lớn lên, thường xuyên vắng bóng bố ở trong nhà. Bố là người lính biển, phải làm nhiệm vụ ở nơi xa. Những lá thư của bố luôn tràn ngập tình yêu thương dịu dàng. Bố không kể về bão tố, hiểm nguy luôn rình rập trên biển. Dù vậy, bạn nhỏ vẫn hiểu sự vất vả, dũng cảm của bố. Bố luôn sẵn sàng bảo vệ biển đảo của quê hương mình.</t>
+          <t>Một bạn nhỏ lớn lên, thường xuyên vắng bóng bố ở trong nhà.
+Bố là người lính biển, phải làm nhiệm vụ ở nơi xa.
+Những lá thư của bố luôn tràn ngập tình yêu thương dịu dàng.
+Bố không kể về bão tố, hiểm nguy luôn rình rập trên biển.
+Dù vậy, bạn nhỏ vẫn hiểu sự vất vả, dũng cảm của bố.
+Bố luôn sẵn sàng bảo vệ biển đảo của quê hương mình.</t>
         </is>
       </c>
       <c r="F223" t="inlineStr"/>
@@ -11111,7 +11852,9 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Khi mặt trời lặn, đoàn thuyền đánh cá hăng hái ra khơi với tiếng hát. Họ hát vang gọi đàn cá về với những mẻ lưới của mình. Biển cả rộng lớn như lòng mẹ, luôn ban tặng cá tôm dồi dào. Đến rạng đông, họ kéo những mẻ lưới đầy ắp cá tươi ngon. Đoàn thuyền trở về bờ với niềm vui, đón ánh nắng hồng rực rỡ.</t>
+          <t>Chào các em học sinh lớp 5 đáng yêu!
+Bài thơ này kể về chuyến đi biển đầy vất vả nhưng cũng rất vui của những chú ngư dân đấy.
+Khi mặt trời lặn, đoàn thuyền đánh cá hăng hái ra khơi với tiếng hát. Họ hát vang gọi đàn cá về với những mẻ lưới của mình. Biển cả rộng lớn như lòng mẹ, luôn ban tặng cá tôm dồi dào. Đến rạng đông, họ kéo những mẻ lưới đầy ắp cá tươi ngon. Đoàn thuyền trở về bờ với niềm vui, đón ánh nắng hồng rực rỡ.</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -11156,7 +11899,8 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Mát sống cùng ông nội tại trang trại rừng rộng lớn, học được nhiều điều về cây cối. Sau khi ông mất, Mát hứa sẽ bảo vệ tốt trang trại mà ông đã giao. Không may, một đêm sét đánh gây hỏa hoạn lớn, thiêu rụi toàn bộ khu rừng. Buồn bã và tuyệt vọng, Mát được bà lão khuyên nên cố gắng trồng lại. Mát đã nảy ra ý tưởng bán than củi từ cây cháy để lấy tiền vốn. Anh dùng số tiền đó mua cây giống, biến trang trại thành một rừng xanh tươi tốt. Nhiều năm sau, mọi người ngưỡng mộ gọi đó là "Rừng của Mát".</t>
+          <t>Chào các em học sinh lớp 5! Hôm nay, cô sẽ kể cho các em nghe câu chuyện về một bạn tên Mát và trang trại của mình nhé.
+Mát sống cùng ông nội tại trang trại rừng rộng lớn, học được nhiều điều về cây cối. Sau khi ông mất, Mát hứa sẽ bảo vệ tốt trang trại mà ông đã giao. Không may, một đêm sét đánh gây hỏa hoạn lớn, thiêu rụi toàn bộ khu rừng. Buồn bã và tuyệt vọng, Mát được bà lão khuyên nên cố gắng trồng lại. Mát đã nảy ra ý tưởng bán than củi từ cây cháy để lấy tiền vốn. Anh dùng số tiền đó mua cây giống, biến trang trại thành một rừng xanh tươi tốt. Nhiều năm sau, mọi người ngưỡng mộ gọi đó là "Rừng của Mát".</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -11197,13 +11941,15 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
+          <t>Chào các em học sinh lớp 5! Hôm nay, chúng ta cùng tìm hiểu về một lễ hội rất đặc biệt và thú vị nhé!
+**Hội thổi cơm thi Đồng Vân**
+Hội thổi cơm thi Đồng Vân là lễ hội độc đáo từ thời cha ông đánh giặc. Bắt đầu, thanh niên thoăn thoắt leo cây chuối trơn lấy hương, châm lửa thi tài. Các đội cùng nhau chuẩn bị, người giã gạo, người vót đũa khéo léo. Người nấu cơm đeo cần tre, cầm đuốc múa uyển chuyển quanh sân đình. Cơm được chấm trắng, dẻo thơm, không cháy; chiến thắng là niềm tự hào lớn.</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
           <t>**Hội thổi cơm thi Đồng Vân**
 Hội thổi cơm thi Đồng Vân là lễ hội độc đáo từ thời cha ông đánh giặc. Bắt đầu, thanh niên thoăn thoắt leo cây chuối trơn lấy hương, châm lửa thi tài. Các đội cùng nhau chuẩn bị, người giã gạo, người vót đũa khéo léo. Người nấu cơm đeo cần tre, cầm đuốc múa uyển chuyển quanh sân đình. Cơm được chấm trắng, dẻo thơm, không cháy; chiến thắng là niềm tự hào lớn.</t>
-        </is>
-      </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>Bắt đầu, thanh niên thoăn thoắt leo cây chuối trơn lấy hương, châm lửa thi tài. Các đội cùng nhau chuẩn bị, người giã gạo, người vót đũa khéo léo. Người nấu cơm đeo cần tre, cầm đuốc múa uyển chuyển quanh sân đình. Cơm được chấm trắng, dẻo thơm, không cháy; chiến thắng là niềm tự hào lớn.</t>
         </is>
       </c>
       <c r="F226" t="inlineStr"/>
@@ -11248,12 +11994,12 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Trong cuộc thi, cậu mô tả chè từ cây cổ thụ, nước vàng xanh thơm ngát. Thào A Sùng còn ước mơ thành kỹ sư, giúp chè vươn ra thế giới. Mọi người vỗ tay tán thưởng, mẹ bạn tôi cũng muốn đến Tà Xùa ngay. Bạn nhỏ cảm nhận những đồi chè bao la qua ánh mắt tươi sáng của cậu.</t>
+          <t>Thào A Sùng rất tự hào kể về quê hương Tà Xùa và chè ngon nơi đó. Cậu luôn mong muốn nhiều người biết đến loại chè đặc biệt này. Trong cuộc thi, cậu mô tả chè từ cây cổ thụ, nước vàng xanh thơm ngát. Thào A Sùng còn ước mơ thành kỹ sư, giúp chè vươn ra thế giới. Mọi người vỗ tay tán thưởng, mẹ bạn tôi cũng muốn đến Tà Xùa ngay. Bạn nhỏ cảm nhận những đồi chè bao la qua ánh mắt tươi sáng của cậu.</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Trong cuộc thi, cậu mô tả chè từ cây cổ thụ, nước vàng xanh thơm ngát. Thào A Sùng còn ước mơ thành kỹ sư, giúp chè vươn ra thế giới. Mọi người vỗ tay tán thưởng, mẹ bạn tôi cũng muốn đến Tà Xùa ngay. Bạn nhỏ cảm nhận những đồi chè bao la qua ánh mắt tươi sáng của cậu.</t>
+          <t>Thào A Sùng rất tự hào kể về quê hương Tà Xùa và chè ngon nơi đó. Cậu luôn mong muốn nhiều người biết đến loại chè đặc biệt này. Trong cuộc thi, cậu mô tả chè từ cây cổ thụ, nước vàng xanh thơm ngát. Thào A Sùng còn ước mơ thành kỹ sư, giúp chè vươn ra thế giới. Mọi người vỗ tay tán thưởng, mẹ bạn tôi cũng muốn đến Tà Xùa ngay. Bạn nhỏ cảm nhận những đồi chè bao la qua ánh mắt tươi sáng của cậu.</t>
         </is>
       </c>
       <c r="F227" t="inlineStr"/>
@@ -11304,12 +12050,13 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
+          <t>Chào các em học sinh lớp 5 đáng yêu! Hôm nay cô trò mình cùng tìm hiểu về một món quà đặc biệt của mùa thu nhé.
+Tháng Chín về, những làn gió nhẹ mang theo hương cốm báo hiệu mùa thu. Hạt cốm xanh mướt là thành quả quý giá từ bàn tay người nông dân. Bàn tay khéo léo của mẹ, của bà đã làm nên món cốm dẻo thơm. Trong mỗi hạt cốm nhỏ, chúng ta thấy được màu nắng, trời xanh, đất nâu. Món quà cốm giản dị ấy chứa đựng tình yêu thương và hồn của quê hương mình.</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
           <t>Tháng Chín về, những làn gió nhẹ mang theo hương cốm báo hiệu mùa thu. Hạt cốm xanh mướt là thành quả quý giá từ bàn tay người nông dân. Bàn tay khéo léo của mẹ, của bà đã làm nên món cốm dẻo thơm. Trong mỗi hạt cốm nhỏ, chúng ta thấy được màu nắng, trời xanh, đất nâu. Món quà cốm giản dị ấy chứa đựng tình yêu thương và hồn của quê hương mình.</t>
-        </is>
-      </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>Hạt cốm xanh mướt là thành quả quý giá từ bàn tay người nông dân. Bàn tay khéo léo của mẹ, của bà đã làm nên món cốm dẻo thơm. Trong mỗi hạt cốm nhỏ, chúng ta thấy được màu nắng, trời xanh, đất nâu. Món quà cốm giản dị ấy chứa đựng tình yêu thương và hồn của quê hương mình.</t>
         </is>
       </c>
       <c r="F228" t="inlineStr"/>
@@ -11344,12 +12091,13 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
+          <t>Chào các bạn học sinh lớp 5! Hôm nay, chúng ta cùng tìm hiểu về dân tộc Cơ-tu nhé.
+Người Cơ-tu sống ở vùng núi Trường Sơn có một nền văn hóa rất đặc biệt. Họ nổi tiếng với nghề dệt thổ cẩm, tạo ra những bộ trang phục thật đẹp. Một hoa văn độc đáo là "da dá", mô phỏng điệu múa cầu mưa cổ xưa. Điệu múa này thể hiện mong ước nhận lúa gạo từ thần linh. Các nghệ nhân Cơ-tu đã khéo léo đưa điệu múa ấy vào từng hạt cườm trên vải. Hoa văn da dá làm cho trang phục truyền thống Cơ-tu thêm phần giá trị.</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
           <t>Người Cơ-tu sống ở vùng núi Trường Sơn có một nền văn hóa rất đặc biệt. Họ nổi tiếng với nghề dệt thổ cẩm, tạo ra những bộ trang phục thật đẹp. Một hoa văn độc đáo là "da dá", mô phỏng điệu múa cầu mưa cổ xưa. Điệu múa này thể hiện mong ước nhận lúa gạo từ thần linh. Các nghệ nhân Cơ-tu đã khéo léo đưa điệu múa ấy vào từng hạt cườm trên vải. Hoa văn da dá làm cho trang phục truyền thống Cơ-tu thêm phần giá trị.</t>
-        </is>
-      </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>Một hoa văn độc đáo là "da dá", mô phỏng điệu múa cầu mưa cổ xưa. Điệu múa này thể hiện mong ước nhận lúa gạo từ thần linh. Các nghệ nhân Cơ-tu đã khéo léo đưa điệu múa ấy vào từng hạt cườm trên vải. Hoa văn da dá làm cho trang phục truyền thống Cơ-tu thêm phần giá trị.</t>
         </is>
       </c>
       <c r="F229" t="inlineStr"/>
@@ -11385,7 +12133,8 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Đàn t’rưng vang lên cùng suối reo, gió núi ở Tây Nguyên. Tiếng đàn gắn bó với tuổi thơ, cuộc sống hàng ngày của người dân nơi đây. Chàng trai dùng đàn xua đuổi thú rừng, bảo vệ nương lúa chín. Khách lữ hành cũng gõ đàn, vững bước qua lối rừng vắng. Tiếng đàn thân thương đã thành nỗi nhớ của người Tây Nguyên.</t>
+          <t>Chào các em học sinh lớp 5 thân mến! Hôm nay, chúng ta cùng tìm hiểu về một loại nhạc cụ rất đặc biệt của vùng Tây Nguyên nhé.
+Đàn t’rưng vang lên cùng suối reo, gió núi ở Tây Nguyên. Tiếng đàn gắn bó với tuổi thơ, cuộc sống hàng ngày của người dân nơi đây. Chàng trai dùng đàn xua đuổi thú rừng, bảo vệ nương lúa chín. Khách lữ hành cũng gõ đàn, vững bước qua lối rừng vắng. Tiếng đàn thân thương đã thành nỗi nhớ của người Tây Nguyên.</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -11441,7 +12190,8 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Em bé lên chiếc xuồng nhỏ, đi thăm ông nội thân yêu ở miền quê. Chiếc xuồng lướt nhanh trên mặt nước, chim cò bay lượn giữa những đám mây trắng. Dọc đường, em nhìn thấy đàn trâu lấm lem bùn và thuyền chở lúa vàng ươm. Những bông sen hồng khoe sắc bên dòng sông Cửu Long nước lớn. Cuối cùng, em đến nơi, thấy ông đứng đợi ở cuối con đường quê. Chuyến đi thật vui, đầy ắp cảnh đẹp và tình cảm gia đình ấm áp.</t>
+          <t>Chào các em học sinh lớp 5! Hôm nay, cô sẽ tóm tắt bài thơ về một chuyến đi thăm ông thật đẹp nhé.
+Em bé lên chiếc xuồng nhỏ, đi thăm ông nội thân yêu ở miền quê. Chiếc xuồng lướt nhanh trên mặt nước, chim cò bay lượn giữa những đám mây trắng. Dọc đường, em nhìn thấy đàn trâu lấm lem bùn và thuyền chở lúa vàng ươm. Những bông sen hồng khoe sắc bên dòng sông Cửu Long nước lớn. Cuối cùng, em đến nơi, thấy ông đứng đợi ở cuối con đường quê. Chuyến đi thật vui, đầy ắp cảnh đẹp và tình cảm gia đình ấm áp.</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -11482,7 +12232,8 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Xuồng ba lá là chiếc thuyền quen thuộc, gắn bó với người dân Nam Bộ. Thuyền được ghép từ ba tấm ván chắc chắn, giúp mọi người đi lại dễ dàng. Chiếc xuồng gắn liền với tuổi thơ, mang quà bánh và rau trái tươi ngon mỗi ngày. Ngày xưa, xuồng còn giúp cha ông giữ đất, chở lương thực tiếp tế đánh giặc. Ngày nay, xuồng vẫn chở ước mơ, cùng người dân vươn ra biển lớn.</t>
+          <t>Chào các em học sinh lớp 5! Hôm nay, cô sẽ kể cho các em nghe về một loại thuyền rất đặc biệt ở miền sông nước quê ta nhé!
+Xuồng ba lá là chiếc thuyền quen thuộc, gắn bó với người dân Nam Bộ. Thuyền được ghép từ ba tấm ván chắc chắn, giúp mọi người đi lại dễ dàng. Chiếc xuồng gắn liền với tuổi thơ, mang quà bánh và rau trái tươi ngon mỗi ngày. Ngày xưa, xuồng còn giúp cha ông giữ đất, chở lương thực tiếp tế đánh giặc. Ngày nay, xuồng vẫn chở ước mơ, cùng người dân vươn ra biển lớn.</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -11542,12 +12293,13 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
+          <t>Chào các em học sinh lớp 5! Hôm nay, cô sẽ tóm tắt bài thơ về Đất Mũi Cà Mau thật dễ hiểu nhé!
+Đất Mũi Cà Mau là điểm cực Nam tuyệt đẹp của Tổ quốc mình. Nơi đây có những cánh rừng đước, mắm xanh ngát trải dài vô tận. Dòng phù sa màu mỡ không ngừng bồi đắp cho vùng đất thêm trù phú. Rễ cây đước, mắm kiên cường bám sâu giúp đất liền thêm vững chãi. Đây là nơi biển cả gặp rừng, đất nước ta cứ lớn mãi không ngừng. Về Đất Mũi, ta thấy ấm áp như về chính ngôi nhà mình.</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
           <t>Đất Mũi Cà Mau là điểm cực Nam tuyệt đẹp của Tổ quốc mình. Nơi đây có những cánh rừng đước, mắm xanh ngát trải dài vô tận. Dòng phù sa màu mỡ không ngừng bồi đắp cho vùng đất thêm trù phú. Rễ cây đước, mắm kiên cường bám sâu giúp đất liền thêm vững chãi. Đây là nơi biển cả gặp rừng, đất nước ta cứ lớn mãi không ngừng. Về Đất Mũi, ta thấy ấm áp như về chính ngôi nhà mình.</t>
-        </is>
-      </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>Nơi đây có những cánh rừng đước, mắm xanh ngát trải dài vô tận. Dòng phù sa màu mỡ không ngừng bồi đắp cho vùng đất thêm trù phú. Rễ cây đước, mắm kiên cường bám sâu giúp đất liền thêm vững chãi. Đây là nơi biển cả gặp rừng, đất nước ta cứ lớn mãi không ngừng. Về Đất Mũi, ta thấy ấm áp như về chính ngôi nhà mình.</t>
         </is>
       </c>
       <c r="F233" t="inlineStr"/>
@@ -11585,12 +12337,23 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Chu Văn An là nhà giáo tài năng đời Trần, mở trường dạy rất nhiều nhân tài. Vào sinh nhật 60 tuổi, các học trò đã đến mừng thầy Chu rất đông đủ. Thầy dẫn họ đi thăm một người mà thầy vẫn luôn mang ơn sâu nặng. Đó chính là người thầy đồ già đã dạy vỡ lòng cho ông thuở nhỏ. Thầy Chu cùng các môn sinh cung kính tạ ơn cụ đồ già đáng kính. Ngày hôm đó, mọi người học được bài học quý giá về tình nghĩa thầy trò.</t>
+          <t>Chào các em học sinh lớp 5! Hôm nay chúng ta cùng tìm hiểu về thầy giáo Chu Văn An nhé.
+Chu Văn An là nhà giáo tài năng đời Trần, mở trường dạy rất nhiều nhân tài.
+Vào sinh nhật 60 tuổi, các học trò đã đến mừng thầy Chu rất đông đủ.
+Thầy dẫn họ đi thăm một người mà thầy vẫn luôn mang ơn sâu nặng.
+Đó chính là người thầy đồ già đã dạy vỡ lòng cho ông thuở nhỏ.
+Thầy Chu cùng các môn sinh cung kính tạ ơn cụ đồ già đáng kính.
+Ngày hôm đó, mọi người học được bài học quý giá về tình nghĩa thầy trò.</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Vào sinh nhật 60 tuổi, các học trò đã đến mừng thầy Chu rất đông đủ. Thầy dẫn họ đi thăm một người mà thầy vẫn luôn mang ơn sâu nặng. Đó chính là người thầy đồ già đã dạy vỡ lòng cho ông thuở nhỏ. Thầy Chu cùng các môn sinh cung kính tạ ơn cụ đồ già đáng kính. Ngày hôm đó, mọi người học được bài học quý giá về tình nghĩa thầy trò.</t>
+          <t>Chu Văn An là nhà giáo tài năng đời Trần, mở trường dạy rất nhiều nhân tài.
+Vào sinh nhật 60 tuổi, các học trò đã đến mừng thầy Chu rất đông đủ.
+Thầy dẫn họ đi thăm một người mà thầy vẫn luôn mang ơn sâu nặng.
+Đó chính là người thầy đồ già đã dạy vỡ lòng cho ông thuở nhỏ.
+Thầy Chu cùng các môn sinh cung kính tạ ơn cụ đồ già đáng kính.
+Ngày hôm đó, mọi người học được bài học quý giá về tình nghĩa thầy trò.</t>
         </is>
       </c>
       <c r="F234" t="inlineStr"/>
@@ -11627,7 +12390,8 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Nguyễn Đình Chiểu sinh ra ở Gia Định, sớm đối mặt khó khăn cuộc đời. Mẹ mất, ông bị mù cả hai mắt nhưng không hề gục ngã. Thầy Chiểu vẫn kiên cường mở trường dạy học, chữa bệnh cứu dân. Khi đất nước bị giặc xâm lược, ông sáng tác thơ khích lệ lòng dân. Những bài thơ của ông truyền lửa yêu nước, ý chí đấu tranh. Ông được nhân dân yêu mến gọi là cụ Đồ Chiểu đáng kính.</t>
+          <t>Chào các em học sinh lớp 5 thân mến! Hôm nay, chúng ta sẽ cùng tìm hiểu về một người thầy, một nhà thơ rất đặc biệt của dân tộc Việt Nam nhé.
+Nguyễn Đình Chiểu sinh ra ở Gia Định, sớm đối mặt khó khăn cuộc đời. Mẹ mất, ông bị mù cả hai mắt nhưng không hề gục ngã. Thầy Chiểu vẫn kiên cường mở trường dạy học, chữa bệnh cứu dân. Khi đất nước bị giặc xâm lược, ông sáng tác thơ khích lệ lòng dân. Những bài thơ của ông truyền lửa yêu nước, ý chí đấu tranh. Ông được nhân dân yêu mến gọi là cụ Đồ Chiểu đáng kính.</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -11667,7 +12431,8 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Anh hùng Trần Đại Nghĩa, tên thật Phạm Quang Lễ, quê ở Vĩnh Long. Ông đã học rất giỏi nhiều ngành kỹ thuật quan trọng tại Pháp. Năm 1946, ông theo Bác Hồ về, chế tạo vũ khí giúp kháng chiến. Những vũ khí như súng bazooka giúp quân ta tiêu diệt giặc Pháp. Ông còn góp sức xây dựng nền khoa học, được tuyên dương Anh hùng.</t>
+          <t>Chào các em học sinh lớp 5! Hôm nay, chúng ta cùng tìm hiểu về một vị Anh hùng rất tài giỏi nhé.
+Anh hùng Trần Đại Nghĩa, tên thật Phạm Quang Lễ, quê ở Vĩnh Long. Ông đã học rất giỏi nhiều ngành kỹ thuật quan trọng tại Pháp. Năm 1946, ông theo Bác Hồ về, chế tạo vũ khí giúp kháng chiến. Những vũ khí như súng bazooka giúp quân ta tiêu diệt giặc Pháp. Ông còn góp sức xây dựng nền khoa học, được tuyên dương Anh hùng.</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -11726,7 +12491,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Chúng ta cùng tóm tắt nhé:
+          <t>Chào các em học sinh lớp 5! Đoạn văn trên kể về một câu chuyện rất cảm động và đáng nhớ đấy. Chúng ta cùng tóm tắt nhé:
 Ngày ấy, mọi người trong làng vẫn luôn chờ mong các anh. Rồi một ngày, các anh bộ đội đã vui mừng trở về xóm nhỏ. Cả làng bỗng chốc rộn ràng, ngập tràn tiếng hát, tiếng cười vui. Các em nhỏ hớn hở theo sau, mẹ già xúc động đón con yêu. Ngôi nhà đơn sơ bỗng ấm áp, mọi người quây quần kể chuyện bên nhau.</t>
         </is>
       </c>
@@ -11783,12 +12548,13 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
+          <t>Chào các em! Hôm nay, chúng ta sẽ cùng khám phá vẻ đẹp của một ngôi nhà đang được xây dở dang nhé.
+Khi tan học về, các em có thể thấy một ngôi nhà đang lớn dần mỗi ngày. Giàn giáo bao quanh như chiếc lồng, còn trụ bê tông tựa những mầm cây non. Ngôi nhà mang mùi vôi vữa thơm nồng, chim chóc hót vang trong ô cửa sổ. Nó giống như một em bé đang lớn lên cùng bầu trời xanh bao la. Mọi ngôi nhà đẹp đẽ đều phải trải qua những ngày được xây dựng như thế.</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
           <t>Khi tan học về, các em có thể thấy một ngôi nhà đang lớn dần mỗi ngày. Giàn giáo bao quanh như chiếc lồng, còn trụ bê tông tựa những mầm cây non. Ngôi nhà mang mùi vôi vữa thơm nồng, chim chóc hót vang trong ô cửa sổ. Nó giống như một em bé đang lớn lên cùng bầu trời xanh bao la. Mọi ngôi nhà đẹp đẽ đều phải trải qua những ngày được xây dựng như thế.</t>
-        </is>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>Giàn giáo bao quanh như chiếc lồng, còn trụ bê tông tựa những mầm cây non. Ngôi nhà mang mùi vôi vữa thơm nồng, chim chóc hót vang trong ô cửa sổ. Nó giống như một em bé đang lớn lên cùng bầu trời xanh bao la. Mọi ngôi nhà đẹp đẽ đều phải trải qua những ngày được xây dựng như thế.</t>
         </is>
       </c>
       <c r="F238" t="inlineStr"/>
@@ -11860,12 +12626,24 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Dù trải qua nhiều khó khăn, vất vả nhưng người dân vẫn luôn kiên cường. Họ anh dũng chiến đấu bảo vệ đất nước, đánh đuổi quân thù giữ yên bình. Sau chiến tranh, mọi người lại hiền hòa, sống yêu thương, chung thủy. Đặc biệt, người Việt khéo léo tạo ra nhiều sản phẩm thủ công tinh xảo, độc đáo. Đoạn thơ giúp chúng ta thêm tự hào về đất nước và con người Việt Nam.</t>
+          <t>Chào các em học sinh lớp 5,
+Đoạn thơ này giúp chúng ta cảm nhận được tình yêu quê hương Việt Nam rất sâu sắc.
+Nước Việt Nam ta thật đẹp với cánh đồng lúa rộng mênh mông, núi non hùng vĩ.
+Dù trải qua nhiều khó khăn, vất vả nhưng người dân vẫn luôn kiên cường.
+Họ anh dũng chiến đấu bảo vệ đất nước, đánh đuổi quân thù giữ yên bình.
+Sau chiến tranh, mọi người lại hiền hòa, sống yêu thương, chung thủy.
+Đặc biệt, người Việt khéo léo tạo ra nhiều sản phẩm thủ công tinh xảo, độc đáo.
+Đoạn thơ giúp chúng ta thêm tự hào về đất nước và con người Việt Nam.</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Dù trải qua nhiều khó khăn, vất vả nhưng người dân vẫn luôn kiên cường. Họ anh dũng chiến đấu bảo vệ đất nước, đánh đuổi quân thù giữ yên bình. Sau chiến tranh, mọi người lại hiền hòa, sống yêu thương, chung thủy. Đặc biệt, người Việt khéo léo tạo ra nhiều sản phẩm thủ công tinh xảo, độc đáo. Đoạn thơ giúp chúng ta thêm tự hào về đất nước và con người Việt Nam.</t>
+          <t>Nước Việt Nam ta thật đẹp với cánh đồng lúa rộng mênh mông, núi non hùng vĩ.
+Dù trải qua nhiều khó khăn, vất vả nhưng người dân vẫn luôn kiên cường.
+Họ anh dũng chiến đấu bảo vệ đất nước, đánh đuổi quân thù giữ yên bình.
+Sau chiến tranh, mọi người lại hiền hòa, sống yêu thương, chung thủy.
+Đặc biệt, người Việt khéo léo tạo ra nhiều sản phẩm thủ công tinh xảo, độc đáo.
+Đoạn thơ giúp chúng ta thêm tự hào về đất nước và con người Việt Nam.</t>
         </is>
       </c>
       <c r="F239" t="inlineStr"/>
@@ -11915,12 +12693,13 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Đây là ngôi nhà chung ấm áp của tất cả bạn nhỏ từ khắp năm châu. Dù màu da hay ngôn ngữ khác biệt, chúng ta đều là những bông hoa quý giá của hành tinh. Mọi người hãy cùng nhau giữ gìn Trái đất này luôn mãi yên bình. Tiếng hát, tiếng cười vui vẻ sẽ giúp hành tinh của chúng ta mãi trẻ trung và hạnh phúc.</t>
+          <t>Chào các bạn học sinh lớp 5 đáng yêu! Cô sẽ tóm tắt bài thơ này cho chúng mình nhé:
+Trái đất của chúng ta giống như một quả bóng xanh tuyệt đẹp bay trong không gian. Đây là ngôi nhà chung ấm áp của tất cả bạn nhỏ từ khắp năm châu. Dù màu da hay ngôn ngữ khác biệt, chúng ta đều là những bông hoa quý giá của hành tinh. Mọi người hãy cùng nhau giữ gìn Trái đất này luôn mãi yên bình. Tiếng hát, tiếng cười vui vẻ sẽ giúp hành tinh của chúng ta mãi trẻ trung và hạnh phúc.</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Mọi người hãy cùng nhau giữ gìn Trái đất này luôn mãi yên bình. Tiếng hát, tiếng cười vui vẻ sẽ giúp hành tinh của chúng ta mãi trẻ trung và hạnh phúc.</t>
+          <t>Trái đất của chúng ta giống như một quả bóng xanh tuyệt đẹp bay trong không gian. Đây là ngôi nhà chung ấm áp của tất cả bạn nhỏ từ khắp năm châu. Dù màu da hay ngôn ngữ khác biệt, chúng ta đều là những bông hoa quý giá của hành tinh. Mọi người hãy cùng nhau giữ gìn Trái đất này luôn mãi yên bình. Tiếng hát, tiếng cười vui vẻ sẽ giúp hành tinh của chúng ta mãi trẻ trung và hạnh phúc.</t>
         </is>
       </c>
       <c r="F240" t="inlineStr"/>
@@ -11959,7 +12738,8 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Năm 1945, Mỹ đã ném hai quả bom nguyên tử xuống Nhật Bản. Thảm họa kinh hoàng đó đã cướp đi sinh mạng hàng trăm nghìn người. Cô bé Xa-đa-cô bị nhiễm phóng xạ, sau đó phải vào bệnh viện. Em tin rằng gấp nghìn hạc giấy sẽ giúp mình khỏi bệnh. Dù kiên cường gấp hạc, Xa-đa-cô bé bỏng vẫn không thể qua khỏi. Tượng đài hòa bình nhắc nhở mọi người về ước mơ thế giới bình an.</t>
+          <t>Chào các em học sinh lớp 5 đáng yêu của cô! Hôm nay, cô sẽ kể cho các em nghe một câu chuyện buồn nhưng đầy ý nghĩa nhé.
+Năm 1945, Mỹ đã ném hai quả bom nguyên tử xuống Nhật Bản. Thảm họa kinh hoàng đó đã cướp đi sinh mạng hàng trăm nghìn người. Cô bé Xa-đa-cô bị nhiễm phóng xạ, sau đó phải vào bệnh viện. Em tin rằng gấp nghìn hạc giấy sẽ giúp mình khỏi bệnh. Dù kiên cường gấp hạc, Xa-đa-cô bé bỏng vẫn không thể qua khỏi. Tượng đài hòa bình nhắc nhở mọi người về ước mơ thế giới bình an.</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -12002,7 +12782,8 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Ông Uyn-tơn đã giúp những đứa trẻ Do Thái thoát khỏi nguy hiểm chiến tranh. Ông đã quyên góp tiền và tìm gia đình ở Anh nhận nuôi chúng. Từ tháng 3 đến tháng 8 năm 1939, ông cứu 669 em bé. Ông giữ bí mật về việc cứu người này suốt năm mươi năm. Sau đó vợ ông tìm thấy sổ sách, mọi người mới biết câu chuyện. Ông Uyn-tơn được xem như người hùng thầm lặng đáng kính của thế giới.</t>
+          <t>Chào các em học sinh thân mến! Hôm nay chúng ta sẽ cùng tóm tắt câu chuyện về một người hùng rất đặc biệt nhé.
+Ông Uyn-tơn đã giúp những đứa trẻ Do Thái thoát khỏi nguy hiểm chiến tranh. Ông đã quyên góp tiền và tìm gia đình ở Anh nhận nuôi chúng. Từ tháng 3 đến tháng 8 năm 1939, ông cứu 669 em bé. Ông giữ bí mật về việc cứu người này suốt năm mươi năm. Sau đó vợ ông tìm thấy sổ sách, mọi người mới biết câu chuyện. Ông Uyn-tơn được xem như người hùng thầm lặng đáng kính của thế giới.</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -12042,12 +12823,13 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
+          <t>Chào các em học sinh lớp 5 thân mến! Cô sẽ giúp các em tóm tắt về Giờ Trái Đất nhé.
+Giờ Trái Đất là một sự kiện ý nghĩa, giúp bảo vệ hành tinh của chúng ta. Mỗi năm, vào thứ Bảy cuối tháng Ba, mọi người cùng tắt đèn một giờ. Hành động nhỏ này giúp chúng ta tiết kiệm điện, giảm ô nhiễm không khí. Sự kiện bắt đầu năm 2007 tại Úc, nay đã có rất nhiều nước tham gia. Việt Nam chúng ta cũng đã hưởng ứng Giờ Trái Đất từ năm 2009. Mỗi hành động nhỏ của em góp phần làm cho Trái Đất ngày càng xanh hơn.</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
           <t>Giờ Trái Đất là một sự kiện ý nghĩa, giúp bảo vệ hành tinh của chúng ta. Mỗi năm, vào thứ Bảy cuối tháng Ba, mọi người cùng tắt đèn một giờ. Hành động nhỏ này giúp chúng ta tiết kiệm điện, giảm ô nhiễm không khí. Sự kiện bắt đầu năm 2007 tại Úc, nay đã có rất nhiều nước tham gia. Việt Nam chúng ta cũng đã hưởng ứng Giờ Trái Đất từ năm 2009. Mỗi hành động nhỏ của em góp phần làm cho Trái Đất ngày càng xanh hơn.</t>
-        </is>
-      </c>
-      <c r="E243" t="inlineStr">
-        <is>
-          <t>Mỗi năm, vào thứ Bảy cuối tháng Ba, mọi người cùng tắt đèn một giờ. Hành động nhỏ này giúp chúng ta tiết kiệm điện, giảm ô nhiễm không khí. Sự kiện bắt đầu năm 2007 tại Úc, nay đã có rất nhiều nước tham gia. Việt Nam chúng ta cũng đã hưởng ứng Giờ Trái Đất từ năm 2009. Mỗi hành động nhỏ của em góp phần làm cho Trái Đất ngày càng xanh hơn.</t>
         </is>
       </c>
       <c r="F243" t="inlineStr"/>
@@ -12082,12 +12864,13 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
+          <t>Chào các bạn học sinh lớp 5 thân mến! Hôm nay, cô sẽ tóm tắt về chiếc điện thoại di động thông minh nhé.
+Điện thoại di động là vật dụng rất quan trọng của chúng ta ngày nay. Năm 1973, nhà khoa học Mác-tin Cúp-pơ tạo ra chiếc điện thoại đầu tiên. Chiếc điện thoại đó khá to và nặng hơn một cân, pin dùng rất ngắn. Ngày nay, điện thoại nhỏ gọn hơn, nặng chưa tới 85 gam, dễ bỏ túi. Chúng có nhiều chức năng như gọi video, nhắn tin, chụp ảnh, chơi trò chơi. Điện thoại thông minh giúp ta mua sắm, xem phim, định vị vị trí thật tuyệt.</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
           <t>Điện thoại di động là vật dụng rất quan trọng của chúng ta ngày nay. Năm 1973, nhà khoa học Mác-tin Cúp-pơ tạo ra chiếc điện thoại đầu tiên. Chiếc điện thoại đó khá to và nặng hơn một cân, pin dùng rất ngắn. Ngày nay, điện thoại nhỏ gọn hơn, nặng chưa tới 85 gam, dễ bỏ túi. Chúng có nhiều chức năng như gọi video, nhắn tin, chụp ảnh, chơi trò chơi. Điện thoại thông minh giúp ta mua sắm, xem phim, định vị vị trí thật tuyệt.</t>
-        </is>
-      </c>
-      <c r="E244" t="inlineStr">
-        <is>
-          <t>Năm 1973, nhà khoa học Mác-tin Cúp-pơ tạo ra chiếc điện thoại đầu tiên. Chiếc điện thoại đó khá to và nặng hơn một cân, pin dùng rất ngắn. Ngày nay, điện thoại nhỏ gọn hơn, nặng chưa tới 85 gam, dễ bỏ túi. Chúng có nhiều chức năng như gọi video, nhắn tin, chụp ảnh, chơi trò chơi. Điện thoại thông minh giúp ta mua sắm, xem phim, định vị vị trí thật tuyệt.</t>
         </is>
       </c>
       <c r="F244" t="inlineStr"/>
@@ -12124,7 +12907,8 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Masdar là một thành phố hiện đại ở UAE, muốn thân thiện với môi trường. Những chiếc ô lớn hình hoa hướng dương vừa che nắng, vừa tạo ra điện. Một tháp gió đặc biệt mang không khí mát từ trên cao xuống. Thành phố có nhiều cây xanh, khuyến khích đi bộ và xe điện. Mục tiêu là trở thành thành phố đầu tiên không thải khí các-bô-níc. Mát-xđa truyền cảm hứng cho nhiều thành phố sinh thái khác trên thế giới.</t>
+          <t>Chào các em học sinh lớp 5 thân mến! Hôm nay, chúng ta cùng tìm hiểu về một thành phố rất đặc biệt nhé!
+Masdar là một thành phố hiện đại ở UAE, muốn thân thiện với môi trường. Những chiếc ô lớn hình hoa hướng dương vừa che nắng, vừa tạo ra điện. Một tháp gió đặc biệt mang không khí mát từ trên cao xuống. Thành phố có nhiều cây xanh, khuyến khích đi bộ và xe điện. Mục tiêu là trở thành thành phố đầu tiên không thải khí các-bô-níc. Mát-xđa truyền cảm hứng cho nhiều thành phố sinh thái khác trên thế giới.</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -12169,7 +12953,8 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>---
+          <t>Chào các con! Hôm nay chúng ta sẽ cùng đọc một câu chuyện nhỏ và tóm tắt lại nhé.
+---
 **Tóm tắt:**
 Mùa hè, gia đình vui vẻ khám phá rừng thông xanh dưới chân núi. Họ thích thú ngắm nhìn bông hoa nhỏ và chú cánh cam đỏ lấp lánh. Một câu hỏi ngây thơ khiến mẹ chợt nhớ về kí ức tuổi thơ mình. Mẹ kể về cuộc sống đơn sơ, đi học xa và về nhà trong rừng sâu. Các con thích thú nghe chuyện mẹ lớn lên trong thung lũng không có ánh điện. Cả gia đình cùng cảm nhận tình yêu cuộc đời giữa thiên nhiên tươi đẹp.</t>
         </is>
@@ -12224,7 +13009,8 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Người lính dừng chân bên xóm nhỏ, nghe tiếng gà trưa quen thuộc. Tiếng gà ấy làm đôi chân anh đỡ mỏi mệt, tâm hồn nhẹ nhàng. Âm thanh bình dị ấy gợi về bao kỷ niệm đẹp đẽ thời thơ ấu. Anh nhớ ổ rơm ấm áp cùng những quả trứng hồng tươi. Tiếng gà mang đến hạnh phúc, khiến anh mơ giấc mơ sắc trứng. Âm thanh thân thương ấy tiếp thêm sức mạnh cho người lính trẻ.</t>
+          <t>Chào các em học sinh lớp 5 thân mến! Hôm nay, chúng ta cùng nhau khám phá ý nghĩa của bài thơ "Tiếng gà trưa" nhé.
+Người lính dừng chân bên xóm nhỏ, nghe tiếng gà trưa quen thuộc. Tiếng gà ấy làm đôi chân anh đỡ mỏi mệt, tâm hồn nhẹ nhàng. Âm thanh bình dị ấy gợi về bao kỷ niệm đẹp đẽ thời thơ ấu. Anh nhớ ổ rơm ấm áp cùng những quả trứng hồng tươi. Tiếng gà mang đến hạnh phúc, khiến anh mơ giấc mơ sắc trứng. Âm thanh thân thương ấy tiếp thêm sức mạnh cho người lính trẻ.</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -12263,12 +13049,13 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Món bánh này có vị dẻo nếp, ngọt mật, cay gừng, bùi lạc rang. Các bạn nhỏ rất thích chè lam, cùng nhau cười đùa vui vẻ trên đồng. Mọi người ăn khoai nướng, ngô nếp, tạo nên bữa tiệc ấm áp. Bà hỏi: "Rét có ngọt không?" và các cháu đồng thanh "Ngọt lắm!".</t>
+          <t>Các em ơi, mùa đông đến rồi, mình cùng nghe về món chè lam của bà nhé!
+Vào tháng Chạp, bà thường làm món chè lam thơm ngon đặc biệt. Món bánh này có vị dẻo nếp, ngọt mật, cay gừng, bùi lạc rang. Các bạn nhỏ rất thích chè lam, cùng nhau cười đùa vui vẻ trên đồng. Mọi người ăn khoai nướng, ngô nếp, tạo nên bữa tiệc ấm áp. Bà hỏi: "Rét có ngọt không?" và các cháu đồng thanh "Ngọt lắm!".</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Món bánh này có vị dẻo nếp, ngọt mật, cay gừng, bùi lạc rang. Các bạn nhỏ rất thích chè lam, cùng nhau cười đùa vui vẻ trên đồng. Mọi người ăn khoai nướng, ngô nếp, tạo nên bữa tiệc ấm áp. Bà hỏi: "Rét có ngọt không?" và các cháu đồng thanh "Ngọt lắm!".</t>
+          <t>Vào tháng Chạp, bà thường làm món chè lam thơm ngon đặc biệt. Món bánh này có vị dẻo nếp, ngọt mật, cay gừng, bùi lạc rang. Các bạn nhỏ rất thích chè lam, cùng nhau cười đùa vui vẻ trên đồng. Mọi người ăn khoai nướng, ngô nếp, tạo nên bữa tiệc ấm áp. Bà hỏi: "Rét có ngọt không?" và các cháu đồng thanh "Ngọt lắm!".</t>
         </is>
       </c>
       <c r="F248" t="inlineStr"/>
@@ -12311,7 +13098,8 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Trong ngày sinh nhật, bạn Trinh đã tặng Trang chùm ổi đặc biệt. Trang chợt nhớ lại chuyến thăm nhà Trinh mấy tháng trước. Khi đó, Trinh đã chỉ cho Trang xem chùm hoa ổi trắng muốt. Trinh còn nói muốn dành tặng Trang một điều bất ngờ thú vị. Giờ đây, chùm ổi chín vàng chính là món quà ý nghĩa đó. Trang rất xúc động, cảm nhận tấm lòng trân trọng của Trinh.</t>
+          <t>Chào các em học sinh lớp 5! Đây là câu chuyện về một món quà sinh nhật rất đặc biệt.
+Trong ngày sinh nhật, bạn Trinh đã tặng Trang chùm ổi đặc biệt. Trang chợt nhớ lại chuyến thăm nhà Trinh mấy tháng trước. Khi đó, Trinh đã chỉ cho Trang xem chùm hoa ổi trắng muốt. Trinh còn nói muốn dành tặng Trang một điều bất ngờ thú vị. Giờ đây, chùm ổi chín vàng chính là món quà ý nghĩa đó. Trang rất xúc động, cảm nhận tấm lòng trân trọng của Trinh.</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -12353,7 +13141,8 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Mùa xuân tới, khu vườn như khoác lên mình tấm áo mới tươi xinh. Hoa muỗm, hoa nhài nở trắng ngát, hoa bưởi tinh khôi như những nàng tiên nhỏ. Những búp chè non xanh mơn mởn, lá biếc hé mở đón nắng mai ấm áp. Cây xoan đâm lộc biếc biếc, chồi non ngọc lục tuyệt đẹp trên cành. Dế kêu rả rích, chim hót véo von, ong bay lượn khắp vườn thật nhộn nhịp. Tất cả tạo nên một bức tranh xuân rộn ràng, đầy sức sống tuyệt vời.</t>
+          <t>Chào các bạn học sinh lớp 5! Hôm nay, chúng ta cùng tìm hiểu về một khu vườn khi mùa xuân về nhé.
+Mùa xuân tới, khu vườn như khoác lên mình tấm áo mới tươi xinh. Hoa muỗm, hoa nhài nở trắng ngát, hoa bưởi tinh khôi như những nàng tiên nhỏ. Những búp chè non xanh mơn mởn, lá biếc hé mở đón nắng mai ấm áp. Cây xoan đâm lộc biếc biếc, chồi non ngọc lục tuyệt đẹp trên cành. Dế kêu rả rích, chim hót véo von, ong bay lượn khắp vườn thật nhộn nhịp. Tất cả tạo nên một bức tranh xuân rộn ràng, đầy sức sống tuyệt vời.</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -12409,14 +13198,16 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>---
+          <t>Chào các em học sinh lớp 5 đáng yêu! Hôm nay, chúng ta cùng nhau khám phá một bài thơ thật hay nhé.
+---
 **Tóm tắt bài thơ:**
 Mùa hạ đi rồi, cơn gió heo may mang thu về thật dịu dàng. Mẹ cần mẫn giặt áo bên sông, cánh đồng lúa chín vàng ươm. Hạt gạo trắng ngần thấm đượm công lao vất vả của cha mẹ sớm hôm. Những bàn tay tảo tần vun đắp cho cuộc sống mai sau thật tốt đẹp. Trang sách mở ra bao ước mơ tươi sáng, dẫn lối các em lớn khôn. Tình yêu thương của cha mẹ, thầy cô dệt nên tuổi thơ ngọt ngào.</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Mùa hạ đi rồi, cơn gió heo may mang thu về thật dịu dàng. Mẹ cần mẫn giặt áo bên sông, cánh đồng lúa chín vàng ươm. Hạt gạo trắng ngần thấm đượm công lao vất vả của cha mẹ sớm hôm. Những bàn tay tảo tần vun đắp cho cuộc sống mai sau thật tốt đẹp. Trang sách mở ra bao ước mơ tươi sáng, dẫn lối các em lớn khôn. Tình yêu thương của cha mẹ, thầy cô dệt nên tuổi thơ ngọt ngào.</t>
+          <t>**Tóm tắt bài thơ:**
+Mùa hạ đi rồi, cơn gió heo may mang thu về thật dịu dàng. Mẹ cần mẫn giặt áo bên sông, cánh đồng lúa chín vàng ươm. Hạt gạo trắng ngần thấm đượm công lao vất vả của cha mẹ sớm hôm. Những bàn tay tảo tần vun đắp cho cuộc sống mai sau thật tốt đẹp. Trang sách mở ra bao ước mơ tươi sáng, dẫn lối các em lớn khôn. Tình yêu thương của cha mẹ, thầy cô dệt nên tuổi thơ ngọt ngào.</t>
         </is>
       </c>
       <c r="F251" t="inlineStr"/>
@@ -12450,7 +13241,8 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>***
+          <t>Chào các em học sinh lớp 5 đáng yêu! Hôm nay chúng ta cùng tìm hiểu một đoạn văn kể về bạn nhỏ đi dạo buổi sáng nhé.
+***
 Bạn nhỏ chạy ra bờ sông, cỏ linh lăng ướt lạnh quất nhẹ chân trần. Mặt trời nhô lên, những cây hướng dương vươn mình đón nắng mai. Những khóm bạc hà thơm ngát nở hoa tím nhạt bên bờ kênh. Chim én bay vút trên cao, khung cảnh quê hương thật bình yên. Bạn ấy ước có màu vẽ để ghi lại mọi vẻ đẹp tuyệt vời nơi đây.</t>
         </is>
       </c>
@@ -12500,7 +13292,8 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Nguyễn Hiền, một thần đồng, luôn học nhanh và hiểu bài rất giỏi. Mười hai tuổi, cậu bé đỗ Trạng nguyên nhưng được vua cho về nhà. Một lần, sứ thần ngoại quốc thách đố vua quan bằng vỏ ốc xoắn. Vua Trần Thái Tông liền sai người tìm Nguyễn Hiền giải bài toán. Trạng Hiền đã nghĩ ra cách dùng kiến để xâu sợi chỉ qua vỏ ốc. Sứ thần khâm phục tài trí, vua sau đó mời Trạng Hiền giúp nước.</t>
+          <t>Chào các em học sinh lớp 5! Hôm nay, chúng ta cùng tóm tắt câu chuyện về một cậu bé rất giỏi giang nhé.
+Nguyễn Hiền, một thần đồng, luôn học nhanh và hiểu bài rất giỏi. Mười hai tuổi, cậu bé đỗ Trạng nguyên nhưng được vua cho về nhà. Một lần, sứ thần ngoại quốc thách đố vua quan bằng vỏ ốc xoắn. Vua Trần Thái Tông liền sai người tìm Nguyễn Hiền giải bài toán. Trạng Hiền đã nghĩ ra cách dùng kiến để xâu sợi chỉ qua vỏ ốc. Sứ thần khâm phục tài trí, vua sau đó mời Trạng Hiền giúp nước.</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -12541,12 +13334,13 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
+          <t>Chào các em học sinh yêu quý!
+Hôm nay là ngày khai trường đặc biệt của đất nước Việt Nam mới. Các em rất vui vì được gặp lại thầy cô và bạn bè thân thương. Từ nay, các em sẽ bắt đầu nhận một nền giáo dục hoàn toàn Việt Nam. Để có được điều này, nhiều đồng bào ta đã anh dũng hy sinh. Các em hãy chăm chỉ học tập, ngoan ngoãn và yêu thương bạn bè. Công sức của các em sẽ giúp đất nước ta phát triển, tươi đẹp.</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
           <t>Các em rất vui vì được gặp lại thầy cô và bạn bè thân thương. Từ nay, các em sẽ bắt đầu nhận một nền giáo dục hoàn toàn Việt Nam. Để có được điều này, nhiều đồng bào ta đã anh dũng hy sinh. Các em hãy chăm chỉ học tập, ngoan ngoãn và yêu thương bạn bè. Công sức của các em sẽ giúp đất nước ta phát triển, tươi đẹp.</t>
-        </is>
-      </c>
-      <c r="E254" t="inlineStr">
-        <is>
-          <t>Từ nay, các em sẽ bắt đầu nhận một nền giáo dục hoàn toàn Việt Nam. Để có được điều này, nhiều đồng bào ta đã anh dũng hy sinh. Các em hãy chăm chỉ học tập, ngoan ngoãn và yêu thương bạn bè. Công sức của các em sẽ giúp đất nước ta phát triển, tươi đẹp.</t>
         </is>
       </c>
       <c r="F254" t="inlineStr"/>
@@ -12593,12 +13387,13 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Trăng, cỏ xanh và gà trống cùng nhau chào đón bình minh rực rỡ. Đồng lúa vàng óng ả toả hương thơm ngát trong gió nhẹ. Bầy chim hót líu lo như đang mời gọi niềm vui khắp nơi. Cảm giác như đất nước mình cũng lớn lên tươi đẹp cùng em. Ngày sinh nhật mười tuổi thật đáng nhớ và tràn ngập hạnh phúc.</t>
+          <t>Chào các em học sinh lớp 5 thân mến! Cô sẽ tóm tắt đoạn thơ này thật ngắn gọn và dễ hiểu nhé:
+Ánh nắng dịu dàng đón chào một ngày mới rất đặc biệt của em. Trăng, cỏ xanh và gà trống cùng nhau chào đón bình minh rực rỡ. Đồng lúa vàng óng ả toả hương thơm ngát trong gió nhẹ. Bầy chim hót líu lo như đang mời gọi niềm vui khắp nơi. Cảm giác như đất nước mình cũng lớn lên tươi đẹp cùng em. Ngày sinh nhật mười tuổi thật đáng nhớ và tràn ngập hạnh phúc.</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Đồng lúa vàng óng ả toả hương thơm ngát trong gió nhẹ. Bầy chim hót líu lo như đang mời gọi niềm vui khắp nơi. Cảm giác như đất nước mình cũng lớn lên tươi đẹp cùng em. Ngày sinh nhật mười tuổi thật đáng nhớ và tràn ngập hạnh phúc.</t>
+          <t>Ánh nắng dịu dàng đón chào một ngày mới rất đặc biệt của em. Trăng, cỏ xanh và gà trống cùng nhau chào đón bình minh rực rỡ. Đồng lúa vàng óng ả toả hương thơm ngát trong gió nhẹ. Bầy chim hót líu lo như đang mời gọi niềm vui khắp nơi. Cảm giác như đất nước mình cũng lớn lên tươi đẹp cùng em. Ngày sinh nhật mười tuổi thật đáng nhớ và tràn ngập hạnh phúc.</t>
         </is>
       </c>
       <c r="F255" t="inlineStr"/>
@@ -12635,7 +13430,8 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Bạn Đổng Trọng Nghĩa là cậu bé người Chăm, rất thông minh, sống ở Phan Rang. Từ nhỏ, cậu đã bộc lộ năng khiếu xuất sắc đặc biệt về môn toán. Nghĩa luôn truyền cảm hứng, giúp các bạn cùng yêu thích những con số. Lên lớp Năm, em dự thi Toán Quốc tế tại Thái Lan, thật giỏi giang. Cậu bé tài năng này đã xuất sắc mang về cho đất nước giải Nhì. Nghĩa mong muốn sáng tạo nhiều trò chơi toán học hay cho mọi người.</t>
+          <t>Chào các em học sinh lớp 5! Hôm nay, cô sẽ kể cho các em nghe về một bạn nhỏ rất tài năng nhé.
+Bạn Đổng Trọng Nghĩa là cậu bé người Chăm, rất thông minh, sống ở Phan Rang. Từ nhỏ, cậu đã bộc lộ năng khiếu xuất sắc đặc biệt về môn toán. Nghĩa luôn truyền cảm hứng, giúp các bạn cùng yêu thích những con số. Lên lớp Năm, em dự thi Toán Quốc tế tại Thái Lan, thật giỏi giang. Cậu bé tài năng này đã xuất sắc mang về cho đất nước giải Nhì. Nghĩa mong muốn sáng tạo nhiều trò chơi toán học hay cho mọi người.</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -12685,7 +13481,8 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Cụ Vi-ta-li đã kiên nhẫn dạy Rê-mi học đọc bằng những chữ gỗ. Thầy cũng thử dạy chú chó Ca-pi nhận biết các mặt chữ cái. Rê-mi ban đầu học nhanh hơn Ca-pi, nhưng Ca-pi nhớ lâu hơn. Lời khích lệ của thầy đã giúp Rê-mi cố gắng không ngừng nghỉ. Không lâu sau, Rê-mi đã tự tin đọc sách một cách trôi chảy. Sau đó, cậu bé say mê học nhạc và bộc lộ tâm hồn rất đẹp.</t>
+          <t>Chào các em học sinh lớp 5! Hôm nay, cô sẽ tóm tắt câu chuyện về cậu bé Rê-mi và hành trình học tập của cậu nhé.
+Cụ Vi-ta-li đã kiên nhẫn dạy Rê-mi học đọc bằng những chữ gỗ. Thầy cũng thử dạy chú chó Ca-pi nhận biết các mặt chữ cái. Rê-mi ban đầu học nhanh hơn Ca-pi, nhưng Ca-pi nhớ lâu hơn. Lời khích lệ của thầy đã giúp Rê-mi cố gắng không ngừng nghỉ. Không lâu sau, Rê-mi đã tự tin đọc sách một cách trôi chảy. Sau đó, cậu bé say mê học nhạc và bộc lộ tâm hồn rất đẹp.</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -12739,12 +13536,13 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Những dải mây hồng vắt ngang, ánh sáng vàng lung linh lan tỏa khắp nơi. Đàn cò bay nhẹ nhàng, bóng trâu và người gánh bắt đầu ngày mới. Cánh đồng lúa non trải lụa mềm mại, khung cảnh hiện lên thật thanh bình. Tất cả hòa quyện tạo nên bức tranh bình minh quê hương tuyệt đẹp của chúng ta.</t>
+          <t>Chào các em học sinh lớp 5!
+Buổi sáng sớm, ông mặt trời rực rỡ nhuộm hồng cả bầu trời. Những dải mây hồng vắt ngang, ánh sáng vàng lung linh lan tỏa khắp nơi. Đàn cò bay nhẹ nhàng, bóng trâu và người gánh bắt đầu ngày mới. Cánh đồng lúa non trải lụa mềm mại, khung cảnh hiện lên thật thanh bình. Tất cả hòa quyện tạo nên bức tranh bình minh quê hương tuyệt đẹp của chúng ta.</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Những dải mây hồng vắt ngang, ánh sáng vàng lung linh lan tỏa khắp nơi. Đàn cò bay nhẹ nhàng, bóng trâu và người gánh bắt đầu ngày mới. Cánh đồng lúa non trải lụa mềm mại, khung cảnh hiện lên thật thanh bình. Tất cả hòa quyện tạo nên bức tranh bình minh quê hương tuyệt đẹp của chúng ta.</t>
+          <t>Buổi sáng sớm, ông mặt trời rực rỡ nhuộm hồng cả bầu trời. Những dải mây hồng vắt ngang, ánh sáng vàng lung linh lan tỏa khắp nơi. Đàn cò bay nhẹ nhàng, bóng trâu và người gánh bắt đầu ngày mới. Cánh đồng lúa non trải lụa mềm mại, khung cảnh hiện lên thật thanh bình. Tất cả hòa quyện tạo nên bức tranh bình minh quê hương tuyệt đẹp của chúng ta.</t>
         </is>
       </c>
       <c r="F258" t="inlineStr"/>
@@ -12785,7 +13583,8 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Thời chiến, việc vận chuyển giấy tờ mật cho cách mạng rất quan trọng. Ngày 15/5/1941, Hội Nhi đồng Cứu quốc ra đời để giúp cách mạng. Năm đội viên đầu tiên rất dũng cảm, do anh Kim Đồng dẫn đầu. Nhiệm vụ của các bạn là đưa tin tức quan trọng đến khắp nơi. Trong buổi lễ, các bạn nhỏ đã thề sẽ hoàn thành nhiệm vụ cao cả. Họ luôn kiên cường, dũng cảm góp sức bảo vệ Tổ quốc yêu dấu.</t>
+          <t>Chào các em học sinh lớp 5 thân mến! Hôm nay, cô sẽ kể cho các em nghe về một câu chuyện rất ý nghĩa nhé.
+Thời chiến, việc vận chuyển giấy tờ mật cho cách mạng rất quan trọng. Ngày 15/5/1941, Hội Nhi đồng Cứu quốc ra đời để giúp cách mạng. Năm đội viên đầu tiên rất dũng cảm, do anh Kim Đồng dẫn đầu. Nhiệm vụ của các bạn là đưa tin tức quan trọng đến khắp nơi. Trong buổi lễ, các bạn nhỏ đã thề sẽ hoàn thành nhiệm vụ cao cả. Họ luôn kiên cường, dũng cảm góp sức bảo vệ Tổ quốc yêu dấu.</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -12832,12 +13631,13 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
+          <t>Chào các em học sinh lớp 5 đáng yêu! Hôm nay, cô sẽ kể cho các em nghe một câu chuyện về những ngày Tết thật vui nhé.
+Tết đến, ngôi nhà nhỏ trở nên rộn ràng, hương lá dong thoang thoảng khắp nơi. Mẹ rửa lá, bạn nhỏ nghịch gạo nếp thơm, nồi bánh chưng sôi lùng bùng. Những đôi dép mới được thử, rồi lại cất đi, dành cho ngày đầu năm đẹp nhất. Mùi chả sam ngon bay theo gió, hạt bưởi đốt nổ lép bép thật vui tai. Mẹ rửa mặt cho sáng láng, đón luồng gió mới tràn đầy niềm hy vọng.</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
           <t>Tết đến, ngôi nhà nhỏ trở nên rộn ràng, hương lá dong thoang thoảng khắp nơi. Mẹ rửa lá, bạn nhỏ nghịch gạo nếp thơm, nồi bánh chưng sôi lùng bùng. Những đôi dép mới được thử, rồi lại cất đi, dành cho ngày đầu năm đẹp nhất. Mùi chả sam ngon bay theo gió, hạt bưởi đốt nổ lép bép thật vui tai. Mẹ rửa mặt cho sáng láng, đón luồng gió mới tràn đầy niềm hy vọng.</t>
-        </is>
-      </c>
-      <c r="E260" t="inlineStr">
-        <is>
-          <t>Mẹ rửa lá, bạn nhỏ nghịch gạo nếp thơm, nồi bánh chưng sôi lùng bùng. Những đôi dép mới được thử, rồi lại cất đi, dành cho ngày đầu năm đẹp nhất. Mùi chả sam ngon bay theo gió, hạt bưởi đốt nổ lép bép thật vui tai. Mẹ rửa mặt cho sáng láng, đón luồng gió mới tràn đầy niềm hy vọng.</t>
         </is>
       </c>
       <c r="F260" t="inlineStr"/>
@@ -12872,7 +13672,9 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Đó là những cánh đồng muối trắng tinh khôi, đẹp như tranh vẽ đấy! Từ tháng Mười hai, Bạc Liêu có những cánh đồng muối trắng tinh đẹp mắt. Diêm dân chăm chỉ bắt đầu làm việc trên ruộng từ ba giờ sáng. Dưới ánh đèn, họ cào và dồn những hạt muối trắng thành từng đống. Khi mặt trời lên, ruộng muối lấp lánh như ngàn viên kim cương. Nắng làm muối khô nhanh, ruộng còn phản chiếu bầu trời xanh. Hạt muối Bạc Liêu mang hương vị đặc biệt, thể hiện tình yêu quê hương.</t>
+          <t>Chào các em học sinh lớp 5 đáng yêu!
+Các em có biết Bạc Liêu nổi tiếng về gì không? Đó là những cánh đồng muối trắng tinh khôi, đẹp như tranh vẽ đấy!
+Từ tháng Mười hai, Bạc Liêu có những cánh đồng muối trắng tinh đẹp mắt. Diêm dân chăm chỉ bắt đầu làm việc trên ruộng từ ba giờ sáng. Dưới ánh đèn, họ cào và dồn những hạt muối trắng thành từng đống. Khi mặt trời lên, ruộng muối lấp lánh như ngàn viên kim cương. Nắng làm muối khô nhanh, ruộng còn phản chiếu bầu trời xanh. Hạt muối Bạc Liêu mang hương vị đặc biệt, thể hiện tình yêu quê hương.</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
@@ -12925,7 +13727,8 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Ngôi nhà thân yêu tràn đầy tình cảm gia đình, nơi mọi người quan tâm nhau. Ở trường, thầy cô dạy bảo, bạn bè chơi đùa, học tập thật vui vẻ. Cả nhà và trường đều mang lại nhiều tiếng cười tươi sáng, đầy yêu thương. Những nụ cười ấy như mùa xuân, thật tươi mới, trong ngần và rạng rỡ. Nụ cười hạnh phúc dệt nên cuộc sống thật đáng yêu từ những điều giản dị. Mỗi ngày chúng ta đều có thêm nhiều niềm vui và những điều ý nghĩa.</t>
+          <t>Chào các em học sinh lớp 5 đáng yêu của cô!
+Đoạn văn này kể về những nơi và điều làm cuộc sống chúng ta thật hạnh phúc. Ngôi nhà thân yêu tràn đầy tình cảm gia đình, nơi mọi người quan tâm nhau. Ở trường, thầy cô dạy bảo, bạn bè chơi đùa, học tập thật vui vẻ. Cả nhà và trường đều mang lại nhiều tiếng cười tươi sáng, đầy yêu thương. Những nụ cười ấy như mùa xuân, thật tươi mới, trong ngần và rạng rỡ. Nụ cười hạnh phúc dệt nên cuộc sống thật đáng yêu từ những điều giản dị. Mỗi ngày chúng ta đều có thêm nhiều niềm vui và những điều ý nghĩa.</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -12965,13 +13768,26 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
+          <t>Chào các em, chúng ta cùng đọc một đoạn văn thật hay và tóm tắt lại nhé!
+Đoạn văn này kể về những kí ức êm đềm của tác giả về mùa thu hoạch vừng ở quê hương mình.
+**Tóm tắt:**
+Mùa thu về, mang theo bao kỉ niệm đẹp về cánh đồng vừng.
+Khi chim sẻ ríu rít, cánh đồng vừng chín vàng óng ánh.
+Các bà, các mẹ cần mẫn gặt vừng, tạo nên bức tranh sống động.
+Chiều về, xe bò chất đầy vừng tươi, mang mùi thơm nồng nàn.
+Các bạn nhỏ vui vẻ cưỡi trâu, chim sẻ nhặt những hạt vừng rơi.
+Tác giả mong được trở lại tuổi thơ tươi đẹp trên lưng trâu ấy.</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
           <t>**Tóm tắt:**
-Mùa thu về, mang theo bao kỉ niệm đẹp về cánh đồng vừng. Khi chim sẻ ríu rít, cánh đồng vừng chín vàng óng ánh. Các bà, các mẹ cần mẫn gặt vừng, tạo nên bức tranh sống động. Chiều về, xe bò chất đầy vừng tươi, mang mùi thơm nồng nàn. Các bạn nhỏ vui vẻ cưỡi trâu, chim sẻ nhặt những hạt vừng rơi. Tác giả mong được trở lại tuổi thơ tươi đẹp trên lưng trâu ấy.</t>
-        </is>
-      </c>
-      <c r="E263" t="inlineStr">
-        <is>
-          <t>Mùa thu về, mang theo bao kỉ niệm đẹp về cánh đồng vừng. Khi chim sẻ ríu rít, cánh đồng vừng chín vàng óng ánh. Các bà, các mẹ cần mẫn gặt vừng, tạo nên bức tranh sống động. Chiều về, xe bò chất đầy vừng tươi, mang mùi thơm nồng nàn. Các bạn nhỏ vui vẻ cưỡi trâu, chim sẻ nhặt những hạt vừng rơi. Tác giả mong được trở lại tuổi thơ tươi đẹp trên lưng trâu ấy.</t>
+Mùa thu về, mang theo bao kỉ niệm đẹp về cánh đồng vừng.
+Khi chim sẻ ríu rít, cánh đồng vừng chín vàng óng ánh.
+Các bà, các mẹ cần mẫn gặt vừng, tạo nên bức tranh sống động.
+Chiều về, xe bò chất đầy vừng tươi, mang mùi thơm nồng nàn.
+Các bạn nhỏ vui vẻ cưỡi trâu, chim sẻ nhặt những hạt vừng rơi.
+Tác giả mong được trở lại tuổi thơ tươi đẹp trên lưng trâu ấy.</t>
         </is>
       </c>
       <c r="F263" t="inlineStr"/>
@@ -13010,7 +13826,8 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Trước Giáng sinh, dì dượng và các em họ đến thăm trong xe trượt tuyết. Ngôi nhà nhỏ bỗng tràn ngập tiếng cười và những trò chơi thú vị. A-lít-xơ rủ mọi người cùng tạo hình đáng yêu trên lớp tuyết mịn màng. Các bạn nhỏ hào hứng ra ngoài, mặc ấm và cùng nhau làm những hình ngộ nghĩnh. Buổi tối, đám trẻ vẫn còn rất phấn khích, không thể nào ngủ yên được. Ba liền lấy đàn vĩ cầm ra, chơi những giai điệu êm ái cho chúng ngủ say.</t>
+          <t>Chào các em học sinh lớp 5 đáng yêu! Hôm nay, chúng ta cùng tóm tắt câu chuyện về một ngày thật vui của chị em Lô-ra nhé.
+Trước Giáng sinh, dì dượng và các em họ đến thăm trong xe trượt tuyết. Ngôi nhà nhỏ bỗng tràn ngập tiếng cười và những trò chơi thú vị. A-lít-xơ rủ mọi người cùng tạo hình đáng yêu trên lớp tuyết mịn màng. Các bạn nhỏ hào hứng ra ngoài, mặc ấm và cùng nhau làm những hình ngộ nghĩnh. Buổi tối, đám trẻ vẫn còn rất phấn khích, không thể nào ngủ yên được. Ba liền lấy đàn vĩ cầm ra, chơi những giai điệu êm ái cho chúng ngủ say.</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -13050,7 +13867,8 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Bình minh lên, thành phố dần thức giấc trong ánh sáng hồng tươi. Các tòa nhà cao lớn hiện ra nguy nga, bồng bềnh giữa biển sương. Mặt trời từ từ nhô lên, trông như một quả bóng bay mềm mại. Đường phố bắt đầu rộn ràng, tấp nập với những chuyến xe chở hàng. Tiếng động cơ xe nổ giòn giã đánh thức cả thành phố dậy. Thật tuyệt vời khi ngắm nhìn thành phố mình thật đẹp vào buổi sáng.</t>
+          <t>Chào các em học sinh lớp 5 thân mến! Hôm nay, cô sẽ tóm tắt một đoạn văn thật hay về cảnh bình minh nhé.
+Bình minh lên, thành phố dần thức giấc trong ánh sáng hồng tươi. Các tòa nhà cao lớn hiện ra nguy nga, bồng bềnh giữa biển sương. Mặt trời từ từ nhô lên, trông như một quả bóng bay mềm mại. Đường phố bắt đầu rộn ràng, tấp nập với những chuyến xe chở hàng. Tiếng động cơ xe nổ giòn giã đánh thức cả thành phố dậy. Thật tuyệt vời khi ngắm nhìn thành phố mình thật đẹp vào buổi sáng.</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -13106,7 +13924,9 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Khi đi học về, các em thấy ngôi nhà đang xây dở ven đường. Giàn giáo và trụ bê tông giống như cây non đang lớn lên vậy. Mùi vôi vữa nồng nàn cho thấy công trình đang dần hoàn thiện từng ngày. Ngôi nhà chưa xong nhưng đã tràn đầy âm thanh và hương vị tự nhiên. Nó giống như một tác phẩm nghệ thuật đẹp đẽ đang chờ được hoàn chỉnh. Mọi ngôi nhà đều lớn lên từ những ngày còn dang dở, thật kỳ diệu.</t>
+          <t>Chào các em,
+Cô sẽ tóm tắt bài thơ này cho lớp 5 nhé. Các em hình dung mình đang đi học về và thấy ngôi nhà đó nha!
+Khi đi học về, các em thấy ngôi nhà đang xây dở ven đường. Giàn giáo và trụ bê tông giống như cây non đang lớn lên vậy. Mùi vôi vữa nồng nàn cho thấy công trình đang dần hoàn thiện từng ngày. Ngôi nhà chưa xong nhưng đã tràn đầy âm thanh và hương vị tự nhiên. Nó giống như một tác phẩm nghệ thuật đẹp đẽ đang chờ được hoàn chỉnh. Mọi ngôi nhà đều lớn lên từ những ngày còn dang dở, thật kỳ diệu.</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
@@ -13145,7 +13965,8 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Tiếng gió thổi qua bãi mía, sóng vỗ ghềnh đá nghe thật nhịp nhàng. Những chú chim hót líu lo mang đến bao điều thú vị cho chúng ta. Mỗi âm thanh nhỏ bé ấy đều kể một câu chuyện độc đáo riêng. Nếu lắng nghe, bạn sẽ khám phá bản hòa nhạc tuyệt vời của quê hương. Bản nhạc đó làm tâm hồn chúng ta vui tươi, ngập tràn mê thích đấy!</t>
+          <t>Chào các em học sinh lớp 5 đáng yêu!
+Các em có biết không, thế giới xung quanh chúng ta luôn chứa đựng nhiều âm thanh sống động. Tiếng gió thổi qua bãi mía, sóng vỗ ghềnh đá nghe thật nhịp nhàng. Những chú chim hót líu lo mang đến bao điều thú vị cho chúng ta. Mỗi âm thanh nhỏ bé ấy đều kể một câu chuyện độc đáo riêng. Nếu lắng nghe, bạn sẽ khám phá bản hòa nhạc tuyệt vời của quê hương. Bản nhạc đó làm tâm hồn chúng ta vui tươi, ngập tràn mê thích đấy!</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -13189,7 +14010,8 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Mỗi đêm, người kể chuyện thường nghe tiếng rao bánh giò quen thuộc trong đêm khuya. Bỗng một đêm, ngọn lửa hung dữ bùng lên ở căn nhà đầu hẻm. Một người đàn ông khập khiễng đã dũng cảm lao vào trong lửa cứu người. Anh ấy nhanh chóng ôm một em bé nhỏ thoát khỏi đám cháy nguy hiểm. Mọi người bàng hoàng khi thấy anh là một thương binh với chiếc chân gỗ. Thì ra, người bán bánh giò ấy chính là anh hùng cứu giúp cả gia đình.</t>
+          <t>Chào các em học sinh lớp 5 đáng yêu! Hôm nay chúng ta sẽ cùng tóm tắt một câu chuyện thật cảm động nhé.
+Mỗi đêm, người kể chuyện thường nghe tiếng rao bánh giò quen thuộc trong đêm khuya. Bỗng một đêm, ngọn lửa hung dữ bùng lên ở căn nhà đầu hẻm. Một người đàn ông khập khiễng đã dũng cảm lao vào trong lửa cứu người. Anh ấy nhanh chóng ôm một em bé nhỏ thoát khỏi đám cháy nguy hiểm. Mọi người bàng hoàng khi thấy anh là một thương binh với chiếc chân gỗ. Thì ra, người bán bánh giò ấy chính là anh hùng cứu giúp cả gia đình.</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -13229,7 +14051,8 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Sáng sớm, sương tan dần, cảnh làng núi hiện ra thật đẹp. Người dân hăng say bắt đầu ngày mới với nhiều hoạt động. Buổi trưa, nắng vàng dịu, gió mát thổi qua khắp thung lũng. Làng yên tĩnh hẳn, mọi người bận rộn làm việc ngoài đồng. Chiều đến, sương lam nhẹ bò, núi rừng hiện lên hùng vĩ. Buổi tối, cả làng quây quần, vui ca hát và nhảy múa tưng bừng.</t>
+          <t>Chào các em học sinh lớp 5 đáng yêu! Hôm nay, cô sẽ tóm tắt một ngày ở ngôi làng miền núi thật đẹp nhé.
+Sáng sớm, sương tan dần, cảnh làng núi hiện ra thật đẹp. Người dân hăng say bắt đầu ngày mới với nhiều hoạt động. Buổi trưa, nắng vàng dịu, gió mát thổi qua khắp thung lũng. Làng yên tĩnh hẳn, mọi người bận rộn làm việc ngoài đồng. Chiều đến, sương lam nhẹ bò, núi rừng hiện lên hùng vĩ. Buổi tối, cả làng quây quần, vui ca hát và nhảy múa tưng bừng.</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -13283,12 +14106,13 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Ngày Giỗ Tổ Hùng Vương ở Phú Thọ, mọi người nhớ ơn các Vua Hùng. Nhiều nơi khác còn có hội làng, gợi nhắc lịch sử, văn hóa ngàn đời. Trên sông nước, các lễ hội đua thuyền mang đến không khí hào hứng, sôi nổi. Dọc bờ biển có Lễ Nghinh Ông, cùng đua bò Bảy Núi rất độc đáo. Mỗi lễ hội đều mang vẻ đẹp riêng, giúp ta hiểu hơn về quê hương.</t>
+          <t>Chào các em học sinh lớp 5 thân mến!
+Đất nước Việt Nam mình có rất nhiều lễ hội truyền thống đặc sắc, tưng bừng. Ngày Giỗ Tổ Hùng Vương ở Phú Thọ, mọi người nhớ ơn các Vua Hùng. Nhiều nơi khác còn có hội làng, gợi nhắc lịch sử, văn hóa ngàn đời. Trên sông nước, các lễ hội đua thuyền mang đến không khí hào hứng, sôi nổi. Dọc bờ biển có Lễ Nghinh Ông, cùng đua bò Bảy Núi rất độc đáo. Mỗi lễ hội đều mang vẻ đẹp riêng, giúp ta hiểu hơn về quê hương.</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Ngày Giỗ Tổ Hùng Vương ở Phú Thọ, mọi người nhớ ơn các Vua Hùng. Nhiều nơi khác còn có hội làng, gợi nhắc lịch sử, văn hóa ngàn đời. Trên sông nước, các lễ hội đua thuyền mang đến không khí hào hứng, sôi nổi. Dọc bờ biển có Lễ Nghinh Ông, cùng đua bò Bảy Núi rất độc đáo. Mỗi lễ hội đều mang vẻ đẹp riêng, giúp ta hiểu hơn về quê hương.</t>
+          <t>Đất nước Việt Nam mình có rất nhiều lễ hội truyền thống đặc sắc, tưng bừng. Ngày Giỗ Tổ Hùng Vương ở Phú Thọ, mọi người nhớ ơn các Vua Hùng. Nhiều nơi khác còn có hội làng, gợi nhắc lịch sử, văn hóa ngàn đời. Trên sông nước, các lễ hội đua thuyền mang đến không khí hào hứng, sôi nổi. Dọc bờ biển có Lễ Nghinh Ông, cùng đua bò Bảy Núi rất độc đáo. Mỗi lễ hội đều mang vẻ đẹp riêng, giúp ta hiểu hơn về quê hương.</t>
         </is>
       </c>
       <c r="F270" t="inlineStr"/>
@@ -13322,7 +14146,8 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Người viết ghé thăm một bản làng vùng núi vào mùa xuân tươi đẹp. Hoa cải vàng rực rỡ khoe sắc, đón chào những tia nắng mới. Bà con dân làng chăm chỉ làm việc trên ruộng nương mình. Khói đốt nương bảng lảng bay, khung cảnh thêm phần gần gũi. Cảnh vật nơi đây thật yên bình, khiến lòng người thư thái. Người viết muốn ở lại mãi, ngắm buổi chiều êm đềm.</t>
+          <t>Chào các em học sinh lớp 5 thân mến! Hôm nay, cô sẽ tóm tắt cho các em một câu chuyện về chuyến đi thăm làng quê nhé.
+Người viết ghé thăm một bản làng vùng núi vào mùa xuân tươi đẹp. Hoa cải vàng rực rỡ khoe sắc, đón chào những tia nắng mới. Bà con dân làng chăm chỉ làm việc trên ruộng nương mình. Khói đốt nương bảng lảng bay, khung cảnh thêm phần gần gũi. Cảnh vật nơi đây thật yên bình, khiến lòng người thư thái. Người viết muốn ở lại mãi, ngắm buổi chiều êm đềm.</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
@@ -13378,7 +14203,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Đây là phần tóm tắt ngắn gọn dành cho các em:
+          <t>Chào các em học sinh lớp 5! Câu chuyện này thật đáng yêu và mang nhiều ý nghĩa. Đây là phần tóm tắt ngắn gọn dành cho các em:
 Bác bưu tá Ao-ki thường mang thư đến ngôi nhà cụ Ya-e-nô. Cụ già sống một mình luôn vui vẻ mời bác uống trà và dùng bữa. Bác Ao-ki rất thích thú, vừa ăn ngon miệng vừa chuyện trò thân mật. Sau này, bác mới biết cụ tự gửi thư chỉ để có bạn tâm sự. Hiểu được nỗi cô đơn, bác Ao-ki đã viết thư cảm ơn cụ. Cụ Ya-e-nô đọc thư, nước mắt hạnh phúc lặng lẽ tuôn rơi.</t>
         </is>
       </c>
@@ -13419,12 +14244,13 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
+          <t>Chào các em học sinh lớp 5! Hôm nay, cô sẽ kể cho các em nghe về một ngôi nhà rất đặc biệt ở vùng Tây Nguyên nhé!
+Đồng bào Tây Nguyên có ngôi nhà chung gọi là nhà rông, nhà gươl. Ngôi nhà uy nghi này tọa lạc tại trung tâm mỗi buôn làng. Đây là không gian sinh hoạt chung, nơi tổ chức lễ hội và giữ báu vật. Mỗi buôn làng Tây Nguyên có kiểu dáng, hoa văn trang trí riêng. Ví dụ, mái nhà rông có thể hình lưỡi rìu hay đôi gà trống. Nhà rông gắn kết cộng đồng, nuôi dưỡng tình cảm quê hương bền chặt.</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
           <t>Đồng bào Tây Nguyên có ngôi nhà chung gọi là nhà rông, nhà gươl. Ngôi nhà uy nghi này tọa lạc tại trung tâm mỗi buôn làng. Đây là không gian sinh hoạt chung, nơi tổ chức lễ hội và giữ báu vật. Mỗi buôn làng Tây Nguyên có kiểu dáng, hoa văn trang trí riêng. Ví dụ, mái nhà rông có thể hình lưỡi rìu hay đôi gà trống. Nhà rông gắn kết cộng đồng, nuôi dưỡng tình cảm quê hương bền chặt.</t>
-        </is>
-      </c>
-      <c r="E273" t="inlineStr">
-        <is>
-          <t>Đây là không gian sinh hoạt chung, nơi tổ chức lễ hội và giữ báu vật. Mỗi buôn làng Tây Nguyên có kiểu dáng, hoa văn trang trí riêng. Ví dụ, mái nhà rông có thể hình lưỡi rìu hay đôi gà trống. Nhà rông gắn kết cộng đồng, nuôi dưỡng tình cảm quê hương bền chặt.</t>
         </is>
       </c>
       <c r="F273" t="inlineStr"/>
@@ -13476,12 +14302,13 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
+          <t>Chào các em học sinh lớp 5 đáng yêu! Hôm nay, cô sẽ tóm tắt bài thơ về bạn Gió nhé.
+Gió luôn bay lượn tự do khắp bầu trời rộng lớn, như một người bạn hiếu động. Gió thổi nhẹ làm lá cây xào xạc và sóng biển vỗ rì rào, tựa như đang hát. Khi trời nắng nóng, gió khéo léo giúp chúng ta làm dịu đi cái nóng oi bức. Gió còn cõng nước từ biển khơi làm mưa rào, giúp đồng ruộng xanh tươi. Gió chẳng bao giờ mệt mỏi, làm bao việc tốt nhưng không ai thấy hình dáng.</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
           <t>Gió luôn bay lượn tự do khắp bầu trời rộng lớn, như một người bạn hiếu động. Gió thổi nhẹ làm lá cây xào xạc và sóng biển vỗ rì rào, tựa như đang hát. Khi trời nắng nóng, gió khéo léo giúp chúng ta làm dịu đi cái nóng oi bức. Gió còn cõng nước từ biển khơi làm mưa rào, giúp đồng ruộng xanh tươi. Gió chẳng bao giờ mệt mỏi, làm bao việc tốt nhưng không ai thấy hình dáng.</t>
-        </is>
-      </c>
-      <c r="E274" t="inlineStr">
-        <is>
-          <t>Khi trời nắng nóng, gió khéo léo giúp chúng ta làm dịu đi cái nóng oi bức. Gió còn cõng nước từ biển khơi làm mưa rào, giúp đồng ruộng xanh tươi. Gió chẳng bao giờ mệt mỏi, làm bao việc tốt nhưng không ai thấy hình dáng.</t>
         </is>
       </c>
       <c r="F274" t="inlineStr"/>
@@ -13517,12 +14344,13 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Họ dùng liềm cắt cỏ, rồi thực hiện "vũ điệu giũ cỏ" rất độc đáo. Cỏ được phân loại, buộc bó cẩn thận rồi thuyền chở về làng. Từ cỏ bàng khô, người dân khéo léo đan thành đệm, túi, nón. Mùa gặt tuy vất vả nhưng cả làng cùng san sẻ niềm vui.</t>
+          <t>Chào các bạn học sinh lớp 5!
+Ở Tân Hòa Thành vào tháng Tám, người dân bận rộn thu hoạch cỏ bàng xanh mướt. Họ dùng liềm cắt cỏ, rồi thực hiện "vũ điệu giũ cỏ" rất độc đáo. Cỏ được phân loại, buộc bó cẩn thận rồi thuyền chở về làng. Từ cỏ bàng khô, người dân khéo léo đan thành đệm, túi, nón. Mùa gặt tuy vất vả nhưng cả làng cùng san sẻ niềm vui.</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Họ dùng liềm cắt cỏ, rồi thực hiện "vũ điệu giũ cỏ" rất độc đáo. Cỏ được phân loại, buộc bó cẩn thận rồi thuyền chở về làng. Từ cỏ bàng khô, người dân khéo léo đan thành đệm, túi, nón. Mùa gặt tuy vất vả nhưng cả làng cùng san sẻ niềm vui.</t>
+          <t>Ở Tân Hòa Thành vào tháng Tám, người dân bận rộn thu hoạch cỏ bàng xanh mướt. Họ dùng liềm cắt cỏ, rồi thực hiện "vũ điệu giũ cỏ" rất độc đáo. Cỏ được phân loại, buộc bó cẩn thận rồi thuyền chở về làng. Từ cỏ bàng khô, người dân khéo léo đan thành đệm, túi, nón. Mùa gặt tuy vất vả nhưng cả làng cùng san sẻ niềm vui.</t>
         </is>
       </c>
       <c r="F275" t="inlineStr"/>
@@ -13561,7 +14389,8 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Mùa xuân, bạn Uyên cùng mẹ trồng cây anh đào ven dòng suối Tây Nguyên. Một bạn nhỏ rủ Uyên gieo thêm hạt hoa sao dưới gốc anh đào. Hai bạn tỉ mẩn gieo những hạt hoa li ti xuống từng gốc cây. Mùa xuân năm sau, Uyên trở lại thăm những hàng cây đã trồng. Cả đoàn ngỡ ngàng thấy thảm hoa sao tím bung nở dưới gốc anh đào. Uyên vui vì ý tưởng nhỏ của bạn đã mang lại vẻ đẹp bất ngờ.</t>
+          <t>Chào các bạn học sinh lớp 5! Hãy cùng cô tóm tắt câu chuyện về Uyên và những bông hoa nhé!
+Mùa xuân, bạn Uyên cùng mẹ trồng cây anh đào ven dòng suối Tây Nguyên. Một bạn nhỏ rủ Uyên gieo thêm hạt hoa sao dưới gốc anh đào. Hai bạn tỉ mẩn gieo những hạt hoa li ti xuống từng gốc cây. Mùa xuân năm sau, Uyên trở lại thăm những hàng cây đã trồng. Cả đoàn ngỡ ngàng thấy thảm hoa sao tím bung nở dưới gốc anh đào. Uyên vui vì ý tưởng nhỏ của bạn đã mang lại vẻ đẹp bất ngờ.</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -13607,7 +14436,8 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Giờ Trái Đất là sự kiện lớn nhắc nhở chúng ta bảo vệ hành tinh xanh. Hằng năm, mọi người tắt đèn điện một giờ vào cuối tháng Ba. Việc này giúp mọi người cùng nhớ tiết kiệm năng lượng, chống biến đổi khí hậu. Từ năm 2007, sự kiện đã lan tỏa đến hơn một trăm tám mươi quốc gia. Mỗi hành động nhỏ của chúng ta đều góp phần giúp Trái Đất thêm khỏe mạnh.</t>
+          <t>Chào các bạn học sinh lớp 5! Hôm nay, chúng ta cùng tìm hiểu về "Giờ Trái Đất" nhé!
+Giờ Trái Đất là sự kiện lớn nhắc nhở chúng ta bảo vệ hành tinh xanh. Hằng năm, mọi người tắt đèn điện một giờ vào cuối tháng Ba. Việc này giúp mọi người cùng nhớ tiết kiệm năng lượng, chống biến đổi khí hậu. Từ năm 2007, sự kiện đã lan tỏa đến hơn một trăm tám mươi quốc gia. Mỗi hành động nhỏ của chúng ta đều góp phần giúp Trái Đất thêm khỏe mạnh.</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -13659,7 +14489,8 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Mùa xuân, các bạn nhỏ cùng nhau trồng cây để phủ xanh những đồi hoang. Bàn tay bé nhỏ góp phần biến đất trống thành rừng thông xanh tươi tốt. Mọi người vui vẻ làm việc, vun gốc và nâng niu từng cành cây non. Đàn chim líu lo hót mừng, gương mặt rạng rỡ nở nụ cười hạnh phúc. Từ những đóng góp nhỏ bé ấy, quê hương sẽ ngập tràn sắc xanh hy vọng.</t>
+          <t>Chào các em học sinh lớp 5 đáng yêu! Hôm nay, cô sẽ tóm tắt bài thơ rất hay về việc trồng cây nhé.
+Mùa xuân, các bạn nhỏ cùng nhau trồng cây để phủ xanh những đồi hoang. Bàn tay bé nhỏ góp phần biến đất trống thành rừng thông xanh tươi tốt. Mọi người vui vẻ làm việc, vun gốc và nâng niu từng cành cây non. Đàn chim líu lo hót mừng, gương mặt rạng rỡ nở nụ cười hạnh phúc. Từ những đóng góp nhỏ bé ấy, quê hương sẽ ngập tràn sắc xanh hy vọng.</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
@@ -13699,7 +14530,8 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Hôm nay, khu rừng khoác lên mình tấm áo xanh tươi rực rỡ, thật tuyệt vời. Nhiều loại lá non mơn mởn, xanh ngọc bích nổi bật giữa tán lá già thẫm màu. Đâu đó, lá đỏ như hồng ngọc, lá vàng, tím làm rừng thêm phần tươi tắn. Nắng xuyên qua kẽ lá, tạo nên ánh sáng huyền ảo như ống kính vạn hoa. Giữa khung cảnh rực rỡ ấy, buổi hội của các loài chim diễn ra vui vẻ.</t>
+          <t>Chào các em học sinh lớp 5 thân mến! Hôm nay, chúng ta cùng khám phá một khu rừng thật đẹp nhé.
+Hôm nay, khu rừng khoác lên mình tấm áo xanh tươi rực rỡ, thật tuyệt vời. Nhiều loại lá non mơn mởn, xanh ngọc bích nổi bật giữa tán lá già thẫm màu. Đâu đó, lá đỏ như hồng ngọc, lá vàng, tím làm rừng thêm phần tươi tắn. Nắng xuyên qua kẽ lá, tạo nên ánh sáng huyền ảo như ống kính vạn hoa. Giữa khung cảnh rực rỡ ấy, buổi hội của các loài chim diễn ra vui vẻ.</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -13744,7 +14576,8 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Mùa xuân đến, em bé ra vườn nhìn những hạt mầm mới nhú. Em cảm nhận đất vườn ẩm ướt, dịu dàng dưới lòng bàn chân. Bố cuốc đất, anh trai hát, khu vườn là thế giới tuyệt diệu. Bỗng nhiên, anh trai thì thầm về đàn chim "Mùa Xuân" đỏ rực. Đàn chim đông đảo chỉ trở về vườn mỗi độ xuân sang. Gia đình nhường lại khu vườn xanh mát cho bầy chim ấy.</t>
+          <t>Chào các bạn học sinh lớp 5! Hôm nay, cô sẽ kể cho các con nghe một câu chuyện nhỏ thật đáng yêu nhé.
+Mùa xuân đến, em bé ra vườn nhìn những hạt mầm mới nhú. Em cảm nhận đất vườn ẩm ướt, dịu dàng dưới lòng bàn chân. Bố cuốc đất, anh trai hát, khu vườn là thế giới tuyệt diệu. Bỗng nhiên, anh trai thì thầm về đàn chim "Mùa Xuân" đỏ rực. Đàn chim đông đảo chỉ trở về vườn mỗi độ xuân sang. Gia đình nhường lại khu vườn xanh mát cho bầy chim ấy.</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -13784,12 +14617,13 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
+          <t>Chào các em học sinh lớp 5! Hôm nay, cô sẽ giới thiệu cho các em về một nơi rất đặc biệt dành cho động vật nhé!
+Khu Bảo tồn Hi-ơ-lơ-vin là một nơi đặc biệt ở nước Úc. Nơi đây nuôi dưỡng hơn 200 loài động vật bản địa quý hiếm của Úc. Chúng được sống tự do và nhận chăm sóc y tế tại trung tâm. Du khách có thể ngắm gấu túi ngủ hoặc xem chim săn mồi sải cánh. Bạn còn được chiêm ngưỡng vẹt biểu diễn, chơi cùng thú mỏ vịt đáng yêu. Đây là mái nhà an toàn cho nhiều loài vật hoang dã của Úc.</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
           <t>Khu Bảo tồn Hi-ơ-lơ-vin là một nơi đặc biệt ở nước Úc. Nơi đây nuôi dưỡng hơn 200 loài động vật bản địa quý hiếm của Úc. Chúng được sống tự do và nhận chăm sóc y tế tại trung tâm. Du khách có thể ngắm gấu túi ngủ hoặc xem chim săn mồi sải cánh. Bạn còn được chiêm ngưỡng vẹt biểu diễn, chơi cùng thú mỏ vịt đáng yêu. Đây là mái nhà an toàn cho nhiều loài vật hoang dã của Úc.</t>
-        </is>
-      </c>
-      <c r="E281" t="inlineStr">
-        <is>
-          <t>Nơi đây nuôi dưỡng hơn 200 loài động vật bản địa quý hiếm của Úc. Chúng được sống tự do và nhận chăm sóc y tế tại trung tâm. Du khách có thể ngắm gấu túi ngủ hoặc xem chim săn mồi sải cánh. Bạn còn được chiêm ngưỡng vẹt biểu diễn, chơi cùng thú mỏ vịt đáng yêu. Đây là mái nhà an toàn cho nhiều loài vật hoang dã của Úc.</t>
         </is>
       </c>
       <c r="F281" t="inlineStr"/>
@@ -13836,7 +14670,8 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Cây lộc vừng cổ thụ đứng bên Hồ Gươm đã trải qua nhiều năm tháng. Cây chứng kiến bao nhiêu chuyện xưa, như vua Lê Lợi trả gươm thần. Những chùm hoa đỏ rực rỡ thả xuống như chuỗi hạt ngọc lấp lánh trên mặt hồ. Sắc hoa vẫn toả sáng, làm lòng người xao xuyến nhớ về tuổi thơ. Cây lộc vừng là biểu tượng đẹp của lịch sử và ký ức Hồ Gươm.</t>
+          <t>Chào các em học sinh lớp 5! Hôm nay, cô sẽ tóm tắt bài thơ nói về một loài cây rất đặc biệt nhé.
+Cây lộc vừng cổ thụ đứng bên Hồ Gươm đã trải qua nhiều năm tháng. Cây chứng kiến bao nhiêu chuyện xưa, như vua Lê Lợi trả gươm thần. Những chùm hoa đỏ rực rỡ thả xuống như chuỗi hạt ngọc lấp lánh trên mặt hồ. Sắc hoa vẫn toả sáng, làm lòng người xao xuyến nhớ về tuổi thơ. Cây lộc vừng là biểu tượng đẹp của lịch sử và ký ức Hồ Gươm.</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -13876,12 +14711,15 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Năm 2010, Việt Nam bắt đầu chọn các cây cổ thụ đặc biệt làm Cây di sản. Những cây rất già hoặc có ý nghĩa lịch sử, cảnh đẹp được công nhận. Hiện nay, cả nước đã có đến 6.000 Cây di sản tuyệt vời như vậy. Trong đó, Giàn Gừa Cần Thơ, hơn 150 tuổi, là Cây di sản đầu tiên tại miền Tây. Giàn Gừa có tán lá xanh rộng lớn, bộ rễ chằng chịt trông rất kỳ ảo. Dù chiến tranh tàn phá, Giàn Gừa vẫn phát triển tươi tốt nhờ được bảo tồn. Giàn Gừa tiếp tục tỏa bóng mát, kể chuyện lịch sử, là niềm tự hào của vùng.</t>
+          <t>Chào các em học sinh lớp 5 đáng yêu! Hôm nay, chúng ta sẽ cùng tìm hiểu về những cây cổ thụ đặc biệt của đất nước mình nhé.
+Năm 2010, Việt Nam bắt đầu chọn các cây cổ thụ đặc biệt làm Cây di sản. Những cây rất già hoặc có ý nghĩa lịch sử, cảnh đẹp được công nhận. Hiện nay, cả nước đã có đến 6.000 Cây di sản tuyệt vời như vậy.
+Trong đó, Giàn Gừa Cần Thơ, hơn 150 tuổi, là Cây di sản đầu tiên tại miền Tây. Giàn Gừa có tán lá xanh rộng lớn, bộ rễ chằng chịt trông rất kỳ ảo. Dù chiến tranh tàn phá, Giàn Gừa vẫn phát triển tươi tốt nhờ được bảo tồn. Giàn Gừa tiếp tục tỏa bóng mát, kể chuyện lịch sử, là niềm tự hào của vùng.</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>Năm 2010, Việt Nam bắt đầu chọn các cây cổ thụ đặc biệt làm Cây di sản. Những cây rất già hoặc có ý nghĩa lịch sử, cảnh đẹp được công nhận. Hiện nay, cả nước đã có đến 6.000 Cây di sản tuyệt vời như vậy. Trong đó, Giàn Gừa Cần Thơ, hơn 150 tuổi, là Cây di sản đầu tiên tại miền Tây. Giàn Gừa có tán lá xanh rộng lớn, bộ rễ chằng chịt trông rất kỳ ảo. Dù chiến tranh tàn phá, Giàn Gừa vẫn phát triển tươi tốt nhờ được bảo tồn. Giàn Gừa tiếp tục tỏa bóng mát, kể chuyện lịch sử, là niềm tự hào của vùng.</t>
+          <t>Năm 2010, Việt Nam bắt đầu chọn các cây cổ thụ đặc biệt làm Cây di sản. Những cây rất già hoặc có ý nghĩa lịch sử, cảnh đẹp được công nhận. Hiện nay, cả nước đã có đến 6.000 Cây di sản tuyệt vời như vậy.
+Trong đó, Giàn Gừa Cần Thơ, hơn 150 tuổi, là Cây di sản đầu tiên tại miền Tây. Giàn Gừa có tán lá xanh rộng lớn, bộ rễ chằng chịt trông rất kỳ ảo. Dù chiến tranh tàn phá, Giàn Gừa vẫn phát triển tươi tốt nhờ được bảo tồn. Giàn Gừa tiếp tục tỏa bóng mát, kể chuyện lịch sử, là niềm tự hào của vùng.</t>
         </is>
       </c>
       <c r="F283" t="inlineStr"/>
@@ -13918,7 +14756,8 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Ngày xưa, thần Lạc Long Quân rồng đã kết duyên cùng nàng Âu Cơ tiên. Ít lâu sau, nàng Âu Cơ sinh bọc trăm trứng nở trăm người con khôi ngô. Để cai quản đất nước, hai người cha mẹ đã chia con ra đi. Năm mươi con theo cha xuống biển, năm mươi con lên núi cao. Người con cả trở thành Hùng Vương, đặt tên nước là Văn Lang. Vì thế, người Việt Nam ta tự hào là con Rồng cháu Tiên.</t>
+          <t>Chào các em học sinh lớp 5! Hôm nay, chúng ta cùng tìm hiểu câu chuyện cổ tích về nguồn gốc của dân tộc Việt Nam mình nhé.
+Ngày xưa, thần Lạc Long Quân rồng đã kết duyên cùng nàng Âu Cơ tiên. Ít lâu sau, nàng Âu Cơ sinh bọc trăm trứng nở trăm người con khôi ngô. Để cai quản đất nước, hai người cha mẹ đã chia con ra đi. Năm mươi con theo cha xuống biển, năm mươi con lên núi cao. Người con cả trở thành Hùng Vương, đặt tên nước là Văn Lang. Vì thế, người Việt Nam ta tự hào là con Rồng cháu Tiên.</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
@@ -13959,12 +14798,13 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
+          <t>Chào các bạn học sinh lớp 5! Hôm nay, chúng ta cùng tìm hiểu về những ngọn hải đăng nhé.
+Hải đăng là những người bạn tin cậy, giúp tàu thuyền đi đúng đường. Chúng chiếu sáng, chỉ lối, đưa tàu cập bến cảng an toàn. Hải đăng còn mang vẻ đẹp riêng, thu hút rất nhiều du khách. Hải đăng Đại Lãnh đón bình minh; Kê Gà là ngọn cao nhất. Hải đăng Vũng Tàu là công trình cổ xưa, xây từ năm 1862. Mỗi ngọn hải đăng đều có câu chuyện thú vị và ý nghĩa.</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
           <t>Hải đăng là những người bạn tin cậy, giúp tàu thuyền đi đúng đường. Chúng chiếu sáng, chỉ lối, đưa tàu cập bến cảng an toàn. Hải đăng còn mang vẻ đẹp riêng, thu hút rất nhiều du khách. Hải đăng Đại Lãnh đón bình minh; Kê Gà là ngọn cao nhất. Hải đăng Vũng Tàu là công trình cổ xưa, xây từ năm 1862. Mỗi ngọn hải đăng đều có câu chuyện thú vị và ý nghĩa.</t>
-        </is>
-      </c>
-      <c r="E285" t="inlineStr">
-        <is>
-          <t>Hải đăng còn mang vẻ đẹp riêng, thu hút rất nhiều du khách. Hải đăng Đại Lãnh đón bình minh; Kê Gà là ngọn cao nhất. Hải đăng Vũng Tàu là công trình cổ xưa, xây từ năm 1862. Mỗi ngọn hải đăng đều có câu chuyện thú vị và ý nghĩa.</t>
         </is>
       </c>
       <c r="F285" t="inlineStr"/>
@@ -14015,12 +14855,13 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Thành phố ngàn năm tuổi vẫn tươi đẹp, dẫn lối chúng em đến trường mỗi ngày. Nhiều di tích như Hồ Tây, Tháp Bút kể chuyện lịch sử hào hùng của đất nước. Tại phố Hàng Ngang, Bác Hồ đã viết lời tuyên bố độc lập cho dân tộc ta. Thành phố mãi kể chuyện về quá khứ và tương lai tươi sáng, đầy niềm tự hào.</t>
+          <t>Chào các em học sinh lớp 5 đáng yêu! Cô sẽ tóm tắt bài thơ này thật ngắn gọn, dễ hiểu nhé:
+Mùa xuân đến, phố phường rực rỡ như một bức tranh đầy màu sắc tươi vui. Thành phố ngàn năm tuổi vẫn tươi đẹp, dẫn lối chúng em đến trường mỗi ngày. Nhiều di tích như Hồ Tây, Tháp Bút kể chuyện lịch sử hào hùng của đất nước. Tại phố Hàng Ngang, Bác Hồ đã viết lời tuyên bố độc lập cho dân tộc ta. Thành phố mãi kể chuyện về quá khứ và tương lai tươi sáng, đầy niềm tự hào.</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>Nhiều di tích như Hồ Tây, Tháp Bút kể chuyện lịch sử hào hùng của đất nước. Tại phố Hàng Ngang, Bác Hồ đã viết lời tuyên bố độc lập cho dân tộc ta. Thành phố mãi kể chuyện về quá khứ và tương lai tươi sáng, đầy niềm tự hào.</t>
+          <t>Mùa xuân đến, phố phường rực rỡ như một bức tranh đầy màu sắc tươi vui. Thành phố ngàn năm tuổi vẫn tươi đẹp, dẫn lối chúng em đến trường mỗi ngày. Nhiều di tích như Hồ Tây, Tháp Bút kể chuyện lịch sử hào hùng của đất nước. Tại phố Hàng Ngang, Bác Hồ đã viết lời tuyên bố độc lập cho dân tộc ta. Thành phố mãi kể chuyện về quá khứ và tương lai tươi sáng, đầy niềm tự hào.</t>
         </is>
       </c>
       <c r="F286" t="inlineStr"/>
@@ -14055,12 +14896,13 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
+          <t>Chào các em học sinh lớp 5 thân mến! Hôm nay, cô sẽ tóm tắt về một thắng cảnh tuyệt đẹp của nước ta nhé!
+Vịnh Hạ Long là thắng cảnh thiên nhiên vô cùng độc đáo của Việt Nam. Nơi đây quyến rũ bởi màu xanh biếc mát lành của biển và núi. Mỗi mùa, Hạ Long lại khoác lên mình vẻ đẹp riêng biệt hấp dẫn. Mùa hè, gió biển trong lành xua tan nóng bức, mang cảm giác tươi mới. Tiếng sóng vỗ, tiếng chim reo hòa cùng âm thanh cuộc sống. Hạ Long thực sự là viên ngọc quý giá mà thiên nhiên ban tặng.</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
           <t>Vịnh Hạ Long là thắng cảnh thiên nhiên vô cùng độc đáo của Việt Nam. Nơi đây quyến rũ bởi màu xanh biếc mát lành của biển và núi. Mỗi mùa, Hạ Long lại khoác lên mình vẻ đẹp riêng biệt hấp dẫn. Mùa hè, gió biển trong lành xua tan nóng bức, mang cảm giác tươi mới. Tiếng sóng vỗ, tiếng chim reo hòa cùng âm thanh cuộc sống. Hạ Long thực sự là viên ngọc quý giá mà thiên nhiên ban tặng.</t>
-        </is>
-      </c>
-      <c r="E287" t="inlineStr">
-        <is>
-          <t>Mỗi mùa, Hạ Long lại khoác lên mình vẻ đẹp riêng biệt hấp dẫn. Mùa hè, gió biển trong lành xua tan nóng bức, mang cảm giác tươi mới. Tiếng sóng vỗ, tiếng chim reo hòa cùng âm thanh cuộc sống. Hạ Long thực sự là viên ngọc quý giá mà thiên nhiên ban tặng.</t>
         </is>
       </c>
       <c r="F287" t="inlineStr"/>
@@ -14103,12 +14945,13 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Để có sức ôn thi, cậu thường mượn nồi hàng xóm ăn cơm cháy. Với sự chăm chỉ, Tô Tịch đã đỗ Trạng nguyên rất vẻ vang. Khi nhà vua ban thưởng, ông chỉ xin một chiếc nồi nhỏ. Ông dùng chiếc nồi vàng này để tặng lại người hàng xóm. Việc đó thể hiện lòng hiếu học và sự biết ơn sâu sắc của ông.</t>
+          <t>Chào các em học sinh lớp 5! Đây là câu chuyện về Trạng Nồi Tô Tịch nhé:
+Ngày xưa, Trạng Nồi Tô Tịch là chàng trai nghèo nhưng rất ham học. Để có sức ôn thi, cậu thường mượn nồi hàng xóm ăn cơm cháy. Với sự chăm chỉ, Tô Tịch đã đỗ Trạng nguyên rất vẻ vang. Khi nhà vua ban thưởng, ông chỉ xin một chiếc nồi nhỏ. Ông dùng chiếc nồi vàng này để tặng lại người hàng xóm. Việc đó thể hiện lòng hiếu học và sự biết ơn sâu sắc của ông.</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Để có sức ôn thi, cậu thường mượn nồi hàng xóm ăn cơm cháy. Với sự chăm chỉ, Tô Tịch đã đỗ Trạng nguyên rất vẻ vang. Khi nhà vua ban thưởng, ông chỉ xin một chiếc nồi nhỏ. Ông dùng chiếc nồi vàng này để tặng lại người hàng xóm. Việc đó thể hiện lòng hiếu học và sự biết ơn sâu sắc của ông.</t>
+          <t>Ngày xưa, Trạng Nồi Tô Tịch là chàng trai nghèo nhưng rất ham học. Để có sức ôn thi, cậu thường mượn nồi hàng xóm ăn cơm cháy. Với sự chăm chỉ, Tô Tịch đã đỗ Trạng nguyên rất vẻ vang. Khi nhà vua ban thưởng, ông chỉ xin một chiếc nồi nhỏ. Ông dùng chiếc nồi vàng này để tặng lại người hàng xóm. Việc đó thể hiện lòng hiếu học và sự biết ơn sâu sắc của ông.</t>
         </is>
       </c>
       <c r="F288" t="inlineStr"/>
@@ -14157,12 +15000,13 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
+          <t>Chào các em học sinh lớp 5! Các em hãy cùng lắng nghe và cảm nhận vẻ đẹp của đất nước Việt Nam mình nhé!
+Bài thơ cho thấy Việt Nam rất đẹp, đa dạng khắp các miền quê hương. Từ núi cao Hà Giang đến mũi đất Cà Mau, cảnh sắc thật tươi đẹp. Sông Cửu Long bao la, núi Trường Sơn ghi dấu lịch sử hào hùng. Con người Việt Nam luôn tràn đầy niềm tự hào và tình yêu quê hương. Đất nước ta có lịch sử bốn ngàn năm xây dựng và phát triển. Chúng ta hãy yêu mến và bảo vệ Tổ quốc Việt Nam thân thương này.</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
           <t>Bài thơ cho thấy Việt Nam rất đẹp, đa dạng khắp các miền quê hương. Từ núi cao Hà Giang đến mũi đất Cà Mau, cảnh sắc thật tươi đẹp. Sông Cửu Long bao la, núi Trường Sơn ghi dấu lịch sử hào hùng. Con người Việt Nam luôn tràn đầy niềm tự hào và tình yêu quê hương. Đất nước ta có lịch sử bốn ngàn năm xây dựng và phát triển. Chúng ta hãy yêu mến và bảo vệ Tổ quốc Việt Nam thân thương này.</t>
-        </is>
-      </c>
-      <c r="E289" t="inlineStr">
-        <is>
-          <t>Việt Nam rất đẹp, đa dạng khắp các miền quê hương. Từ núi cao Hà Giang đến mũi đất Cà Mau, cảnh sắc thật tươi đẹp. Sông Cửu Long bao la, núi Trường Sơn ghi dấu lịch sử hào hùng. Con người Việt Nam luôn tràn đầy niềm tự hào và tình yêu quê hương. Đất nước ta có lịch sử bốn ngàn năm xây dựng và phát triển. Chúng ta hãy yêu mến và bảo vệ Tổ quốc Việt Nam thân thương này.</t>
         </is>
       </c>
       <c r="F289" t="inlineStr"/>
@@ -14197,12 +15041,13 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
+          <t>Chào các em học sinh lớp 5 thân mến! Hôm nay, cô sẽ tóm tắt về những bức tranh làng Hồ rất đặc biệt nhé!
+Từ bé, tác giả đã rất yêu thích những bức tranh dân gian làng Hồ. Chúng thường vẽ lợn, gà, chuột, mang vẻ đẹp bình dị, tươi vui. Tác giả cảm ơn các nghệ nhân đã sáng tạo nên những tác phẩm này. Tranh làng Hồ thể hiện tình yêu sâu đậm với cuộc sống đồng quê Việt Nam. Màu sắc tranh rất đặc biệt, được làm từ vật liệu tự nhiên xung quanh. Màu trắng điệp lấp lánh giúp tranh thêm vẻ đẹp sâu sắc, sống động.</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
           <t>Từ bé, tác giả đã rất yêu thích những bức tranh dân gian làng Hồ. Chúng thường vẽ lợn, gà, chuột, mang vẻ đẹp bình dị, tươi vui. Tác giả cảm ơn các nghệ nhân đã sáng tạo nên những tác phẩm này. Tranh làng Hồ thể hiện tình yêu sâu đậm với cuộc sống đồng quê Việt Nam. Màu sắc tranh rất đặc biệt, được làm từ vật liệu tự nhiên xung quanh. Màu trắng điệp lấp lánh giúp tranh thêm vẻ đẹp sâu sắc, sống động.</t>
-        </is>
-      </c>
-      <c r="E290" t="inlineStr">
-        <is>
-          <t>Chúng thường vẽ lợn, gà, chuột, mang vẻ đẹp bình dị, tươi vui. Tranh làng Hồ thể hiện tình yêu sâu đậm với cuộc sống đồng quê Việt Nam. Màu sắc tranh rất đặc biệt, được làm từ vật liệu tự nhiên xung quanh. Màu trắng điệp lấp lánh giúp tranh thêm vẻ đẹp sâu sắc, sống động.</t>
         </is>
       </c>
       <c r="F290" t="inlineStr"/>
@@ -14246,12 +15091,13 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Thuyền trưởng Sáng Suốt dũng cảm đã kịp thời cứu thoát họ khỏi nguy hiểm. Sau đó, phù thuỷ biến mất, hai nàng tiên cá bày tỏ lòng biết ơn. Họ quyết định nắm tay đoàn kết, cùng nhau bảo vệ đại dương xanh. Thuyền trưởng Sáng Suốt rất vui khi chứng kiến tình bạn đẹp đó.</t>
+          <t>Các con thân mến, đây là câu chuyện về tình bạn và sự đoàn kết dưới đáy biển sâu:
+Ngày trước, Tiên Cá Đen và Trắng thường xuyên tranh đấu quyền làm chủ. Bất ngờ, Phù thuỷ U Mê tấn công, khiến cả hai tiên cá gặp hiểm nguy. Thuyền trưởng Sáng Suốt dũng cảm đã kịp thời cứu thoát họ khỏi nguy hiểm. Sau đó, phù thuỷ biến mất, hai nàng tiên cá bày tỏ lòng biết ơn. Họ quyết định nắm tay đoàn kết, cùng nhau bảo vệ đại dương xanh. Thuyền trưởng Sáng Suốt rất vui khi chứng kiến tình bạn đẹp đó.</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Thuyền trưởng Sáng Suốt dũng cảm đã kịp thời cứu thoát họ khỏi nguy hiểm. Sau đó, phù thuỷ biến mất, hai nàng tiên cá bày tỏ lòng biết ơn. Họ quyết định nắm tay đoàn kết, cùng nhau bảo vệ đại dương xanh. Thuyền trưởng Sáng Suốt rất vui khi chứng kiến tình bạn đẹp đó.</t>
+          <t>Ngày trước, Tiên Cá Đen và Trắng thường xuyên tranh đấu quyền làm chủ. Bất ngờ, Phù thuỷ U Mê tấn công, khiến cả hai tiên cá gặp hiểm nguy. Thuyền trưởng Sáng Suốt dũng cảm đã kịp thời cứu thoát họ khỏi nguy hiểm. Sau đó, phù thuỷ biến mất, hai nàng tiên cá bày tỏ lòng biết ơn. Họ quyết định nắm tay đoàn kết, cùng nhau bảo vệ đại dương xanh. Thuyền trưởng Sáng Suốt rất vui khi chứng kiến tình bạn đẹp đó.</t>
         </is>
       </c>
       <c r="F291" t="inlineStr"/>
@@ -14286,7 +15132,8 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Năm 1999, UNESCO đã trao giải "Thành phố Vì hòa bình" cho Hà Nội. Đây là sự ghi nhận đặc biệt về những đóng góp lớn cho hòa bình. Trải qua hơn một nghìn năm, Thủ đô luôn phát triển rất mạnh mẽ. Hà Nội là trung tâm quan trọng về văn hóa, giáo dục và kinh tế. Nhờ những nỗ lực, Hà Nội gia nhập Mạng lưới Thành phố Sáng tạo. Từ năm 2019, thủ đô đã phát triển dựa trên lĩnh vực thiết kế.</t>
+          <t>Chào các em học sinh lớp 5! Các em hãy cùng tìm hiểu về thành phố Hà Nội thân yêu của chúng ta nhé!
+Năm 1999, UNESCO đã trao giải "Thành phố Vì hòa bình" cho Hà Nội. Đây là sự ghi nhận đặc biệt về những đóng góp lớn cho hòa bình. Trải qua hơn một nghìn năm, Thủ đô luôn phát triển rất mạnh mẽ. Hà Nội là trung tâm quan trọng về văn hóa, giáo dục và kinh tế. Nhờ những nỗ lực, Hà Nội gia nhập Mạng lưới Thành phố Sáng tạo. Từ năm 2019, thủ đô đã phát triển dựa trên lĩnh vực thiết kế.</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
@@ -14340,12 +15187,13 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Các bạn nhỏ khắp năm châu dù khác màu da, đều quý giá như những đóa hoa. Chúng ta là những nụ hoa tươi tắn, làm cho thế giới thêm muôn màu. Bom đạn và chiến tranh chính là mối hiểm họa lớn của hành tinh này. Hãy cùng nhau giữ gìn hòa bình, mang tiếng cười cho Trái Đất thân yêu. Bởi vì, hành tinh tươi đẹp này mãi mãi là của tất cả chúng ta.</t>
+          <t>Chào các em học sinh lớp 5 thân mến! Đây là bản tóm tắt bài thơ này nhé:
+Trái Đất của chúng ta là một hành tinh xanh tuyệt đẹp, tràn đầy sức sống. Các bạn nhỏ khắp năm châu dù khác màu da, đều quý giá như những đóa hoa. Chúng ta là những nụ hoa tươi tắn, làm cho thế giới thêm muôn màu. Bom đạn và chiến tranh chính là mối hiểm họa lớn của hành tinh này. Hãy cùng nhau giữ gìn hòa bình, mang tiếng cười cho Trái Đất thân yêu. Bởi vì, hành tinh tươi đẹp này mãi mãi là của tất cả chúng ta.</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Bom đạn và chiến tranh chính là mối hiểm họa lớn của hành tinh này. Hãy cùng nhau giữ gìn hòa bình, mang tiếng cười cho Trái Đất thân yêu. Bởi vì, hành tinh tươi đẹp này mãi mãi là của tất cả chúng ta.</t>
+          <t>Trái Đất của chúng ta là một hành tinh xanh tuyệt đẹp, tràn đầy sức sống. Các bạn nhỏ khắp năm châu dù khác màu da, đều quý giá như những đóa hoa. Chúng ta là những nụ hoa tươi tắn, làm cho thế giới thêm muôn màu. Bom đạn và chiến tranh chính là mối hiểm họa lớn của hành tinh này. Hãy cùng nhau giữ gìn hòa bình, mang tiếng cười cho Trái Đất thân yêu. Bởi vì, hành tinh tươi đẹp này mãi mãi là của tất cả chúng ta.</t>
         </is>
       </c>
       <c r="F293" t="inlineStr"/>
@@ -14379,12 +15227,13 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
+          <t>Chào các bạn học sinh lớp 5 đáng yêu! Hôm nay, cô sẽ kể cho các con nghe về một vùng đất tên là Khe Sanh nhé.
+Khe Sanh giờ đây thật đẹp với hồ nước trong xanh và đồi thông. Những chàng trai Vân Kiều vui vẻ chăm sóc rừng chuối rộng. Đất đai đã từng có nhiều vết cháy và bom mìn nguy hiểm. Mọi người luôn ấp ủ ước mơ về một cuộc sống tốt đẹp hơn. Giờ đây, ước mơ hòa bình đang dần trở thành sự thật tươi đẹp.</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
           <t>Khe Sanh giờ đây thật đẹp với hồ nước trong xanh và đồi thông. Những chàng trai Vân Kiều vui vẻ chăm sóc rừng chuối rộng. Đất đai đã từng có nhiều vết cháy và bom mìn nguy hiểm. Mọi người luôn ấp ủ ước mơ về một cuộc sống tốt đẹp hơn. Giờ đây, ước mơ hòa bình đang dần trở thành sự thật tươi đẹp.</t>
-        </is>
-      </c>
-      <c r="E294" t="inlineStr">
-        <is>
-          <t>Đất đai đã từng có nhiều vết cháy và bom mìn nguy hiểm. Mọi người luôn ấp ủ ước mơ về một cuộc sống tốt đẹp hơn. Giờ đây, ước mơ hòa bình đang dần trở thành sự thật tươi đẹp.</t>
         </is>
       </c>
       <c r="F294" t="inlineStr"/>
@@ -14424,12 +15273,14 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Những quả bom này khiến hàng trăm nghìn người dân vô tội thiệt mạng. Cô bé Xa-đa-kô bị nhiễm xạ từ bom khi mới hai tuổi. Khi ốm nặng, em tin gấp một ngàn hạc giấy sẽ khỏi bệnh. Dù không qua khỏi, câu chuyện em đã trở thành biểu tượng hòa bình. Tượng đài Xa-đa-kô giờ nhắc nhở chúng ta cùng cầu nguyện cho hòa bình.</t>
+          <t>Chào các em học sinh lớp 5,
+Hôm nay, cô sẽ kể cho các em nghe về một câu chuyện quan trọng từ quá khứ nhé.
+Khoảng năm 1945, nước Mỹ đã thả hai quả bom nguyên tử rất mạnh xuống Nhật Bản. Những quả bom này khiến hàng trăm nghìn người dân vô tội thiệt mạng. Cô bé Xa-đa-kô bị nhiễm xạ từ bom khi mới hai tuổi. Khi ốm nặng, em tin gấp một ngàn hạc giấy sẽ khỏi bệnh. Dù không qua khỏi, câu chuyện em đã trở thành biểu tượng hòa bình. Tượng đài Xa-đa-kô giờ nhắc nhở chúng ta cùng cầu nguyện cho hòa bình.</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Những quả bom này khiến hàng trăm nghìn người dân vô tội thiệt mạng. Cô bé Xa-đa-kô bị nhiễm xạ từ bom khi mới hai tuổi. Khi ốm nặng, em tin gấp một ngàn hạc giấy sẽ khỏi bệnh. Dù không qua khỏi, câu chuyện em đã trở thành biểu tượng hòa bình. Tượng đài Xa-đa-kô giờ nhắc nhở chúng ta cùng cầu nguyện cho hòa bình.</t>
+          <t>Khoảng năm 1945, nước Mỹ đã thả hai quả bom nguyên tử rất mạnh xuống Nhật Bản. Những quả bom này khiến hàng trăm nghìn người dân vô tội thiệt mạng. Cô bé Xa-đa-kô bị nhiễm xạ từ bom khi mới hai tuổi. Khi ốm nặng, em tin gấp một ngàn hạc giấy sẽ khỏi bệnh. Dù không qua khỏi, câu chuyện em đã trở thành biểu tượng hòa bình. Tượng đài Xa-đa-kô giờ nhắc nhở chúng ta cùng cầu nguyện cho hòa bình.</t>
         </is>
       </c>
       <c r="F295" t="inlineStr"/>
@@ -14465,12 +15316,23 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Lễ hội đèn lồng Ha-oai bắt đầu năm 1999 với những ý nghĩa rất đặc biệt. Ánh sáng từ đèn tượng trưng cho trí tuệ, còn dòng nước biển là tình yêu thương. Người ta thả đèn để cầu nguyện cho hòa bình thế giới và mọi người khỏe mạnh. Những chiếc đèn lớn tưởng nhớ các nạn nhân chiến tranh, thiên tai và động vật quý hiếm. Hàng ngàn chiếc đèn lung linh trôi trên biển, tạo nên khung cảnh thật đẹp. Lễ hội này giúp mọi người gắn kết, cùng sẻ chia tình yêu thương ấm áp.</t>
+          <t>Chào các em học sinh lớp 5 thân mến! Cô sẽ giúp các em tóm tắt về lễ hội đèn lồng nổi ở Ha-oai nhé.
+Lễ hội đèn lồng Ha-oai bắt đầu năm 1999 với những ý nghĩa rất đặc biệt.
+Ánh sáng từ đèn tượng trưng cho trí tuệ, còn dòng nước biển là tình yêu thương.
+Người ta thả đèn để cầu nguyện cho hòa bình thế giới và mọi người khỏe mạnh.
+Những chiếc đèn lớn tưởng nhớ các nạn nhân chiến tranh, thiên tai và động vật quý hiếm.
+Hàng ngàn chiếc đèn lung linh trôi trên biển, tạo nên khung cảnh thật đẹp.
+Lễ hội này giúp mọi người gắn kết, cùng sẻ chia tình yêu thương ấm áp.</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Lễ hội đèn lồng Ha-oai bắt đầu năm 1999 với những ý nghĩa rất đặc biệt. Ánh sáng từ đèn tượng trưng cho trí tuệ, còn dòng nước biển là tình yêu thương. Người ta thả đèn để cầu nguyện cho hòa bình thế giới và mọi người khỏe mạnh. Những chiếc đèn lớn tưởng nhớ các nạn nhân chiến tranh, thiên tai và động vật quý hiếm. Hàng ngàn chiếc đèn lung linh trôi trên biển, tạo nên khung cảnh thật đẹp. Lễ hội này giúp mọi người gắn kết, cùng sẻ chia tình yêu thương ấm áp.</t>
+          <t>Lễ hội đèn lồng Ha-oai bắt đầu năm 1999 với những ý nghĩa rất đặc biệt.
+Ánh sáng từ đèn tượng trưng cho trí tuệ, còn dòng nước biển là tình yêu thương.
+Người ta thả đèn để cầu nguyện cho hòa bình thế giới và mọi người khỏe mạnh.
+Những chiếc đèn lớn tưởng nhớ các nạn nhân chiến tranh, thiên tai và động vật quý hiếm.
+Hàng ngàn chiếc đèn lung linh trôi trên biển, tạo nên khung cảnh thật đẹp.
+Lễ hội này giúp mọi người gắn kết, cùng sẻ chia tình yêu thương ấm áp.</t>
         </is>
       </c>
       <c r="F296" t="inlineStr"/>
@@ -14522,13 +15384,15 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
+          <t>Chào các em học sinh lớp 5 đáng yêu! Hôm nay chúng ta cùng nhau tóm tắt lại bài thơ thật hay về ngày lễ trọng đại của đất nước mình nhé!
+**Tóm tắt:**
+Vào sáng mồng Hai tháng Chín, quảng trường Ba Đình rực nắng vàng. Hàng triệu người dân Thủ đô hồi hộp, lặng im chờ đợi Người. Bác Hồ xuất hiện trên đài, Người vẫy tay chào đàn con thân yêu. Bác đọc bản Tuyên ngôn Độc lập, mang tự do về cho dân tộc Việt Nam. Rồi Người ân cần hỏi, "Đồng bào có nghe rõ tiếng Bác không?". Triệu trái tim cùng reo vang "Có!", báo hiệu một đất nước mới ra đời.</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
           <t>**Tóm tắt:**
 Vào sáng mồng Hai tháng Chín, quảng trường Ba Đình rực nắng vàng. Hàng triệu người dân Thủ đô hồi hộp, lặng im chờ đợi Người. Bác Hồ xuất hiện trên đài, Người vẫy tay chào đàn con thân yêu. Bác đọc bản Tuyên ngôn Độc lập, mang tự do về cho dân tộc Việt Nam. Rồi Người ân cần hỏi, "Đồng bào có nghe rõ tiếng Bác không?". Triệu trái tim cùng reo vang "Có!", báo hiệu một đất nước mới ra đời.</t>
-        </is>
-      </c>
-      <c r="E297" t="inlineStr">
-        <is>
-          <t>Vào sáng mồng Hai tháng Chín, quảng trường Ba Đình rực nắng vàng. Hàng triệu người dân Thủ đô hồi hộp, lặng im chờ đợi Người. Bác Hồ xuất hiện trên đài, Người vẫy tay chào đàn con thân yêu. Bác đọc bản Tuyên ngôn Độc lập, mang tự do về cho dân tộc Việt Nam. Rồi Người ân cần hỏi, "Đồng bào có nghe rõ tiếng Bác không?". Triệu trái tim cùng reo vang "Có!", báo hiệu một đất nước mới ra đời.</t>
         </is>
       </c>
       <c r="F297" t="inlineStr"/>
@@ -14562,7 +15426,8 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Nam Phi từng tồn tại chế độ a-pác-thai, chia rẽ người dân theo màu da. Người da trắng giữ mọi quyền lợi; người da đen phải sống khổ cực, không tự do. Người da đen đã dũng cảm đấu tranh đòi lại công bằng, được cả thế giới ủng hộ. Cuối cùng, vào năm 1991, các luật phân biệt chủng tộc đã bị hủy bỏ. Năm 1994, ông Nelson Mandela, người kiên cường đấu tranh, được bầu làm Tổng thống. Từ đó, chế độ a-pác-thai xấu xa đã hoàn toàn chấm dứt tại Nam Phi.</t>
+          <t>Chào các em học sinh lớp 5! Hôm nay, chúng ta cùng tìm hiểu về một câu chuyện quan trọng ở đất nước Nam Phi nhé.
+Nam Phi từng tồn tại chế độ a-pác-thai, chia rẽ người dân theo màu da. Người da trắng giữ mọi quyền lợi; người da đen phải sống khổ cực, không tự do. Người da đen đã dũng cảm đấu tranh đòi lại công bằng, được cả thế giới ủng hộ. Cuối cùng, vào năm 1991, các luật phân biệt chủng tộc đã bị hủy bỏ. Năm 1994, ông Nelson Mandela, người kiên cường đấu tranh, được bầu làm Tổng thống. Từ đó, chế độ a-pác-thai xấu xa đã hoàn toàn chấm dứt tại Nam Phi.</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
@@ -14610,7 +15475,8 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Tốt-tô-chan mạnh dạn nói với thầy hiệu trưởng về một ước mơ quan trọng. Em mong ước sau này sẽ trở thành cô giáo tại chính ngôi trường này. Thầy hiệu trưởng đã nghiêm túc hỏi, và Tốt-tô-chan hứa sẽ thực hiện điều đó. Tốt-tô-chan nhớ buổi đầu thầy lắng nghe em rất lâu khi mới vào trường. Giờ đây, Tốt-tô-chan yêu mến thầy hơn, quyết tâm trở thành cô giáo.</t>
+          <t>Chào các em học sinh lớp 5 đáng yêu! Hôm nay, chúng ta cùng tìm hiểu câu chuyện cảm động của bạn Tốt-tô-chan nhé!
+Tốt-tô-chan mạnh dạn nói với thầy hiệu trưởng về một ước mơ quan trọng. Em mong ước sau này sẽ trở thành cô giáo tại chính ngôi trường này. Thầy hiệu trưởng đã nghiêm túc hỏi, và Tốt-tô-chan hứa sẽ thực hiện điều đó. Tốt-tô-chan nhớ buổi đầu thầy lắng nghe em rất lâu khi mới vào trường. Giờ đây, Tốt-tô-chan yêu mến thầy hơn, quyết tâm trở thành cô giáo.</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
@@ -14651,7 +15517,8 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Vào một buổi chiều thu, có chú chim chiền chiện bay vút lên tận trời cao xanh. Từ trên đó, tiếng hót của nó trong trẻo vang vọng khắp cánh đồng. Giọng ca ấy thật hài hòa, mang vẻ hồn nhiên và rất đỗi bình yên. Tiếng chim đã gieo niềm vui và sự thanh thản vào lòng người. Một cậu bé chăn trâu cũng say mê lắng nghe giai điệu tuyệt vời ấy. Bài ca của chim chiền chiện như sợi dây nối liền trời và đất.</t>
+          <t>Chào các em học sinh lớp 5 đáng yêu! Hôm nay, cô sẽ tóm tắt một đoạn văn nói về một chú chim rất đặc biệt nhé.
+Vào một buổi chiều thu, có chú chim chiền chiện bay vút lên tận trời cao xanh. Từ trên đó, tiếng hót của nó trong trẻo vang vọng khắp cánh đồng. Giọng ca ấy thật hài hòa, mang vẻ hồn nhiên và rất đỗi bình yên. Tiếng chim đã gieo niềm vui và sự thanh thản vào lòng người. Một cậu bé chăn trâu cũng say mê lắng nghe giai điệu tuyệt vời ấy. Bài ca của chim chiền chiện như sợi dây nối liền trời và đất.</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
@@ -14707,7 +15574,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Cô tóm tắt thế này nhé:
+          <t>Chào các em học sinh lớp 5 đáng yêu! Nghe bài thơ này, cô thấy trong lòng thật bâng khuâng, giống như chúng mình sắp chia tay lớp vậy. Cô tóm tắt thế này nhé:
 Mưa mùa hạ dịu dàng rơi, ve ngân nga báo hiệu một mùa hè đến. Góc sân trường thân thương lưu giữ bao kỉ niệm đẹp cùng bạn bè mình. Chúng mình cùng chuyền tay lưu bút, mong được học chung lớp Sáu mãi thôi. Hoa phượng đỏ thắm khoe sắc, giục giã các bạn nhỏ bước vào hành trình mới. Ngày mai, bao điều mới lạ đang chờ, thầy cô luôn đặt trọn niềm tin vào các em.</t>
         </is>
       </c>
@@ -14755,7 +15622,8 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Giờ chúng ta cùng tóm tắt lại nhé! Sáng sớm tinh mơ, tôi thấy sương mù và chim sẻ hót líu lo. Chúng dường như chào đón điều gì đó thật đặc biệt sắp xảy ra. Từ phía đông, mặt trời đỏ rực từ từ nhô lên khỏi vòm cây. Nó trông giống một chiếc mâm đồng lớn, rực rỡ chiếu sáng cả không gian. Chim sẻ hót vang hơn, cùng tôi reo vui trước vẻ đẹp bình minh. Cảnh tượng tuyệt diệu đó làm trái tim tôi tràn ngập niềm vui.</t>
+          <t>Chào các em học sinh lớp 5! Thầy/Cô có một câu chuyện thật hay về buổi sáng đấy. Giờ chúng ta cùng tóm tắt lại nhé!
+Sáng sớm tinh mơ, tôi thấy sương mù và chim sẻ hót líu lo. Chúng dường như chào đón điều gì đó thật đặc biệt sắp xảy ra. Từ phía đông, mặt trời đỏ rực từ từ nhô lên khỏi vòm cây. Nó trông giống một chiếc mâm đồng lớn, rực rỡ chiếu sáng cả không gian. Chim sẻ hót vang hơn, cùng tôi reo vui trước vẻ đẹp bình minh. Cảnh tượng tuyệt diệu đó làm trái tim tôi tràn ngập niềm vui.</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
@@ -14796,12 +15664,13 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Phi thuyền nhanh chóng bay vút vào không gian, Trái Đất xanh biếc thật lấp lánh. Từ trên cao, Trái Đất đẹp tựa tuyệt tác với cây xanh và biển biếc. Vô số ngôi sao khổng lồ đua nhau tỏa sáng, Mặt Trời bừng cháy rực rỡ. Bỗng một ngôi sao chổi vụt qua, tạo nên vệt pháo hoa thật đẹp mắt. Tớ bừng tỉnh giấc, nhận ra đây chỉ là hành trình trong mơ mà thôi.</t>
+          <t>Chào các em học sinh lớp 5 đáng yêu! Đây là chuyến phiêu lưu vũ trụ của bạn nhỏ trong câu chuyện nhé:
+Một phi thuyền bí ẩn đáp xuống, tớ dũng cảm bước lên khám phá vũ trụ. Phi thuyền nhanh chóng bay vút vào không gian, Trái Đất xanh biếc thật lấp lánh. Từ trên cao, Trái Đất đẹp tựa tuyệt tác với cây xanh và biển biếc. Vô số ngôi sao khổng lồ đua nhau tỏa sáng, Mặt Trời bừng cháy rực rỡ. Bỗng một ngôi sao chổi vụt qua, tạo nên vệt pháo hoa thật đẹp mắt. Tớ bừng tỉnh giấc, nhận ra đây chỉ là hành trình trong mơ mà thôi.</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Phi thuyền nhanh chóng bay vút vào không gian, Trái Đất xanh biếc thật lấp lánh. Từ trên cao, Trái Đất đẹp tựa tuyệt tác với cây xanh và biển biếc. Vô số ngôi sao khổng lồ đua nhau tỏa sáng, Mặt Trời bừng cháy rực rỡ. Bỗng một ngôi sao chổi vụt qua, tạo nên vệt pháo hoa thật đẹp mắt. Tớ bừng tỉnh giấc, nhận ra đây chỉ là hành trình trong mơ mà thôi.</t>
+          <t>Một phi thuyền bí ẩn đáp xuống, tớ dũng cảm bước lên khám phá vũ trụ. Phi thuyền nhanh chóng bay vút vào không gian, Trái Đất xanh biếc thật lấp lánh. Từ trên cao, Trái Đất đẹp tựa tuyệt tác với cây xanh và biển biếc. Vô số ngôi sao khổng lồ đua nhau tỏa sáng, Mặt Trời bừng cháy rực rỡ. Bỗng một ngôi sao chổi vụt qua, tạo nên vệt pháo hoa thật đẹp mắt. Tớ bừng tỉnh giấc, nhận ra đây chỉ là hành trình trong mơ mà thôi.</t>
         </is>
       </c>
       <c r="F303" t="inlineStr"/>
@@ -14836,7 +15705,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Cô sẽ tóm tắt đoạn văn này để các em cùng cảm nhận nhé:
+          <t>Chào các em học sinh lớp 5 đáng yêu! Mùa hè đã đến rồi, các em có thấy không khí xung quanh mình thật sôi động không? Cô sẽ tóm tắt đoạn văn này để các em cùng cảm nhận nhé:
 Bình minh tươi đẹp, chim hót líu lo, nắng vàng rắc khắp núi đồi. Những chú sẻ nhỏ với chiếc khăn đỏ bé xíu nhảy nhót trên tán lá. Tiếng ve bắt đầu ngân nga, cả dàn đồng ca hè cùng hòa tấu. Dàn hợp xướng ve ngân vang, kéo dài như khúc ca mùa hè. Bầu trời trong xanh vời vợi, năm học đã khép lại rồi. Tiếng nói cười vui vẻ của trẻ nhỏ rộn rã khắp không gian hạ.</t>
         </is>
       </c>
@@ -14877,7 +15746,8 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Năm 1962, thầy Nguyễn Văn Bôn vinh dự được Bác Hồ phong Anh hùng Lao động. Thầy Bôn xung phong lên dạy ở Mù Cả, nơi chưa ai biết tiếng phổ thông. Thầy tự tay dựng lớp học, tận tình dạy các em viết trên tàu lá chuối. Thầy còn sáng tạo tổ chức, dạy chữ cho bà con trên lưng trâu. Nhờ những nỗ lực ấy, Mù Cả nhanh chóng xoá xong nạn mù chữ. Nhiều học trò của thầy sau này đã thành đạt, góp phần xây dựng đất nước.</t>
+          <t>Chào các em học sinh lớp 5! Hôm nay, chúng ta cùng tìm hiểu về một người thầy rất đặc biệt nhé.
+Năm 1962, thầy Nguyễn Văn Bôn vinh dự được Bác Hồ phong Anh hùng Lao động. Thầy Bôn xung phong lên dạy ở Mù Cả, nơi chưa ai biết tiếng phổ thông. Thầy tự tay dựng lớp học, tận tình dạy các em viết trên tàu lá chuối. Thầy còn sáng tạo tổ chức, dạy chữ cho bà con trên lưng trâu. Nhờ những nỗ lực ấy, Mù Cả nhanh chóng xoá xong nạn mù chữ. Nhiều học trò của thầy sau này đã thành đạt, góp phần xây dựng đất nước.</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
@@ -14931,7 +15801,8 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>***
+          <t>Chào các em học sinh lớp 5 thân mến! Hôm nay, cô sẽ tóm tắt bài thơ xinh đẹp này cho các em nhé.
+***
 Khi bé Hoa ra đời, chim cò trắng đã đến thăm chiếc nôi mềm mại. Mẹ ru con ngủ êm đềm, mọi thứ xung quanh đều thật đẹp. Mẹ đan áo ấm, trái cây chín mọng mang niềm vui đến nhà. Búp bê và ông trăng cùng đến, ngắm nhìn bé Hoa ngủ bình yên. Mây và cây cối cũng muốn hát những bài ca ngọt ngào. Cả thế giới dường như đang vỗ về, yêu thương bé Hoa nhỏ bé.</t>
         </is>
       </c>
@@ -14985,7 +15856,8 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Ban đầu, các bạn trai nghi ngờ khả năng của Vân làm lớp trưởng. Họ nghĩ Vân gầy, ít nói và học chưa thật xuất sắc. Nhưng Vân nhanh chóng chứng tỏ mình rất giỏi giang, đạt điểm mười. Cô ấy chủ động dọn lớp sạch đẹp khi bạn trực nhật ngủ quên. Vân còn rất chu đáo khi mang kem mát lạnh đến cho cả lớp. Từ đó, mọi người đều yêu quý và rất nể phục cô lớp trưởng.</t>
+          <t>Chào các em học sinh lớp 5! Câu chuyện này kể về bạn Vân, một lớp trưởng rất đặc biệt.
+Ban đầu, các bạn trai nghi ngờ khả năng của Vân làm lớp trưởng. Họ nghĩ Vân gầy, ít nói và học chưa thật xuất sắc. Nhưng Vân nhanh chóng chứng tỏ mình rất giỏi giang, đạt điểm mười. Cô ấy chủ động dọn lớp sạch đẹp khi bạn trực nhật ngủ quên. Vân còn rất chu đáo khi mang kem mát lạnh đến cho cả lớp. Từ đó, mọi người đều yêu quý và rất nể phục cô lớp trưởng.</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
@@ -15041,12 +15913,14 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Bạn trai, bạn gái đều tài giỏi, không ai đặc biệt hơn ai đâu nhé. Lớp chúng mình thật vui, đoàn kết khi mọi người cùng học tập, làm việc. Hãy tự tin rằng khi chung sức, chúng ta luôn mạnh mẽ giúp mọi người. Mỗi bạn là một ngôi sao nhỏ, làm cho ngôi trường của chúng ta tươi đẹp.</t>
+          <t>Chào các em học sinh lớp 5 đáng yêu của cô!
+Bài thơ này muốn gửi gắm một thông điệp rất hay và ý nghĩa đó là:
+Mỗi bạn nhỏ đều rất quan trọng, thế giới cần có tất cả chúng ta. Bạn trai, bạn gái đều tài giỏi, không ai đặc biệt hơn ai đâu nhé. Lớp chúng mình thật vui, đoàn kết khi mọi người cùng học tập, làm việc. Hãy tự tin rằng khi chung sức, chúng ta luôn mạnh mẽ giúp mọi người. Mỗi bạn là một ngôi sao nhỏ, làm cho ngôi trường của chúng ta tươi đẹp.</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Hãy tự tin rằng khi chung sức, chúng ta luôn mạnh mẽ giúp mọi người. Mỗi bạn là một ngôi sao nhỏ, làm cho ngôi trường của chúng ta tươi đẹp.</t>
+          <t>Mỗi bạn nhỏ đều rất quan trọng, thế giới cần có tất cả chúng ta. Bạn trai, bạn gái đều tài giỏi, không ai đặc biệt hơn ai đâu nhé. Lớp chúng mình thật vui, đoàn kết khi mọi người cùng học tập, làm việc. Hãy tự tin rằng khi chung sức, chúng ta luôn mạnh mẽ giúp mọi người. Mỗi bạn là một ngôi sao nhỏ, làm cho ngôi trường của chúng ta tươi đẹp.</t>
         </is>
       </c>
       <c r="F308" t="inlineStr"/>
@@ -15093,7 +15967,8 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Hạt muồng hoàng yến cần thời gian dài để nảy mầm, rồi từ từ lớn thành cây. Ông nội bảo cây chậm nảy mầm thường sẽ khoẻ hơn, sống rất lâu. Đến lớp, hạt gấc của bạn Loan vẫn chưa nảy mầm, chỉ nằm yên đó. Bạn lấy hạt gấc đã được nấu chín từ chõ xôi nên không mọc. Cô giáo dạy hạt là sinh vật sống, cần điều kiện thích hợp để nảy mầm. Sau đó, tất cả học sinh cùng cô giáo mang cây ra vườn trồng.</t>
+          <t>Chào các em học sinh lớp 5 đáng yêu! Hôm nay, chúng ta cùng tìm hiểu về bí mật của những hạt mầm nhé.
+Hạt muồng hoàng yến cần thời gian dài để nảy mầm, rồi từ từ lớn thành cây. Ông nội bảo cây chậm nảy mầm thường sẽ khoẻ hơn, sống rất lâu. Đến lớp, hạt gấc của bạn Loan vẫn chưa nảy mầm, chỉ nằm yên đó. Bạn lấy hạt gấc đã được nấu chín từ chõ xôi nên không mọc. Cô giáo dạy hạt là sinh vật sống, cần điều kiện thích hợp để nảy mầm. Sau đó, tất cả học sinh cùng cô giáo mang cây ra vườn trồng.</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
@@ -15147,12 +16022,13 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Thầy gợi ý các em hãy cùng nhau quan sát bầu trời mùa thu. Một bạn nhỏ miêu tả bầu trời xanh như mặt nước ao mệt mỏi. Va-li-a suy nghĩ rồi nhẹ nhàng nói bầu trời rất dịu dàng. Những bạn khác nhìn thấy bầu trời buồn bã hay đang trầm ngâm. Ai cũng có cách riêng để cảm nhận vẻ đẹp biến đổi của thiên nhiên.</t>
+          <t>Chào các em, hôm nay chúng ta sẽ cùng tóm tắt một câu chuyện thật thú vị về bầu trời nhé!
+Thầy giáo đưa các em học sinh ra đồng vào buổi sáng tháng chín. Thầy gợi ý các em hãy cùng nhau quan sát bầu trời mùa thu. Một bạn nhỏ miêu tả bầu trời xanh như mặt nước ao mệt mỏi. Va-li-a suy nghĩ rồi nhẹ nhàng nói bầu trời rất dịu dàng. Những bạn khác nhìn thấy bầu trời buồn bã hay đang trầm ngâm. Ai cũng có cách riêng để cảm nhận vẻ đẹp biến đổi của thiên nhiên.</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Một bạn nhỏ miêu tả bầu trời xanh như mặt nước ao mệt mỏi. Va-li-a suy nghĩ rồi nhẹ nhàng nói bầu trời rất dịu dàng. Những bạn khác nhìn thấy bầu trời buồn bã hay đang trầm ngâm. Ai cũng có cách riêng để cảm nhận vẻ đẹp biến đổi của thiên nhiên.</t>
+          <t>Thầy giáo đưa các em học sinh ra đồng vào buổi sáng tháng chín. Thầy gợi ý các em hãy cùng nhau quan sát bầu trời mùa thu. Một bạn nhỏ miêu tả bầu trời xanh như mặt nước ao mệt mỏi. Va-li-a suy nghĩ rồi nhẹ nhàng nói bầu trời rất dịu dàng. Những bạn khác nhìn thấy bầu trời buồn bã hay đang trầm ngâm. Ai cũng có cách riêng để cảm nhận vẻ đẹp biến đổi của thiên nhiên.</t>
         </is>
       </c>
       <c r="F310" t="inlineStr"/>
@@ -15196,7 +16072,8 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Cô tóm tắt cho các em dễ hiểu nhé:
+          <t>Chào các em học sinh lớp 5 đáng yêu!
+Câu chuyện Mai An Tiêm rất hay và ý nghĩa. Cô tóm tắt cho các em dễ hiểu nhé:
 Mai An Tiêm là người tài giỏi, luôn tin rằng chăm chỉ tạo nên thành công. Vua Hùng giận dữ đày vợ chồng chàng ra sống trên một đảo hoang. Dù cuộc sống khó khăn, An Tiêm luôn vững tin, lạc quan không ngừng. Một ngày, chim mang hạt đến, mọc thành dưa hấu ruột đỏ tươi. Họ trao đổi dưa với tàu bè, cuộc sống dần trở nên ấm no. Vua Hùng biết chuyện, đón họ về và dưa hấu được trồng khắp nơi.</t>
         </is>
       </c>
@@ -15236,7 +16113,8 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Bạch Thái Bưởi từ nhỏ đã mồ côi cha, phải tự lập từ rất sớm. Ông làm nhiều nghề, dù thất bại vẫn luôn cố gắng hết mình. Ông quyết tâm mở công ty tàu thủy, dù gặp phải nhiều khó khăn. Bạch Thái Bưởi kêu gọi người Việt Nam ủng hộ tàu của người Việt. Nhờ thế, công ty ông lớn mạnh, có nhiều tàu mang tên lịch sử. Ông trở thành "anh hùng kinh tế", tấm gương về ý chí vươn lên.</t>
+          <t>Chào các em học sinh lớp 5 đáng yêu! Hôm nay, cô sẽ kể cho các em nghe về một người tài giỏi của đất nước ta nhé.
+Bạch Thái Bưởi từ nhỏ đã mồ côi cha, phải tự lập từ rất sớm. Ông làm nhiều nghề, dù thất bại vẫn luôn cố gắng hết mình. Ông quyết tâm mở công ty tàu thủy, dù gặp phải nhiều khó khăn. Bạch Thái Bưởi kêu gọi người Việt Nam ủng hộ tàu của người Việt. Nhờ thế, công ty ông lớn mạnh, có nhiều tàu mang tên lịch sử. Ông trở thành "anh hùng kinh tế", tấm gương về ý chí vươn lên.</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
@@ -15282,12 +16160,13 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Dù gặp khó khăn về phát âm, Pát-ty vẫn rất kiên trì tập luyện. Cô giáo ân cần giúp đỡ Pát-ty từng chút, từng ngày một. Đêm văn nghệ đến, Pát-ty mạnh dạn bước lên sân khấu. Cô bé đọc bài thơ vô cùng rõ ràng, làm mọi người ngạc nhiên. Cô giáo xúc động ôm Pát-ty, khen em rất dũng cảm và cố gắng.</t>
+          <t>Chào các em học sinh lớp 5 thân mến, cô sẽ tóm tắt câu chuyện về bạn Pát-ty nhé!
+Pát-ty tha thiết xin cô giáo một vai đọc thơ cho buổi biểu diễn. Dù gặp khó khăn về phát âm, Pát-ty vẫn rất kiên trì tập luyện. Cô giáo ân cần giúp đỡ Pát-ty từng chút, từng ngày một. Đêm văn nghệ đến, Pát-ty mạnh dạn bước lên sân khấu. Cô bé đọc bài thơ vô cùng rõ ràng, làm mọi người ngạc nhiên. Cô giáo xúc động ôm Pát-ty, khen em rất dũng cảm và cố gắng.</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Dù gặp khó khăn về phát âm, Pát-ty vẫn rất kiên trì tập luyện. Cô giáo ân cần giúp đỡ Pát-ty từng chút, từng ngày một. Đêm văn nghệ đến, Pát-ty mạnh dạn bước lên sân khấu. Cô bé đọc bài thơ vô cùng rõ ràng, làm mọi người ngạc nhiên. Cô giáo xúc động ôm Pát-ty, khen em rất dũng cảm và cố gắng.</t>
+          <t>Pát-ty tha thiết xin cô giáo một vai đọc thơ cho buổi biểu diễn. Dù gặp khó khăn về phát âm, Pát-ty vẫn rất kiên trì tập luyện. Cô giáo ân cần giúp đỡ Pát-ty từng chút, từng ngày một. Đêm văn nghệ đến, Pát-ty mạnh dạn bước lên sân khấu. Cô bé đọc bài thơ vô cùng rõ ràng, làm mọi người ngạc nhiên. Cô giáo xúc động ôm Pát-ty, khen em rất dũng cảm và cố gắng.</t>
         </is>
       </c>
       <c r="F313" t="inlineStr"/>
@@ -15337,7 +16216,8 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Năm 1954, nhiều cán bộ mong muốn về Hà Nội nhận nhiệm vụ mới. Bác Hồ đến thăm hội nghị, mang theo chiếc đồng hồ quýt nhỏ. Bác hỏi về các bộ phận của đồng hồ và công dụng chúng. Bác giảng giải mọi bộ phận đều rất quan trọng như nhau. Mỗi nhiệm vụ cách mạng đều cần thiết, không thể thiếu bất kì ai. Câu chuyện giúp mọi người thấu hiểu, không còn băn khoăn riêng tư.</t>
+          <t>Chào các em học sinh lớp 5 thân mến! Hôm nay chúng ta cùng tìm hiểu một câu chuyện thú vị về Bác Hồ nhé.
+Năm 1954, nhiều cán bộ mong muốn về Hà Nội nhận nhiệm vụ mới. Bác Hồ đến thăm hội nghị, mang theo chiếc đồng hồ quýt nhỏ. Bác hỏi về các bộ phận của đồng hồ và công dụng chúng. Bác giảng giải mọi bộ phận đều rất quan trọng như nhau. Mỗi nhiệm vụ cách mạng đều cần thiết, không thể thiếu bất kì ai. Câu chuyện giúp mọi người thấu hiểu, không còn băn khoăn riêng tư.</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
@@ -15419,7 +16299,8 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Cô/chú ấy làm việc rất chăm chỉ vào đêm khuya, khi mọi người đang ngủ say. Dù là đêm hè hay đêm đông giá rét, cô/chú vẫn miệt mài giữ sạch đường. Tiếng chổi tre xao xác quen thuộc đã giúp phố phường ta sạch đẹp. Nhờ có công sức đó, mỗi sáng chúng ta được thấy những gánh hoa thơm ngát rực rỡ. Chúng ta hãy biết ơn những người đã thầm lặng gìn giữ môi trường sạch đẹp nhé!</t>
+          <t>Chào các em học sinh lớp 5 đáng yêu!
+Bài thơ này kể về một cô/chú lao công quét dọn đường phố. Cô/chú ấy làm việc rất chăm chỉ vào đêm khuya, khi mọi người đang ngủ say. Dù là đêm hè hay đêm đông giá rét, cô/chú vẫn miệt mài giữ sạch đường. Tiếng chổi tre xao xác quen thuộc đã giúp phố phường ta sạch đẹp. Nhờ có công sức đó, mỗi sáng chúng ta được thấy những gánh hoa thơm ngát rực rỡ. Chúng ta hãy biết ơn những người đã thầm lặng gìn giữ môi trường sạch đẹp nhé!</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
@@ -15471,7 +16352,8 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Ngày xưa, một hoàng tử Ba Tư muốn cưới cô gái chăn cừu thay vì công chúa quyền quý. Cô gái đồng ý nhưng hoàng tử cần học một nghề để kiếm sống tự lập. Hoàng tử đã học dệt thảm rơm rất nhanh, sau đó cưới được nàng. Một lần, hoàng tử bị bọn cướp bắt giữ, chúng đòi tiền chuộc lớn. Hoàng tử dệt tấm thảm có mật thư cầu cứu, gửi về cho vợ thông minh. Công chúa giải mã thành công, cứu chồng thoát hiểm an toàn. Câu chuyện cho thấy có nghề trong tay thật quan trọng, phải không nào!</t>
+          <t>Chào các em học sinh lớp 5 đáng yêu! Hôm nay, cô sẽ kể cho các em nghe một câu chuyện thú vị nhé.
+Ngày xưa, một hoàng tử Ba Tư muốn cưới cô gái chăn cừu thay vì công chúa quyền quý. Cô gái đồng ý nhưng hoàng tử cần học một nghề để kiếm sống tự lập. Hoàng tử đã học dệt thảm rơm rất nhanh, sau đó cưới được nàng. Một lần, hoàng tử bị bọn cướp bắt giữ, chúng đòi tiền chuộc lớn. Hoàng tử dệt tấm thảm có mật thư cầu cứu, gửi về cho vợ thông minh. Công chúa giải mã thành công, cứu chồng thoát hiểm an toàn. Câu chuyện cho thấy có nghề trong tay thật quan trọng, phải không nào!</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
@@ -15515,7 +16397,8 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Cuối năm 1284, quân Nguyên Mông hùng mạnh lại đến xâm lược Đại Việt chúng ta. Thượng hoàng Trần Thánh Tông mời các bô lão về kinh thành hỏi kế chống giặc. Các cụ phụ lão khắp nơi về, được hai vua đón tiếp rất trân trọng. Tại điện Diên Hồng, Thượng hoàng hỏi ý: nên đánh hay hòa với giặc? Tất cả các cụ đều đồng thanh hô lớn: "Xin đánh!" rất kiên quyết. Sự đồng lòng này giúp vua tôi nhà Trần thêm quyết tâm đánh giặc.</t>
+          <t>Chào các em học sinh lớp 5! Hôm nay, chúng ta cùng tìm hiểu một câu chuyện thú vị về lòng yêu nước của cha ông ta nhé.
+Cuối năm 1284, quân Nguyên Mông hùng mạnh lại đến xâm lược Đại Việt chúng ta. Thượng hoàng Trần Thánh Tông mời các bô lão về kinh thành hỏi kế chống giặc. Các cụ phụ lão khắp nơi về, được hai vua đón tiếp rất trân trọng. Tại điện Diên Hồng, Thượng hoàng hỏi ý: nên đánh hay hòa với giặc? Tất cả các cụ đều đồng thanh hô lớn: "Xin đánh!" rất kiên quyết. Sự đồng lòng này giúp vua tôi nhà Trần thêm quyết tâm đánh giặc.</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
@@ -15559,12 +16442,14 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
+          <t>Chào các em học sinh lớp 5 thân mến!
+Đoạn văn này là lời của Bác Hồ gửi đến các đồng bào dân tộc thiểu số.
+Bác Hồ rất vui khi thấy các đồng bào dân tộc cùng nhau khai hội. Dù là dân tộc nào, chúng ta cũng đều là anh em ruột thịt. Chúng ta cần yêu thương, tôn trọng và luôn giúp đỡ lẫn nhau. Sự đoàn kết giúp chúng ta gìn giữ đất nước và ủng hộ Chính phủ. Lòng đoàn kết mãi mãi không đổi để có tự do, hạnh phúc chung.</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
           <t>Bác Hồ rất vui khi thấy các đồng bào dân tộc cùng nhau khai hội. Dù là dân tộc nào, chúng ta cũng đều là anh em ruột thịt. Chúng ta cần yêu thương, tôn trọng và luôn giúp đỡ lẫn nhau. Sự đoàn kết giúp chúng ta gìn giữ đất nước và ủng hộ Chính phủ. Lòng đoàn kết mãi mãi không đổi để có tự do, hạnh phúc chung.</t>
-        </is>
-      </c>
-      <c r="E318" t="inlineStr">
-        <is>
-          <t>Dù là dân tộc nào, chúng ta cũng đều là anh em ruột thịt. Chúng ta cần yêu thương, tôn trọng và luôn giúp đỡ lẫn nhau. Sự đoàn kết giúp chúng ta gìn giữ đất nước và ủng hộ Chính phủ. Lòng đoàn kết mãi mãi không đổi để có tự do, hạnh phúc chung.</t>
         </is>
       </c>
       <c r="F318" t="inlineStr"/>
@@ -15600,12 +16485,13 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Cây phượng mang theo biết bao ký ức tuổi thơ tươi đẹp cùng những trò chơi. Đường xóm cần mở rộng, nhưng nhà cụ Tạo đối diện lại khó di dời. Cụ Tạo nghe chuyện, quyết định hiến nhà để giữ lại cây phượng thân yêu. Nhờ tấm lòng nhân ái của cụ, cây phượng vẫn còn, con đường thêm rộng rãi. Sau này, lũ trẻ mang hoa phượng thăm cụ với lòng biết ơn sâu sắc.</t>
+          <t>Chào các con, hôm nay chúng ta cùng đọc một câu chuyện ý nghĩa về tình yêu quê hương nhé!
+Lũ trẻ xóm Đông buồn bã khi biết cây phượng cổ thụ sắp bị chặt. Cây phượng mang theo biết bao ký ức tuổi thơ tươi đẹp cùng những trò chơi. Đường xóm cần mở rộng, nhưng nhà cụ Tạo đối diện lại khó di dời. Cụ Tạo nghe chuyện, quyết định hiến nhà để giữ lại cây phượng thân yêu. Nhờ tấm lòng nhân ái của cụ, cây phượng vẫn còn, con đường thêm rộng rãi. Sau này, lũ trẻ mang hoa phượng thăm cụ với lòng biết ơn sâu sắc.</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Cây phượng mang theo biết bao ký ức tuổi thơ tươi đẹp cùng những trò chơi. Đường xóm cần mở rộng, nhưng nhà cụ Tạo đối diện lại khó di dời. Cụ Tạo nghe chuyện, quyết định hiến nhà để giữ lại cây phượng thân yêu. Nhờ tấm lòng nhân ái của cụ, cây phượng vẫn còn, con đường thêm rộng rãi. Sau này, lũ trẻ mang hoa phượng thăm cụ với lòng biết ơn sâu sắc.</t>
+          <t>Lũ trẻ xóm Đông buồn bã khi biết cây phượng cổ thụ sắp bị chặt. Cây phượng mang theo biết bao ký ức tuổi thơ tươi đẹp cùng những trò chơi. Đường xóm cần mở rộng, nhưng nhà cụ Tạo đối diện lại khó di dời. Cụ Tạo nghe chuyện, quyết định hiến nhà để giữ lại cây phượng thân yêu. Nhờ tấm lòng nhân ái của cụ, cây phượng vẫn còn, con đường thêm rộng rãi. Sau này, lũ trẻ mang hoa phượng thăm cụ với lòng biết ơn sâu sắc.</t>
         </is>
       </c>
       <c r="F319" t="inlineStr"/>
@@ -15660,7 +16546,8 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Ngày xưa, chàng Mồ Côi rất nhanh nhẹn, được giao xử kiện công bằng cho mọi người. Một hôm, chủ quán kiện bác nông dân hít mùi thơm thức ăn mà không trả tiền. Mồ Côi yêu cầu bác nông dân bồi thường, nhưng ông chỉ có hai đồng bạc. Mồ Côi bỏ hai đồng ấy vào bát, rồi bảo bác nông dân xóc lên mười lần. Chủ quán phải lắng nghe kỹ tiếng tiền lạch cạch ấy, Mồ Côi đã nói. Ông kết luận: nghe tiếng tiền như trả tiền, vụ kiện giải quyết công bằng.</t>
+          <t>Chào các em học sinh lớp 5! Hôm nay, cô sẽ kể cho các em nghe một câu chuyện về sự công bằng nhé.
+Ngày xưa, chàng Mồ Côi rất nhanh nhẹn, được giao xử kiện công bằng cho mọi người. Một hôm, chủ quán kiện bác nông dân hít mùi thơm thức ăn mà không trả tiền. Mồ Côi yêu cầu bác nông dân bồi thường, nhưng ông chỉ có hai đồng bạc. Mồ Côi bỏ hai đồng ấy vào bát, rồi bảo bác nông dân xóc lên mười lần. Chủ quán phải lắng nghe kỹ tiếng tiền lạch cạch ấy, Mồ Côi đã nói. Ông kết luận: nghe tiếng tiền như trả tiền, vụ kiện giải quyết công bằng.</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
@@ -15703,14 +16590,16 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>***
+          <t>Chào các em học sinh lớp 5 đáng yêu! Hôm nay, chúng ta cùng tóm tắt câu chuyện thú vị về người chăn dê và hàng xóm nhé.
+***
 **Tóm tắt:**
 Một người chăn dê buồn rầu vì đàn chó dữ của hàng xóm liên tục cắn dê. Anh ta đã nhắc nhở nhiều lần nhưng người hàng xóm vẫn không chịu quản lý. Thế là, người chăn dê quyết định đi kiện vị quan tòa thông thái. Quan tòa khuyên anh nên biến hàng xóm thành bạn bè chứ không phải kẻ thù. Người chăn dê liền tặng ba con dê con cho ba cậu bé nhà hàng xóm. Vì yêu quý dê con, người hàng xóm đã nhốt chó, hai nhà thành bạn thân.</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Một người chăn dê buồn rầu vì đàn chó dữ của hàng xóm liên tục cắn dê. Anh ta đã nhắc nhở nhiều lần nhưng người hàng xóm vẫn không chịu quản lý. Thế là, người chăn dê quyết định đi kiện vị quan tòa thông thái. Quan tòa khuyên anh nên biến hàng xóm thành bạn bè chứ không phải kẻ thù. Người chăn dê liền tặng ba con dê con cho ba cậu bé nhà hàng xóm. Vì yêu quý dê con, người hàng xóm đã nhốt chó, hai nhà thành bạn thân.</t>
+          <t>**Tóm tắt:**
+Một người chăn dê buồn rầu vì đàn chó dữ của hàng xóm liên tục cắn dê. Anh ta đã nhắc nhở nhiều lần nhưng người hàng xóm vẫn không chịu quản lý. Thế là, người chăn dê quyết định đi kiện vị quan tòa thông thái. Quan tòa khuyên anh nên biến hàng xóm thành bạn bè chứ không phải kẻ thù. Người chăn dê liền tặng ba con dê con cho ba cậu bé nhà hàng xóm. Vì yêu quý dê con, người hàng xóm đã nhốt chó, hai nhà thành bạn thân.</t>
         </is>
       </c>
       <c r="F321" t="inlineStr"/>
@@ -15756,12 +16645,23 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Cả lớp cũng nhanh chóng đồng ý rằng I-li-cô trông thật tuyệt vời. Sau đó, thầy khéo léo khuyên San-đrô nên chủ động xin lỗi bạn mình. Thầy cũng nhẹ nhàng bảo I-li-cô hãy vui vẻ bỏ qua lỗi của San-đrô. Cuối cùng, hai bạn đã hiểu nhau hơn và trở thành những người bạn tốt.</t>
+          <t>Các em học sinh thân mến, câu chuyện này dạy chúng ta cách giải quyết mâu thuẫn nhé:
+I-li-cô buồn bã khóc vì bạn San-đrô trêu mái tóc mới của mình.
+Thầy giáo liền khen ngợi kiểu tóc I-li-cô rất đẹp và rất nam tính.
+Cả lớp cũng nhanh chóng đồng ý rằng I-li-cô trông thật tuyệt vời.
+Sau đó, thầy khéo léo khuyên San-đrô nên chủ động xin lỗi bạn mình.
+Thầy cũng nhẹ nhàng bảo I-li-cô hãy vui vẻ bỏ qua lỗi của San-đrô.
+Cuối cùng, hai bạn đã hiểu nhau hơn và trở thành những người bạn tốt.</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Cả lớp cũng nhanh chóng đồng ý rằng I-li-cô trông thật tuyệt vời. Sau đó, thầy khéo léo khuyên San-đrô nên chủ động xin lỗi bạn mình. Thầy cũng nhẹ nhàng bảo I-li-cô hãy vui vẻ bỏ qua lỗi của San-đrô. Cuối cùng, hai bạn đã hiểu nhau hơn và trở thành những người bạn tốt.</t>
+          <t>I-li-cô buồn bã khóc vì bạn San-đrô trêu mái tóc mới của mình.
+Thầy giáo liền khen ngợi kiểu tóc I-li-cô rất đẹp và rất nam tính.
+Cả lớp cũng nhanh chóng đồng ý rằng I-li-cô trông thật tuyệt vời.
+Sau đó, thầy khéo léo khuyên San-đrô nên chủ động xin lỗi bạn mình.
+Thầy cũng nhẹ nhàng bảo I-li-cô hãy vui vẻ bỏ qua lỗi của San-đrô.
+Cuối cùng, hai bạn đã hiểu nhau hơn và trở thành những người bạn tốt.</t>
         </is>
       </c>
       <c r="F322" t="inlineStr"/>
@@ -15804,7 +16704,8 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Bạn Tiến Hưng lớp 5B đã viết bảng "Cấm lớp 5A sang xem cây" vì nghĩ lớp 5A cấm lớp mình trước. Thảo Vy, liên đội trưởng gương mẫu, đã khuyên Tiến Hưng không nên làm thế. Cô bé giải thích rằng hoa đẹp là để mọi người cùng ngắm và chăm sóc. Sau đó, Thảo Vy còn đề xuất hai lớp cùng sắp xếp lại các chậu hoa. Nhờ ý kiến hay đó, tất cả cùng vui vẻ tạo nên một vườn hoa đẹp chung của trường.</t>
+          <t>Chào các em học sinh lớp 5 đáng yêu!
+Câu chuyện của chúng ta kể về một tấm bảng nhỏ gây hiểu lầm giữa hai lớp 5A và 5B. Bạn Tiến Hưng lớp 5B đã viết bảng "Cấm lớp 5A sang xem cây" vì nghĩ lớp 5A cấm lớp mình trước. Thảo Vy, liên đội trưởng gương mẫu, đã khuyên Tiến Hưng không nên làm thế. Cô bé giải thích rằng hoa đẹp là để mọi người cùng ngắm và chăm sóc. Sau đó, Thảo Vy còn đề xuất hai lớp cùng sắp xếp lại các chậu hoa. Nhờ ý kiến hay đó, tất cả cùng vui vẻ tạo nên một vườn hoa đẹp chung của trường.</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
@@ -15847,12 +16748,14 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Cháu đã ở đó hơn một ngày, chịu đựng cả những trận mưa. Các chú lính cứu hỏa lập tức đến nơi để giải cứu cháu. Họ quyết định đục tường rất cẩn thận, không làm bé bị thương. Sau ba mươi hai phút nghẹt thở, cháu bé được đưa ra ngoài an toàn. Cháu rất đói và khát, sau đó được chăm sóc ngay. Các chiến sĩ đã mang lại niềm vui lớn, nụ cười ấm áp cho mọi người.</t>
+          <t>Chào các em học sinh lớp 5 thân mến,
+Hôm nay chúng ta sẽ cùng tóm tắt một câu chuyện cảm động về sự dũng cảm nhé!
+Một bé trai bị mắc kẹt trong khe tường hẹp giữa hai nhà. Cháu đã ở đó hơn một ngày, chịu đựng cả những trận mưa. Các chú lính cứu hỏa lập tức đến nơi để giải cứu cháu. Họ quyết định đục tường rất cẩn thận, không làm bé bị thương. Sau ba mươi hai phút nghẹt thở, cháu bé được đưa ra ngoài an toàn. Cháu rất đói và khát, sau đó được chăm sóc ngay. Các chiến sĩ đã mang lại niềm vui lớn, nụ cười ấm áp cho mọi người.</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Cháu đã ở đó hơn một ngày, chịu đựng cả những trận mưa. Các chú lính cứu hỏa lập tức đến nơi để giải cứu cháu. Họ quyết định đục tường rất cẩn thận, không làm bé bị thương. Sau ba mươi hai phút nghẹt thở, cháu bé được đưa ra ngoài an toàn. Cháu rất đói và khát, sau đó được chăm sóc ngay. Các chiến sĩ đã mang lại niềm vui lớn, nụ cười ấm áp cho mọi người.</t>
+          <t>Một bé trai bị mắc kẹt trong khe tường hẹp giữa hai nhà. Cháu đã ở đó hơn một ngày, chịu đựng cả những trận mưa. Các chú lính cứu hỏa lập tức đến nơi để giải cứu cháu. Họ quyết định đục tường rất cẩn thận, không làm bé bị thương. Sau ba mươi hai phút nghẹt thở, cháu bé được đưa ra ngoài an toàn. Cháu rất đói và khát, sau đó được chăm sóc ngay. Các chiến sĩ đã mang lại niềm vui lớn, nụ cười ấm áp cho mọi người.</t>
         </is>
       </c>
       <c r="F324" t="inlineStr"/>
@@ -15903,7 +16806,8 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>**Tóm tắt:**
+          <t>Chào các em học sinh lớp 5! Hôm nay, chúng ta cùng tìm hiểu về bài thơ rất hay này nhé.
+**Tóm tắt:**
 Các chú tuần tra suốt đêm dài, khi mọi nhà đều ngủ say. Các chú bảo vệ bình yên, nhắc nhở mọi người giữ gìn an ninh. Chú còn giúp hòa giải những mâu thuẫn, tranh cãi trong xóm làng. Họ thăm hỏi ân cần các hộ khó khăn, tận tình khuyên bảo thanh niên. Mọi người rất biết ơn các chú đã giữ gìn bình yên cho tất cả.</t>
         </is>
       </c>
@@ -15961,12 +16865,14 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
+          <t>Chào các em học sinh lớp 5 thân mến!
+Bài thơ này kể về một vùng đất rất đẹp tên là Cao Bằng.
+Cao Bằng là vùng đất cao hùng vĩ với phong cảnh tuyệt đẹp. Nơi đây có mận ngọt và những con người rất đỗi hiền hòa. Họ sống yêu thương, ông bà nhân hậu như hạt gạo, suối trong. Núi non Cao Bằng bao la tượng trưng cho lòng yêu nước sâu sắc. Họ thầm lặng bảo vệ biên cương, giữ gìn một phần đất nước ta.</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
           <t>Cao Bằng là vùng đất cao hùng vĩ với phong cảnh tuyệt đẹp. Nơi đây có mận ngọt và những con người rất đỗi hiền hòa. Họ sống yêu thương, ông bà nhân hậu như hạt gạo, suối trong. Núi non Cao Bằng bao la tượng trưng cho lòng yêu nước sâu sắc. Họ thầm lặng bảo vệ biên cương, giữ gìn một phần đất nước ta.</t>
-        </is>
-      </c>
-      <c r="E326" t="inlineStr">
-        <is>
-          <t>Nơi đây có mận ngọt và những con người rất đỗi hiền hòa. Họ sống yêu thương, ông bà nhân hậu như hạt gạo, suối trong. Núi non Cao Bằng bao la tượng trưng cho lòng yêu nước sâu sắc. Họ thầm lặng bảo vệ biên cương, giữ gìn một phần đất nước ta.</t>
         </is>
       </c>
       <c r="F326" t="inlineStr"/>
@@ -16001,7 +16907,8 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Mùa đông đến, làng quê ta ngập tràn sắc vàng ấm áp và trù phú. Bầu trời vàng nhạt, cánh đồng lúa chín vàng xuộm rực rỡ dưới nắng. Những chùm xoan vàng lịm, lá mít vàng ối tô điểm khắp khu vườn. Rơm rạ, buồng chuối, cả gà chó cũng khoác lên mình màu vàng tươi. Sắc vàng này mang đến cảm giác trù phú, đầm ấm lạ kỳ cho làng. Bà con hăng say làm việc, tận hưởng không khí mùa gặt bội thu.</t>
+          <t>Chào các em học sinh lớp 5! Hôm nay, chúng ta cùng nhau khám phá một đoạn văn kể về vẻ đẹp của làng quê khi mùa đông về nhé!
+Mùa đông đến, làng quê ta ngập tràn sắc vàng ấm áp và trù phú. Bầu trời vàng nhạt, cánh đồng lúa chín vàng xuộm rực rỡ dưới nắng. Những chùm xoan vàng lịm, lá mít vàng ối tô điểm khắp khu vườn. Rơm rạ, buồng chuối, cả gà chó cũng khoác lên mình màu vàng tươi. Sắc vàng này mang đến cảm giác trù phú, đầm ấm lạ kỳ cho làng. Bà con hăng say làm việc, tận hưởng không khí mùa gặt bội thu.</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
@@ -16069,12 +16976,13 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
+          <t>Chào các em học sinh lớp 5 thân mến! Bài thơ này rất đáng yêu, đã vẽ nên một bức tranh về những sắc màu tuyệt đẹp quanh chúng ta.
+Bài thơ diễn tả tình yêu của bạn nhỏ với rất nhiều màu sắc. Mỗi màu sắc đều gắn liền những điều thân thuộc, đẹp đẽ trong cuộc sống. Màu đỏ gợi nhắc lá cờ thiêng liêng hay chiếc khăn quàng thân thương. Màu vàng của lúa chín, màu xanh đồng ruộng mang đến sự bình yên. Từ màu trắng trang giấy đến màu nâu đất đai, bạn nhỏ đều rất trân trọng. Tất cả những gam màu tươi đẹp ấy tạo nên vẻ quyến rũ của đất nước Việt Nam.</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
           <t>Bài thơ diễn tả tình yêu của bạn nhỏ với rất nhiều màu sắc. Mỗi màu sắc đều gắn liền những điều thân thuộc, đẹp đẽ trong cuộc sống. Màu đỏ gợi nhắc lá cờ thiêng liêng hay chiếc khăn quàng thân thương. Màu vàng của lúa chín, màu xanh đồng ruộng mang đến sự bình yên. Từ màu trắng trang giấy đến màu nâu đất đai, bạn nhỏ đều rất trân trọng. Tất cả những gam màu tươi đẹp ấy tạo nên vẻ quyến rũ của đất nước Việt Nam.</t>
-        </is>
-      </c>
-      <c r="E328" t="inlineStr">
-        <is>
-          <t>Màu đỏ gợi nhắc lá cờ thiêng liêng hay chiếc khăn quàng thân thương. Màu vàng của lúa chín, màu xanh đồng ruộng mang đến sự bình yên. Từ màu trắng trang giấy đến màu nâu đất đai, bạn nhỏ đều rất trân trọng. Tất cả những gam màu tươi đẹp ấy tạo nên vẻ quyến rũ của đất nước Việt Nam.</t>
         </is>
       </c>
       <c r="F328" t="inlineStr"/>
@@ -16109,7 +17017,8 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Sài Gòn nổi tiếng với nắng và sự nhộn nhịp, nhưng cũng có mưa. Mưa Sài Gòn thường đến thật bất ngờ, nhanh như nhịp sống nơi đây. Cơn mưa trút nước rất mạnh, nhưng chỉ khoảng nửa giờ đã tạnh rồi. Khi mưa tạnh, bầu trời trong xanh trở lại, đường phố cũng khô nhanh chóng. Cơn mưa giúp mọi người cảm thấy nhẹ nhõm, làm trôi đi bao muộn phiền.</t>
+          <t>Chào các em học sinh lớp 5! Hôm nay, cô sẽ kể cho các em nghe về những cơn mưa đặc biệt ở Sài Gòn nhé.
+Sài Gòn nổi tiếng với nắng và sự nhộn nhịp, nhưng cũng có mưa. Mưa Sài Gòn thường đến thật bất ngờ, nhanh như nhịp sống nơi đây. Cơn mưa trút nước rất mạnh, nhưng chỉ khoảng nửa giờ đã tạnh rồi. Khi mưa tạnh, bầu trời trong xanh trở lại, đường phố cũng khô nhanh chóng. Cơn mưa giúp mọi người cảm thấy nhẹ nhõm, làm trôi đi bao muộn phiền.</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
@@ -16159,7 +17068,8 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Anh Lê đã tìm cho bạn Thành một công việc mới rất tốt. Tuy nhiên, bạn Thành lại không muốn nhận công việc này. Thành có ước mơ lớn hơn là chỉ lo cho bản thân mình. Bạn Thành mong muốn mọi người Việt Nam đều có cuộc sống tốt đẹp. Bạn Thành so sánh như những ngọn đèn ngày càng sáng hơn. Bạn ấy muốn tìm con đường thật tươi sáng cho đất nước mình.</t>
+          <t>Chào các em học sinh lớp 5! Hôm nay, chúng ta cùng tìm hiểu câu chuyện về bạn Thành nhé.
+Anh Lê đã tìm cho bạn Thành một công việc mới rất tốt. Tuy nhiên, bạn Thành lại không muốn nhận công việc này. Thành có ước mơ lớn hơn là chỉ lo cho bản thân mình. Bạn Thành mong muốn mọi người Việt Nam đều có cuộc sống tốt đẹp. Bạn Thành so sánh như những ngọn đèn ngày càng sáng hơn. Bạn ấy muốn tìm con đường thật tươi sáng cho đất nước mình.</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
@@ -16210,12 +17120,13 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Bạn Thành mong muốn sang nước ngoài học hỏi để cứu giúp dân mình. Con đường đi xa xôi, tốn kém nhưng Thành được bạn Mai giúp đỡ. Thành xin được chân phụ bếp trên tàu, dù chuyến đi nhiều hiểm nguy. Thành không hề sợ hãi, quyết tâm đi tìm tương lai tốt đẹp hơn.</t>
+          <t>Chào các em học sinh lớp 5!
+Trong câu chuyện này, bạn Lê lo lắng đất nước mình còn yếu kém, khó chống giặc. Bạn Thành mong muốn sang nước ngoài học hỏi để cứu giúp dân mình. Con đường đi xa xôi, tốn kém nhưng Thành được bạn Mai giúp đỡ. Thành xin được chân phụ bếp trên tàu, dù chuyến đi nhiều hiểm nguy. Thành không hề sợ hãi, quyết tâm đi tìm tương lai tốt đẹp hơn.</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Bạn Thành mong muốn sang nước ngoài học hỏi để cứu giúp dân mình. Con đường đi xa xôi, tốn kém nhưng Thành được bạn Mai giúp đỡ. Thành xin được chân phụ bếp trên tàu, dù chuyến đi nhiều hiểm nguy. Thành không hề sợ hãi, quyết tâm đi tìm tương lai tốt đẹp hơn.</t>
+          <t>Trong câu chuyện này, bạn Lê lo lắng đất nước mình còn yếu kém, khó chống giặc. Bạn Thành mong muốn sang nước ngoài học hỏi để cứu giúp dân mình. Con đường đi xa xôi, tốn kém nhưng Thành được bạn Mai giúp đỡ. Thành xin được chân phụ bếp trên tàu, dù chuyến đi nhiều hiểm nguy. Thành không hề sợ hãi, quyết tâm đi tìm tương lai tốt đẹp hơn.</t>
         </is>
       </c>
       <c r="F331" t="inlineStr"/>
@@ -16258,7 +17169,8 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Trần Thủ Độ là người rất công bằng, luôn đặt luật pháp lên hàng đầu. Ông không cho phép vợ dùng quyền lực xin đặc ân, dù là việc nhỏ. Thậm chí, ông thưởng lính dám ngăn vợ mình vi phạm quy định. Khi có người tố cáo ông chuyên quyền, ông vẫn thừa nhận và khen thưởng. Trần Thủ Độ đã làm gương sáng về sự liêm chính, vì nước quên thân.</t>
+          <t>Chào các em học sinh lớp 5! Hôm nay, chúng ta sẽ tìm hiểu về một vị quan rất tài giỏi và công bằng thời nhà Trần tên là Trần Thủ Độ nhé!
+Trần Thủ Độ là người rất công bằng, luôn đặt luật pháp lên hàng đầu. Ông không cho phép vợ dùng quyền lực xin đặc ân, dù là việc nhỏ. Thậm chí, ông thưởng lính dám ngăn vợ mình vi phạm quy định. Khi có người tố cáo ông chuyên quyền, ông vẫn thừa nhận và khen thưởng. Trần Thủ Độ đã làm gương sáng về sự liêm chính, vì nước quên thân.</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
@@ -16314,13 +17226,13 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Chào các em học sinh lớp 5 thân mến! Cô có một bản tóm tắt ngắn gọn về bài thơ thú vị này nhé:
-Kết thúc năm học, chúng em chia tay bàn ghế, bảng đen cùng thầy cô yêu mến. Mùa hè về, chúng ta háo hức trở về quê nhà, tận hưởng những ngày nghỉ ngơi. Các bạn nhỏ có thể giúp gia đình gặt lúa, tưới nước cho luống rau xanh tươi. Dù phải xa bạn bè thân thương ít lâu, lòng chúng mình vẫn luôn nhớ mong. Hẹn gặp lại thật vui vẻ dưới tiếng trống khai trường chào đón năm học mới.</t>
+          <t>Tuyệt vời các em học sinh lớp 5! Đây là bản tóm tắt bài thơ của chúng ta nhé:
+Hoa phượng đỏ báo hiệu hè về, chúng em chia tay mái trường thân yêu. Kỳ nghỉ hè vui vẻ bắt đầu, chúng em sẽ về thăm quê hương. Chúng em cùng gia đình gặt lúa vàng ươm, góp sức nhỏ bé cho vụ mùa. Rồi chúng em tưới nước mát lành, giúp vườn rau của mẹ thêm xanh tốt. Dù xa bạn bè mấy tháng hè, chúng em vẫn luôn nhớ về nhau. Hẹn gặp lại trong tiếng trống khai trường, để cùng nhau học tập và vui chơi.</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Kết thúc năm học, chúng em chia tay bàn ghế, bảng đen cùng thầy cô yêu mến. Mùa hè về, chúng ta háo hức trở về quê nhà, tận hưởng những ngày nghỉ ngơi. Các bạn nhỏ có thể giúp gia đình gặt lúa, tưới nước cho luống rau xanh tươi. Dù phải xa bạn bè thân thương ít lâu, lòng chúng mình vẫn luôn nhớ mong. Hẹn gặp lại thật vui vẻ dưới tiếng trống khai trường chào đón năm học mới.</t>
+          <t>Hoa phượng đỏ báo hiệu hè về, chúng em chia tay mái trường thân yêu. Kỳ nghỉ hè vui vẻ bắt đầu, chúng em sẽ về thăm quê hương. Chúng em cùng gia đình gặt lúa vàng ươm, góp sức nhỏ bé cho vụ mùa. Rồi chúng em tưới nước mát lành, giúp vườn rau của mẹ thêm xanh tốt. Dù xa bạn bè mấy tháng hè, chúng em vẫn luôn nhớ về nhau. Hẹn gặp lại trong tiếng trống khai trường, để cùng nhau học tập và vui chơi.</t>
         </is>
       </c>
       <c r="F333" t="inlineStr"/>
@@ -16366,12 +17278,23 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Ông và ba anh em đã đến Văn Chỉ, nơi thờ mười vị tiến sĩ tài giỏi. Họ cùng ông thủ từ quyết định dọn cỏ và làm đẹp con đường ở đó. Anh Nguyên đề xuất trồng cây trạng nguyên có lá đỏ rực rỡ trước cổng. Em Thư hào hứng xin được tưới nước cho những cây mới được trồng. Hai ngày sau, mọi người cùng nhau trồng hoa tóc tiên và cây trạng nguyên. Giờ đây, lối vào Văn Chỉ thật đẹp, khoe sắc đón khách thăm quan.</t>
+          <t>Chào các em học sinh lớp 5! Các em hãy cùng lắng nghe câu chuyện về việc làm đẹp cho một nơi rất đặc biệt của làng nhé!
+Ông và ba anh em đã đến Văn Chỉ, nơi thờ mười vị tiến sĩ tài giỏi.
+Họ cùng ông thủ từ quyết định dọn cỏ và làm đẹp con đường ở đó.
+Anh Nguyên đề xuất trồng cây trạng nguyên có lá đỏ rực rỡ trước cổng.
+Em Thư hào hứng xin được tưới nước cho những cây mới được trồng.
+Hai ngày sau, mọi người cùng nhau trồng hoa tóc tiên và cây trạng nguyên.
+Giờ đây, lối vào Văn Chỉ thật đẹp, khoe sắc đón khách thăm quan.</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Họ cùng ông thủ từ quyết định dọn cỏ và làm đẹp con đường ở đó. Anh Nguyên đề xuất trồng cây trạng nguyên có lá đỏ rực rỡ trước cổng. Em Thư hào hứng xin được tưới nước cho những cây mới được trồng. Hai ngày sau, mọi người cùng nhau trồng hoa tóc tiên và cây trạng nguyên. Giờ đây, lối vào Văn Chỉ thật đẹp, khoe sắc đón khách thăm quan.</t>
+          <t>Ông và ba anh em đã đến Văn Chỉ, nơi thờ mười vị tiến sĩ tài giỏi.
+Họ cùng ông thủ từ quyết định dọn cỏ và làm đẹp con đường ở đó.
+Anh Nguyên đề xuất trồng cây trạng nguyên có lá đỏ rực rỡ trước cổng.
+Em Thư hào hứng xin được tưới nước cho những cây mới được trồng.
+Hai ngày sau, mọi người cùng nhau trồng hoa tóc tiên và cây trạng nguyên.
+Giờ đây, lối vào Văn Chỉ thật đẹp, khoe sắc đón khách thăm quan.</t>
         </is>
       </c>
       <c r="F334" t="inlineStr"/>
@@ -16423,12 +17346,13 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
+          <t>Chào các em học sinh lớp 5 đáng yêu!
+Bài thơ này kể về chuyến đi chơi rất vui của các bạn nhỏ đến vùng đồi quê. Lớp chúng mình đã có một chuyến đi trải nghiệm thiên nhiên thật thú vị. Ở đó, các bạn vui vẻ ngắm chú sóc leo cây và đàn chim sẻ hót líu lo. Nghe gió kể chuyện về Trái Đất, nơi muôn loài cùng chung sống hòa thuận. Mọi người hiểu cây xanh che bóng mát, giúp cuộc sống thêm tươi đẹp mỗi ngày. Chúng em yêu thiên nhiên trong lành và quyết tâm trồng thật nhiều cây xanh.</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
           <t>Lớp chúng mình đã có một chuyến đi trải nghiệm thiên nhiên thật thú vị. Ở đó, các bạn vui vẻ ngắm chú sóc leo cây và đàn chim sẻ hót líu lo. Nghe gió kể chuyện về Trái Đất, nơi muôn loài cùng chung sống hòa thuận. Mọi người hiểu cây xanh che bóng mát, giúp cuộc sống thêm tươi đẹp mỗi ngày. Chúng em yêu thiên nhiên trong lành và quyết tâm trồng thật nhiều cây xanh.</t>
-        </is>
-      </c>
-      <c r="E335" t="inlineStr">
-        <is>
-          <t>Ở đó, các bạn vui vẻ ngắm chú sóc leo cây và đàn chim sẻ hót líu lo. Nghe gió kể chuyện về Trái Đất, nơi muôn loài cùng chung sống hòa thuận. Mọi người hiểu cây xanh che bóng mát, giúp cuộc sống thêm tươi đẹp mỗi ngày. Chúng em yêu thiên nhiên trong lành và quyết tâm trồng thật nhiều cây xanh.</t>
         </is>
       </c>
       <c r="F335" t="inlineStr"/>
@@ -16465,12 +17389,13 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Ông luôn chăm lo phát triển nông nghiệp, tự mình cày ruộng làm gương. Vua còn khuyến khích dân dùng hàng trong nước, không chuộng hàng ngoại. Đặc biệt, ông ban hành Bộ Hình thư, bộ luật đầu tiên của nước ta. Bộ luật này giúp xử án công bằng hơn và giảm thuế cho dân khi được mùa. Triều đại của Lý Thái Tông rất hưng thịnh, đất nước ta phát triển mạnh mẽ.</t>
+          <t>Chào các em học sinh lớp 5 thân mến! Hôm nay, chúng ta cùng tìm hiểu về một vị vua rất tài giỏi của nước mình nhé:
+Lý Thái Tông là một vị vua rất giỏi giang, tài ba và nhân ái. Ông luôn chăm lo phát triển nông nghiệp, tự mình cày ruộng làm gương. Vua còn khuyến khích dân dùng hàng trong nước, không chuộng hàng ngoại. Đặc biệt, ông ban hành Bộ Hình thư, bộ luật đầu tiên của nước ta. Bộ luật này giúp xử án công bằng hơn và giảm thuế cho dân khi được mùa. Triều đại của Lý Thái Tông rất hưng thịnh, đất nước ta phát triển mạnh mẽ.</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Ông luôn chăm lo phát triển nông nghiệp, tự mình cày ruộng làm gương. Vua còn khuyến khích dân dùng hàng trong nước, không chuộng hàng ngoại. Đặc biệt, ông ban hành Bộ Hình thư, bộ luật đầu tiên của nước ta. Bộ luật này giúp xử án công bằng hơn và giảm thuế cho dân khi được mùa. Triều đại của Lý Thái Tông rất hưng thịnh, đất nước ta phát triển mạnh mẽ.</t>
+          <t>Lý Thái Tông là một vị vua rất giỏi giang, tài ba và nhân ái. Ông luôn chăm lo phát triển nông nghiệp, tự mình cày ruộng làm gương. Vua còn khuyến khích dân dùng hàng trong nước, không chuộng hàng ngoại. Đặc biệt, ông ban hành Bộ Hình thư, bộ luật đầu tiên của nước ta. Bộ luật này giúp xử án công bằng hơn và giảm thuế cho dân khi được mùa. Triều đại của Lý Thái Tông rất hưng thịnh, đất nước ta phát triển mạnh mẽ.</t>
         </is>
       </c>
       <c r="F336" t="inlineStr"/>
@@ -16505,7 +17430,8 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Năm 1945, nước ta đã giành độc lập sau nhiều năm chiến đấu gian khổ. Ngày 2/9, Bác Hồ đọc Tuyên ngôn Độc lập, khai sinh nước Việt Nam. Tuy nhiên, đất nước còn nghèo, ngân khố trống rỗng, cần tiền xây dựng. Chính phủ kêu gọi toàn dân đóng góp ủng hộ Quỹ Độc lập, xây dựng đất nước. "Tuần lễ Vàng" được tổ chức, mọi người nô nức tham gia nhiệt tình. Chỉ sau một tuần, nhân dân đã góp được hàng trăm kilôgam vàng.</t>
+          <t>Chào các em học sinh lớp 5 thân mến! Hôm nay, cô sẽ kể cho các em nghe về một sự kiện rất quan trọng sau khi đất nước mình giành được độc lập nhé.
+Năm 1945, nước ta đã giành độc lập sau nhiều năm chiến đấu gian khổ. Ngày 2/9, Bác Hồ đọc Tuyên ngôn Độc lập, khai sinh nước Việt Nam. Tuy nhiên, đất nước còn nghèo, ngân khố trống rỗng, cần tiền xây dựng. Chính phủ kêu gọi toàn dân đóng góp ủng hộ Quỹ Độc lập, xây dựng đất nước. "Tuần lễ Vàng" được tổ chức, mọi người nô nức tham gia nhiệt tình. Chỉ sau một tuần, nhân dân đã góp được hàng trăm kilôgam vàng.</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
@@ -16558,7 +17484,8 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Bài thơ miêu tả khung cảnh yên bình nơi Bác Hồ từng sống. Nhà cửa và đồ đạc của Bác giản dị, vô cùng thanh bạch. Bác Hồ rất yêu thương các em nhỏ, Người cẩn thận đọc thư các em. Tấm lòng Bác bao la, Người luôn thương yêu mọi người dân. Bác luôn sống vì mọi người, quên đi bản thân mình. Tình yêu thương ấy như dòng sông nặng phù sa, luôn cho đi.</t>
+          <t>Chào các em học sinh lớp 5! Hôm nay, chúng ta cùng tìm hiểu về tấm lòng của Bác Hồ qua bài thơ này nhé.
+Bài thơ miêu tả khung cảnh yên bình nơi Bác Hồ từng sống. Nhà cửa và đồ đạc của Bác giản dị, vô cùng thanh bạch. Bác Hồ rất yêu thương các em nhỏ, Người cẩn thận đọc thư các em. Tấm lòng Bác bao la, Người luôn thương yêu mọi người dân. Bác luôn sống vì mọi người, quên đi bản thân mình. Tình yêu thương ấy như dòng sông nặng phù sa, luôn cho đi.</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
@@ -16598,7 +17525,8 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Năm 2011, Nhật Bản hứng chịu trận động đất rất lớn và sóng thần khủng khiếp. Thiên tai đã khiến nhiều người thiệt mạng, mất nhà cửa và phải di tản. Nhà máy điện hạt nhân cũng bị hư hại nặng nề sau thảm họa đó. Tuy nhiên, người Nhật đã giữ bình tĩnh, rất kỷ luật và giúp đỡ nhau. Họ xếp hàng trật tự, chia sẻ đồ cứu trợ công bằng cho mọi người. Mười năm sau, vùng Tô-hô-kư đã hồi phục và tổ chức sự kiện Ô-lim-pích.</t>
+          <t>Chào các em học sinh thân mến! Hôm nay, chúng ta cùng tìm hiểu về một sự kiện đặc biệt nhé.
+Năm 2011, Nhật Bản hứng chịu trận động đất rất lớn và sóng thần khủng khiếp. Thiên tai đã khiến nhiều người thiệt mạng, mất nhà cửa và phải di tản. Nhà máy điện hạt nhân cũng bị hư hại nặng nề sau thảm họa đó. Tuy nhiên, người Nhật đã giữ bình tĩnh, rất kỷ luật và giúp đỡ nhau. Họ xếp hàng trật tự, chia sẻ đồ cứu trợ công bằng cho mọi người. Mười năm sau, vùng Tô-hô-kư đã hồi phục và tổ chức sự kiện Ô-lim-pích.</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
@@ -16638,12 +17566,13 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Đến năm 1949, chim bồ câu của danh họa Picasso trở thành biểu tượng hòa bình thế giới. Tuy nhiên, hình vẽ chim bồ câu lại khá khó vẽ đối với mọi người. Vì vậy, năm 1958, một biểu tượng hòa bình mới đã được tạo ra ở Anh. Biểu tượng này có hình vòng tròn với chữ N và D lồng vào nhau, tượng trưng "Giải trừ Hạt nhân". Sau này, biểu tượng đó lan rộng khắp nơi, thành dấu hiệu hòa bình toàn cầu.</t>
+          <t>Chào các em học sinh lớp 5, cô sẽ tóm tắt về các biểu tượng hòa bình nhé!
+Từ xa xưa, cây ô liu đã được coi là biểu tượng cho sự hòa bình. Đến năm 1949, chim bồ câu của danh họa Picasso trở thành biểu tượng hòa bình thế giới. Tuy nhiên, hình vẽ chim bồ câu lại khá khó vẽ đối với mọi người. Vì vậy, năm 1958, một biểu tượng hòa bình mới đã được tạo ra ở Anh. Biểu tượng này có hình vòng tròn với chữ N và D lồng vào nhau, tượng trưng "Giải trừ Hạt nhân". Sau này, biểu tượng đó lan rộng khắp nơi, thành dấu hiệu hòa bình toàn cầu.</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Đến năm 1949, chim bồ câu của danh họa Picasso trở thành biểu tượng hòa bình thế giới. Tuy nhiên, hình vẽ chim bồ câu lại khá khó vẽ đối với mọi người. Vì vậy, năm 1958, một biểu tượng hòa bình mới đã được tạo ra ở Anh. Biểu tượng này có hình vòng tròn với chữ N và D lồng vào nhau, tượng trưng "Giải trừ Hạt nhân". Sau này, biểu tượng đó lan rộng khắp nơi, thành dấu hiệu hòa bình toàn cầu.</t>
+          <t>Từ xa xưa, cây ô liu đã được coi là biểu tượng cho sự hòa bình. Đến năm 1949, chim bồ câu của danh họa Picasso trở thành biểu tượng hòa bình thế giới. Tuy nhiên, hình vẽ chim bồ câu lại khá khó vẽ đối với mọi người. Vì vậy, năm 1958, một biểu tượng hòa bình mới đã được tạo ra ở Anh. Biểu tượng này có hình vòng tròn với chữ N và D lồng vào nhau, tượng trưng "Giải trừ Hạt nhân". Sau này, biểu tượng đó lan rộng khắp nơi, thành dấu hiệu hòa bình toàn cầu.</t>
         </is>
       </c>
       <c r="F340" t="inlineStr"/>
@@ -16692,7 +17621,8 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Cô tóm tắt cho các em dễ hiểu nhé:
+          <t>Chào các em học sinh lớp 5 đáng yêu!
+Bài thơ này gửi gắm một thông điệp thật ý nghĩa đấy các em ạ. Cô tóm tắt cho các em dễ hiểu nhé:
 Hành tinh xanh này là ngôi nhà chung của tất cả bạn nhỏ năm châu. Dù khác màu da, chúng mình đều là những bông hoa vô cùng quý giá. Bom đạn nguy hiểm mãi mãi không phải là những người bạn tốt của chúng ta. Cùng nhau giữ gìn hòa bình, lan tỏa niềm vui và tiếng cười khắp nơi. Để Trái Đất luôn tươi trẻ, bình yên và tràn ngập tình yêu thương. Chúng mình hãy chung tay bảo vệ ngôi nhà chung tươi đẹp này nhé!</t>
         </is>
       </c>
@@ -16736,12 +17666,14 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Hai thành phố Hi-rô-si-ma và Na-ga-sa-ki bị phá hủy, hàng trăm nghìn người thiệt mạng. Cô bé Xa-đa-kô hai tuổi thoát chết, nhưng em đã nhiễm phóng xạ nguyên tử độc hại. Mười năm sau, Xa-đa-kô ốm nặng, em tin gấp một nghìn hạc giấy sẽ khỏi bệnh. Xa-đa-kô không qua khỏi, nhưng các bạn nhỏ đã xây tượng đài kêu gọi hòa bình.</t>
+          <t>Chào các em học sinh lớp 5 thân mến,
+Cô sẽ kể cho các em nghe câu chuyện buồn nhưng đầy ý nghĩa về hòa bình nhé!
+Năm 1945, nước Mỹ thả hai quả bom nguyên tử xuống Nhật Bản, gây ra thảm họa lớn. Hai thành phố Hi-rô-si-ma và Na-ga-sa-ki bị phá hủy, hàng trăm nghìn người thiệt mạng. Cô bé Xa-đa-kô hai tuổi thoát chết, nhưng em đã nhiễm phóng xạ nguyên tử độc hại. Mười năm sau, Xa-đa-kô ốm nặng, em tin gấp một nghìn hạc giấy sẽ khỏi bệnh. Xa-đa-kô không qua khỏi, nhưng các bạn nhỏ đã xây tượng đài kêu gọi hòa bình.</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Hai thành phố Hi-rô-si-ma và Na-ga-sa-ki bị phá hủy, hàng trăm nghìn người thiệt mạng. Cô bé Xa-đa-kô hai tuổi thoát chết, nhưng em đã nhiễm phóng xạ nguyên tử độc hại. Mười năm sau, Xa-đa-kô ốm nặng, em tin gấp một nghìn hạc giấy sẽ khỏi bệnh. Xa-đa-kô không qua khỏi, nhưng các bạn nhỏ đã xây tượng đài kêu gọi hòa bình.</t>
+          <t>Năm 1945, nước Mỹ thả hai quả bom nguyên tử xuống Nhật Bản, gây ra thảm họa lớn. Hai thành phố Hi-rô-si-ma và Na-ga-sa-ki bị phá hủy, hàng trăm nghìn người thiệt mạng. Cô bé Xa-đa-kô hai tuổi thoát chết, nhưng em đã nhiễm phóng xạ nguyên tử độc hại. Mười năm sau, Xa-đa-kô ốm nặng, em tin gấp một nghìn hạc giấy sẽ khỏi bệnh. Xa-đa-kô không qua khỏi, nhưng các bạn nhỏ đã xây tượng đài kêu gọi hòa bình.</t>
         </is>
       </c>
       <c r="F342" t="inlineStr"/>
@@ -16776,7 +17708,8 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Năm 1950, cô Ray-mông Điêng quyết ngăn đoàn tàu chở vũ khí sang Việt Nam. Cô nằm xuống đường ray xe lửa, bất chấp nguy hiểm cận kề. Hành động dũng cảm đó khiến đoàn tàu dừng, dù cô sau đó bị bắt giam. Sau này, cô sang thăm Việt Nam, được đón tiếp và gặp Bác Hồ. Cô vẫn tiếp tục đấu tranh cho hòa bình, giúp đỡ trẻ em Việt Nam. Tên cô và sự kiện đặc biệt đó đã được đặt cho các con phố.</t>
+          <t>Chào các em học sinh lớp 5 thân mến! Hôm nay, cô sẽ kể cho các em nghe về một người phụ nữ rất dũng cảm nhé.
+Năm 1950, cô Ray-mông Điêng quyết ngăn đoàn tàu chở vũ khí sang Việt Nam. Cô nằm xuống đường ray xe lửa, bất chấp nguy hiểm cận kề. Hành động dũng cảm đó khiến đoàn tàu dừng, dù cô sau đó bị bắt giam. Sau này, cô sang thăm Việt Nam, được đón tiếp và gặp Bác Hồ. Cô vẫn tiếp tục đấu tranh cho hòa bình, giúp đỡ trẻ em Việt Nam. Tên cô và sự kiện đặc biệt đó đã được đặt cho các con phố.</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
@@ -16836,12 +17769,13 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Trăng có thể từ cánh rừng xa hoặc biển xanh diệu kỳ. Trăng hóa thành quả chín, mắt cá hay quả bóng bay lên trời. Trăng còn gắn liền lời mẹ ru và bước chân chú bộ đội vững vàng. Dù đi đâu, Trăng sáng nhất vẫn là đất nước Việt Nam thân yêu của chúng ta.</t>
+          <t>Chào các bạn học sinh lớp 5 đáng yêu!
+Bài thơ này thật đáng yêu khi tò mò về nguồn gốc của Mặt Trăng. Trăng có thể từ cánh rừng xa hoặc biển xanh diệu kỳ. Trăng hóa thành quả chín, mắt cá hay quả bóng bay lên trời. Trăng còn gắn liền lời mẹ ru và bước chân chú bộ đội vững vàng. Dù đi đâu, Trăng sáng nhất vẫn là đất nước Việt Nam thân yêu của chúng ta.</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Trăng có thể từ cánh rừng xa hoặc biển xanh diệu kỳ. Trăng hóa thành quả chín, mắt cá hay quả bóng bay lên trời. Trăng còn gắn liền lời mẹ ru và bước chân chú bộ đội vững vàng. Dù đi đâu, Trăng sáng nhất vẫn là đất nước Việt Nam thân yêu của chúng ta.</t>
+          <t>Bài thơ này thật đáng yêu khi tò mò về nguồn gốc của Mặt Trăng. Trăng có thể từ cánh rừng xa hoặc biển xanh diệu kỳ. Trăng hóa thành quả chín, mắt cá hay quả bóng bay lên trời. Trăng còn gắn liền lời mẹ ru và bước chân chú bộ đội vững vàng. Dù đi đâu, Trăng sáng nhất vẫn là đất nước Việt Nam thân yêu của chúng ta.</t>
         </is>
       </c>
       <c r="F344" t="inlineStr"/>
@@ -16877,14 +17811,17 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
+          <t>Chào các em học sinh lớp 5! Hôm nay, chúng ta cùng tìm hiểu về một nhà khoa học rất đáng kính của Việt Nam nhé!
+***
+**Tóm tắt về Giáo sư Nguyễn Quang Riệu:**
+Giáo sư Nguyễn Quang Riệu là nhà thiên văn học nổi tiếng của Việt Nam. Năm 1995, ông về Phan Thiết quan sát hiện tượng nhật thực toàn phần. Từ nhỏ, ông đã rất yêu thích và muốn khám phá bầu trời. Ông trở thành giáo sư giỏi, đạt nhiều giải thưởng khoa học lớn. Ông còn giúp đỡ quê hương phát triển ngành thiên văn học. Vì những đóng góp to lớn, ông được giải Vinh danh nước Việt.</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
           <t>***
 **Tóm tắt về Giáo sư Nguyễn Quang Riệu:**
 Giáo sư Nguyễn Quang Riệu là nhà thiên văn học nổi tiếng của Việt Nam. Năm 1995, ông về Phan Thiết quan sát hiện tượng nhật thực toàn phần. Từ nhỏ, ông đã rất yêu thích và muốn khám phá bầu trời. Ông trở thành giáo sư giỏi, đạt nhiều giải thưởng khoa học lớn. Ông còn giúp đỡ quê hương phát triển ngành thiên văn học. Vì những đóng góp to lớn, ông được giải Vinh danh nước Việt.</t>
-        </is>
-      </c>
-      <c r="E345" t="inlineStr">
-        <is>
-          <t>Giáo sư Nguyễn Quang Riệu là nhà thiên văn học nổi tiếng của Việt Nam. Năm 1995, ông về Phan Thiết quan sát hiện tượng nhật thực toàn phần. Từ nhỏ, ông đã rất yêu thích và muốn khám phá bầu trời. Ông trở thành giáo sư giỏi, đạt nhiều giải thưởng khoa học lớn. Ông còn giúp đỡ quê hương phát triển ngành thiên văn học. Vì những đóng góp to lớn, ông được giải Vinh danh nước Việt.</t>
         </is>
       </c>
       <c r="F345" t="inlineStr"/>
@@ -16921,7 +17858,8 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Bác sĩ Phơ-gu-xơn hạ khí cầu, dân làng tưởng nhầm họ là Thần Mặt Trăng. Ông được mời vào chữa bệnh cho vị vua ốm nặng, đã hồi phục rất nhanh. Niềm vui không kéo dài, dân làng tức giận khi thấy thêm một Thần Mặt Trăng. Họ nghĩ các nhà du hành lừa dối, lập tức vây hãm muốn tấn công. Chiếc khí cầu vút bay lên cao, đưa theo cả lão phù thủy bám vào neo. Bác sĩ thả lão xuống, rồi họ bay xa, thoát hiểm an toàn.</t>
+          <t>Chào các em học sinh lớp 5! Hôm nay, chúng ta cùng tóm tắt câu chuyện thú vị về những nhà du hành khí cầu nhé!
+Bác sĩ Phơ-gu-xơn hạ khí cầu, dân làng tưởng nhầm họ là Thần Mặt Trăng. Ông được mời vào chữa bệnh cho vị vua ốm nặng, đã hồi phục rất nhanh. Niềm vui không kéo dài, dân làng tức giận khi thấy thêm một Thần Mặt Trăng. Họ nghĩ các nhà du hành lừa dối, lập tức vây hãm muốn tấn công. Chiếc khí cầu vút bay lên cao, đưa theo cả lão phù thủy bám vào neo. Bác sĩ thả lão xuống, rồi họ bay xa, thoát hiểm an toàn.</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
@@ -16960,7 +17898,8 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Mặt Trăng thật xa xôi; máy bay và tàu hỏa không thể đưa chúng ta tới đó. Máy bay cần không khí để bay và không thể vượt qua sức hút Trái Đất. Để đến Mặt Trăng, con người cần tên lửa đặc biệt vượt qua mọi khó khăn. Tên lửa rất to lớn, bay cực nhanh, có thể đạt 11,2 kilômét mỗi giây. Một chuyến đi về Mặt Trăng, kể cả nghỉ ngơi, chỉ mất tám ngày. Các bạn hãy rèn luyện sức khỏe để chuẩn bị cho hành trình thú vị này!</t>
+          <t>Chào các em học sinh lớp 5! Hôm nay, chúng ta sẽ cùng khám phá xem làm thế nào để du hành tới Mặt Trăng nhé.
+Mặt Trăng thật xa xôi; máy bay và tàu hỏa không thể đưa chúng ta tới đó. Máy bay cần không khí để bay và không thể vượt qua sức hút Trái Đất. Để đến Mặt Trăng, con người cần tên lửa đặc biệt vượt qua mọi khó khăn. Tên lửa rất to lớn, bay cực nhanh, có thể đạt 11,2 kilômét mỗi giây. Một chuyến đi về Mặt Trăng, kể cả nghỉ ngơi, chỉ mất tám ngày. Các bạn hãy rèn luyện sức khỏe để chuẩn bị cho hành trình thú vị này!</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
@@ -17016,7 +17955,8 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Khu trại hè đã tập hợp rất nhiều bạn nhỏ đến từ khắp thế giới. Các bạn từ Trung Quốc, châu Mỹ, sông Đa-nuýp và cả Việt Nam. Họ có màu da, ngôn ngữ riêng biệt, nhưng cùng chung niềm vui. Mọi người cùng nhau thả những chú chim bồ câu trắng lên bầu trời. Mỗi bạn nhỏ gửi gắm vào đó ước mơ về tình bạn và hòa bình. Cảnh bầu trời rợp chim trắng, nắng chan hòa thật đẹp, đầy ý nghĩa.</t>
+          <t>Chào các em học sinh lớp 5 đáng yêu! Hôm nay chúng ta cùng khám phá một bài thơ hay về tình bạn nhé.
+Khu trại hè đã tập hợp rất nhiều bạn nhỏ đến từ khắp thế giới. Các bạn từ Trung Quốc, châu Mỹ, sông Đa-nuýp và cả Việt Nam. Họ có màu da, ngôn ngữ riêng biệt, nhưng cùng chung niềm vui. Mọi người cùng nhau thả những chú chim bồ câu trắng lên bầu trời. Mỗi bạn nhỏ gửi gắm vào đó ước mơ về tình bạn và hòa bình. Cảnh bầu trời rợp chim trắng, nắng chan hòa thật đẹp, đầy ý nghĩa.</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
@@ -17068,12 +18008,13 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>Cô dạy các em hát dân ca Việt Nam và cùng nhau vui chơi. Cô còn hướng dẫn các em trồng rau xanh và xây những ngôi nhà. Nhờ cô, nhiều gia đình tị nạn có nhà mới, không ở lều trại. Những khu vườn cải vàng rực rỡ và tiếng cười trẻ thơ vang khắp. Cô giáo đã mang niềm hy vọng và cuộc sống ấm no hơn.</t>
+          <t>Chào các em học sinh lớp 5! Các em hãy cùng tìm hiểu về một câu chuyện đẹp này nhé:
+Một cô gái Việt Nam mang tình yêu thương đến trẻ em châu Phi. Cô dạy các em hát dân ca Việt Nam và cùng nhau vui chơi. Cô còn hướng dẫn các em trồng rau xanh và xây những ngôi nhà. Nhờ cô, nhiều gia đình tị nạn có nhà mới, không ở lều trại. Những khu vườn cải vàng rực rỡ và tiếng cười trẻ thơ vang khắp. Cô giáo đã mang niềm hy vọng và cuộc sống ấm no hơn.</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Cô dạy các em hát dân ca Việt Nam và cùng nhau vui chơi. Cô còn hướng dẫn các em trồng rau xanh và xây những ngôi nhà. Nhờ cô, nhiều gia đình tị nạn có nhà mới, không ở lều trại. Những khu vườn cải vàng rực rỡ và tiếng cười trẻ thơ vang khắp. Cô giáo đã mang niềm hy vọng và cuộc sống ấm no hơn.</t>
+          <t>Một cô gái Việt Nam mang tình yêu thương đến trẻ em châu Phi. Cô dạy các em hát dân ca Việt Nam và cùng nhau vui chơi. Cô còn hướng dẫn các em trồng rau xanh và xây những ngôi nhà. Nhờ cô, nhiều gia đình tị nạn có nhà mới, không ở lều trại. Những khu vườn cải vàng rực rỡ và tiếng cười trẻ thơ vang khắp. Cô giáo đã mang niềm hy vọng và cuộc sống ấm no hơn.</t>
         </is>
       </c>
       <c r="F349" t="inlineStr"/>
@@ -17105,7 +18046,8 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>Ngày xưa, một con cú già sống bình yên trên cây sồi cao lớn. Nó thường lặng lẽ quan sát cuộc sống và mọi người xung quanh. Dần dần, con cú học cách lắng nghe nhiều hơn là nói ra. Nó nghe thấy nhiều câu chuyện thú vị, cả những điều lạ kỳ. Chính nhờ việc lắng nghe, con cú trở nên vô cùng thông thái. Từ đó, sự khôn ngoan của nó được mọi người khắp nơi biết đến.</t>
+          <t>Chào các em học sinh lớp 5! Hãy cùng khám phá câu chuyện thú vị về con cú già nhé!
+Ngày xưa, một con cú già sống bình yên trên cây sồi cao lớn. Nó thường lặng lẽ quan sát cuộc sống và mọi người xung quanh. Dần dần, con cú học cách lắng nghe nhiều hơn là nói ra. Nó nghe thấy nhiều câu chuyện thú vị, cả những điều lạ kỳ. Chính nhờ việc lắng nghe, con cú trở nên vô cùng thông thái. Từ đó, sự khôn ngoan của nó được mọi người khắp nơi biết đến.</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
